--- a/data-raw/su_translations.xlsx
+++ b/data-raw/su_translations.xlsx
@@ -11,7 +11,7 @@
     <sheet name="translations" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$D$622</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$D$626</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="1591">
   <si>
     <t xml:space="preserve">@ note: comments are marked with @ and sections are marked with @@</t>
   </si>
@@ -4637,6 +4637,33 @@
   </si>
   <si>
     <t xml:space="preserve">en italien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French</t>
+  </si>
+  <si>
+    <t xml:space="preserve">francés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">français</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">español</t>
+  </si>
+  <si>
+    <t xml:space="preserve">espagnol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">italien</t>
   </si>
   <si>
     <t xml:space="preserve">@@ progress messages in app</t>
@@ -4856,7 +4883,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4866,10 +4893,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4894,10 +4917,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D622"/>
+  <dimension ref="A1:D626"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A577" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A610" activeCellId="0" sqref="A610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10171,7 +10194,7 @@
       <c r="C430" s="0" t="s">
         <v>1049</v>
       </c>
-      <c r="D430" s="3" t="s">
+      <c r="D430" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -10185,7 +10208,7 @@
       <c r="C431" s="0" t="s">
         <v>1053</v>
       </c>
-      <c r="D431" s="3" t="s">
+      <c r="D431" s="1" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -10743,7 +10766,7 @@
       <c r="B474" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="C474" s="4" t="s">
+      <c r="C474" s="3" t="s">
         <v>1165</v>
       </c>
       <c r="D474" s="0" t="s">
@@ -11023,7 +11046,7 @@
       <c r="B494" s="0" t="s">
         <v>1214</v>
       </c>
-      <c r="C494" s="4" t="s">
+      <c r="C494" s="3" t="s">
         <v>1215</v>
       </c>
       <c r="D494" s="0" t="s">
@@ -12580,205 +12603,250 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B608" s="0" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C608" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D608" s="0" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B609" s="0" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C609" s="0" t="s">
-        <v>1540</v>
+        <v>1541</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>1542</v>
       </c>
       <c r="D609" s="0" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="0" t="s">
-        <v>1542</v>
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="2" t="s">
+        <v>1544</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="C610" s="0" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D610" s="0" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="0" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B611" s="0" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C611" s="0" t="s">
         <v>1546</v>
       </c>
-      <c r="D611" s="0" t="s">
-        <v>1547</v>
-      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="2"/>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B612" s="0" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C612" s="0" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D612" s="0" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="D613" s="0" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="D615" s="0" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="D617" s="0" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="D618" s="0" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="D619" s="0" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B622" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C622" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D622" s="0" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B623" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C623" s="0" t="s">
         <v>1579</v>
       </c>
-      <c r="B622" s="0" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C622" s="0" t="s">
+      <c r="D623" s="0" t="s">
         <v>1580</v>
       </c>
-      <c r="D622" s="0" t="s">
+    </row>
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="0" t="s">
         <v>1581</v>
+      </c>
+      <c r="B624" s="0" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C624" s="0" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D624" s="0" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B625" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C625" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D625" s="0" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B626" s="0" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C626" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D626" s="0" t="s">
+        <v>1590</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/su_translations.xlsx
+++ b/data-raw/su_translations.xlsx
@@ -1867,12 +1867,6 @@
     <t xml:space="preserve">compte-rendu du joueur</t>
   </si>
   <si>
-    <t xml:space="preserve">contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contacto</t>
-  </si>
-  <si>
     <t xml:space="preserve">report by</t>
   </si>
   <si>
@@ -4664,6 +4658,12 @@
   </si>
   <si>
     <t xml:space="preserve">italien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contacto:</t>
   </si>
   <si>
     <t xml:space="preserve">@@ progress messages in app</t>
@@ -4917,10 +4917,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D626"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A577" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A610" activeCellId="0" sqref="A610"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A267" activeCellId="0" sqref="A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8096,172 +8096,172 @@
         <v>615</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>628</v>
+        <v>218</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>628</v>
+        <v>218</v>
       </c>
       <c r="C272" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D272" s="0" t="s">
         <v>629</v>
-      </c>
-      <c r="D272" s="0" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>218</v>
+        <v>630</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>218</v>
+        <v>630</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>218</v>
+        <v>631</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D279" s="0" t="s">
         <v>649</v>
@@ -8278,63 +8278,63 @@
         <v>651</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C284" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="D284" s="0" t="s">
         <v>662</v>
-      </c>
-      <c r="D284" s="0" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8362,68 +8362,68 @@
         <v>667</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="B287" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="C287" s="0" t="s">
         <v>669</v>
       </c>
-      <c r="D287" s="0" t="s">
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="0" t="s">
+      <c r="B288" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>671</v>
+      </c>
+      <c r="D288" s="0" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="C289" s="2" t="s">
         <v>673</v>
       </c>
+      <c r="C289" s="0" t="s">
+        <v>674</v>
+      </c>
       <c r="D289" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C291" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="D291" s="0" t="s">
         <v>679</v>
-      </c>
-      <c r="D291" s="0" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8437,7 +8437,7 @@
         <v>682</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8451,49 +8451,49 @@
         <v>684</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="C295" s="0" t="s">
         <v>689</v>
       </c>
+      <c r="C295" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="D295" s="0" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>691</v>
-      </c>
-      <c r="C296" s="2" t="s">
         <v>692</v>
       </c>
+      <c r="C296" s="0" t="s">
+        <v>693</v>
+      </c>
       <c r="D296" s="0" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8507,152 +8507,152 @@
         <v>695</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D300" s="0" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
         <v>705</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="C301" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="D301" s="0" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>707</v>
+        <v>706</v>
+      </c>
+      <c r="B303" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="C303" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>707</v>
+      </c>
+      <c r="C304" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="B304" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="C304" s="0" t="s">
-        <v>51</v>
-      </c>
       <c r="D304" s="0" t="s">
-        <v>52</v>
+        <v>709</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C309" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="D309" s="0" t="s">
         <v>722</v>
-      </c>
-      <c r="D309" s="0" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8680,530 +8680,530 @@
         <v>727</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="B339" s="0" t="s">
-        <v>809</v>
-      </c>
-      <c r="C339" s="0" t="s">
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
         <v>810</v>
-      </c>
-      <c r="D339" s="0" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="C341" s="0" t="s">
         <v>812</v>
+      </c>
+      <c r="D341" s="0" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C350" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="D350" s="0" t="s">
         <v>838</v>
-      </c>
-      <c r="D350" s="0" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9217,60 +9217,60 @@
         <v>841</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>852</v>
+        <v>488</v>
       </c>
       <c r="D355" s="0" t="s">
         <v>853</v>
@@ -9284,459 +9284,459 @@
         <v>854</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>488</v>
+        <v>855</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="0" t="s">
         <v>877</v>
       </c>
-      <c r="B364" s="0" t="s">
-        <v>877</v>
-      </c>
-      <c r="C364" s="0" t="s">
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
         <v>878</v>
-      </c>
-      <c r="D364" s="0" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="C366" s="0" t="s">
         <v>880</v>
+      </c>
+      <c r="D366" s="0" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D384" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>935</v>
-      </c>
-      <c r="C385" s="0" t="s">
         <v>936</v>
-      </c>
-      <c r="D385" s="0" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="C386" s="0" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="0" t="s">
+      <c r="D386" s="0" t="s">
         <v>939</v>
       </c>
-      <c r="B387" s="0" t="s">
-        <v>939</v>
-      </c>
-      <c r="C387" s="0" t="s">
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
         <v>940</v>
-      </c>
-      <c r="D387" s="0" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>942</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>943</v>
-      </c>
-      <c r="C390" s="1" t="s">
         <v>944</v>
       </c>
+      <c r="C390" s="0" t="s">
+        <v>945</v>
+      </c>
       <c r="D390" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D391" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9747,380 +9747,380 @@
         <v>952</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D393" s="0" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>953</v>
+      </c>
+      <c r="C394" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="B394" s="0" t="s">
-        <v>954</v>
-      </c>
-      <c r="C394" s="0" t="s">
-        <v>953</v>
-      </c>
       <c r="D394" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D396" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D397" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D398" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D400" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D401" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D402" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D403" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D404" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D405" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
         <v>991</v>
       </c>
-      <c r="B407" s="0" t="s">
-        <v>991</v>
-      </c>
-      <c r="C407" s="0" t="s">
+    </row>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
         <v>992</v>
-      </c>
-      <c r="D407" s="0" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>993</v>
+      </c>
+      <c r="C409" s="0" t="s">
         <v>994</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>995</v>
-      </c>
-      <c r="C410" s="0" t="s">
         <v>996</v>
       </c>
+      <c r="C410" s="1" t="s">
+        <v>997</v>
+      </c>
       <c r="D410" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D411" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C412" s="1" t="s">
         <v>1002</v>
       </c>
+      <c r="C412" s="0" t="s">
+        <v>1003</v>
+      </c>
       <c r="D412" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D413" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D414" s="0" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C415" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="D415" s="0" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C416" s="0" t="s">
         <v>1016</v>
-      </c>
-      <c r="D416" s="0" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C417" s="0" t="s">
         <v>1018</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D418" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C419" s="0" t="s">
         <v>1023</v>
-      </c>
-      <c r="D419" s="0" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B420" s="0" t="s">
         <v>1025</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="D421" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B422" s="0" t="s">
         <v>1031</v>
-      </c>
-      <c r="C422" s="0" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D422" s="0" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B423" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C423" s="0" t="s">
         <v>1033</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10128,295 +10128,295 @@
         <v>1034</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>355</v>
+        <v>1017</v>
       </c>
       <c r="C424" s="0" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D424" s="0" t="s">
         <v>1035</v>
       </c>
-      <c r="D424" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
+    </row>
+    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="s">
         <v>1036</v>
-      </c>
-      <c r="B425" s="0" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C425" s="0" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D425" s="0" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B427" s="0" t="s">
         <v>1038</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D427" s="0" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="D428" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D429" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D431" s="1" t="s">
         <v>1054</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D432" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C433" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D433" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D434" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C435" s="0" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D435" s="0" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C436" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D436" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C437" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="D437" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C438" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D438" s="0" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="D439" s="0" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D440" s="0" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D441" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D442" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C443" s="0" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D443" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C444" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D444" s="0" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D445" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C446" s="0" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D446" s="0" t="s">
         <v>1100</v>
@@ -10424,44 +10424,44 @@
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C447" s="0" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D447" s="0" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C448" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D448" s="0" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C449" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D449" s="0" t="s">
         <v>1109</v>
-      </c>
-      <c r="D449" s="0" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10475,21 +10475,21 @@
         <v>1112</v>
       </c>
       <c r="D450" s="0" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C451" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D451" s="0" t="s">
         <v>1114</v>
-      </c>
-      <c r="D451" s="0" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10503,21 +10503,21 @@
         <v>1117</v>
       </c>
       <c r="D452" s="0" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C453" s="0" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D453" s="0" t="s">
         <v>1119</v>
-      </c>
-      <c r="D453" s="0" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10531,87 +10531,87 @@
         <v>1122</v>
       </c>
       <c r="D454" s="0" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D455" s="0" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C456" s="0" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D456" s="0" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B457" s="0" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C457" s="0" t="s">
         <v>1130</v>
-      </c>
-      <c r="D457" s="0" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B458" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C458" s="0" t="s">
         <v>1132</v>
+      </c>
+      <c r="D458" s="0" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B459" s="0" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C459" s="0" t="s">
         <v>1134</v>
-      </c>
-      <c r="D459" s="0" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C460" s="0" t="s">
         <v>1136</v>
+      </c>
+      <c r="D460" s="0" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D461" s="0" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10622,99 +10622,99 @@
         <v>1140</v>
       </c>
       <c r="C462" s="0" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D462" s="0" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="0" t="s">
         <v>1141</v>
-      </c>
-      <c r="D462" s="0" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="0" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B463" s="0" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C463" s="0" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D463" s="0" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C465" s="0" t="s">
         <v>1143</v>
+      </c>
+      <c r="D465" s="0" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D466" s="0" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C467" s="0" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D467" s="0" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C468" s="0" t="s">
         <v>1151</v>
       </c>
       <c r="D468" s="0" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C469" s="0" t="s">
         <v>1153</v>
       </c>
       <c r="D469" s="0" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C470" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D470" s="0" t="s">
         <v>1155</v>
-      </c>
-      <c r="D470" s="0" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10728,21 +10728,21 @@
         <v>1158</v>
       </c>
       <c r="D471" s="0" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C472" s="0" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D472" s="0" t="s">
         <v>1160</v>
-      </c>
-      <c r="D472" s="0" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10752,61 +10752,61 @@
       <c r="B473" s="0" t="s">
         <v>1162</v>
       </c>
-      <c r="C473" s="0" t="s">
+      <c r="C473" s="3" t="s">
         <v>1163</v>
       </c>
       <c r="D473" s="0" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C474" s="3" t="s">
         <v>1165</v>
       </c>
+      <c r="C474" s="0" t="s">
+        <v>1166</v>
+      </c>
       <c r="D474" s="0" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C475" s="0" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D475" s="0" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C476" s="0" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="D476" s="0" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C477" s="0" t="s">
         <v>1174</v>
@@ -10837,24 +10837,24 @@
         <v>1178</v>
       </c>
       <c r="C479" s="0" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D479" s="0" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C480" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D480" s="0" t="s">
         <v>1181</v>
-      </c>
-      <c r="D480" s="0" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10868,161 +10868,161 @@
         <v>1184</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C482" s="0" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D482" s="0" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C483" s="0" t="s">
         <v>1189</v>
       </c>
       <c r="D483" s="0" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C484" s="0" t="s">
         <v>1191</v>
       </c>
       <c r="D484" s="0" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C485" s="0" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D485" s="0" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C486" s="0" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D486" s="0" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C487" s="0" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D487" s="0" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C488" s="0" t="s">
         <v>1202</v>
       </c>
       <c r="D488" s="0" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C489" s="0" t="s">
         <v>1204</v>
       </c>
       <c r="D489" s="0" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C490" s="0" t="s">
         <v>1206</v>
       </c>
       <c r="D490" s="0" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C491" s="0" t="s">
         <v>1208</v>
       </c>
       <c r="D491" s="0" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C492" s="0" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D492" s="0" t="s">
         <v>1210</v>
-      </c>
-      <c r="D492" s="0" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11032,30 +11032,30 @@
       <c r="B493" s="0" t="s">
         <v>1212</v>
       </c>
-      <c r="C493" s="0" t="s">
+      <c r="C493" s="3" t="s">
         <v>1213</v>
       </c>
       <c r="D493" s="0" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B494" s="0" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C494" s="3" t="s">
         <v>1215</v>
-      </c>
-      <c r="D494" s="0" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B495" s="0" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C495" s="0" t="s">
         <v>1217</v>
+      </c>
+      <c r="D495" s="0" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11069,49 +11069,49 @@
         <v>1219</v>
       </c>
       <c r="D496" s="0" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C497" s="0" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D497" s="0" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C498" s="0" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D498" s="0" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C499" s="0" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D499" s="0" t="s">
         <v>1227</v>
-      </c>
-      <c r="D499" s="0" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11125,43 +11125,43 @@
         <v>1230</v>
       </c>
       <c r="D500" s="0" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C501" s="0" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D501" s="0" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C502" s="0" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D502" s="0" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C503" s="0" t="s">
         <v>1238</v>
@@ -11178,21 +11178,21 @@
         <v>1240</v>
       </c>
       <c r="C504" s="0" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D504" s="0" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C505" s="0" t="s">
-        <v>1243</v>
+        <v>1158</v>
       </c>
       <c r="D505" s="0" t="s">
         <v>1244</v>
@@ -11206,32 +11206,32 @@
         <v>1245</v>
       </c>
       <c r="C506" s="0" t="s">
-        <v>1160</v>
+        <v>1246</v>
       </c>
       <c r="D506" s="0" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C507" s="0" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D507" s="0" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C508" s="0" t="s">
         <v>1251</v>
@@ -11248,24 +11248,24 @@
         <v>1253</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C510" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D510" s="0" t="s">
         <v>1256</v>
-      </c>
-      <c r="D510" s="0" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11279,21 +11279,21 @@
         <v>1259</v>
       </c>
       <c r="D511" s="0" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C512" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D512" s="0" t="s">
         <v>1261</v>
-      </c>
-      <c r="D512" s="0" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11307,7 +11307,7 @@
         <v>1264</v>
       </c>
       <c r="D513" s="0" t="s">
-        <v>1263</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11321,110 +11321,110 @@
         <v>1266</v>
       </c>
       <c r="D514" s="0" t="s">
-        <v>1161</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="D515" s="0" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="0" t="s">
         <v>1270</v>
       </c>
-      <c r="B516" s="0" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C516" s="0" t="s">
+    </row>
+    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
         <v>1271</v>
-      </c>
-      <c r="D516" s="0" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C518" s="0" t="s">
         <v>1273</v>
+      </c>
+      <c r="D518" s="0" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C519" s="0" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D519" s="0" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D520" s="0" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D521" s="0" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D522" s="0" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D523" s="0" t="s">
         <v>1286</v>
-      </c>
-      <c r="B523" s="0" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C523" s="0" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D523" s="0" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11438,413 +11438,413 @@
         <v>1290</v>
       </c>
       <c r="D524" s="0" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D525" s="0" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C526" s="0" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D526" s="0" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D527" s="0" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D528" s="0" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C530" s="0" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D530" s="0" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C531" s="0" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="D532" s="0" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D533" s="0" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D534" s="0" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C535" s="0" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D535" s="0" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C536" s="0" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="D536" s="0" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C537" s="0" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D537" s="0" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C538" s="0" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="D538" s="0" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C539" s="0" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D539" s="0" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D540" s="0" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="D541" s="0" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D542" s="0" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D543" s="0" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C544" s="0" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D544" s="0" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C545" s="0" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D545" s="0" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="D546" s="0" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="D547" s="0" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D548" s="0" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="D549" s="0" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="D551" s="0" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="D552" s="0" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C553" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D553" s="0" t="s">
         <v>1376</v>
-      </c>
-      <c r="D553" s="0" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11858,651 +11858,651 @@
         <v>1379</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="D556" s="0" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D557" s="0" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D559" s="0" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D560" s="0" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C561" s="0" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D561" s="0" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D562" s="0" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C563" s="0" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="D563" s="0" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D564" s="0" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D565" s="0" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C566" s="0" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D566" s="0" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C567" s="0" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D567" s="0" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="C568" s="0" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D568" s="0" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="D569" s="0" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="D570" s="0" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D571" s="0" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C572" s="0" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D572" s="0" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="D573" s="0" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="C574" s="0" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D574" s="0" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="C575" s="0" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D575" s="0" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D576" s="0" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D577" s="0" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D578" s="0" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="D579" s="0" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D580" s="0" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C581" s="0" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="D581" s="0" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C582" s="0" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="D582" s="0" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C583" s="0" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="D583" s="0" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C584" s="0" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="D584" s="0" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="D585" s="0" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C586" s="0" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D586" s="0" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C587" s="0" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D587" s="0" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="D588" s="0" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="D589" s="0" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D590" s="0" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C591" s="0" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D591" s="0" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C592" s="0" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D592" s="0" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="C595" s="0" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="D595" s="0" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="D596" s="0" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="C597" s="0" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D597" s="0" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D598" s="0" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D599" s="0" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="C600" s="0" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D600" s="0" t="s">
         <v>1516</v>
-      </c>
-      <c r="D600" s="0" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12516,138 +12516,136 @@
         <v>1519</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="D602" s="0" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="C603" s="0" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D604" s="0" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B605" s="0" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C605" s="0" t="s">
         <v>1530</v>
       </c>
+      <c r="B605" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>1531</v>
+      </c>
       <c r="D605" s="0" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="0" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B606" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C606" s="2" t="s">
+      <c r="A606" s="2" t="s">
         <v>1533</v>
       </c>
+      <c r="B606" s="0" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C606" s="0" t="s">
+        <v>1534</v>
+      </c>
       <c r="D606" s="0" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="2" t="s">
-        <v>1535</v>
+      <c r="A607" s="0" t="s">
+        <v>1536</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B608" s="0" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C608" s="0" t="s">
         <v>1539</v>
       </c>
+      <c r="B608" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>1540</v>
+      </c>
       <c r="D608" s="0" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="0" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B609" s="1" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C609" s="2" t="s">
+      <c r="A609" s="2" t="s">
         <v>1542</v>
       </c>
+      <c r="B609" s="0" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C609" s="0" t="s">
+        <v>1543</v>
+      </c>
       <c r="D609" s="0" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="2" t="s">
         <v>1544</v>
       </c>
+    </row>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="0" t="s">
+        <v>1545</v>
+      </c>
       <c r="B610" s="0" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C610" s="0" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D610" s="0" t="s">
         <v>1545</v>
       </c>
-      <c r="D610" s="0" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="2"/>
-    </row>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
         <v>1547</v>
@@ -12849,6 +12847,7 @@
         <v>1590</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data-raw/su_translations.xlsx
+++ b/data-raw/su_translations.xlsx
@@ -11,7 +11,7 @@
     <sheet name="translations" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$D$626</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$D$628</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="1591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="1600">
   <si>
     <t xml:space="preserve">@ note: comments are marked with @ and sections are marked with @@</t>
   </si>
@@ -346,22 +346,22 @@
     <t xml:space="preserve">réception excellente/bonne uniquement</t>
   </si>
   <si>
-    <t xml:space="preserve">setter shifted to 2 (perfect (#)/positive (+)/ok (!) reception only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colocador desplazado a zona 2 (recepción perfecta (#)/positiva (+)/exclamativa (!) solamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passeur décalé en 2 (réception parfaite(#)/bonne(+)/moyenne(!) uniquement)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setter shifted to 4 (perfect (#)/positive (+)/ok (!) reception only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colocador desplazado a zona 4 (recepción perfecta (#)/positiva (+)/exclamativa (!) solamente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">passeur décalé en 4 (réception parfaite(#)/bonne(+)/moyenne(!) uniquement)</t>
+    <t xml:space="preserve">Setter shifted to 2 (perfect (#)/good (+)/OK (!) reception only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colocador desplazado a zona 2 (recepción perfecta (#)/positiva (+)/exclamativa (!) solamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passeur décalé en 2 (réception parfaite(#)/bonne(+)/moyenne(!) uniquement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setter shifted to 4 (perfect (#)/good (+)/OK (!) reception only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colocador desplazado a zona 4 (recepción perfecta (#)/positiva (+)/exclamativa (!) solamente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passeur décalé en 4 (réception parfaite(#)/bonne(+)/moyenne(!) uniquement)</t>
   </si>
   <si>
     <t xml:space="preserve">in transition</t>
@@ -4081,6 +4081,15 @@
     <t xml:space="preserve">Filtre de match:</t>
   </si>
   <si>
+    <t xml:space="preserve">Filter by filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrar por nombre de archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrer par nom de fichier</t>
+  </si>
+  <si>
     <t xml:space="preserve">No filter applied.</t>
   </si>
   <si>
@@ -4090,6 +4099,15 @@
     <t xml:space="preserve">Sans filtres.</t>
   </si>
   <si>
+    <t xml:space="preserve">Apply filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicar filtros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appliquer le filtre</t>
+  </si>
+  <si>
     <t xml:space="preserve">matches selected</t>
   </si>
   <si>
@@ -4102,7 +4120,7 @@
     <t xml:space="preserve">Modify filter</t>
   </si>
   <si>
-    <t xml:space="preserve">Modificar filtos</t>
+    <t xml:space="preserve">Modificar filtros</t>
   </si>
   <si>
     <t xml:space="preserve">Modifier le filtre</t>
@@ -4796,6 +4814,15 @@
   </si>
   <si>
     <t xml:space="preserve">compilation du compte-rendu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preprocessing data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">procesando datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">des données en traitement</t>
   </si>
 </sst>
 </file>
@@ -4844,8 +4871,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -4883,7 +4910,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4893,6 +4920,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4909,6 +4940,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4917,10 +5008,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D629"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A267" activeCellId="0" sqref="A267"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A509" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B532" activeCellId="0" sqref="B532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5450,7 +5541,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>107</v>
       </c>
@@ -5464,7 +5555,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>110</v>
       </c>
@@ -11721,14 +11812,14 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
         <v>1352</v>
       </c>
       <c r="B545" s="0" t="s">
         <v>1352</v>
       </c>
-      <c r="C545" s="0" t="s">
+      <c r="C545" s="4" t="s">
         <v>1353</v>
       </c>
       <c r="D545" s="0" t="s">
@@ -11749,14 +11840,14 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
         <v>1358</v>
       </c>
       <c r="B547" s="0" t="s">
         <v>1358</v>
       </c>
-      <c r="C547" s="0" t="s">
+      <c r="C547" s="3" t="s">
         <v>1359</v>
       </c>
       <c r="D547" s="0" t="s">
@@ -11844,35 +11935,35 @@
         <v>1377</v>
       </c>
       <c r="D553" s="0" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C555" s="0" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D555" s="0" t="s">
         <v>1382</v>
-      </c>
-      <c r="D555" s="0" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12502,35 +12593,35 @@
         <v>1517</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C602" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D602" s="0" t="s">
         <v>1522</v>
-      </c>
-      <c r="D602" s="0" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12561,22 +12652,22 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
         <v>1530</v>
       </c>
-      <c r="B605" s="1" t="s">
+      <c r="B605" s="0" t="s">
         <v>1530</v>
       </c>
-      <c r="C605" s="2" t="s">
+      <c r="C605" s="0" t="s">
         <v>1531</v>
       </c>
       <c r="D605" s="0" t="s">
         <v>1532</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="2" t="s">
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="0" t="s">
         <v>1533</v>
       </c>
       <c r="B606" s="0" t="s">
@@ -12593,10 +12684,10 @@
       <c r="A607" s="0" t="s">
         <v>1536</v>
       </c>
-      <c r="B607" s="0" t="s">
+      <c r="B607" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="C607" s="0" t="s">
+      <c r="C607" s="2" t="s">
         <v>1537</v>
       </c>
       <c r="D607" s="0" t="s">
@@ -12604,13 +12695,13 @@
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="0" t="s">
+      <c r="A608" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="B608" s="1" t="s">
+      <c r="B608" s="0" t="s">
         <v>1539</v>
       </c>
-      <c r="C608" s="2" t="s">
+      <c r="C608" s="0" t="s">
         <v>1540</v>
       </c>
       <c r="D608" s="0" t="s">
@@ -12618,7 +12709,7 @@
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="2" t="s">
+      <c r="A609" s="0" t="s">
         <v>1542</v>
       </c>
       <c r="B609" s="0" t="s">
@@ -12631,51 +12722,51 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
         <v>1545</v>
       </c>
-      <c r="B610" s="0" t="s">
+      <c r="B610" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="C610" s="0" t="s">
+      <c r="C610" s="2" t="s">
         <v>1546</v>
       </c>
       <c r="D610" s="0" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="2" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B611" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C611" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D611" s="0" t="s">
+        <v>1550</v>
+      </c>
+    </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="0" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B613" s="0" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C613" s="0" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D613" s="0" t="s">
-        <v>1550</v>
-      </c>
-    </row>
+        <v>1551</v>
+      </c>
+      <c r="B612" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C612" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D612" s="0" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B614" s="0" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C614" s="0" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D614" s="0" t="s">
         <v>1553</v>
       </c>
     </row>
@@ -12810,32 +12901,32 @@
         <v>1581</v>
       </c>
       <c r="B624" s="0" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C624" s="0" t="s">
         <v>1582</v>
       </c>
-      <c r="C624" s="0" t="s">
+      <c r="D624" s="0" t="s">
         <v>1583</v>
-      </c>
-      <c r="D624" s="0" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B625" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C625" s="0" t="s">
         <v>1585</v>
       </c>
-      <c r="B625" s="0" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C625" s="0" t="s">
+      <c r="D625" s="0" t="s">
         <v>1586</v>
-      </c>
-      <c r="D625" s="0" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>1588</v>
@@ -12847,7 +12938,48 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B627" s="0" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C627" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D627" s="0" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B628" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C628" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D628" s="0" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="0" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B629" s="0" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C629" s="0" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D629" s="4" t="s">
+        <v>1599</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data-raw/su_translations.xlsx
+++ b/data-raw/su_translations.xlsx
@@ -11,7 +11,7 @@
     <sheet name="translations" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$D$628</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$D$693</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1724">
   <si>
     <t xml:space="preserve">@ note: comments are marked with @ and sections are marked with @@</t>
   </si>
@@ -1159,7 +1159,7 @@
     <t xml:space="preserve">SO% TOT</t>
   </si>
   <si>
-    <t xml:space="preserve">% C.S. TOT</t>
+    <t xml:space="preserve">%C.S. TOT</t>
   </si>
   <si>
     <t xml:space="preserve">%SO TOT</t>
@@ -1177,7 +1177,7 @@
     <t xml:space="preserve">SO% JUMP</t>
   </si>
   <si>
-    <t xml:space="preserve">% C.S. SALTO</t>
+    <t xml:space="preserve">%C.S. SALTO</t>
   </si>
   <si>
     <t xml:space="preserve">%SO SMASH</t>
@@ -1195,7 +1195,7 @@
     <t xml:space="preserve">SO% FLOAT</t>
   </si>
   <si>
-    <t xml:space="preserve">% C.S. FLOT</t>
+    <t xml:space="preserve">%C.S. FLOT</t>
   </si>
   <si>
     <t xml:space="preserve">%SO FLOT</t>
@@ -2233,7 +2233,7 @@
     <t xml:space="preserve">coordinates (directions)</t>
   </si>
   <si>
-    <t xml:space="preserve">coordenadas (direcciones)</t>
+    <t xml:space="preserve">coordenadas (direcciónes)</t>
   </si>
   <si>
     <t xml:space="preserve">coordonnées (directions)</t>
@@ -2467,13 +2467,25 @@
     <t xml:space="preserve">service err adv</t>
   </si>
   <si>
-    <t xml:space="preserve">Rec att kill R#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At rec punto R#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rec att gagn R#</t>
+    <t xml:space="preserve">@ used with e.g. rec att kill R# and rec att kill R!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rec att kill R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At rec punto R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rec att gagn R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rec att kill R#+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At rec punto R#+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rec att gagn R#+</t>
   </si>
   <si>
     <t xml:space="preserve">Rec att kill R+</t>
@@ -2485,24 +2497,6 @@
     <t xml:space="preserve">Rec att gagn R+</t>
   </si>
   <si>
-    <t xml:space="preserve">Rec att kill R!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At rec punto R!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rec att gagn R!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rec att kill R-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At rec punto R-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rec att gagn R-</t>
-  </si>
-  <si>
     <t xml:space="preserve">trans att kill</t>
   </si>
   <si>
@@ -2623,42 +2617,36 @@
     <t xml:space="preserve">serv err</t>
   </si>
   <si>
-    <t xml:space="preserve">Opp rec att kill R#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At rec punto R# rival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rec att gagn adv R#</t>
+    <t xml:space="preserve">@ used with e.g. opp rec att kill R# and opp rec att kill R!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opp rec att kill R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At rec punto rival R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rec att gagn adv R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opp rec att kill R#+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At rec punto rival R#+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rec att gagn adv R#+</t>
   </si>
   <si>
     <t xml:space="preserve">Opp rec att kill R+</t>
   </si>
   <si>
-    <t xml:space="preserve">At rec punto R+ rival</t>
+    <t xml:space="preserve">At rec punto rival R+</t>
   </si>
   <si>
     <t xml:space="preserve">Rec att gagn adv R+</t>
   </si>
   <si>
-    <t xml:space="preserve">Opp rec att kill R!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At rec punto R! rival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rec att gagn adv R!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opp rec att kill R-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At rec punto R- rival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rec att gagn adv R-</t>
-  </si>
-  <si>
     <t xml:space="preserve">@@ serve section</t>
   </si>
   <si>
@@ -2716,6 +2704,12 @@
     <t xml:space="preserve">(Service gagnants + positifs - erreurs - mauvais)/(N services)</t>
   </si>
   <si>
+    <t xml:space="preserve">position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posición</t>
+  </si>
+  <si>
     <t xml:space="preserve">all (potentially including serves with missing position information)</t>
   </si>
   <si>
@@ -2845,6 +2839,42 @@
     <t xml:space="preserve">ADV P</t>
   </si>
   <si>
+    <t xml:space="preserve">error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erreur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative, opponent free attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK, no first tempo possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive, opponent some attack (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiva (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive, no attack</t>
+  </si>
+  <si>
     <t xml:space="preserve">@@ reception section</t>
   </si>
   <si>
@@ -2866,6 +2896,138 @@
     <t xml:space="preserve">pourcentage</t>
   </si>
   <si>
+    <t xml:space="preserve">percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO% tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%C.S. tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%SO tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eff% tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ef% tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp SO% tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%C.S. esp tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO% att tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N salto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N smash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO% jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%C.S. salto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%SO smash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eff% jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ef% salto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eff% smash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp SO% jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%C.S. esp salto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO% att smash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N autres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO% other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%C.S. otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%SO autres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eff% other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ef% otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eff% autres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp SO% other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%C.S. esp otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO% att autres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poor, no attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative, limited attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">négative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive, attack (+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfect pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parfaite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jump_letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float_letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expected SO%</t>
   </si>
   <si>
@@ -3001,6 +3163,30 @@
     <t xml:space="preserve">venant de la droite du réceptionneur</t>
   </si>
   <si>
+    <t xml:space="preserve">direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirección</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recepciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">réceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jump serve receptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recepciónes con saques en salto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">réceptions sur services smashés</t>
+  </si>
+  <si>
     <t xml:space="preserve">@@ setting section</t>
   </si>
   <si>
@@ -3343,6 +3529,15 @@
     <t xml:space="preserve">N contrés</t>
   </si>
   <si>
+    <t xml:space="preserve">blocked %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloqueados %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% contrés</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rally win %</t>
   </si>
   <si>
@@ -3364,7 +3559,10 @@
     <t xml:space="preserve">% at rec</t>
   </si>
   <si>
-    <t xml:space="preserve"> rec att gagn%</t>
+    <t xml:space="preserve">rec att gagn%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec att kill %</t>
   </si>
   <si>
     <t xml:space="preserve">N rec att R#+</t>
@@ -3448,6 +3646,42 @@
     <t xml:space="preserve">%BP</t>
   </si>
   <si>
+    <t xml:space="preserve">Number of reception attacks by the team when this player was front row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team reception attack kill percentage when this player was front row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sideout percentage when this player was front row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As for 'N rec att' but only on good or perfect reception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As for 'rec att%' but only on good or perfect reception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As for 'SO%' but only on good or perfect reception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of transition attacks by the team when this player was front row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team transition attack kill percentage when this player was front row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of points won when a transition attack was made (by any player on the team) and this player was front row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As for 'N trans att' but only in breakpoint phase (i.e. the team was serving)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As for 'trans att%' but only in breakpoint phase (i.e. the team was serving)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of points won on serve when this player was front row</t>
+  </si>
+  <si>
     <t xml:space="preserve">@@ blocking section</t>
   </si>
   <si>
@@ -3613,6 +3847,15 @@
     <t xml:space="preserve">N contreurs </t>
   </si>
   <si>
+    <t xml:space="preserve">XX N blockers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX N bloqueadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XX N contreurs </t>
+  </si>
+  <si>
     <t xml:space="preserve">Average number of blockers against each opposition XX attack</t>
   </si>
   <si>
@@ -3706,6 +3949,24 @@
     <t xml:space="preserve">Comme 'Points gagnés' mais incluant uniquement les échanges durant lesquels l’équipe au contre a servis</t>
   </si>
   <si>
+    <t xml:space="preserve">BP% R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% BP R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP% R+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% BP R+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP% R#+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% BP R#+</t>
+  </si>
+  <si>
     <t xml:space="preserve">BP% Rxx</t>
   </si>
   <si>
@@ -3721,6 +3982,33 @@
     <t xml:space="preserve">Comme '%BP', mais pour lequel la qualité de réception était xx</t>
   </si>
   <si>
+    <t xml:space="preserve">aA% HB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% aA PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aA% T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aA% FB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% aA PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aA% T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aA% 1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% aA 1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aA% T1</t>
+  </si>
+  <si>
     <t xml:space="preserve">aA% HB/FB/1T</t>
   </si>
   <si>
@@ -3760,6 +4048,30 @@
     <t xml:space="preserve">pourcentage d’attaques sur réception gagnantes contre ce contreur</t>
   </si>
   <si>
+    <t xml:space="preserve">rec aA% HB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec aA% PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec aA% T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec aA% FB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec aA% PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec aA% T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec aA% 1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec aA% T1</t>
+  </si>
+  <si>
     <t xml:space="preserve">rec aA% HB/FB/1T</t>
   </si>
   <si>
@@ -3778,12 +4090,18 @@
     <t xml:space="preserve">pourcentage d’attaque sur réceptions gagnantes de l’adversaire sur balle haute/tempo 2/tempo 1 contre ce contreur</t>
   </si>
   <si>
+    <t xml:space="preserve">rec aA% R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec aA% R+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rec aA% R#+</t>
+  </si>
+  <si>
     <t xml:space="preserve">rec aA% Rxx</t>
   </si>
   <si>
-    <t xml:space="preserve">rec aA% Rxx </t>
-  </si>
-  <si>
     <t xml:space="preserve">opposition reception attack kill percentage against this blocker where the reception evaluation code was xx</t>
   </si>
   <si>
@@ -3820,6 +4138,33 @@
     <t xml:space="preserve">porcentaje de contraataque punto del rival contra este bloqueador</t>
   </si>
   <si>
+    <t xml:space="preserve">trans aA% HB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contraataque aA% PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans aA% T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans aA% FB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contraataque aA% PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans aA% T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans aA% 1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contraataque aA% 1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans aA% T1</t>
+  </si>
+  <si>
     <t xml:space="preserve">trans aA% HB/FB/1T</t>
   </si>
   <si>
@@ -4213,13 +4558,22 @@
     <t xml:space="preserve">Inclure le compte-rendu sur les services</t>
   </si>
   <si>
-    <t xml:space="preserve">Generate individual serve charts? (May be slow)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Generar diagramas individuales de saque? (Podría ralentizarlo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Générer le graphique des services par joueur? (Peut ètre long à charger)</t>
+    <t xml:space="preserve">Generate individual serve charts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Generar diagramas individuales de saque?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Générer le graphique des services par joueur?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be slow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podría ralentizarlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peut ètre long à charger</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum number of serves:</t>
@@ -4258,13 +4612,13 @@
     <t xml:space="preserve">Inclure le compte-rendu de réception</t>
   </si>
   <si>
-    <t xml:space="preserve">Generate individual reception charts? (May be slow)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Generar diagramas individuales de recepción? (Podría ralentizarlo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Générer le graphique des réception par joueur? (Peut ètre long à charger)</t>
+    <t xml:space="preserve">Generate individual reception charts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Generar diagramas individuales de recepción?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Générer le graphique des réception par joueur?</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum number of receptions:</t>
@@ -4682,6 +5036,24 @@
   </si>
   <si>
     <t xml:space="preserve">Contacto:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disclaimer_text_ui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use at your own risk. While every effort has been made to make the reports accurate, no warranty is given and no responsibility is accepted for errors or omissions. Be aware that the outputs from these apps can be affected by errors or inconsistencies in your data, which in general are impossible for the apps to detect or correct. Note also that different scouts use different scouting conventions, and it is not possible to anticipate or cater for all possible variations in these conventions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_app_access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You do not have access to this application - contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request_dropbox_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To work with your own data sets, you will need to upload them via Dropbox. Enter your Dropbox email here so that a folder can be shared with you.</t>
   </si>
   <si>
     <t xml:space="preserve">@@ progress messages in app</t>
@@ -4923,11 +5295,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5008,10 +5380,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D629"/>
+  <dimension ref="A1:D694"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A509" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B532" activeCellId="0" sqref="B532"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A477" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B495" activeCellId="0" sqref="B495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9171,640 +9543,645 @@
         <v>813</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="B342" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="C342" s="0" t="s">
-        <v>815</v>
-      </c>
-      <c r="D342" s="0" t="s">
-        <v>816</v>
-      </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="C343" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="D343" s="0" t="s">
         <v>817</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>817</v>
-      </c>
-      <c r="C343" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="D343" s="0" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="C344" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="D344" s="0" t="s">
         <v>820</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="C344" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="D344" s="0" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="C345" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="D345" s="0" t="s">
         <v>823</v>
-      </c>
-      <c r="B345" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="C345" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="D345" s="0" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="C346" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="D346" s="0" t="s">
         <v>826</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="C346" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="D346" s="0" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="C347" s="0" t="s">
+        <v>828</v>
+      </c>
+      <c r="D347" s="0" t="s">
         <v>829</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="C347" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="D347" s="0" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>830</v>
+      </c>
+      <c r="C348" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="D348" s="0" t="s">
         <v>832</v>
-      </c>
-      <c r="B348" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="C348" s="0" t="s">
-        <v>833</v>
-      </c>
-      <c r="D348" s="0" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="C349" s="0" t="s">
+        <v>834</v>
+      </c>
+      <c r="D349" s="0" t="s">
         <v>835</v>
-      </c>
-      <c r="B349" s="0" t="s">
-        <v>835</v>
-      </c>
-      <c r="C349" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="D349" s="0" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>838</v>
+      </c>
+      <c r="C351" s="0" t="s">
+        <v>839</v>
+      </c>
+      <c r="D351" s="0" t="s">
         <v>840</v>
-      </c>
-      <c r="B351" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="C351" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="D351" s="0" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="C352" s="0" t="s">
+        <v>842</v>
+      </c>
+      <c r="D352" s="0" t="s">
         <v>843</v>
-      </c>
-      <c r="B352" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="C352" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="D352" s="0" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="C353" s="0" t="s">
+        <v>845</v>
+      </c>
+      <c r="D353" s="0" t="s">
         <v>846</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="C353" s="0" t="s">
-        <v>847</v>
-      </c>
-      <c r="D353" s="0" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="C354" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="D354" s="0" t="s">
         <v>849</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>849</v>
-      </c>
-      <c r="C354" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="D354" s="0" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C355" s="0" t="s">
         <v>488</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="D356" s="0" t="s">
         <v>854</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="C356" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="D356" s="0" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="D357" s="0" t="s">
         <v>857</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>857</v>
-      </c>
-      <c r="C357" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="D357" s="0" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>858</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="D358" s="0" t="s">
         <v>860</v>
-      </c>
-      <c r="B358" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="C358" s="0" t="s">
-        <v>861</v>
-      </c>
-      <c r="D358" s="0" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>861</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>862</v>
+      </c>
+      <c r="D359" s="0" t="s">
         <v>863</v>
       </c>
-      <c r="B359" s="0" t="s">
-        <v>863</v>
-      </c>
-      <c r="C359" s="0" t="s">
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
         <v>864</v>
-      </c>
-      <c r="D359" s="0" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="C360" s="0" t="s">
-        <v>867</v>
-      </c>
-      <c r="D360" s="0" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>890</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>891</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="C372" s="0" t="s">
         <v>894</v>
       </c>
-      <c r="B371" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="C371" s="0" t="s">
-        <v>895</v>
-      </c>
-      <c r="D371" s="0" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="0" t="s">
-        <v>897</v>
-      </c>
-      <c r="B372" s="0" t="s">
-        <v>897</v>
-      </c>
-      <c r="C372" s="0" t="s">
-        <v>898</v>
-      </c>
       <c r="D372" s="0" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D373" s="0" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="D374" s="0" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="D375" s="0" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="D376" s="0" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="D377" s="0" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D378" s="0" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="D379" s="0" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="D380" s="0" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="D382" s="0" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D383" s="0" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D384" s="0" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>936</v>
+        <v>931</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="D385" s="0" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>936</v>
+      </c>
+      <c r="D387" s="0" t="s">
         <v>937</v>
       </c>
-      <c r="B386" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="C386" s="0" t="s">
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
         <v>938</v>
       </c>
-      <c r="D386" s="0" t="s">
+      <c r="B388" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="D388" s="0" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="0" t="s">
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
         <v>940</v>
-      </c>
-    </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="0" t="s">
-        <v>941</v>
       </c>
       <c r="B389" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="C389" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
         <v>942</v>
       </c>
-      <c r="D389" s="0" t="s">
+      <c r="B390" s="0" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="0" t="s">
+      <c r="C390" s="0" t="s">
         <v>944</v>
       </c>
-      <c r="B390" s="0" t="s">
-        <v>944</v>
-      </c>
-      <c r="C390" s="0" t="s">
+      <c r="D390" s="0" t="s">
         <v>945</v>
       </c>
-      <c r="D390" s="0" t="s">
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
         <v>946</v>
-      </c>
-    </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="0" t="s">
-        <v>947</v>
       </c>
       <c r="B391" s="0" t="s">
         <v>947</v>
@@ -9813,3171 +10190,3955 @@
         <v>948</v>
       </c>
       <c r="D391" s="0" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="0" t="s">
-        <v>950</v>
-      </c>
       <c r="B392" s="0" t="s">
-        <v>950</v>
+        <v>692</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>951</v>
+        <v>693</v>
       </c>
       <c r="D392" s="0" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="B393" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="C393" s="0" t="s">
-        <v>951</v>
-      </c>
-      <c r="D393" s="0" t="s">
-        <v>952</v>
-      </c>
-    </row>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>953</v>
-      </c>
-      <c r="C394" s="0" t="s">
-        <v>954</v>
-      </c>
-      <c r="D394" s="0" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="C395" s="0" t="s">
-        <v>957</v>
+        <v>951</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>952</v>
       </c>
       <c r="D395" s="0" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="D396" s="0" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>958</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="C399" s="0" t="s">
+        <v>960</v>
+      </c>
+      <c r="D399" s="0" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
         <v>962</v>
       </c>
-      <c r="B397" s="0" t="s">
+      <c r="B400" s="0" t="s">
         <v>962</v>
       </c>
-      <c r="C397" s="0" t="s">
+      <c r="C400" s="0" t="s">
         <v>963</v>
       </c>
-      <c r="D397" s="0" t="s">
+      <c r="D400" s="0" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="0" t="s">
+      <c r="B401" s="0" t="s">
+        <v>964</v>
+      </c>
+      <c r="C401" s="0" t="s">
         <v>965</v>
       </c>
-      <c r="B398" s="0" t="s">
-        <v>965</v>
-      </c>
-      <c r="C398" s="0" t="s">
+      <c r="D401" s="0" t="s">
         <v>966</v>
       </c>
-      <c r="D398" s="0" t="s">
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="0" t="s">
+      <c r="B402" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="C402" s="0" t="s">
         <v>968</v>
       </c>
-      <c r="B399" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="C399" s="0" t="s">
+      <c r="D402" s="0" t="s">
         <v>969</v>
       </c>
-      <c r="D399" s="0" t="s">
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="0" t="s">
+      <c r="B403" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="C403" s="0" t="s">
         <v>971</v>
       </c>
-      <c r="B400" s="0" t="s">
-        <v>971</v>
-      </c>
-      <c r="C400" s="0" t="s">
+      <c r="D403" s="0" t="s">
         <v>972</v>
       </c>
-      <c r="D400" s="0" t="s">
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="0" t="s">
+      <c r="B404" s="0" t="s">
+        <v>973</v>
+      </c>
+      <c r="C404" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="B401" s="0" t="s">
-        <v>974</v>
-      </c>
-      <c r="C401" s="0" t="s">
+      <c r="D404" s="0" t="s">
         <v>975</v>
       </c>
-      <c r="D401" s="0" t="s">
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="0" t="s">
+      <c r="B405" s="0" t="s">
+        <v>976</v>
+      </c>
+      <c r="C405" s="0" t="s">
         <v>977</v>
       </c>
-      <c r="B402" s="0" t="s">
-        <v>977</v>
-      </c>
-      <c r="C402" s="0" t="s">
+      <c r="D405" s="0" t="s">
         <v>978</v>
       </c>
-      <c r="D402" s="0" t="s">
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="0" t="s">
+      <c r="B406" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="C406" s="0" t="s">
         <v>980</v>
       </c>
-      <c r="B403" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="C403" s="0" t="s">
+      <c r="D406" s="0" t="s">
         <v>981</v>
       </c>
-      <c r="D403" s="0" t="s">
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="0" t="s">
+      <c r="B407" s="0" t="s">
+        <v>982</v>
+      </c>
+      <c r="C407" s="0" t="s">
         <v>983</v>
       </c>
-      <c r="B404" s="0" t="s">
-        <v>983</v>
-      </c>
-      <c r="C404" s="0" t="s">
+      <c r="D407" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="D404" s="0" t="s">
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
+      <c r="B408" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="C408" s="0" t="s">
         <v>986</v>
       </c>
-      <c r="B405" s="0" t="s">
-        <v>986</v>
-      </c>
-      <c r="C405" s="0" t="s">
+      <c r="D408" s="0" t="s">
         <v>987</v>
       </c>
-      <c r="D405" s="0" t="s">
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="0" t="s">
+      <c r="B409" s="0" t="s">
+        <v>988</v>
+      </c>
+      <c r="C409" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="B406" s="0" t="s">
-        <v>989</v>
-      </c>
-      <c r="C406" s="0" t="s">
+      <c r="D409" s="0" t="s">
         <v>990</v>
       </c>
-      <c r="D406" s="0" t="s">
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="0" t="s">
+      <c r="B410" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="0" t="s">
+      <c r="B411" s="0" t="s">
+        <v>941</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="D411" s="0" t="s">
         <v>993</v>
       </c>
-      <c r="B409" s="0" t="s">
-        <v>993</v>
-      </c>
-      <c r="C409" s="0" t="s">
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="D409" s="0" t="s">
+      <c r="B412" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>948</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
+      <c r="B413" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D413" s="0" t="s">
         <v>996</v>
       </c>
-      <c r="B410" s="0" t="s">
-        <v>996</v>
-      </c>
-      <c r="C410" s="1" t="s">
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
         <v>997</v>
       </c>
-      <c r="D410" s="0" t="s">
+      <c r="B414" s="0" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="0" t="s">
+      <c r="C414" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
         <v>999</v>
       </c>
-      <c r="B411" s="0" t="s">
-        <v>999</v>
-      </c>
-      <c r="C411" s="1" t="s">
+      <c r="B415" s="0" t="s">
         <v>1000</v>
       </c>
-      <c r="D411" s="0" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="0" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C412" s="0" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D412" s="0" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="0" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C413" s="0" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D413" s="0" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="0" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B414" s="0" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C414" s="0" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D414" s="0" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>1013</v>
-      </c>
       <c r="C415" s="0" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="D415" s="0" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>1016</v>
+        <v>1001</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D416" s="0" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="D417" s="0" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="D418" s="0" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>1023</v>
+        <v>1007</v>
+      </c>
+      <c r="B419" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D419" s="0" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="C420" s="0" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="D420" s="0" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
       <c r="D421" s="0" t="s">
-        <v>1030</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>1031</v>
+        <v>1016</v>
+      </c>
+      <c r="B422" s="0" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D422" s="0" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>355</v>
+        <v>1019</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>357</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="D424" s="0" t="s">
-        <v>1035</v>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D425" s="0" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>1036</v>
+        <v>1028</v>
+      </c>
+      <c r="B426" s="0" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="D427" s="0" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="D428" s="0" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>1048</v>
+        <v>1038</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>1052</v>
+        <v>1041</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D431" s="0" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="D432" s="0" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="C433" s="0" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="D433" s="0" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="D434" s="0" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C435" s="0" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D435" s="0" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B436" s="0" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C436" s="0" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D436" s="0" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
       <c r="C437" s="0" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="D437" s="0" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C438" s="0" t="s">
-        <v>1075</v>
+        <v>1058</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1059</v>
       </c>
       <c r="D438" s="0" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>1077</v>
+        <v>1061</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C439" s="0" t="s">
-        <v>1078</v>
+        <v>1061</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1062</v>
       </c>
       <c r="D439" s="0" t="s">
-        <v>1079</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>1081</v>
+        <v>1065</v>
       </c>
       <c r="D440" s="0" t="s">
-        <v>1082</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>1083</v>
+        <v>1067</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>1083</v>
+        <v>1067</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="D441" s="0" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="D442" s="0" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="C443" s="0" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="D443" s="0" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C444" s="0" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D444" s="0" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
       <c r="D445" s="0" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>1100</v>
+        <v>1082</v>
       </c>
       <c r="C446" s="0" t="s">
-        <v>1101</v>
+        <v>1083</v>
       </c>
       <c r="D446" s="0" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B447" s="0" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C447" s="0" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D447" s="0" t="s">
-        <v>1105</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>1106</v>
+        <v>1086</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="C448" s="0" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="D448" s="0" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>1109</v>
+        <v>1091</v>
       </c>
       <c r="C449" s="0" t="s">
-        <v>1110</v>
+        <v>1092</v>
       </c>
       <c r="D449" s="0" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C450" s="0" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D450" s="0" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>1114</v>
+        <v>1094</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>1114</v>
+        <v>355</v>
       </c>
       <c r="C451" s="0" t="s">
-        <v>1115</v>
+        <v>1095</v>
       </c>
       <c r="D451" s="0" t="s">
-        <v>1114</v>
+        <v>357</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>1116</v>
+        <v>1096</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>1116</v>
+        <v>1079</v>
       </c>
       <c r="C452" s="0" t="s">
-        <v>1117</v>
+        <v>1080</v>
       </c>
       <c r="D452" s="0" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="0" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B453" s="0" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C453" s="0" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D453" s="0" t="s">
-        <v>1119</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B454" s="0" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C454" s="0" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D454" s="0" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>1125</v>
+        <v>1101</v>
       </c>
       <c r="D455" s="0" t="s">
-        <v>1126</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>1127</v>
+        <v>1103</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>1127</v>
+        <v>1104</v>
       </c>
       <c r="C456" s="0" t="s">
-        <v>1128</v>
+        <v>1105</v>
       </c>
       <c r="D456" s="0" t="s">
-        <v>1129</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>1130</v>
+        <v>1107</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C457" s="0" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>1131</v>
+        <v>1111</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="C458" s="0" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D458" s="0" t="s">
-        <v>1133</v>
+        <v>1113</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>1134</v>
+        <v>1115</v>
+      </c>
+      <c r="B459" s="0" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D459" s="0" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="C460" s="0" t="s">
-        <v>1136</v>
+        <v>1119</v>
       </c>
       <c r="D460" s="0" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
       <c r="D461" s="0" t="s">
-        <v>1140</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="D462" s="0" t="s">
-        <v>1140</v>
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C463" s="0" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D463" s="0" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>1141</v>
+        <v>1130</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C464" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D464" s="0" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="C465" s="0" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="D465" s="0" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
       <c r="C466" s="0" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="D466" s="0" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="C467" s="0" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="D467" s="0" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="C468" s="0" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="D468" s="0" t="s">
-        <v>1151</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>1152</v>
+        <v>1145</v>
       </c>
       <c r="C469" s="0" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="D469" s="0" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>1155</v>
+        <v>1148</v>
       </c>
       <c r="C470" s="0" t="s">
-        <v>1156</v>
+        <v>1149</v>
       </c>
       <c r="D470" s="0" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C471" s="0" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="D471" s="0" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="C472" s="0" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="D472" s="0" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C473" s="3" t="s">
-        <v>1163</v>
+        <v>1158</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>1159</v>
       </c>
       <c r="D473" s="0" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C474" s="0" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D474" s="0" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D475" s="0" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
         <v>1168</v>
       </c>
-      <c r="B475" s="0" t="s">
+      <c r="B476" s="0" t="s">
         <v>1168</v>
       </c>
-      <c r="C475" s="0" t="s">
+      <c r="C476" s="0" t="s">
         <v>1169</v>
       </c>
-      <c r="D475" s="0" t="s">
+      <c r="D476" s="0" t="s">
         <v>1170</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C476" s="0" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D476" s="0" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C477" s="0" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D477" s="0" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C478" s="0" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D478" s="0" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D479" s="0" t="s">
         <v>1178</v>
       </c>
-      <c r="B479" s="0" t="s">
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D480" s="0" t="s">
         <v>1178</v>
-      </c>
-      <c r="C479" s="0" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D479" s="0" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A480" s="0" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C480" s="0" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D480" s="0" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C481" s="0" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C482" s="0" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D482" s="0" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C483" s="0" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D483" s="0" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C484" s="0" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D484" s="0" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C485" s="0" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="D485" s="0" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C486" s="0" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D486" s="0" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B487" s="0" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C487" s="0" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D487" s="0" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D488" s="0" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B489" s="0" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C489" s="0" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D489" s="0" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="C490" s="0" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="D490" s="0" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C491" s="0" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="D491" s="0" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C492" s="0" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D492" s="0" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C493" s="3"/>
+      <c r="D493" s="3"/>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C494" s="3"/>
+      <c r="D494" s="3"/>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C495" s="3"/>
+      <c r="D495" s="3"/>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="B492" s="0" t="s">
+      <c r="B496" s="4" t="s">
         <v>1210</v>
       </c>
-      <c r="C492" s="0" t="s">
+      <c r="C496" s="3"/>
+      <c r="D496" s="3"/>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="D492" s="0" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="0" t="s">
+      <c r="B497" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C497" s="3"/>
+      <c r="D497" s="3"/>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="B493" s="0" t="s">
+      <c r="B498" s="4" t="s">
         <v>1212</v>
       </c>
-      <c r="C493" s="3" t="s">
+      <c r="C498" s="3"/>
+      <c r="D498" s="3"/>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="D493" s="0" t="s">
+      <c r="B499" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C499" s="3"/>
+      <c r="D499" s="3"/>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="3" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="0" t="s">
+      <c r="B500" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C500" s="3"/>
+      <c r="D500" s="3"/>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="3" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="0" t="s">
+      <c r="B501" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C501" s="3"/>
+      <c r="D501" s="3"/>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="B495" s="0" t="s">
+      <c r="B502" s="4" t="s">
         <v>1216</v>
       </c>
-      <c r="C495" s="0" t="s">
+      <c r="C502" s="3"/>
+      <c r="D502" s="3"/>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="3" t="s">
         <v>1217</v>
       </c>
-      <c r="D495" s="0" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="0" t="s">
+      <c r="B503" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C503" s="3"/>
+      <c r="D503" s="3"/>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="B496" s="0" t="s">
+      <c r="B504" s="4" t="s">
         <v>1218</v>
       </c>
-      <c r="C496" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D496" s="0" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="0" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B497" s="0" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C497" s="0" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D497" s="0" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="0" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B498" s="0" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C498" s="0" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D498" s="0" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="0" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B499" s="0" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C499" s="0" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D499" s="0" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B500" s="0" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C500" s="0" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D500" s="0" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="0" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B501" s="0" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C501" s="0" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D501" s="0" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="0" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B502" s="0" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C502" s="0" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D502" s="0" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="0" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B503" s="0" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C503" s="0" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D503" s="0" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="0" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B504" s="0" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C504" s="0" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D504" s="0" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B505" s="0" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C505" s="0" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D505" s="0" t="s">
-        <v>1244</v>
-      </c>
-    </row>
+      <c r="C504" s="3"/>
+      <c r="D504" s="3"/>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B506" s="0" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C506" s="0" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D506" s="0" t="s">
-        <v>1247</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>1248</v>
+        <v>1220</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>1248</v>
+        <v>1220</v>
       </c>
       <c r="C507" s="0" t="s">
-        <v>1249</v>
+        <v>1221</v>
       </c>
       <c r="D507" s="0" t="s">
-        <v>1250</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>1251</v>
+        <v>1223</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>1251</v>
+        <v>1223</v>
       </c>
       <c r="C508" s="0" t="s">
-        <v>1251</v>
+        <v>1224</v>
       </c>
       <c r="D508" s="0" t="s">
-        <v>1252</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>1253</v>
+        <v>1226</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>1253</v>
+        <v>1226</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>1254</v>
+        <v>1227</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>1255</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>1256</v>
+        <v>1229</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>1256</v>
+        <v>1229</v>
       </c>
       <c r="C510" s="0" t="s">
-        <v>1257</v>
+        <v>1229</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>1256</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>1258</v>
+        <v>1230</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>1258</v>
+        <v>1230</v>
       </c>
       <c r="C511" s="0" t="s">
-        <v>1259</v>
+        <v>1231</v>
       </c>
       <c r="D511" s="0" t="s">
-        <v>1260</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>1261</v>
+        <v>1233</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>1261</v>
+        <v>1233</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>1262</v>
+        <v>1234</v>
       </c>
       <c r="D512" s="0" t="s">
-        <v>1261</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>1263</v>
+        <v>1235</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>1263</v>
+        <v>1235</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>1264</v>
+        <v>1236</v>
       </c>
       <c r="D513" s="0" t="s">
-        <v>1159</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>1265</v>
+        <v>1238</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>1265</v>
+        <v>1238</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>1266</v>
+        <v>1239</v>
       </c>
       <c r="D514" s="0" t="s">
-        <v>1267</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>1268</v>
+        <v>1240</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C515" s="0" t="s">
-        <v>1269</v>
+        <v>1240</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1241</v>
       </c>
       <c r="D515" s="0" t="s">
-        <v>1270</v>
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D516" s="0" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>1271</v>
+        <v>1246</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D517" s="0" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>1272</v>
+        <v>1249</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>1272</v>
+        <v>1249</v>
       </c>
       <c r="C518" s="0" t="s">
-        <v>1273</v>
+        <v>1250</v>
       </c>
       <c r="D518" s="0" t="s">
-        <v>1274</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>1275</v>
+        <v>1252</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>1275</v>
+        <v>1252</v>
       </c>
       <c r="C519" s="0" t="s">
-        <v>1276</v>
+        <v>1252</v>
       </c>
       <c r="D519" s="0" t="s">
-        <v>1277</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>1278</v>
+        <v>1254</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>1278</v>
+        <v>1254</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>1279</v>
+        <v>1254</v>
       </c>
       <c r="D520" s="0" t="s">
-        <v>1280</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>1281</v>
+        <v>1256</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>1281</v>
+        <v>1256</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>1282</v>
+        <v>1257</v>
       </c>
       <c r="D521" s="0" t="s">
-        <v>1283</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>1284</v>
+        <v>1259</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>1284</v>
+        <v>1259</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>1285</v>
+        <v>1260</v>
       </c>
       <c r="D522" s="0" t="s">
-        <v>1286</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>1287</v>
+        <v>1261</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>1287</v>
+        <v>1261</v>
       </c>
       <c r="C523" s="0" t="s">
-        <v>1288</v>
+        <v>1262</v>
       </c>
       <c r="D523" s="0" t="s">
-        <v>1286</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>1289</v>
+        <v>1264</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>1289</v>
+        <v>1264</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>1290</v>
+        <v>1265</v>
       </c>
       <c r="D524" s="0" t="s">
-        <v>1291</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>1292</v>
+        <v>1267</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>1292</v>
+        <v>1267</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>1293</v>
+        <v>1267</v>
       </c>
       <c r="D525" s="0" t="s">
-        <v>1294</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>1295</v>
+        <v>1268</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>1295</v>
+        <v>1268</v>
       </c>
       <c r="C526" s="0" t="s">
-        <v>1296</v>
+        <v>1269</v>
       </c>
       <c r="D526" s="0" t="s">
-        <v>1297</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>1298</v>
+        <v>1271</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>1298</v>
+        <v>1271</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>1299</v>
+        <v>1272</v>
       </c>
       <c r="D527" s="0" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>1301</v>
+        <v>1274</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>1301</v>
+        <v>1274</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>1302</v>
+        <v>1275</v>
       </c>
       <c r="D528" s="0" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>1304</v>
+        <v>1277</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>1304</v>
+        <v>1277</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>1305</v>
+        <v>1278</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>1306</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>1307</v>
+        <v>1280</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>1307</v>
+        <v>1280</v>
       </c>
       <c r="C530" s="0" t="s">
-        <v>1308</v>
+        <v>1281</v>
       </c>
       <c r="D530" s="0" t="s">
-        <v>1309</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>1310</v>
+        <v>1283</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>1310</v>
+        <v>1283</v>
       </c>
       <c r="C531" s="0" t="s">
-        <v>1311</v>
+        <v>1283</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>1312</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>1313</v>
+        <v>1284</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>1313</v>
+        <v>1284</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>1314</v>
+        <v>1285</v>
       </c>
       <c r="D532" s="0" t="s">
-        <v>1315</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>1316</v>
+        <v>1287</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>1316</v>
+        <v>1287</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>1317</v>
+        <v>1287</v>
       </c>
       <c r="D533" s="0" t="s">
-        <v>1318</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>1320</v>
+        <v>1289</v>
       </c>
       <c r="D534" s="0" t="s">
-        <v>1321</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>1322</v>
+        <v>1291</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>1322</v>
+        <v>1291</v>
       </c>
       <c r="C535" s="0" t="s">
-        <v>1323</v>
+        <v>1292</v>
       </c>
       <c r="D535" s="0" t="s">
-        <v>1324</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>1325</v>
+        <v>1293</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C536" s="0" t="s">
-        <v>1326</v>
+        <v>1293</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1294</v>
       </c>
       <c r="D536" s="0" t="s">
-        <v>1327</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B537" s="0" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C537" s="0" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D537" s="0" t="s">
-        <v>1330</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>1331</v>
+        <v>1297</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>1331</v>
+        <v>1297</v>
       </c>
       <c r="C538" s="0" t="s">
-        <v>1332</v>
+        <v>1298</v>
       </c>
       <c r="D538" s="0" t="s">
-        <v>1333</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>1334</v>
+        <v>1299</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>1334</v>
+        <v>1299</v>
       </c>
       <c r="C539" s="0" t="s">
-        <v>1335</v>
+        <v>1300</v>
       </c>
       <c r="D539" s="0" t="s">
-        <v>1336</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>1337</v>
+        <v>1302</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>1337</v>
+        <v>1302</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>1338</v>
+        <v>1303</v>
       </c>
       <c r="D540" s="0" t="s">
-        <v>1339</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>1340</v>
+        <v>1305</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>1340</v>
+        <v>1305</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>1341</v>
+        <v>1306</v>
       </c>
       <c r="D541" s="0" t="s">
-        <v>1342</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>1343</v>
+        <v>1308</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>1343</v>
+        <v>1308</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>1344</v>
+        <v>1309</v>
       </c>
       <c r="D542" s="0" t="s">
-        <v>1345</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>1346</v>
+        <v>1310</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>1346</v>
+        <v>1310</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>1347</v>
+        <v>1311</v>
       </c>
       <c r="D543" s="0" t="s">
-        <v>1348</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>1349</v>
+        <v>1312</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>1349</v>
+        <v>1312</v>
       </c>
       <c r="C544" s="0" t="s">
-        <v>1350</v>
+        <v>1313</v>
       </c>
       <c r="D544" s="0" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>1352</v>
+        <v>1314</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C545" s="4" t="s">
-        <v>1353</v>
+        <v>1314</v>
+      </c>
+      <c r="C545" s="0" t="s">
+        <v>1315</v>
       </c>
       <c r="D545" s="0" t="s">
-        <v>1354</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>1355</v>
+        <v>1316</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>1355</v>
+        <v>1316</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>1356</v>
+        <v>1317</v>
       </c>
       <c r="D546" s="0" t="s">
-        <v>1357</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>1358</v>
+        <v>1319</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C547" s="3" t="s">
-        <v>1359</v>
+        <v>1319</v>
+      </c>
+      <c r="C547" s="0" t="s">
+        <v>1320</v>
       </c>
       <c r="D547" s="0" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>1361</v>
+        <v>1322</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>1361</v>
+        <v>1322</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>1362</v>
+        <v>1323</v>
       </c>
       <c r="D548" s="0" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>1364</v>
+        <v>1325</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>1364</v>
+        <v>1325</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>1365</v>
+        <v>1326</v>
       </c>
       <c r="D549" s="0" t="s">
-        <v>1366</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>1367</v>
+        <v>1328</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>1367</v>
+        <v>1328</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>1368</v>
+        <v>1329</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>1369</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>1370</v>
+        <v>1331</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>1370</v>
+        <v>1331</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>1371</v>
+        <v>1332</v>
       </c>
       <c r="D551" s="0" t="s">
-        <v>1372</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>1373</v>
+        <v>1334</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>1373</v>
+        <v>1334</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>1374</v>
+        <v>1334</v>
       </c>
       <c r="D552" s="0" t="s">
-        <v>1375</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>1376</v>
+        <v>1336</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>1376</v>
+        <v>1336</v>
       </c>
       <c r="C553" s="0" t="s">
-        <v>1377</v>
+        <v>1337</v>
       </c>
       <c r="D553" s="0" t="s">
-        <v>1378</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>1379</v>
+        <v>1339</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>1379</v>
+        <v>1339</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>1380</v>
+        <v>1236</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>1381</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1382</v>
+        <v>1341</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>1382</v>
+        <v>1341</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>1383</v>
+        <v>1342</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>1382</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>1384</v>
+        <v>1344</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>1384</v>
+        <v>1344</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>1385</v>
+        <v>1345</v>
       </c>
       <c r="D556" s="0" t="s">
-        <v>1386</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>1387</v>
+        <v>1347</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>1387</v>
+        <v>1347</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>1388</v>
+        <v>1347</v>
       </c>
       <c r="D557" s="0" t="s">
-        <v>1389</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>1390</v>
+        <v>1349</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>1390</v>
+        <v>1349</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>1391</v>
+        <v>1350</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>1392</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>1393</v>
+        <v>1352</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>1393</v>
+        <v>1352</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>1394</v>
+        <v>1353</v>
       </c>
       <c r="D559" s="0" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>1396</v>
+        <v>1355</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>1396</v>
+        <v>1355</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>1397</v>
+        <v>1355</v>
       </c>
       <c r="D560" s="0" t="s">
-        <v>1398</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>1399</v>
+        <v>1356</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>1399</v>
+        <v>1356</v>
       </c>
       <c r="C561" s="0" t="s">
-        <v>1400</v>
+        <v>1356</v>
       </c>
       <c r="D561" s="0" t="s">
-        <v>1401</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>1402</v>
+        <v>1357</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>1402</v>
+        <v>1357</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>1403</v>
+        <v>1357</v>
       </c>
       <c r="D562" s="0" t="s">
-        <v>1404</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>1405</v>
+        <v>1358</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>1405</v>
+        <v>1358</v>
       </c>
       <c r="C563" s="0" t="s">
-        <v>1406</v>
+        <v>1358</v>
       </c>
       <c r="D563" s="0" t="s">
-        <v>1407</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>1408</v>
+        <v>1359</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>1408</v>
+        <v>1359</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>1409</v>
+        <v>1360</v>
       </c>
       <c r="D564" s="0" t="s">
-        <v>1410</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>1411</v>
+        <v>1362</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>1411</v>
+        <v>1362</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>1412</v>
+        <v>1363</v>
       </c>
       <c r="D565" s="0" t="s">
-        <v>1413</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>1414</v>
+        <v>1364</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>1414</v>
+        <v>1364</v>
       </c>
       <c r="C566" s="0" t="s">
-        <v>1415</v>
+        <v>1365</v>
       </c>
       <c r="D566" s="0" t="s">
-        <v>1416</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>1417</v>
+        <v>1367</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>1417</v>
+        <v>1367</v>
       </c>
       <c r="C567" s="0" t="s">
-        <v>1418</v>
+        <v>1368</v>
       </c>
       <c r="D567" s="0" t="s">
-        <v>1419</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>1420</v>
+        <v>1369</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>1420</v>
+        <v>1369</v>
       </c>
       <c r="C568" s="0" t="s">
-        <v>1421</v>
+        <v>1370</v>
       </c>
       <c r="D568" s="0" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>1423</v>
+        <v>1371</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>1423</v>
+        <v>1371</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>1424</v>
+        <v>1372</v>
       </c>
       <c r="D569" s="0" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>1426</v>
+        <v>1374</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>1426</v>
+        <v>1374</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>1427</v>
+        <v>1375</v>
       </c>
       <c r="D570" s="0" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>1429</v>
+        <v>1377</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>1429</v>
+        <v>1377</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>1430</v>
+        <v>1378</v>
       </c>
       <c r="D571" s="0" t="s">
-        <v>1431</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>1432</v>
+        <v>1380</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>1432</v>
+        <v>1380</v>
       </c>
       <c r="C572" s="0" t="s">
-        <v>1433</v>
+        <v>1381</v>
       </c>
       <c r="D572" s="0" t="s">
-        <v>1434</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>1435</v>
+        <v>1383</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>1435</v>
+        <v>1383</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>1436</v>
+        <v>1384</v>
       </c>
       <c r="D573" s="0" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="0" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B574" s="0" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C574" s="0" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D574" s="0" t="s">
-        <v>1440</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B575" s="0" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C575" s="0" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D575" s="0" t="s">
-        <v>1443</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>1444</v>
+        <v>1387</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>1444</v>
+        <v>1387</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>1445</v>
+        <v>1388</v>
       </c>
       <c r="D576" s="0" t="s">
-        <v>1446</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>1447</v>
+        <v>1390</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>1447</v>
+        <v>1390</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>1448</v>
+        <v>1391</v>
       </c>
       <c r="D577" s="0" t="s">
-        <v>1449</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>1450</v>
+        <v>1393</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>1450</v>
+        <v>1393</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>1451</v>
+        <v>1394</v>
       </c>
       <c r="D578" s="0" t="s">
-        <v>1452</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>1453</v>
+        <v>1396</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>1453</v>
+        <v>1396</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>1454</v>
+        <v>1397</v>
       </c>
       <c r="D579" s="0" t="s">
-        <v>1455</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>1456</v>
+        <v>1399</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>1456</v>
+        <v>1399</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>1457</v>
+        <v>1400</v>
       </c>
       <c r="D580" s="0" t="s">
-        <v>1458</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>1459</v>
+        <v>1402</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>1459</v>
+        <v>1402</v>
       </c>
       <c r="C581" s="0" t="s">
-        <v>1460</v>
+        <v>1403</v>
       </c>
       <c r="D581" s="0" t="s">
-        <v>1461</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>1462</v>
+        <v>1404</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>1462</v>
+        <v>1404</v>
       </c>
       <c r="C582" s="0" t="s">
-        <v>1463</v>
+        <v>1405</v>
       </c>
       <c r="D582" s="0" t="s">
-        <v>1464</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>1465</v>
+        <v>1407</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>1465</v>
+        <v>1407</v>
       </c>
       <c r="C583" s="0" t="s">
-        <v>1466</v>
+        <v>1408</v>
       </c>
       <c r="D583" s="0" t="s">
-        <v>1467</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>1468</v>
+        <v>1410</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>1468</v>
+        <v>1410</v>
       </c>
       <c r="C584" s="0" t="s">
-        <v>1469</v>
+        <v>1411</v>
       </c>
       <c r="D584" s="0" t="s">
-        <v>1470</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>1471</v>
+        <v>1413</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>1471</v>
+        <v>1413</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>1472</v>
+        <v>1414</v>
       </c>
       <c r="D585" s="0" t="s">
-        <v>1473</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>1474</v>
+        <v>1416</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>1474</v>
+        <v>1416</v>
       </c>
       <c r="C586" s="0" t="s">
-        <v>1475</v>
+        <v>1417</v>
       </c>
       <c r="D586" s="0" t="s">
-        <v>1476</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>1477</v>
+        <v>1419</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>1477</v>
+        <v>1419</v>
       </c>
       <c r="C587" s="0" t="s">
-        <v>1478</v>
+        <v>1420</v>
       </c>
       <c r="D587" s="0" t="s">
-        <v>1479</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>1480</v>
+        <v>1422</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>1480</v>
+        <v>1422</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>1481</v>
+        <v>1423</v>
       </c>
       <c r="D588" s="0" t="s">
-        <v>1482</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>1483</v>
+        <v>1425</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>1483</v>
+        <v>1425</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>1484</v>
+        <v>1426</v>
       </c>
       <c r="D589" s="0" t="s">
-        <v>1485</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>1486</v>
+        <v>1428</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>1486</v>
+        <v>1428</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>1487</v>
+        <v>1429</v>
       </c>
       <c r="D590" s="0" t="s">
-        <v>1488</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>1489</v>
+        <v>1431</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>1489</v>
+        <v>1431</v>
       </c>
       <c r="C591" s="0" t="s">
-        <v>1490</v>
+        <v>1432</v>
       </c>
       <c r="D591" s="0" t="s">
-        <v>1491</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>1492</v>
+        <v>1434</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>1492</v>
+        <v>1434</v>
       </c>
       <c r="C592" s="0" t="s">
-        <v>1493</v>
+        <v>1435</v>
       </c>
       <c r="D592" s="0" t="s">
-        <v>1494</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>1495</v>
+        <v>1437</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>1495</v>
+        <v>1437</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>1496</v>
+        <v>1438</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>1497</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>1498</v>
+        <v>1440</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>1498</v>
+        <v>1440</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>1499</v>
+        <v>1441</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>1500</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>1501</v>
+        <v>1443</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>1501</v>
+        <v>1443</v>
       </c>
       <c r="C595" s="0" t="s">
-        <v>1502</v>
+        <v>1444</v>
       </c>
       <c r="D595" s="0" t="s">
-        <v>1503</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>1504</v>
+        <v>1446</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>1504</v>
+        <v>1446</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>1505</v>
+        <v>1447</v>
       </c>
       <c r="D596" s="0" t="s">
-        <v>1506</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>1507</v>
+        <v>1449</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>1507</v>
+        <v>1449</v>
       </c>
       <c r="C597" s="0" t="s">
-        <v>1508</v>
+        <v>1450</v>
       </c>
       <c r="D597" s="0" t="s">
-        <v>1509</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>1510</v>
+        <v>1452</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>1510</v>
+        <v>1452</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>1511</v>
+        <v>1453</v>
       </c>
       <c r="D598" s="0" t="s">
-        <v>1512</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>1513</v>
+        <v>1455</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>1513</v>
+        <v>1455</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>1514</v>
+        <v>1456</v>
       </c>
       <c r="D599" s="0" t="s">
-        <v>1515</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>1516</v>
+        <v>1458</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>1516</v>
+        <v>1458</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>1517</v>
+        <v>1459</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>1518</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>1519</v>
+        <v>1461</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>1519</v>
+        <v>1461</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>1520</v>
+        <v>1462</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>1521</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1522</v>
+        <v>1464</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>1522</v>
+        <v>1464</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>1523</v>
+        <v>1465</v>
       </c>
       <c r="D602" s="0" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>1524</v>
+        <v>1467</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C603" s="0" t="s">
-        <v>1525</v>
+        <v>1467</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>1468</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>1526</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>1527</v>
+        <v>1470</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>1527</v>
+        <v>1470</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>1528</v>
+        <v>1471</v>
       </c>
       <c r="D604" s="0" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>1530</v>
+        <v>1473</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C605" s="0" t="s">
-        <v>1531</v>
+        <v>1473</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1474</v>
       </c>
       <c r="D605" s="0" t="s">
-        <v>1532</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>1533</v>
+        <v>1476</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>1533</v>
+        <v>1476</v>
       </c>
       <c r="C606" s="0" t="s">
-        <v>1534</v>
+        <v>1477</v>
       </c>
       <c r="D606" s="0" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B607" s="1" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C607" s="2" t="s">
-        <v>1537</v>
+        <v>1479</v>
+      </c>
+      <c r="B607" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C607" s="0" t="s">
+        <v>1480</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="2" t="s">
-        <v>1539</v>
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="0" t="s">
+        <v>1482</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>1539</v>
+        <v>1482</v>
       </c>
       <c r="C608" s="0" t="s">
-        <v>1540</v>
+        <v>1483</v>
       </c>
       <c r="D608" s="0" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>1542</v>
+        <v>1485</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>1542</v>
+        <v>1485</v>
       </c>
       <c r="C609" s="0" t="s">
-        <v>1543</v>
+        <v>1486</v>
       </c>
       <c r="D609" s="0" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B610" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C610" s="2" t="s">
-        <v>1546</v>
+        <v>1488</v>
+      </c>
+      <c r="B610" s="0" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C610" s="0" t="s">
+        <v>1489</v>
       </c>
       <c r="D610" s="0" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="2" t="s">
-        <v>1548</v>
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="0" t="s">
+        <v>1491</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>1548</v>
+        <v>1491</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>1549</v>
+        <v>1492</v>
       </c>
       <c r="D611" s="0" t="s">
-        <v>1550</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>1551</v>
+        <v>1494</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>1551</v>
+        <v>1494</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>1552</v>
+        <v>1495</v>
       </c>
       <c r="D612" s="0" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="0" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B613" s="0" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C613" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D613" s="0" t="s">
+        <v>1497</v>
+      </c>
+    </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>1553</v>
+        <v>1499</v>
+      </c>
+      <c r="B614" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C614" s="0" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D614" s="0" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>1554</v>
+        <v>1502</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>1554</v>
+        <v>1502</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>1555</v>
+        <v>1503</v>
       </c>
       <c r="D615" s="0" t="s">
-        <v>1556</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>1557</v>
+        <v>1505</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>1557</v>
+        <v>1505</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>1558</v>
+        <v>1506</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>1559</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>1560</v>
+        <v>1508</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>1560</v>
+        <v>1508</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>1561</v>
+        <v>1509</v>
       </c>
       <c r="D617" s="0" t="s">
-        <v>1562</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>1563</v>
+        <v>1511</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>1563</v>
+        <v>1511</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>1564</v>
+        <v>1512</v>
       </c>
       <c r="D618" s="0" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>1566</v>
+        <v>1514</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>1566</v>
+        <v>1514</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>1567</v>
+        <v>1515</v>
       </c>
       <c r="D619" s="0" t="s">
-        <v>1568</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>1569</v>
+        <v>1517</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>1569</v>
+        <v>1517</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>1570</v>
+        <v>1518</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>1571</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>1572</v>
+        <v>1520</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>1572</v>
+        <v>1520</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>1573</v>
+        <v>1521</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>1574</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>1575</v>
+        <v>1523</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>1575</v>
+        <v>1523</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>1576</v>
+        <v>1524</v>
       </c>
       <c r="D622" s="0" t="s">
-        <v>1577</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>1578</v>
+        <v>1526</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>1578</v>
+        <v>1526</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>1579</v>
+        <v>1527</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>1580</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>1581</v>
+        <v>1529</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>1581</v>
+        <v>1529</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>1582</v>
+        <v>1530</v>
       </c>
       <c r="D624" s="0" t="s">
-        <v>1583</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>1584</v>
+        <v>1532</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>1584</v>
+        <v>1532</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>1585</v>
+        <v>1533</v>
       </c>
       <c r="D625" s="0" t="s">
-        <v>1586</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>1587</v>
+        <v>1535</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>1588</v>
+        <v>1535</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>1589</v>
+        <v>1536</v>
       </c>
       <c r="D626" s="0" t="s">
-        <v>1590</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>1591</v>
+        <v>1538</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>1591</v>
+        <v>1538</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>1592</v>
+        <v>1539</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>1593</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>1594</v>
+        <v>1541</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>1594</v>
+        <v>1541</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>1595</v>
+        <v>1542</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>1596</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B629" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C629" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D629" s="0" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B630" s="0" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C630" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D630" s="0" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B631" s="0" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C631" s="0" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D631" s="0" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="0" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B632" s="0" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C632" s="0" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D632" s="0" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B633" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C633" s="0" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D633" s="0" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B634" s="0" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C634" s="0" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D634" s="0" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B635" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C635" s="0" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D635" s="0" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B636" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C636" s="0" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D636" s="0" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B637" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C637" s="0" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D637" s="0" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B638" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C638" s="0" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D638" s="0" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B639" s="0" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C639" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D639" s="0" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="0" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B640" s="0" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C640" s="0" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D640" s="0" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="0" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B641" s="0" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C641" s="0" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D641" s="0" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="0" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B642" s="0" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C642" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D642" s="0" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B643" s="0" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C643" s="0" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D643" s="0" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B644" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C644" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D644" s="0" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B645" s="0" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C645" s="0" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D645" s="0" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B646" s="0" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C646" s="0" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D646" s="0" t="s">
         <v>1597</v>
       </c>
-      <c r="B629" s="0" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C629" s="0" t="s">
+    </row>
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="0" t="s">
         <v>1598</v>
       </c>
-      <c r="D629" s="4" t="s">
+      <c r="B647" s="0" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C647" s="0" t="s">
         <v>1599</v>
+      </c>
+      <c r="D647" s="0" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B648" s="0" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C648" s="0" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D648" s="0" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="0" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B649" s="0" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C649" s="0" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D649" s="0" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="0" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B650" s="0" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C650" s="0" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D650" s="0" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="0" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B651" s="0" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C651" s="0" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D651" s="0" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="0" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B652" s="0" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C652" s="0" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D652" s="0" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B653" s="0" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C653" s="0" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D653" s="0" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="0" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B654" s="0" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C654" s="0" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D654" s="0" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B655" s="0" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C655" s="0" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D655" s="0" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B656" s="0" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C656" s="0" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D656" s="0" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="0" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B657" s="0" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C657" s="0" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D657" s="0" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="0" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B658" s="0" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C658" s="0" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D658" s="0" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B659" s="0" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C659" s="0" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D659" s="0" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B660" s="0" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C660" s="0" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D660" s="0" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B661" s="0" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C661" s="0" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D661" s="0" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="0" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B662" s="0" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C662" s="0" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D662" s="0" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B663" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C663" s="0" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D663" s="0" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="0" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B664" s="0" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C664" s="0" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D664" s="0" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="0" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B665" s="0" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C665" s="0" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D665" s="0" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="0" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D666" s="0" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B667" s="0" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C667" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D667" s="0" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="0" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B668" s="0" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C668" s="0" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D668" s="0" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="0" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D669" s="0" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B670" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C670" s="0" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D670" s="0" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B671" s="0" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C671" s="0" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D671" s="0" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B672" s="0" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="0" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B673" s="0" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B674" s="0" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="0" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="0" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B680" s="0" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C680" s="0" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D680" s="0" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="0" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B681" s="0" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C681" s="0" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D681" s="0" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B682" s="0" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C682" s="0" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D682" s="0" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="0" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B683" s="0" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C683" s="0" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D683" s="0" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="0" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B684" s="0" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C684" s="0" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D684" s="0" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="0" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B685" s="0" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C685" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D685" s="0" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B686" s="0" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C686" s="0" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D686" s="0" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B687" s="0" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C687" s="0" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D687" s="0" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B688" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C688" s="0" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D688" s="0" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B689" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C689" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D689" s="0" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="0" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B690" s="0" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C690" s="0" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D690" s="0" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B691" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C691" s="0" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D691" s="0" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="0" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B692" s="0" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C692" s="0" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D692" s="0" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="0" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B693" s="0" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C693" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D693" s="0" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="0" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B694" s="0" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C694" s="0" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>1723</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/su_translations.xlsx
+++ b/data-raw/su_translations.xlsx
@@ -11,7 +11,7 @@
     <sheet name="translations" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$D$693</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$D$692</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="1751">
   <si>
     <t xml:space="preserve">@ note: comments are marked with @ and sections are marked with @@</t>
   </si>
@@ -3355,7 +3355,7 @@
     <t xml:space="preserve">Para cada uno de esos atacantes, un desglose por código de ataque (X5, V5, etc) por cada tipo de ataque por el que el jugador haya hecho al menos \\1 ataques</t>
   </si>
   <si>
-    <t xml:space="preserve">Pour chaque attaquant, le detail par codes d'attaques (X5, V5, etc) est donne quand plus de //1 attaques sont enregistrées</t>
+    <t xml:space="preserve">Pour chaque attaquant, le detail par codes d'attaques (X5, V5, etc) est donne quand plus de \\1 attaques sont enregistrées</t>
   </si>
   <si>
     <t xml:space="preserve">Charts/tables are only shown for attack codes (X5, V5, etc) for which the player made at least ([[:digit:]]+) attacks</t>
@@ -3367,7 +3367,7 @@
     <t xml:space="preserve">Diagramas/tablas se muestran solamente para los códigos de ataque (X5, V5, etc) en los que el jugador haya hecho al menos \\1 ataques</t>
   </si>
   <si>
-    <t xml:space="preserve">Les graphiques/tableaux sont seulement proposes pour les codes d'attaques pour lesquels plus de //1 occurences sont enregistrées</t>
+    <t xml:space="preserve">Les graphiques/tableaux sont seulement proposes pour les codes d'attaques pour lesquels plus de \\1 occurences sont enregistrées</t>
   </si>
   <si>
     <t xml:space="preserve">Note that each table below is based on all attacks with the given attack code. However, the charts do not show all attacks</t>
@@ -3649,39 +3649,111 @@
     <t xml:space="preserve">Number of reception attacks by the team when this player was front row</t>
   </si>
   <si>
+    <t xml:space="preserve">Número de ataques tras recepción del equipo cuando este jugador estaba en primera línea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de réceptions de l’équipe quand ce joueur était devant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Team reception attack kill percentage when this player was front row</t>
   </si>
   <si>
+    <t xml:space="preserve">Porcentaje de ataque punto tras recepción del equipo cuando este jugador estaba en primera línea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourcentage d’attaque gagnantes sur réception de l’équipe quand ce joueur était devant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sideout percentage when this player was front row</t>
   </si>
   <si>
+    <t xml:space="preserve">Porcentaje de cambio de saque cuando este jugador estaba primera línea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourcentage de sideout quand ce joueur était devant</t>
+  </si>
+  <si>
     <t xml:space="preserve">As for 'N rec att' but only on good or perfect reception</t>
   </si>
   <si>
+    <t xml:space="preserve">Como 'N at rec' pero solo con recepción perfecta o positiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comme 'N rec att' mais sur bonne ou excellente réception</t>
+  </si>
+  <si>
     <t xml:space="preserve">As for 'rec att%' but only on good or perfect reception</t>
   </si>
   <si>
+    <t xml:space="preserve">Como '% at rec' pero solo con recepción perfecta o positiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comme 'rec att gagn%' mais sur bonne bonne ou excellente réception</t>
+  </si>
+  <si>
     <t xml:space="preserve">As for 'SO%' but only on good or perfect reception</t>
   </si>
   <si>
+    <t xml:space="preserve">Como '% C.S.' pero solo con recepción perfecta o positiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comme '%SO' mais sur bonne ou excellente réception</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of transition attacks by the team when this player was front row</t>
   </si>
   <si>
+    <t xml:space="preserve">Número de contraataques del equipo cuando este jugador estaba primera línea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre d’attaques en transition de l’équipe quand ce joueur était devant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Team transition attack kill percentage when this player was front row</t>
   </si>
   <si>
+    <t xml:space="preserve">Porcentaje de contraataque punto cuando este jugador estaba primera línea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poucentage d’attaques gagnantes en transition de l’équipe quand ce joueur était devant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Percentage of points won when a transition attack was made (by any player on the team) and this player was front row</t>
   </si>
   <si>
+    <t xml:space="preserve">Porcentaje de puntos ganados cuando el equipo hizo un contraataque (cualquier jugador) y este jugador estaba primera línea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourcentage de points gagnés en transition (par n’importe lequel joueur de l’équipe) quand ce joueur était devant</t>
+  </si>
+  <si>
     <t xml:space="preserve">As for 'N trans att' but only in breakpoint phase (i.e. the team was serving)</t>
   </si>
   <si>
+    <t xml:space="preserve">Como 'N contraat' pero solo en fase breakpoint (cuando el equipo estaba al saque)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comme 'N att trans' uniquement sur phase de breakpoint (point gagné sur service)</t>
+  </si>
+  <si>
     <t xml:space="preserve">As for 'trans att%' but only in breakpoint phase (i.e. the team was serving)</t>
   </si>
   <si>
+    <t xml:space="preserve">Como '% contraat' pero solo en fase breakpoint (cuando el equipo estaba al saque)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comme 'att trans gagn%' uniquement sur phase de breakpoint (point gagné sur service)</t>
+  </si>
+  <si>
     <t xml:space="preserve">The percentage of points won on serve when this player was front row</t>
   </si>
   <si>
+    <t xml:space="preserve">Porcentaje de puntos ganados al saque cuando este jugador estaba primera línea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourcentage de points gagnés au service quand ce joueur était devant</t>
+  </si>
+  <si>
     <t xml:space="preserve">@@ blocking section</t>
   </si>
   <si>
@@ -5044,16 +5116,25 @@
     <t xml:space="preserve">Use at your own risk. While every effort has been made to make the reports accurate, no warranty is given and no responsibility is accepted for errors or omissions. Be aware that the outputs from these apps can be affected by errors or inconsistencies in your data, which in general are impossible for the apps to detect or correct. Note also that different scouts use different scouting conventions, and it is not possible to anticipate or cater for all possible variations in these conventions.</t>
   </si>
   <si>
+    <t xml:space="preserve">Utilisez a vos propre risques. Les applications ont été développées avec soin afin de maximiser la qualité du contenu, mais aucune garantie n’est donnée ni aucune responsabilité acceptée en cas d’erreur ou d’omission. Les résultats proposés sont susceptibles d’etre affectées par des erreurs dans vos données, qui sont en général impossibles a détecter par les applications. Par ailleurs, les méthodes de scouting peuvent différer entre scout, et il n’est pas possible d’anticiper toutes les variations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request_dropbox_email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To work with your own data sets, you will need to upload them via Dropbox. Enter your Dropbox email here so that a folder can be shared with you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour travailler avec vos données, vous devez les télécharger via Dropbox. Tapez votre email Dropbox ci-dessous afin de nous permettre de partager un dossier avec vous.</t>
+  </si>
+  <si>
     <t xml:space="preserve">no_app_access</t>
   </si>
   <si>
     <t xml:space="preserve">You do not have access to this application - contact</t>
   </si>
   <si>
-    <t xml:space="preserve">request_dropbox_email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To work with your own data sets, you will need to upload them via Dropbox. Enter your Dropbox email here so that a folder can be shared with you.</t>
+    <t xml:space="preserve">Vous n’avez pas acces a cette application – contact</t>
   </si>
   <si>
     <t xml:space="preserve">@@ progress messages in app</t>
@@ -5194,7 +5275,7 @@
     <t xml:space="preserve">procesando datos</t>
   </si>
   <si>
-    <t xml:space="preserve">des données en traitement</t>
+    <t xml:space="preserve">données en cours de pré-traitement</t>
   </si>
 </sst>
 </file>
@@ -5204,7 +5285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5230,6 +5311,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -5295,11 +5382,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5380,10 +5467,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D694"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A477" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B495" activeCellId="0" sqref="B495"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B440" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D459" activeCellId="0" sqref="D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11495,2652 +11582,2709 @@
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A493" s="3" t="s">
+      <c r="A493" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="B493" s="4" t="s">
+      <c r="B493" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="C493" s="3"/>
-      <c r="D493" s="3"/>
+      <c r="C493" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B494" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C494" s="3"/>
-      <c r="D494" s="3"/>
+      <c r="A494" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>1212</v>
+      </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B495" s="4" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C495" s="3"/>
-      <c r="D495" s="3"/>
+      <c r="A495" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B496" s="4" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C496" s="3"/>
-      <c r="D496" s="3"/>
+      <c r="A496" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>1218</v>
+      </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A497" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="B497" s="4" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C497" s="3"/>
-      <c r="D497" s="3"/>
+      <c r="A497" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B498" s="4" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C498" s="3"/>
-      <c r="D498" s="3"/>
+      <c r="A498" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>1224</v>
+      </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A499" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B499" s="4" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C499" s="3"/>
-      <c r="D499" s="3"/>
+      <c r="A499" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>1227</v>
+      </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A500" s="3" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B500" s="4" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C500" s="3"/>
-      <c r="D500" s="3"/>
+      <c r="A500" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>1230</v>
+      </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="3" t="s">
-        <v>1215</v>
-      </c>
-      <c r="B501" s="4" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C501" s="3"/>
-      <c r="D501" s="3"/>
+      <c r="A501" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>1233</v>
+      </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B502" s="4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C502" s="3"/>
-      <c r="D502" s="3"/>
+      <c r="A502" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>1236</v>
+      </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B503" s="4" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C503" s="3"/>
-      <c r="D503" s="3"/>
+      <c r="A503" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B504" s="4" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C504" s="3"/>
-      <c r="D504" s="3"/>
+      <c r="A504" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>1219</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>1220</v>
+        <v>1244</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>1220</v>
+        <v>1244</v>
       </c>
       <c r="C507" s="0" t="s">
-        <v>1221</v>
+        <v>1245</v>
       </c>
       <c r="D507" s="0" t="s">
-        <v>1222</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>1223</v>
+        <v>1247</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>1223</v>
+        <v>1247</v>
       </c>
       <c r="C508" s="0" t="s">
-        <v>1224</v>
+        <v>1248</v>
       </c>
       <c r="D508" s="0" t="s">
-        <v>1225</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>1226</v>
+        <v>1250</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>1226</v>
+        <v>1250</v>
       </c>
       <c r="C509" s="0" t="s">
-        <v>1227</v>
+        <v>1251</v>
       </c>
       <c r="D509" s="0" t="s">
-        <v>1228</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>1229</v>
+        <v>1253</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>1229</v>
+        <v>1253</v>
       </c>
       <c r="C510" s="0" t="s">
-        <v>1229</v>
+        <v>1253</v>
       </c>
       <c r="D510" s="0" t="s">
-        <v>1229</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>1230</v>
+        <v>1254</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>1230</v>
+        <v>1254</v>
       </c>
       <c r="C511" s="0" t="s">
-        <v>1231</v>
+        <v>1255</v>
       </c>
       <c r="D511" s="0" t="s">
-        <v>1232</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>1233</v>
+        <v>1257</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>1233</v>
+        <v>1257</v>
       </c>
       <c r="C512" s="0" t="s">
-        <v>1234</v>
+        <v>1258</v>
       </c>
       <c r="D512" s="0" t="s">
-        <v>1233</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>1235</v>
+        <v>1259</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>1235</v>
+        <v>1259</v>
       </c>
       <c r="C513" s="0" t="s">
-        <v>1236</v>
+        <v>1260</v>
       </c>
       <c r="D513" s="0" t="s">
-        <v>1237</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>1238</v>
+        <v>1262</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>1238</v>
+        <v>1262</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>1239</v>
+        <v>1263</v>
       </c>
       <c r="D514" s="0" t="s">
-        <v>1238</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>1240</v>
+        <v>1264</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>1240</v>
+        <v>1264</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1241</v>
+        <v>1265</v>
       </c>
       <c r="D515" s="0" t="s">
-        <v>1242</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>1243</v>
+        <v>1267</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>1243</v>
+        <v>1267</v>
       </c>
       <c r="C516" s="0" t="s">
-        <v>1244</v>
+        <v>1268</v>
       </c>
       <c r="D516" s="0" t="s">
-        <v>1245</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>1246</v>
+        <v>1270</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>1246</v>
+        <v>1270</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>1247</v>
+        <v>1271</v>
       </c>
       <c r="D517" s="0" t="s">
-        <v>1248</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>1249</v>
+        <v>1273</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>1249</v>
+        <v>1273</v>
       </c>
       <c r="C518" s="0" t="s">
-        <v>1250</v>
+        <v>1274</v>
       </c>
       <c r="D518" s="0" t="s">
-        <v>1251</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>1252</v>
+        <v>1276</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>1252</v>
+        <v>1276</v>
       </c>
       <c r="C519" s="0" t="s">
-        <v>1252</v>
+        <v>1276</v>
       </c>
       <c r="D519" s="0" t="s">
-        <v>1253</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>1254</v>
+        <v>1278</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>1254</v>
+        <v>1278</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>1254</v>
+        <v>1278</v>
       </c>
       <c r="D520" s="0" t="s">
-        <v>1255</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>1256</v>
+        <v>1280</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>1256</v>
+        <v>1280</v>
       </c>
       <c r="C521" s="0" t="s">
-        <v>1257</v>
+        <v>1281</v>
       </c>
       <c r="D521" s="0" t="s">
-        <v>1258</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>1259</v>
+        <v>1283</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>1259</v>
+        <v>1283</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>1260</v>
+        <v>1284</v>
       </c>
       <c r="D522" s="0" t="s">
-        <v>1259</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>1261</v>
+        <v>1285</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>1261</v>
+        <v>1285</v>
       </c>
       <c r="C523" s="0" t="s">
-        <v>1262</v>
+        <v>1286</v>
       </c>
       <c r="D523" s="0" t="s">
-        <v>1263</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>1264</v>
+        <v>1288</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>1264</v>
+        <v>1288</v>
       </c>
       <c r="C524" s="0" t="s">
-        <v>1265</v>
+        <v>1289</v>
       </c>
       <c r="D524" s="0" t="s">
-        <v>1266</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>1267</v>
+        <v>1291</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>1267</v>
+        <v>1291</v>
       </c>
       <c r="C525" s="0" t="s">
-        <v>1267</v>
+        <v>1291</v>
       </c>
       <c r="D525" s="0" t="s">
-        <v>1267</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>1268</v>
+        <v>1292</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>1268</v>
+        <v>1292</v>
       </c>
       <c r="C526" s="0" t="s">
-        <v>1269</v>
+        <v>1293</v>
       </c>
       <c r="D526" s="0" t="s">
-        <v>1270</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>1271</v>
+        <v>1295</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>1271</v>
+        <v>1295</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>1272</v>
+        <v>1296</v>
       </c>
       <c r="D527" s="0" t="s">
-        <v>1273</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>1274</v>
+        <v>1298</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>1274</v>
+        <v>1298</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>1275</v>
+        <v>1299</v>
       </c>
       <c r="D528" s="0" t="s">
-        <v>1276</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>1277</v>
+        <v>1301</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>1277</v>
+        <v>1301</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>1278</v>
+        <v>1302</v>
       </c>
       <c r="D529" s="0" t="s">
-        <v>1279</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>1280</v>
+        <v>1304</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>1280</v>
+        <v>1304</v>
       </c>
       <c r="C530" s="0" t="s">
-        <v>1281</v>
+        <v>1305</v>
       </c>
       <c r="D530" s="0" t="s">
-        <v>1282</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>1283</v>
+        <v>1307</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>1283</v>
+        <v>1307</v>
       </c>
       <c r="C531" s="0" t="s">
-        <v>1283</v>
+        <v>1307</v>
       </c>
       <c r="D531" s="0" t="s">
-        <v>1283</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>1284</v>
+        <v>1308</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>1284</v>
+        <v>1308</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>1285</v>
+        <v>1309</v>
       </c>
       <c r="D532" s="0" t="s">
-        <v>1286</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>1287</v>
+        <v>1311</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>1287</v>
+        <v>1311</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>1287</v>
+        <v>1311</v>
       </c>
       <c r="D533" s="0" t="s">
-        <v>1287</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>1288</v>
+        <v>1312</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>1288</v>
+        <v>1312</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>1289</v>
+        <v>1313</v>
       </c>
       <c r="D534" s="0" t="s">
-        <v>1290</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
       <c r="C535" s="0" t="s">
-        <v>1292</v>
+        <v>1316</v>
       </c>
       <c r="D535" s="0" t="s">
-        <v>1291</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>1293</v>
+        <v>1317</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>1293</v>
+        <v>1317</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1294</v>
+        <v>1318</v>
       </c>
       <c r="D536" s="0" t="s">
-        <v>1295</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>1296</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>1297</v>
+        <v>1321</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>1297</v>
+        <v>1321</v>
       </c>
       <c r="C538" s="0" t="s">
-        <v>1298</v>
+        <v>1322</v>
       </c>
       <c r="D538" s="0" t="s">
-        <v>1297</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>1299</v>
+        <v>1323</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>1299</v>
+        <v>1323</v>
       </c>
       <c r="C539" s="0" t="s">
-        <v>1300</v>
+        <v>1324</v>
       </c>
       <c r="D539" s="0" t="s">
-        <v>1301</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>1302</v>
+        <v>1326</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>1302</v>
+        <v>1326</v>
       </c>
       <c r="C540" s="0" t="s">
-        <v>1303</v>
+        <v>1327</v>
       </c>
       <c r="D540" s="0" t="s">
-        <v>1304</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>1305</v>
+        <v>1329</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>1305</v>
+        <v>1329</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>1306</v>
+        <v>1330</v>
       </c>
       <c r="D541" s="0" t="s">
-        <v>1307</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>1308</v>
+        <v>1332</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>1308</v>
+        <v>1332</v>
       </c>
       <c r="C542" s="0" t="s">
-        <v>1309</v>
+        <v>1333</v>
       </c>
       <c r="D542" s="0" t="s">
-        <v>1308</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>1310</v>
+        <v>1334</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>1310</v>
+        <v>1334</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>1311</v>
+        <v>1335</v>
       </c>
       <c r="D543" s="0" t="s">
-        <v>1310</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>1312</v>
+        <v>1336</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>1312</v>
+        <v>1336</v>
       </c>
       <c r="C544" s="0" t="s">
-        <v>1313</v>
+        <v>1337</v>
       </c>
       <c r="D544" s="0" t="s">
-        <v>1312</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>1314</v>
+        <v>1338</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>1314</v>
+        <v>1338</v>
       </c>
       <c r="C545" s="0" t="s">
-        <v>1315</v>
+        <v>1339</v>
       </c>
       <c r="D545" s="0" t="s">
-        <v>1314</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>1316</v>
+        <v>1340</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>1316</v>
+        <v>1340</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>1317</v>
+        <v>1341</v>
       </c>
       <c r="D546" s="0" t="s">
-        <v>1318</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>1319</v>
+        <v>1343</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>1319</v>
+        <v>1343</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>1320</v>
+        <v>1344</v>
       </c>
       <c r="D547" s="0" t="s">
-        <v>1321</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>1322</v>
+        <v>1346</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>1322</v>
+        <v>1346</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>1323</v>
+        <v>1347</v>
       </c>
       <c r="D548" s="0" t="s">
-        <v>1324</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>1325</v>
+        <v>1349</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>1325</v>
+        <v>1349</v>
       </c>
       <c r="C549" s="0" t="s">
-        <v>1326</v>
+        <v>1350</v>
       </c>
       <c r="D549" s="0" t="s">
-        <v>1327</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>1328</v>
+        <v>1352</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>1328</v>
+        <v>1352</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>1329</v>
+        <v>1353</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>1330</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>1331</v>
+        <v>1355</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>1331</v>
+        <v>1355</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>1332</v>
+        <v>1356</v>
       </c>
       <c r="D551" s="0" t="s">
-        <v>1333</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>1334</v>
+        <v>1358</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>1334</v>
+        <v>1358</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>1334</v>
+        <v>1358</v>
       </c>
       <c r="D552" s="0" t="s">
-        <v>1335</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>1336</v>
+        <v>1360</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>1336</v>
+        <v>1360</v>
       </c>
       <c r="C553" s="0" t="s">
-        <v>1337</v>
+        <v>1361</v>
       </c>
       <c r="D553" s="0" t="s">
-        <v>1338</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>1339</v>
+        <v>1363</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>1339</v>
+        <v>1363</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>1236</v>
+        <v>1260</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>1340</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1341</v>
+        <v>1365</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>1341</v>
+        <v>1365</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>1342</v>
+        <v>1366</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>1343</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>1344</v>
+        <v>1368</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>1344</v>
+        <v>1368</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>1345</v>
+        <v>1369</v>
       </c>
       <c r="D556" s="0" t="s">
-        <v>1346</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>1347</v>
+        <v>1371</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>1347</v>
+        <v>1371</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>1347</v>
+        <v>1371</v>
       </c>
       <c r="D557" s="0" t="s">
-        <v>1348</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>1349</v>
+        <v>1373</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>1349</v>
+        <v>1373</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>1350</v>
+        <v>1374</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>1351</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>1352</v>
+        <v>1376</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>1352</v>
+        <v>1376</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>1353</v>
+        <v>1377</v>
       </c>
       <c r="D559" s="0" t="s">
-        <v>1354</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>1355</v>
+        <v>1379</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>1355</v>
+        <v>1379</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>1355</v>
+        <v>1379</v>
       </c>
       <c r="D560" s="0" t="s">
-        <v>1355</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>1356</v>
+        <v>1380</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>1356</v>
+        <v>1380</v>
       </c>
       <c r="C561" s="0" t="s">
-        <v>1356</v>
+        <v>1380</v>
       </c>
       <c r="D561" s="0" t="s">
-        <v>1356</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>1357</v>
+        <v>1381</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>1357</v>
+        <v>1381</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>1357</v>
+        <v>1381</v>
       </c>
       <c r="D562" s="0" t="s">
-        <v>1357</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>1358</v>
+        <v>1382</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>1358</v>
+        <v>1382</v>
       </c>
       <c r="C563" s="0" t="s">
-        <v>1358</v>
+        <v>1382</v>
       </c>
       <c r="D563" s="0" t="s">
-        <v>1358</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>1359</v>
+        <v>1383</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>1359</v>
+        <v>1383</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>1360</v>
+        <v>1384</v>
       </c>
       <c r="D564" s="0" t="s">
-        <v>1361</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>1362</v>
+        <v>1386</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>1362</v>
+        <v>1386</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>1363</v>
+        <v>1387</v>
       </c>
       <c r="D565" s="0" t="s">
-        <v>1362</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>1364</v>
+        <v>1388</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>1364</v>
+        <v>1388</v>
       </c>
       <c r="C566" s="0" t="s">
-        <v>1365</v>
+        <v>1389</v>
       </c>
       <c r="D566" s="0" t="s">
-        <v>1366</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>1367</v>
+        <v>1391</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>1367</v>
+        <v>1391</v>
       </c>
       <c r="C567" s="0" t="s">
-        <v>1368</v>
+        <v>1392</v>
       </c>
       <c r="D567" s="0" t="s">
-        <v>1367</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>1369</v>
+        <v>1393</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>1369</v>
+        <v>1393</v>
       </c>
       <c r="C568" s="0" t="s">
-        <v>1370</v>
+        <v>1394</v>
       </c>
       <c r="D568" s="0" t="s">
-        <v>1237</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>1371</v>
+        <v>1395</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>1371</v>
+        <v>1395</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>1372</v>
+        <v>1396</v>
       </c>
       <c r="D569" s="0" t="s">
-        <v>1373</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>1374</v>
+        <v>1398</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>1374</v>
+        <v>1398</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>1375</v>
+        <v>1399</v>
       </c>
       <c r="D570" s="0" t="s">
-        <v>1376</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>1377</v>
+        <v>1401</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>1377</v>
+        <v>1401</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>1378</v>
+        <v>1402</v>
       </c>
       <c r="D571" s="0" t="s">
-        <v>1379</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>1380</v>
+        <v>1404</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>1380</v>
+        <v>1404</v>
       </c>
       <c r="C572" s="0" t="s">
-        <v>1381</v>
+        <v>1405</v>
       </c>
       <c r="D572" s="0" t="s">
-        <v>1382</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>1383</v>
+        <v>1407</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>1383</v>
+        <v>1407</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>1384</v>
+        <v>1408</v>
       </c>
       <c r="D573" s="0" t="s">
-        <v>1385</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>1386</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>1387</v>
+        <v>1411</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>1387</v>
+        <v>1411</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>1388</v>
+        <v>1412</v>
       </c>
       <c r="D576" s="0" t="s">
-        <v>1389</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>1390</v>
+        <v>1414</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>1390</v>
+        <v>1414</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>1391</v>
+        <v>1415</v>
       </c>
       <c r="D577" s="0" t="s">
-        <v>1392</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>1393</v>
+        <v>1417</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>1393</v>
+        <v>1417</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>1394</v>
+        <v>1418</v>
       </c>
       <c r="D578" s="0" t="s">
-        <v>1395</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>1396</v>
+        <v>1420</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>1396</v>
+        <v>1420</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>1397</v>
+        <v>1421</v>
       </c>
       <c r="D579" s="0" t="s">
-        <v>1398</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>1399</v>
+        <v>1423</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>1399</v>
+        <v>1423</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>1400</v>
+        <v>1424</v>
       </c>
       <c r="D580" s="0" t="s">
-        <v>1401</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>1402</v>
+        <v>1426</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>1402</v>
+        <v>1426</v>
       </c>
       <c r="C581" s="0" t="s">
-        <v>1403</v>
+        <v>1427</v>
       </c>
       <c r="D581" s="0" t="s">
-        <v>1401</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>1404</v>
+        <v>1428</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>1404</v>
+        <v>1428</v>
       </c>
       <c r="C582" s="0" t="s">
-        <v>1405</v>
+        <v>1429</v>
       </c>
       <c r="D582" s="0" t="s">
-        <v>1406</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>1407</v>
+        <v>1431</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>1407</v>
+        <v>1431</v>
       </c>
       <c r="C583" s="0" t="s">
-        <v>1408</v>
+        <v>1432</v>
       </c>
       <c r="D583" s="0" t="s">
-        <v>1409</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>1410</v>
+        <v>1434</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>1410</v>
+        <v>1434</v>
       </c>
       <c r="C584" s="0" t="s">
-        <v>1411</v>
+        <v>1435</v>
       </c>
       <c r="D584" s="0" t="s">
-        <v>1412</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>1413</v>
+        <v>1437</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>1413</v>
+        <v>1437</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>1414</v>
+        <v>1438</v>
       </c>
       <c r="D585" s="0" t="s">
-        <v>1415</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>1416</v>
+        <v>1440</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>1416</v>
+        <v>1440</v>
       </c>
       <c r="C586" s="0" t="s">
-        <v>1417</v>
+        <v>1441</v>
       </c>
       <c r="D586" s="0" t="s">
-        <v>1418</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>1419</v>
+        <v>1443</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>1419</v>
+        <v>1443</v>
       </c>
       <c r="C587" s="0" t="s">
-        <v>1420</v>
+        <v>1444</v>
       </c>
       <c r="D587" s="0" t="s">
-        <v>1421</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>1422</v>
+        <v>1446</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>1422</v>
+        <v>1446</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>1423</v>
+        <v>1447</v>
       </c>
       <c r="D588" s="0" t="s">
-        <v>1424</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>1425</v>
+        <v>1449</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>1425</v>
+        <v>1449</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>1426</v>
+        <v>1450</v>
       </c>
       <c r="D589" s="0" t="s">
-        <v>1427</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>1428</v>
+        <v>1452</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>1428</v>
+        <v>1452</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>1429</v>
+        <v>1453</v>
       </c>
       <c r="D590" s="0" t="s">
-        <v>1430</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>1431</v>
+        <v>1455</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>1431</v>
+        <v>1455</v>
       </c>
       <c r="C591" s="0" t="s">
-        <v>1432</v>
+        <v>1456</v>
       </c>
       <c r="D591" s="0" t="s">
-        <v>1433</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>1434</v>
+        <v>1458</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>1434</v>
+        <v>1458</v>
       </c>
       <c r="C592" s="0" t="s">
-        <v>1435</v>
+        <v>1459</v>
       </c>
       <c r="D592" s="0" t="s">
-        <v>1436</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>1437</v>
+        <v>1461</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>1437</v>
+        <v>1461</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>1438</v>
+        <v>1462</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>1439</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>1440</v>
+        <v>1464</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>1440</v>
+        <v>1464</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>1441</v>
+        <v>1465</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>1442</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>1443</v>
+        <v>1467</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>1443</v>
+        <v>1467</v>
       </c>
       <c r="C595" s="0" t="s">
-        <v>1444</v>
+        <v>1468</v>
       </c>
       <c r="D595" s="0" t="s">
-        <v>1445</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>1446</v>
+        <v>1470</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>1446</v>
+        <v>1470</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>1447</v>
+        <v>1471</v>
       </c>
       <c r="D596" s="0" t="s">
-        <v>1448</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>1449</v>
+        <v>1473</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>1449</v>
+        <v>1473</v>
       </c>
       <c r="C597" s="0" t="s">
-        <v>1450</v>
+        <v>1474</v>
       </c>
       <c r="D597" s="0" t="s">
-        <v>1451</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>1452</v>
+        <v>1476</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>1452</v>
+        <v>1476</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>1453</v>
+        <v>1477</v>
       </c>
       <c r="D598" s="0" t="s">
-        <v>1454</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>1455</v>
+        <v>1479</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>1455</v>
+        <v>1479</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>1456</v>
+        <v>1480</v>
       </c>
       <c r="D599" s="0" t="s">
-        <v>1457</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>1458</v>
+        <v>1482</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>1458</v>
+        <v>1482</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>1459</v>
+        <v>1483</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>1460</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>1461</v>
+        <v>1485</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>1461</v>
+        <v>1485</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>1462</v>
+        <v>1486</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>1463</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1464</v>
+        <v>1488</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>1464</v>
+        <v>1488</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>1465</v>
+        <v>1489</v>
       </c>
       <c r="D602" s="0" t="s">
-        <v>1466</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>1467</v>
+        <v>1491</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>1467</v>
-      </c>
-      <c r="C603" s="3" t="s">
-        <v>1468</v>
+        <v>1491</v>
+      </c>
+      <c r="C603" s="4" t="s">
+        <v>1492</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>1469</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>1470</v>
+        <v>1494</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>1470</v>
+        <v>1494</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>1471</v>
+        <v>1495</v>
       </c>
       <c r="D604" s="0" t="s">
-        <v>1472</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>1473</v>
+        <v>1497</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>1473</v>
+        <v>1497</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1474</v>
+        <v>1498</v>
       </c>
       <c r="D605" s="0" t="s">
-        <v>1475</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>1476</v>
+        <v>1500</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>1476</v>
+        <v>1500</v>
       </c>
       <c r="C606" s="0" t="s">
-        <v>1477</v>
+        <v>1501</v>
       </c>
       <c r="D606" s="0" t="s">
-        <v>1478</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>1479</v>
+        <v>1503</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>1479</v>
+        <v>1503</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>1480</v>
+        <v>1504</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>1481</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>1482</v>
+        <v>1506</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>1482</v>
+        <v>1506</v>
       </c>
       <c r="C608" s="0" t="s">
-        <v>1483</v>
+        <v>1507</v>
       </c>
       <c r="D608" s="0" t="s">
-        <v>1484</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>1485</v>
+        <v>1509</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>1485</v>
+        <v>1509</v>
       </c>
       <c r="C609" s="0" t="s">
-        <v>1486</v>
+        <v>1510</v>
       </c>
       <c r="D609" s="0" t="s">
-        <v>1487</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>1488</v>
+        <v>1512</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>1488</v>
+        <v>1512</v>
       </c>
       <c r="C610" s="0" t="s">
-        <v>1489</v>
+        <v>1513</v>
       </c>
       <c r="D610" s="0" t="s">
-        <v>1490</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>1491</v>
+        <v>1515</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>1491</v>
+        <v>1515</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>1492</v>
+        <v>1516</v>
       </c>
       <c r="D611" s="0" t="s">
-        <v>1493</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>1494</v>
+        <v>1518</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>1494</v>
+        <v>1518</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>1495</v>
+        <v>1519</v>
       </c>
       <c r="D612" s="0" t="s">
-        <v>1496</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>1497</v>
+        <v>1521</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>1497</v>
+        <v>1521</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>1498</v>
+        <v>1522</v>
       </c>
       <c r="D613" s="0" t="s">
-        <v>1497</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>1499</v>
+        <v>1523</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>1499</v>
+        <v>1523</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>1500</v>
+        <v>1524</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>1501</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>1502</v>
+        <v>1526</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>1502</v>
+        <v>1526</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>1503</v>
+        <v>1527</v>
       </c>
       <c r="D615" s="0" t="s">
-        <v>1504</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>1505</v>
+        <v>1529</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>1505</v>
+        <v>1529</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>1506</v>
+        <v>1530</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>1507</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>1508</v>
+        <v>1532</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>1508</v>
+        <v>1532</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>1509</v>
+        <v>1533</v>
       </c>
       <c r="D617" s="0" t="s">
-        <v>1510</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>1511</v>
+        <v>1535</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>1511</v>
+        <v>1535</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>1512</v>
+        <v>1536</v>
       </c>
       <c r="D618" s="0" t="s">
-        <v>1513</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>1514</v>
+        <v>1538</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>1514</v>
+        <v>1538</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>1515</v>
+        <v>1539</v>
       </c>
       <c r="D619" s="0" t="s">
-        <v>1516</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>1517</v>
+        <v>1541</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>1517</v>
+        <v>1541</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>1518</v>
+        <v>1542</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>1519</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>1520</v>
+        <v>1544</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>1520</v>
+        <v>1544</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>1521</v>
+        <v>1545</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>1522</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>1523</v>
+        <v>1547</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>1523</v>
+        <v>1547</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>1524</v>
+        <v>1548</v>
       </c>
       <c r="D622" s="0" t="s">
-        <v>1525</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>1526</v>
+        <v>1550</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>1526</v>
+        <v>1550</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>1527</v>
+        <v>1551</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>1528</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>1529</v>
+        <v>1553</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>1529</v>
+        <v>1553</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>1530</v>
+        <v>1554</v>
       </c>
       <c r="D624" s="0" t="s">
-        <v>1531</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>1532</v>
+        <v>1556</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>1532</v>
+        <v>1556</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>1533</v>
+        <v>1557</v>
       </c>
       <c r="D625" s="0" t="s">
-        <v>1534</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>1535</v>
+        <v>1559</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>1535</v>
+        <v>1559</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>1536</v>
+        <v>1560</v>
       </c>
       <c r="D626" s="0" t="s">
-        <v>1537</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>1538</v>
+        <v>1562</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>1538</v>
+        <v>1562</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>1539</v>
+        <v>1563</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>1540</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>1541</v>
+        <v>1565</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>1541</v>
+        <v>1565</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>1542</v>
+        <v>1566</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>1543</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>1544</v>
+        <v>1568</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>1544</v>
+        <v>1568</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>1545</v>
+        <v>1569</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>1546</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>1547</v>
+        <v>1571</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>1547</v>
+        <v>1571</v>
       </c>
       <c r="C630" s="0" t="s">
-        <v>1548</v>
+        <v>1572</v>
       </c>
       <c r="D630" s="0" t="s">
-        <v>1549</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>1550</v>
+        <v>1574</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>1550</v>
+        <v>1574</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>1551</v>
+        <v>1575</v>
       </c>
       <c r="D631" s="0" t="s">
-        <v>1552</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>1553</v>
+        <v>1577</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>1553</v>
+        <v>1577</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>1554</v>
+        <v>1578</v>
       </c>
       <c r="D632" s="0" t="s">
-        <v>1555</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>1556</v>
+        <v>1580</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>1556</v>
+        <v>1580</v>
       </c>
       <c r="C633" s="0" t="s">
-        <v>1557</v>
+        <v>1581</v>
       </c>
       <c r="D633" s="0" t="s">
-        <v>1558</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>1559</v>
+        <v>1583</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>1559</v>
+        <v>1583</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>1560</v>
+        <v>1584</v>
       </c>
       <c r="D634" s="0" t="s">
-        <v>1561</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>1562</v>
+        <v>1586</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>1562</v>
+        <v>1586</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>1563</v>
+        <v>1587</v>
       </c>
       <c r="D635" s="0" t="s">
-        <v>1564</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>1565</v>
+        <v>1589</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>1565</v>
+        <v>1589</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>1566</v>
+        <v>1590</v>
       </c>
       <c r="D636" s="0" t="s">
-        <v>1567</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>1568</v>
+        <v>1592</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>1568</v>
+        <v>1592</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>1569</v>
+        <v>1593</v>
       </c>
       <c r="D637" s="0" t="s">
-        <v>1570</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>1571</v>
+        <v>1595</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>1571</v>
+        <v>1595</v>
       </c>
       <c r="C638" s="0" t="s">
-        <v>1572</v>
+        <v>1596</v>
       </c>
       <c r="D638" s="0" t="s">
-        <v>1573</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>1574</v>
+        <v>1598</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>1574</v>
+        <v>1598</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>1575</v>
+        <v>1599</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>1576</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>1577</v>
+        <v>1601</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>1577</v>
+        <v>1601</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>1578</v>
+        <v>1602</v>
       </c>
       <c r="D640" s="0" t="s">
-        <v>1579</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>1580</v>
+        <v>1604</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>1580</v>
+        <v>1604</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>1581</v>
+        <v>1605</v>
       </c>
       <c r="D641" s="0" t="s">
-        <v>1582</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>1583</v>
+        <v>1607</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>1583</v>
+        <v>1607</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>1584</v>
+        <v>1608</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>1585</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>1586</v>
+        <v>1610</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>1586</v>
+        <v>1610</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>1587</v>
+        <v>1611</v>
       </c>
       <c r="D643" s="0" t="s">
-        <v>1588</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>1589</v>
+        <v>1613</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>1589</v>
+        <v>1613</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>1590</v>
+        <v>1614</v>
       </c>
       <c r="D644" s="0" t="s">
-        <v>1591</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>1592</v>
+        <v>1616</v>
       </c>
       <c r="B645" s="0" t="s">
-        <v>1592</v>
+        <v>1616</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>1593</v>
+        <v>1617</v>
       </c>
       <c r="D645" s="0" t="s">
-        <v>1594</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>1595</v>
+        <v>1619</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>1595</v>
+        <v>1619</v>
       </c>
       <c r="C646" s="0" t="s">
-        <v>1596</v>
+        <v>1620</v>
       </c>
       <c r="D646" s="0" t="s">
-        <v>1597</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>1598</v>
+        <v>1622</v>
       </c>
       <c r="B647" s="0" t="s">
-        <v>1598</v>
+        <v>1622</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>1599</v>
+        <v>1623</v>
       </c>
       <c r="D647" s="0" t="s">
-        <v>1600</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>1601</v>
+        <v>1625</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>1601</v>
+        <v>1625</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>1602</v>
+        <v>1626</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>1603</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>1604</v>
+        <v>1628</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>1604</v>
+        <v>1628</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>1605</v>
+        <v>1629</v>
       </c>
       <c r="D649" s="0" t="s">
-        <v>1606</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>1607</v>
+        <v>1631</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>1607</v>
+        <v>1631</v>
       </c>
       <c r="C650" s="0" t="s">
-        <v>1608</v>
+        <v>1632</v>
       </c>
       <c r="D650" s="0" t="s">
-        <v>1609</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>1610</v>
+        <v>1634</v>
       </c>
       <c r="B651" s="0" t="s">
-        <v>1610</v>
+        <v>1634</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>1611</v>
+        <v>1635</v>
       </c>
       <c r="D651" s="0" t="s">
-        <v>1612</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>1613</v>
+        <v>1637</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>1613</v>
+        <v>1637</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>1614</v>
+        <v>1638</v>
       </c>
       <c r="D652" s="0" t="s">
-        <v>1615</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>1616</v>
+        <v>1640</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>1616</v>
+        <v>1640</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>1617</v>
+        <v>1641</v>
       </c>
       <c r="D653" s="0" t="s">
-        <v>1618</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>1619</v>
+        <v>1643</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>1619</v>
+        <v>1643</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>1620</v>
+        <v>1644</v>
       </c>
       <c r="D654" s="0" t="s">
-        <v>1621</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>1622</v>
+        <v>1646</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>1622</v>
+        <v>1646</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>1623</v>
+        <v>1647</v>
       </c>
       <c r="D655" s="0" t="s">
-        <v>1624</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>1625</v>
+        <v>1649</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>1625</v>
+        <v>1649</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>1626</v>
+        <v>1650</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>1627</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>1628</v>
+        <v>1652</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>1628</v>
+        <v>1652</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>1629</v>
+        <v>1653</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>1630</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>1631</v>
+        <v>1655</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>1631</v>
+        <v>1655</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>1632</v>
+        <v>1656</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>1633</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>1634</v>
+        <v>1658</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>1634</v>
+        <v>1658</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>1635</v>
+        <v>1659</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>1636</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>1637</v>
+        <v>1661</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>1637</v>
+        <v>1661</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>1638</v>
+        <v>1662</v>
       </c>
       <c r="D660" s="0" t="s">
-        <v>1639</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>1640</v>
+        <v>1664</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>1640</v>
+        <v>1664</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>1641</v>
+        <v>1665</v>
       </c>
       <c r="D661" s="0" t="s">
-        <v>1640</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1642</v>
+        <v>1666</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>1642</v>
+        <v>1666</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>1643</v>
+        <v>1667</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>1644</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>1645</v>
+        <v>1669</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>1645</v>
+        <v>1669</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>1646</v>
+        <v>1670</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>1647</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>1648</v>
+        <v>1672</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>1648</v>
+        <v>1672</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>1649</v>
+        <v>1673</v>
       </c>
       <c r="D664" s="0" t="s">
-        <v>1650</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>1651</v>
+        <v>1675</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>1651</v>
+        <v>1675</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>1652</v>
+        <v>1676</v>
       </c>
       <c r="D665" s="0" t="s">
-        <v>1653</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>1654</v>
+        <v>1678</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>1654</v>
+        <v>1678</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>1655</v>
+        <v>1679</v>
       </c>
       <c r="D666" s="0" t="s">
-        <v>1656</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2" t="s">
-        <v>1657</v>
+        <v>1681</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>1657</v>
+        <v>1681</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>1658</v>
+        <v>1682</v>
       </c>
       <c r="D667" s="0" t="s">
-        <v>1659</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>1660</v>
+        <v>1684</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>1660</v>
+        <v>1684</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>1661</v>
+        <v>1685</v>
       </c>
       <c r="D668" s="0" t="s">
-        <v>1662</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>1663</v>
+        <v>1687</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>1663</v>
+        <v>1687</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>1664</v>
+        <v>1688</v>
       </c>
       <c r="D669" s="0" t="s">
-        <v>1665</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="2" t="s">
-        <v>1666</v>
+        <v>1690</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>1666</v>
+        <v>1690</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>1667</v>
+        <v>1691</v>
       </c>
       <c r="D670" s="0" t="s">
-        <v>1668</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>1669</v>
+        <v>1693</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>1669</v>
+        <v>1693</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>1670</v>
+        <v>1694</v>
       </c>
       <c r="D671" s="0" t="s">
-        <v>1669</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>1671</v>
+        <v>1695</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>1672</v>
+        <v>1696</v>
+      </c>
+      <c r="D672" s="0" t="s">
+        <v>1697</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>1673</v>
+        <v>1698</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>1674</v>
+        <v>1699</v>
+      </c>
+      <c r="D673" s="0" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>1675</v>
+        <v>1701</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>1676</v>
+        <v>1702</v>
+      </c>
+      <c r="D674" s="0" t="s">
+        <v>1703</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="0" t="s">
+        <v>1704</v>
+      </c>
+    </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>1677</v>
+        <v>1705</v>
+      </c>
+      <c r="B679" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C679" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D679" s="0" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>1678</v>
+        <v>1708</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>1678</v>
+        <v>1708</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>1679</v>
+        <v>1709</v>
       </c>
       <c r="D680" s="0" t="s">
-        <v>1680</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>1681</v>
+        <v>1711</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>1681</v>
+        <v>1711</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>1682</v>
+        <v>1712</v>
       </c>
       <c r="D681" s="0" t="s">
-        <v>1683</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>1684</v>
+        <v>1714</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>1684</v>
+        <v>1714</v>
       </c>
       <c r="C682" s="0" t="s">
-        <v>1685</v>
+        <v>1715</v>
       </c>
       <c r="D682" s="0" t="s">
-        <v>1686</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>1687</v>
+        <v>1717</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>1687</v>
+        <v>1717</v>
       </c>
       <c r="C683" s="0" t="s">
-        <v>1688</v>
+        <v>1718</v>
       </c>
       <c r="D683" s="0" t="s">
-        <v>1689</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>1690</v>
+        <v>1720</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>1690</v>
+        <v>1720</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>1691</v>
+        <v>1721</v>
       </c>
       <c r="D684" s="0" t="s">
-        <v>1692</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>1693</v>
+        <v>1723</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>1693</v>
+        <v>1723</v>
       </c>
       <c r="C685" s="0" t="s">
-        <v>1694</v>
+        <v>1724</v>
       </c>
       <c r="D685" s="0" t="s">
-        <v>1695</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>1696</v>
+        <v>1726</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>1696</v>
+        <v>1726</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>1697</v>
+        <v>1727</v>
       </c>
       <c r="D686" s="0" t="s">
-        <v>1698</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>1699</v>
+        <v>1729</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>1699</v>
+        <v>1729</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>1700</v>
+        <v>1730</v>
       </c>
       <c r="D687" s="0" t="s">
-        <v>1701</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>1702</v>
+        <v>1732</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>1702</v>
+        <v>1732</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>1703</v>
+        <v>1733</v>
       </c>
       <c r="D688" s="0" t="s">
-        <v>1704</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>1705</v>
+        <v>1735</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>1705</v>
+        <v>1735</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>1706</v>
+        <v>1736</v>
       </c>
       <c r="D689" s="0" t="s">
-        <v>1707</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>1708</v>
+        <v>1738</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>1708</v>
+        <v>1739</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>1709</v>
+        <v>1740</v>
       </c>
       <c r="D690" s="0" t="s">
-        <v>1710</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>1711</v>
+        <v>1742</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>1712</v>
+        <v>1742</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>1713</v>
+        <v>1743</v>
       </c>
       <c r="D691" s="0" t="s">
-        <v>1714</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>1715</v>
+        <v>1745</v>
       </c>
       <c r="B692" s="0" t="s">
-        <v>1715</v>
+        <v>1745</v>
       </c>
       <c r="C692" s="0" t="s">
-        <v>1716</v>
+        <v>1746</v>
       </c>
       <c r="D692" s="0" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>1718</v>
+        <v>1748</v>
       </c>
       <c r="B693" s="0" t="s">
-        <v>1718</v>
+        <v>1748</v>
       </c>
       <c r="C693" s="0" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D693" s="0" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="0" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B694" s="0" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C694" s="0" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D694" s="3" t="s">
-        <v>1723</v>
-      </c>
-    </row>
+        <v>1749</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data-raw/su_translations.xlsx
+++ b/data-raw/su_translations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="2329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="2314">
   <si>
     <t xml:space="preserve">@ note: comments are marked with @ and sections are marked with @@</t>
   </si>
@@ -1150,7 +1150,7 @@
     <t xml:space="preserve">OPP SRV ERR%</t>
   </si>
   <si>
-    <t xml:space="preserve">ERR BATT AVV %</t>
+    <t xml:space="preserve">ERR BATT AVV%</t>
   </si>
   <si>
     <t xml:space="preserve">SAQUE ADV ERRS%</t>
@@ -1177,7 +1177,7 @@
     <t xml:space="preserve">mod SO%</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % mod</t>
+    <t xml:space="preserve">C.P.% mod</t>
   </si>
   <si>
     <t xml:space="preserve">C.S.% mod</t>
@@ -1204,7 +1204,7 @@
     <t xml:space="preserve">EXP SO%</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % ATT</t>
+    <t xml:space="preserve">C.P.% ATT</t>
   </si>
   <si>
     <t xml:space="preserve">C.S.% ESP</t>
@@ -1489,7 +1489,7 @@
     <t xml:space="preserve">SO% TOT</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. TOT %</t>
+    <t xml:space="preserve">C.P. TOT%</t>
   </si>
   <si>
     <t xml:space="preserve">%C.S. TOT</t>
@@ -1513,7 +1513,7 @@
     <t xml:space="preserve">SO% JUMP</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. SALTO %</t>
+    <t xml:space="preserve">C.P. SALTO%</t>
   </si>
   <si>
     <t xml:space="preserve">%C.S. SALTO</t>
@@ -1537,7 +1537,7 @@
     <t xml:space="preserve">SO% FLOAT</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. FLOT %</t>
+    <t xml:space="preserve">C.P. FLOT%</t>
   </si>
   <si>
     <t xml:space="preserve">%C.S. FLOT</t>
@@ -1825,7 +1825,7 @@
     <t xml:space="preserve">BP% JUMP</t>
   </si>
   <si>
-    <t xml:space="preserve">BP % SALTO</t>
+    <t xml:space="preserve">BP% SALTO</t>
   </si>
   <si>
     <t xml:space="preserve">%BP SALTO</t>
@@ -1849,7 +1849,7 @@
     <t xml:space="preserve">BP% FLOAT</t>
   </si>
   <si>
-    <t xml:space="preserve">BP % FLOT</t>
+    <t xml:space="preserve">BP% FLOT</t>
   </si>
   <si>
     <t xml:space="preserve">%BP FLOT</t>
@@ -1870,7 +1870,7 @@
     <t xml:space="preserve">EXP BP%</t>
   </si>
   <si>
-    <t xml:space="preserve">BP % ATT</t>
+    <t xml:space="preserve">BP% ATT</t>
   </si>
   <si>
     <t xml:space="preserve">%BP ESP</t>
@@ -1894,7 +1894,7 @@
     <t xml:space="preserve">EXP OPP SO%</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % ATT AVV</t>
+    <t xml:space="preserve">C.P.% ATT AVV</t>
   </si>
   <si>
     <t xml:space="preserve">%BP ESP ADV</t>
@@ -2548,7 +2548,7 @@
     <t xml:space="preserve">mod BP%</t>
   </si>
   <si>
-    <t xml:space="preserve">BP % mod</t>
+    <t xml:space="preserve">BP% mod</t>
   </si>
   <si>
     <t xml:space="preserve">%BP mod</t>
@@ -2644,7 +2644,7 @@
     <t xml:space="preserve">OPP FBSO%</t>
   </si>
   <si>
-    <t xml:space="preserve">CPPA % AVV</t>
+    <t xml:space="preserve">CPPA% AVV</t>
   </si>
   <si>
     <t xml:space="preserve">CSPA% ADV</t>
@@ -2656,10 +2656,10 @@
     <t xml:space="preserve">REC ATT KILL%</t>
   </si>
   <si>
-    <t xml:space="preserve">ATT RIC VINCENTI %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REC AT PUNTO %</t>
+    <t xml:space="preserve">ATT RIC VINCENTI%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REC AT PUNTO%</t>
   </si>
   <si>
     <t xml:space="preserve">REC ATT GAGN%</t>
@@ -2677,9 +2677,6 @@
     <t xml:space="preserve">BP% TOT</t>
   </si>
   <si>
-    <t xml:space="preserve">BP % TOT</t>
-  </si>
-  <si>
     <t xml:space="preserve">%BP TOT</t>
   </si>
   <si>
@@ -3649,7 +3646,7 @@
     <t xml:space="preserve">Exp BP% after TO</t>
   </si>
   <si>
-    <t xml:space="preserve">BP att % dopo TO</t>
+    <t xml:space="preserve">BP att% dopo TO</t>
   </si>
   <si>
     <t xml:space="preserve">% BP esp después TM</t>
@@ -3817,10 +3814,10 @@
     <t xml:space="preserve">'Exp SO%' is the expected sideout percentage when a given receiver is passing, based on that receiver's pass evaluations and the league-wide SO% for each of those evaluations</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % Att' è la percentuale prevista quando riceve un determinato giocatore, sulla base delle valutazioni della ricezione di quel giocatore e del % C.P a livello di campionato per ciascuna di tali valutazioni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'% C.S. Esp' es el porcentaje esperado de cambio de saque cuando un jugador recibe, basado en las evaluaciones de recepción de dicho jugador y en el %C.S. de la liga para cada una de esas evaluaciones</t>
+    <t xml:space="preserve">C.P.% Att' è la percentuale prevista quando riceve un determinato giocatore, sulla base delle valutazioni della ricezione di quel giocatore e del %C.P a livello di campionato per ciascuna di tali valutazioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'%C.S. Esp' es el porcentaje esperado de cambio de saque cuando un jugador recibe, basado en las evaluaciones de recepción de dicho jugador y en el %C.S. de la liga para cada una de esas evaluaciones</t>
   </si>
   <si>
     <t xml:space="preserve">'%SO att' est le pourcentage de sideout attendu quand un joueur particulier réceptionne, calculé a partir des évaluations de réception de ce joueur et du niveau de SO général de la ligue pour chaque évaluation</t>
@@ -3853,7 +3850,7 @@
     <t xml:space="preserve">SO% tot</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % tot</t>
+    <t xml:space="preserve">C.P.% tot</t>
   </si>
   <si>
     <t xml:space="preserve">%C.S. tot</t>
@@ -3865,16 +3862,13 @@
     <t xml:space="preserve">Eff% tot</t>
   </si>
   <si>
-    <t xml:space="preserve">Eff % tot</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ef% tot</t>
   </si>
   <si>
     <t xml:space="preserve">Exp SO% tot</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % Att tot</t>
+    <t xml:space="preserve">C.P.% Att tot</t>
   </si>
   <si>
     <t xml:space="preserve">%C.S. esp tot</t>
@@ -3895,7 +3889,7 @@
     <t xml:space="preserve">SO% jump</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % salto</t>
+    <t xml:space="preserve">C.P.% salto</t>
   </si>
   <si>
     <t xml:space="preserve">%C.S. salto</t>
@@ -3907,7 +3901,7 @@
     <t xml:space="preserve">Eff% jump</t>
   </si>
   <si>
-    <t xml:space="preserve">Eff % salto</t>
+    <t xml:space="preserve">Eff% salto</t>
   </si>
   <si>
     <t xml:space="preserve">Ef% salto</t>
@@ -3919,7 +3913,7 @@
     <t xml:space="preserve">Exp SO% jump</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % Att salto</t>
+    <t xml:space="preserve">C.P.% Att salto</t>
   </si>
   <si>
     <t xml:space="preserve">%C.S. esp salto</t>
@@ -3943,7 +3937,7 @@
     <t xml:space="preserve">SO% other</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % altre</t>
+    <t xml:space="preserve">C.P.% altre</t>
   </si>
   <si>
     <t xml:space="preserve">%C.S. otros</t>
@@ -3955,7 +3949,7 @@
     <t xml:space="preserve">Eff% other</t>
   </si>
   <si>
-    <t xml:space="preserve">Eff % altre</t>
+    <t xml:space="preserve">Eff% altre</t>
   </si>
   <si>
     <t xml:space="preserve">Ef% otros</t>
@@ -3967,7 +3961,7 @@
     <t xml:space="preserve">Exp SO% other</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % Att altre</t>
+    <t xml:space="preserve">C.P.% Att altre</t>
   </si>
   <si>
     <t xml:space="preserve">%C.S. esp otros</t>
@@ -4009,7 +4003,7 @@
     <t xml:space="preserve">Expected SO%</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % atteso</t>
+    <t xml:space="preserve">C.P.% atteso</t>
   </si>
   <si>
     <t xml:space="preserve">%C.S. esperado</t>
@@ -4021,7 +4015,7 @@
     <t xml:space="preserve">SO%</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. %</t>
+    <t xml:space="preserve">C.P.%</t>
   </si>
   <si>
     <t xml:space="preserve">%C.S.</t>
@@ -4738,7 +4732,7 @@
     <t xml:space="preserve">SO% R#+</t>
   </si>
   <si>
-    <t xml:space="preserve">C.P. % R#+</t>
+    <t xml:space="preserve">C.P.% R#+</t>
   </si>
   <si>
     <t xml:space="preserve">% C.S. R#+</t>
@@ -4813,9 +4807,6 @@
     <t xml:space="preserve">BP%</t>
   </si>
   <si>
-    <t xml:space="preserve">BP %</t>
-  </si>
-  <si>
     <t xml:space="preserve">% BP</t>
   </si>
   <si>
@@ -4885,7 +4876,7 @@
     <t xml:space="preserve">As for 'SO%' but only on good or perfect reception</t>
   </si>
   <si>
-    <t xml:space="preserve">Come 'C.P. %' ma solo con ricezione perfetta o positiva</t>
+    <t xml:space="preserve">Come 'C.P.%' ma solo con ricezione perfetta o positiva</t>
   </si>
   <si>
     <t xml:space="preserve">Como '% C.S.' pero solo con recepción perfecta o positiva</t>
@@ -5281,16 +5272,13 @@
     <t xml:space="preserve">part%</t>
   </si>
   <si>
-    <t xml:space="preserve">part %</t>
-  </si>
-  <si>
     <t xml:space="preserve">% part</t>
   </si>
   <si>
     <t xml:space="preserve">XXpart%</t>
   </si>
   <si>
-    <t xml:space="preserve">XX part %</t>
+    <t xml:space="preserve">XX part%</t>
   </si>
   <si>
     <t xml:space="preserve">% XX part</t>
@@ -5326,43 +5314,31 @@
     <t xml:space="preserve">BP% R</t>
   </si>
   <si>
-    <t xml:space="preserve">BP % R</t>
-  </si>
-  <si>
     <t xml:space="preserve">% BP R</t>
   </si>
   <si>
     <t xml:space="preserve">BP% R+</t>
   </si>
   <si>
-    <t xml:space="preserve">BP % R+</t>
-  </si>
-  <si>
     <t xml:space="preserve">% BP R+</t>
   </si>
   <si>
     <t xml:space="preserve">BP% R#+</t>
   </si>
   <si>
-    <t xml:space="preserve">BP % R#+</t>
-  </si>
-  <si>
     <t xml:space="preserve">% BP R#+</t>
   </si>
   <si>
     <t xml:space="preserve">BP% Rxx</t>
   </si>
   <si>
-    <t xml:space="preserve">BP % Rxx</t>
-  </si>
-  <si>
     <t xml:space="preserve">% BP Rxx</t>
   </si>
   <si>
     <t xml:space="preserve">As for 'BP%', but where the reception evaluation code was xx</t>
   </si>
   <si>
-    <t xml:space="preserve">Come 'BP %', ma dove la valutazione della ricezione è stata xx</t>
+    <t xml:space="preserve">Come 'BP%', ma dove la valutazione della ricezione è stata xx</t>
   </si>
   <si>
     <t xml:space="preserve">Como para "% BP", pero donde la evaluación de recepción fue xx</t>
@@ -5374,7 +5350,7 @@
     <t xml:space="preserve">aA% HB</t>
   </si>
   <si>
-    <t xml:space="preserve">aA % PA</t>
+    <t xml:space="preserve">aA% PA</t>
   </si>
   <si>
     <t xml:space="preserve">% aA PA</t>
@@ -5386,7 +5362,7 @@
     <t xml:space="preserve">aA% FB</t>
   </si>
   <si>
-    <t xml:space="preserve">aA % PS</t>
+    <t xml:space="preserve">aA% PS</t>
   </si>
   <si>
     <t xml:space="preserve">% aA PR</t>
@@ -5398,9 +5374,6 @@
     <t xml:space="preserve">aA% 1T</t>
   </si>
   <si>
-    <t xml:space="preserve">aA % 1T</t>
-  </si>
-  <si>
     <t xml:space="preserve">% aA 1T</t>
   </si>
   <si>
@@ -5410,7 +5383,7 @@
     <t xml:space="preserve">aA% HB/FB/1T</t>
   </si>
   <si>
-    <t xml:space="preserve">aA % PA/PS/1T</t>
+    <t xml:space="preserve">aA% PA/PS/1T</t>
   </si>
   <si>
     <t xml:space="preserve">% aA PA/PR/1T</t>
@@ -5461,9 +5434,6 @@
     <t xml:space="preserve">rec aA% HB</t>
   </si>
   <si>
-    <t xml:space="preserve">rec aA % PA</t>
-  </si>
-  <si>
     <t xml:space="preserve">rec aA% PA</t>
   </si>
   <si>
@@ -5473,7 +5443,7 @@
     <t xml:space="preserve">rec aA% FB</t>
   </si>
   <si>
-    <t xml:space="preserve">rec aA % PS</t>
+    <t xml:space="preserve">rec aA% PS</t>
   </si>
   <si>
     <t xml:space="preserve">rec aA% PR</t>
@@ -5485,16 +5455,13 @@
     <t xml:space="preserve">rec aA% 1T</t>
   </si>
   <si>
-    <t xml:space="preserve">rec aA % 1T</t>
-  </si>
-  <si>
     <t xml:space="preserve">rec aA% T1</t>
   </si>
   <si>
     <t xml:space="preserve">rec aA% HB/FB/1T</t>
   </si>
   <si>
-    <t xml:space="preserve">rec aA % PA/PS/1T</t>
+    <t xml:space="preserve">rec aA% PA/PS/1T</t>
   </si>
   <si>
     <t xml:space="preserve">rec aA% PA/PR/1T</t>
@@ -5518,27 +5485,15 @@
     <t xml:space="preserve">rec aA% R</t>
   </si>
   <si>
-    <t xml:space="preserve">rec aA % R</t>
-  </si>
-  <si>
     <t xml:space="preserve">rec aA% R+</t>
   </si>
   <si>
-    <t xml:space="preserve">rec aA % R+</t>
-  </si>
-  <si>
     <t xml:space="preserve">rec aA% R#+</t>
   </si>
   <si>
-    <t xml:space="preserve">rec aA % R#+</t>
-  </si>
-  <si>
     <t xml:space="preserve">rec aA% Rxx</t>
   </si>
   <si>
-    <t xml:space="preserve">rec aA % Rxx</t>
-  </si>
-  <si>
     <t xml:space="preserve">opposition reception attack kill percentage against this blocker where the reception evaluation code was xx</t>
   </si>
   <si>
@@ -5575,7 +5530,7 @@
     <t xml:space="preserve">trans aA%</t>
   </si>
   <si>
-    <t xml:space="preserve">contratt aA %</t>
+    <t xml:space="preserve">contratt aA%</t>
   </si>
   <si>
     <t xml:space="preserve">contraataque aA%</t>
@@ -5593,7 +5548,7 @@
     <t xml:space="preserve">trans aA% HB</t>
   </si>
   <si>
-    <t xml:space="preserve">contratt aA % PA</t>
+    <t xml:space="preserve">contratt aA% PA</t>
   </si>
   <si>
     <t xml:space="preserve">contraataque aA% PA</t>
@@ -5605,7 +5560,7 @@
     <t xml:space="preserve">trans aA% FB</t>
   </si>
   <si>
-    <t xml:space="preserve">contratt aA % PS</t>
+    <t xml:space="preserve">contratt aA% PS</t>
   </si>
   <si>
     <t xml:space="preserve">contraataque aA% PR</t>
@@ -5617,7 +5572,7 @@
     <t xml:space="preserve">trans aA% 1T</t>
   </si>
   <si>
-    <t xml:space="preserve">contratt aA % 1T</t>
+    <t xml:space="preserve">contratt aA% 1T</t>
   </si>
   <si>
     <t xml:space="preserve">contraataque aA% 1T</t>
@@ -5629,7 +5584,7 @@
     <t xml:space="preserve">trans aA% HB/FB/1T</t>
   </si>
   <si>
-    <t xml:space="preserve">contratt aA % PA/PS/1T</t>
+    <t xml:space="preserve">contratt aA% PA/PS/1T</t>
   </si>
   <si>
     <t xml:space="preserve">contraataque aA% PA/PR/1T</t>
@@ -7133,8 +7088,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ701"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A524" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A526" activeCellId="0" sqref="A526"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11358,162 +11313,162 @@
         <v>883</v>
       </c>
       <c r="C292" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="D292" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="D292" s="0" t="s">
-        <v>885</v>
-      </c>
       <c r="E292" s="0" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="B293" s="0" t="s">
+        <v>885</v>
+      </c>
+      <c r="C293" s="0" t="s">
         <v>886</v>
       </c>
-      <c r="B293" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="C293" s="0" t="s">
+      <c r="D293" s="0" t="s">
         <v>887</v>
       </c>
-      <c r="D293" s="0" t="s">
+      <c r="E293" s="0" t="s">
         <v>888</v>
-      </c>
-      <c r="E293" s="0" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="B294" s="0" t="s">
+        <v>889</v>
+      </c>
+      <c r="C294" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="B294" s="0" t="s">
-        <v>890</v>
-      </c>
-      <c r="C294" s="0" t="s">
+      <c r="D294" s="0" t="s">
         <v>891</v>
       </c>
-      <c r="D294" s="0" t="s">
+      <c r="E294" s="0" t="s">
         <v>892</v>
-      </c>
-      <c r="E294" s="0" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="B295" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="C295" s="0" t="s">
         <v>894</v>
       </c>
-      <c r="B295" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="C295" s="0" t="s">
+      <c r="D295" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="D295" s="2" t="s">
+      <c r="E295" s="0" t="s">
         <v>896</v>
-      </c>
-      <c r="E295" s="0" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="B296" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="C296" s="0" t="s">
         <v>898</v>
       </c>
-      <c r="B296" s="0" t="s">
+      <c r="D296" s="0" t="s">
         <v>898</v>
       </c>
-      <c r="C296" s="0" t="s">
-        <v>899</v>
-      </c>
-      <c r="D296" s="0" t="s">
-        <v>899</v>
-      </c>
       <c r="E296" s="0" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="B297" s="0" t="s">
+        <v>899</v>
+      </c>
+      <c r="C297" s="0" t="s">
         <v>900</v>
       </c>
-      <c r="B297" s="0" t="s">
-        <v>900</v>
-      </c>
-      <c r="C297" s="0" t="s">
+      <c r="D297" s="0" t="s">
         <v>901</v>
       </c>
-      <c r="D297" s="0" t="s">
+      <c r="E297" s="0" t="s">
         <v>902</v>
-      </c>
-      <c r="E297" s="0" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="B298" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="C298" s="0" t="s">
         <v>904</v>
       </c>
-      <c r="B298" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="C298" s="0" t="s">
+      <c r="D298" s="0" t="s">
         <v>905</v>
       </c>
-      <c r="D298" s="0" t="s">
+      <c r="E298" s="0" t="s">
         <v>906</v>
-      </c>
-      <c r="E298" s="0" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="B299" s="0" t="s">
+        <v>907</v>
+      </c>
+      <c r="C299" s="0" t="s">
         <v>908</v>
       </c>
-      <c r="B299" s="0" t="s">
-        <v>908</v>
-      </c>
-      <c r="C299" s="0" t="s">
+      <c r="D299" s="0" t="s">
         <v>909</v>
       </c>
-      <c r="D299" s="0" t="s">
+      <c r="E299" s="0" t="s">
         <v>910</v>
-      </c>
-      <c r="E299" s="0" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="B300" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="C300" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="B300" s="0" t="s">
-        <v>912</v>
-      </c>
-      <c r="C300" s="0" t="s">
+      <c r="D300" s="0" t="s">
         <v>913</v>
       </c>
-      <c r="D300" s="0" t="s">
-        <v>914</v>
-      </c>
       <c r="E300" s="0" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C303" s="0" t="s">
         <v>66</v>
@@ -11527,836 +11482,836 @@
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="B304" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="C304" s="0" t="s">
         <v>917</v>
       </c>
-      <c r="B304" s="0" t="s">
-        <v>917</v>
-      </c>
-      <c r="C304" s="0" t="s">
+      <c r="D304" s="0" t="s">
         <v>918</v>
       </c>
-      <c r="D304" s="0" t="s">
+      <c r="E304" s="0" t="s">
         <v>919</v>
-      </c>
-      <c r="E304" s="0" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="B305" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="C305" s="0" t="s">
         <v>921</v>
       </c>
-      <c r="B305" s="0" t="s">
-        <v>921</v>
-      </c>
-      <c r="C305" s="0" t="s">
+      <c r="D305" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="D305" s="0" t="s">
+      <c r="E305" s="0" t="s">
         <v>923</v>
-      </c>
-      <c r="E305" s="0" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="B306" s="0" t="s">
+        <v>924</v>
+      </c>
+      <c r="C306" s="0" t="s">
         <v>925</v>
       </c>
-      <c r="B306" s="0" t="s">
-        <v>925</v>
-      </c>
-      <c r="C306" s="0" t="s">
+      <c r="D306" s="0" t="s">
         <v>926</v>
       </c>
-      <c r="D306" s="0" t="s">
+      <c r="E306" s="0" t="s">
         <v>927</v>
-      </c>
-      <c r="E306" s="0" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="B307" s="0" t="s">
+        <v>928</v>
+      </c>
+      <c r="C307" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="B307" s="0" t="s">
+      <c r="D307" s="0" t="s">
         <v>929</v>
       </c>
-      <c r="C307" s="0" t="s">
+      <c r="E307" s="0" t="s">
         <v>930</v>
-      </c>
-      <c r="D307" s="0" t="s">
-        <v>930</v>
-      </c>
-      <c r="E307" s="0" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="B308" s="0" t="s">
+        <v>931</v>
+      </c>
+      <c r="C308" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="B308" s="0" t="s">
-        <v>932</v>
-      </c>
-      <c r="C308" s="0" t="s">
+      <c r="D308" s="0" t="s">
         <v>933</v>
       </c>
-      <c r="D308" s="0" t="s">
+      <c r="E308" s="0" t="s">
         <v>934</v>
-      </c>
-      <c r="E308" s="0" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="B309" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="C309" s="0" t="s">
         <v>936</v>
       </c>
-      <c r="B309" s="0" t="s">
+      <c r="D309" s="0" t="s">
         <v>936</v>
       </c>
-      <c r="C309" s="0" t="s">
-        <v>937</v>
-      </c>
-      <c r="D309" s="0" t="s">
-        <v>937</v>
-      </c>
       <c r="E309" s="0" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="B310" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="C310" s="0" t="s">
+        <v>935</v>
+      </c>
+      <c r="D310" s="0" t="s">
         <v>938</v>
       </c>
-      <c r="B310" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="C310" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="D310" s="0" t="s">
-        <v>939</v>
-      </c>
       <c r="E310" s="0" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="B311" s="0" t="s">
+        <v>939</v>
+      </c>
+      <c r="C311" s="0" t="s">
         <v>940</v>
       </c>
-      <c r="B311" s="0" t="s">
-        <v>940</v>
-      </c>
-      <c r="C311" s="0" t="s">
+      <c r="D311" s="0" t="s">
         <v>941</v>
       </c>
-      <c r="D311" s="0" t="s">
+      <c r="E311" s="0" t="s">
         <v>942</v>
-      </c>
-      <c r="E311" s="0" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="B312" s="0" t="s">
+        <v>943</v>
+      </c>
+      <c r="C312" s="0" t="s">
         <v>944</v>
       </c>
-      <c r="B312" s="0" t="s">
-        <v>944</v>
-      </c>
-      <c r="C312" s="0" t="s">
+      <c r="D312" s="0" t="s">
         <v>945</v>
       </c>
-      <c r="D312" s="0" t="s">
+      <c r="E312" s="0" t="s">
         <v>946</v>
-      </c>
-      <c r="E312" s="0" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="B313" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="C313" s="0" t="s">
         <v>948</v>
       </c>
-      <c r="B313" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="C313" s="0" t="s">
+      <c r="D313" s="0" t="s">
         <v>949</v>
       </c>
-      <c r="D313" s="0" t="s">
+      <c r="E313" s="0" t="s">
         <v>950</v>
-      </c>
-      <c r="E313" s="0" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="B314" s="0" t="s">
+        <v>951</v>
+      </c>
+      <c r="C314" s="0" t="s">
         <v>952</v>
       </c>
-      <c r="B314" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="C314" s="0" t="s">
+      <c r="D314" s="0" t="s">
         <v>953</v>
       </c>
-      <c r="D314" s="0" t="s">
+      <c r="E314" s="0" t="s">
         <v>954</v>
-      </c>
-      <c r="E314" s="0" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="B315" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="C315" s="0" t="s">
         <v>956</v>
       </c>
-      <c r="B315" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="C315" s="0" t="s">
+      <c r="D315" s="0" t="s">
         <v>957</v>
       </c>
-      <c r="D315" s="0" t="s">
+      <c r="E315" s="0" t="s">
         <v>958</v>
-      </c>
-      <c r="E315" s="0" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="B316" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="C316" s="0" t="s">
         <v>960</v>
       </c>
-      <c r="B316" s="0" t="s">
-        <v>960</v>
-      </c>
-      <c r="C316" s="0" t="s">
+      <c r="D316" s="0" t="s">
         <v>961</v>
       </c>
-      <c r="D316" s="0" t="s">
+      <c r="E316" s="0" t="s">
         <v>962</v>
-      </c>
-      <c r="E316" s="0" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="B317" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="C317" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="B317" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="C317" s="0" t="s">
+      <c r="D317" s="0" t="s">
         <v>965</v>
       </c>
-      <c r="D317" s="0" t="s">
+      <c r="E317" s="0" t="s">
         <v>966</v>
-      </c>
-      <c r="E317" s="0" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="B318" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="C318" s="0" t="s">
         <v>968</v>
       </c>
-      <c r="B318" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="C318" s="0" t="s">
+      <c r="D318" s="0" t="s">
         <v>969</v>
       </c>
-      <c r="D318" s="0" t="s">
+      <c r="E318" s="0" t="s">
         <v>970</v>
-      </c>
-      <c r="E318" s="0" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="B319" s="0" t="s">
+        <v>971</v>
+      </c>
+      <c r="C319" s="0" t="s">
         <v>972</v>
       </c>
-      <c r="B319" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="C319" s="0" t="s">
+      <c r="D319" s="0" t="s">
         <v>973</v>
       </c>
-      <c r="D319" s="0" t="s">
+      <c r="E319" s="0" t="s">
         <v>974</v>
-      </c>
-      <c r="E319" s="0" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="B320" s="0" t="s">
+        <v>975</v>
+      </c>
+      <c r="C320" s="0" t="s">
         <v>976</v>
       </c>
-      <c r="B320" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="C320" s="0" t="s">
+      <c r="D320" s="0" t="s">
         <v>977</v>
       </c>
-      <c r="D320" s="0" t="s">
+      <c r="E320" s="0" t="s">
         <v>978</v>
-      </c>
-      <c r="E320" s="0" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>979</v>
+      </c>
+      <c r="C321" s="0" t="s">
         <v>980</v>
       </c>
-      <c r="B321" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="C321" s="0" t="s">
+      <c r="D321" s="0" t="s">
         <v>981</v>
       </c>
-      <c r="D321" s="0" t="s">
+      <c r="E321" s="0" t="s">
         <v>982</v>
-      </c>
-      <c r="E321" s="0" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="B322" s="0" t="s">
+        <v>983</v>
+      </c>
+      <c r="C322" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="B322" s="0" t="s">
-        <v>984</v>
-      </c>
-      <c r="C322" s="0" t="s">
+      <c r="D322" s="0" t="s">
         <v>985</v>
       </c>
-      <c r="D322" s="0" t="s">
+      <c r="E322" s="0" t="s">
         <v>986</v>
-      </c>
-      <c r="E322" s="0" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="B323" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="B323" s="0" t="s">
-        <v>988</v>
-      </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="0" t="s">
         <v>989</v>
       </c>
-      <c r="D323" s="0" t="s">
+      <c r="E323" s="0" t="s">
         <v>990</v>
-      </c>
-      <c r="E323" s="0" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="B324" s="0" t="s">
+        <v>991</v>
+      </c>
+      <c r="C324" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="B324" s="0" t="s">
-        <v>992</v>
-      </c>
-      <c r="C324" s="0" t="s">
+      <c r="D324" s="0" t="s">
         <v>993</v>
       </c>
-      <c r="D324" s="0" t="s">
+      <c r="E324" s="0" t="s">
         <v>994</v>
-      </c>
-      <c r="E324" s="0" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="B325" s="0" t="s">
+        <v>995</v>
+      </c>
+      <c r="C325" s="0" t="s">
         <v>996</v>
       </c>
-      <c r="B325" s="0" t="s">
-        <v>996</v>
-      </c>
-      <c r="C325" s="0" t="s">
+      <c r="D325" s="0" t="s">
         <v>997</v>
       </c>
-      <c r="D325" s="0" t="s">
+      <c r="E325" s="0" t="s">
         <v>998</v>
-      </c>
-      <c r="E325" s="0" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="B326" s="0" t="s">
+        <v>999</v>
+      </c>
+      <c r="C326" s="0" t="s">
         <v>1000</v>
       </c>
-      <c r="B326" s="0" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C326" s="0" t="s">
+      <c r="D326" s="0" t="s">
         <v>1001</v>
       </c>
-      <c r="D326" s="0" t="s">
+      <c r="E326" s="0" t="s">
         <v>1002</v>
-      </c>
-      <c r="E326" s="0" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B327" s="0" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C327" s="0" t="s">
         <v>1004</v>
       </c>
-      <c r="B327" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C327" s="0" t="s">
+      <c r="D327" s="0" t="s">
         <v>1005</v>
       </c>
-      <c r="D327" s="0" t="s">
+      <c r="E327" s="0" t="s">
         <v>1006</v>
-      </c>
-      <c r="E327" s="0" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B328" s="0" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C328" s="0" t="s">
         <v>1008</v>
       </c>
-      <c r="B328" s="0" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C328" s="0" t="s">
+      <c r="D328" s="0" t="s">
         <v>1009</v>
       </c>
-      <c r="D328" s="0" t="s">
+      <c r="E328" s="0" t="s">
         <v>1010</v>
-      </c>
-      <c r="E328" s="0" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B329" s="0" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C329" s="0" t="s">
         <v>1012</v>
       </c>
-      <c r="B329" s="0" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C329" s="0" t="s">
+      <c r="D329" s="0" t="s">
         <v>1013</v>
       </c>
-      <c r="D329" s="0" t="s">
+      <c r="E329" s="0" t="s">
         <v>1014</v>
-      </c>
-      <c r="E329" s="0" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B330" s="0" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C330" s="0" t="s">
         <v>1016</v>
       </c>
-      <c r="B330" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C330" s="0" t="s">
+      <c r="D330" s="0" t="s">
         <v>1017</v>
       </c>
-      <c r="D330" s="0" t="s">
+      <c r="E330" s="0" t="s">
         <v>1018</v>
-      </c>
-      <c r="E330" s="0" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B331" s="0" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C331" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="B331" s="0" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C331" s="0" t="s">
+      <c r="D331" s="0" t="s">
         <v>1021</v>
       </c>
-      <c r="D331" s="0" t="s">
+      <c r="E331" s="0" t="s">
         <v>1022</v>
-      </c>
-      <c r="E331" s="0" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B332" s="0" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C332" s="0" t="s">
         <v>1024</v>
       </c>
-      <c r="B332" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C332" s="0" t="s">
+      <c r="D332" s="0" t="s">
         <v>1025</v>
       </c>
-      <c r="D332" s="0" t="s">
+      <c r="E332" s="0" t="s">
         <v>1026</v>
-      </c>
-      <c r="E332" s="0" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B333" s="0" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C333" s="0" t="s">
         <v>1028</v>
       </c>
-      <c r="B333" s="0" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C333" s="0" t="s">
+      <c r="D333" s="0" t="s">
         <v>1029</v>
       </c>
-      <c r="D333" s="0" t="s">
+      <c r="E333" s="0" t="s">
         <v>1030</v>
-      </c>
-      <c r="E333" s="0" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B334" s="0" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C334" s="0" t="s">
         <v>1032</v>
       </c>
-      <c r="B334" s="0" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C334" s="0" t="s">
+      <c r="D334" s="0" t="s">
         <v>1033</v>
       </c>
-      <c r="D334" s="0" t="s">
+      <c r="E334" s="0" t="s">
         <v>1034</v>
-      </c>
-      <c r="E334" s="0" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B335" s="0" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C335" s="0" t="s">
         <v>1036</v>
       </c>
-      <c r="B335" s="0" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C335" s="0" t="s">
+      <c r="D335" s="0" t="s">
         <v>1037</v>
       </c>
-      <c r="D335" s="0" t="s">
+      <c r="E335" s="0" t="s">
         <v>1038</v>
-      </c>
-      <c r="E335" s="0" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B336" s="0" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C336" s="0" t="s">
         <v>1040</v>
       </c>
-      <c r="B336" s="0" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C336" s="0" t="s">
+      <c r="D336" s="0" t="s">
         <v>1041</v>
       </c>
-      <c r="D336" s="0" t="s">
+      <c r="E336" s="0" t="s">
         <v>1042</v>
-      </c>
-      <c r="E336" s="0" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B337" s="0" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C337" s="0" t="s">
         <v>1044</v>
       </c>
-      <c r="B337" s="0" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C337" s="0" t="s">
+      <c r="D337" s="0" t="s">
         <v>1045</v>
       </c>
-      <c r="D337" s="0" t="s">
+      <c r="E337" s="0" t="s">
         <v>1046</v>
-      </c>
-      <c r="E337" s="0" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B338" s="0" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C338" s="0" t="s">
         <v>1048</v>
       </c>
-      <c r="B338" s="0" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C338" s="0" t="s">
+      <c r="D338" s="0" t="s">
         <v>1049</v>
       </c>
-      <c r="D338" s="0" t="s">
+      <c r="E338" s="0" t="s">
         <v>1050</v>
-      </c>
-      <c r="E338" s="0" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B341" s="0" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C341" s="0" t="s">
         <v>1053</v>
       </c>
-      <c r="B341" s="0" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C341" s="0" t="s">
+      <c r="D341" s="0" t="s">
         <v>1054</v>
       </c>
-      <c r="D341" s="0" t="s">
+      <c r="E341" s="0" t="s">
         <v>1055</v>
-      </c>
-      <c r="E341" s="0" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B343" s="0" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C343" s="0" t="s">
         <v>1058</v>
       </c>
-      <c r="B343" s="0" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C343" s="0" t="s">
+      <c r="D343" s="0" t="s">
         <v>1059</v>
       </c>
-      <c r="D343" s="0" t="s">
+      <c r="E343" s="0" t="s">
         <v>1060</v>
-      </c>
-      <c r="E343" s="0" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B344" s="0" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C344" s="0" t="s">
         <v>1062</v>
       </c>
-      <c r="B344" s="0" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C344" s="0" t="s">
+      <c r="D344" s="0" t="s">
         <v>1063</v>
       </c>
-      <c r="D344" s="0" t="s">
+      <c r="E344" s="0" t="s">
         <v>1064</v>
-      </c>
-      <c r="E344" s="0" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B345" s="0" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C345" s="0" t="s">
         <v>1066</v>
       </c>
-      <c r="B345" s="0" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C345" s="0" t="s">
+      <c r="D345" s="0" t="s">
         <v>1067</v>
       </c>
-      <c r="D345" s="0" t="s">
+      <c r="E345" s="0" t="s">
         <v>1068</v>
-      </c>
-      <c r="E345" s="0" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B346" s="0" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C346" s="0" t="s">
         <v>1070</v>
       </c>
-      <c r="B346" s="0" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C346" s="0" t="s">
+      <c r="D346" s="0" t="s">
         <v>1071</v>
       </c>
-      <c r="D346" s="0" t="s">
+      <c r="E346" s="0" t="s">
         <v>1072</v>
-      </c>
-      <c r="E346" s="0" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B347" s="0" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C347" s="0" t="s">
         <v>1074</v>
       </c>
-      <c r="B347" s="0" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C347" s="0" t="s">
+      <c r="D347" s="0" t="s">
         <v>1075</v>
       </c>
-      <c r="D347" s="0" t="s">
+      <c r="E347" s="0" t="s">
         <v>1076</v>
-      </c>
-      <c r="E347" s="0" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B348" s="0" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C348" s="0" t="s">
         <v>1078</v>
       </c>
-      <c r="B348" s="0" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C348" s="0" t="s">
+      <c r="D348" s="0" t="s">
         <v>1079</v>
       </c>
-      <c r="D348" s="0" t="s">
+      <c r="E348" s="0" t="s">
         <v>1080</v>
-      </c>
-      <c r="E348" s="0" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B349" s="0" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C349" s="0" t="s">
         <v>1082</v>
       </c>
-      <c r="B349" s="0" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C349" s="0" t="s">
+      <c r="D349" s="0" t="s">
         <v>1083</v>
       </c>
-      <c r="D349" s="0" t="s">
+      <c r="E349" s="0" t="s">
         <v>1084</v>
-      </c>
-      <c r="E349" s="0" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B350" s="0" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C350" s="0" t="s">
         <v>1086</v>
       </c>
-      <c r="B350" s="0" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C350" s="0" t="s">
+      <c r="D350" s="0" t="s">
         <v>1087</v>
       </c>
-      <c r="D350" s="0" t="s">
-        <v>1088</v>
-      </c>
       <c r="E350" s="0" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B351" s="0" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C351" s="0" t="s">
         <v>1089</v>
       </c>
-      <c r="B351" s="0" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C351" s="0" t="s">
+      <c r="D351" s="0" t="s">
         <v>1090</v>
       </c>
-      <c r="D351" s="0" t="s">
+      <c r="E351" s="0" t="s">
         <v>1091</v>
-      </c>
-      <c r="E351" s="0" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B352" s="0" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C352" s="0" t="s">
         <v>1093</v>
       </c>
-      <c r="B352" s="0" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C352" s="0" t="s">
+      <c r="D352" s="0" t="s">
         <v>1094</v>
       </c>
-      <c r="D352" s="0" t="s">
+      <c r="E352" s="0" t="s">
         <v>1095</v>
-      </c>
-      <c r="E352" s="0" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B353" s="0" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C353" s="0" t="s">
         <v>1097</v>
       </c>
-      <c r="B353" s="0" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C353" s="0" t="s">
+      <c r="D353" s="0" t="s">
         <v>1098</v>
       </c>
-      <c r="D353" s="0" t="s">
+      <c r="E353" s="0" t="s">
         <v>1099</v>
-      </c>
-      <c r="E353" s="0" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B354" s="0" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C354" s="0" t="s">
         <v>1101</v>
       </c>
-      <c r="B354" s="0" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C354" s="0" t="s">
+      <c r="D354" s="0" t="s">
         <v>1102</v>
       </c>
-      <c r="D354" s="0" t="s">
+      <c r="E354" s="0" t="s">
         <v>1103</v>
-      </c>
-      <c r="E354" s="0" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C355" s="0" t="s">
         <v>632</v>
@@ -12365,647 +12320,647 @@
         <v>632</v>
       </c>
       <c r="E355" s="0" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C356" s="0" t="s">
         <v>1107</v>
       </c>
-      <c r="B356" s="0" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C356" s="0" t="s">
+      <c r="D356" s="0" t="s">
         <v>1108</v>
       </c>
-      <c r="D356" s="0" t="s">
+      <c r="E356" s="0" t="s">
         <v>1109</v>
-      </c>
-      <c r="E356" s="0" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C357" s="0" t="s">
         <v>1111</v>
       </c>
-      <c r="B357" s="0" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C357" s="0" t="s">
+      <c r="D357" s="0" t="s">
         <v>1112</v>
       </c>
-      <c r="D357" s="0" t="s">
+      <c r="E357" s="0" t="s">
         <v>1113</v>
-      </c>
-      <c r="E357" s="0" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C358" s="0" t="s">
         <v>1115</v>
       </c>
-      <c r="B358" s="0" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C358" s="0" t="s">
+      <c r="D358" s="0" t="s">
         <v>1116</v>
       </c>
-      <c r="D358" s="0" t="s">
+      <c r="E358" s="0" t="s">
         <v>1117</v>
-      </c>
-      <c r="E358" s="0" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C359" s="0" t="s">
         <v>1119</v>
       </c>
-      <c r="B359" s="0" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C359" s="0" t="s">
+      <c r="D359" s="0" t="s">
         <v>1120</v>
       </c>
-      <c r="D359" s="0" t="s">
+      <c r="E359" s="0" t="s">
         <v>1121</v>
-      </c>
-      <c r="E359" s="0" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C361" s="0" t="s">
         <v>1124</v>
       </c>
-      <c r="B361" s="0" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C361" s="0" t="s">
+      <c r="D361" s="0" t="s">
         <v>1125</v>
       </c>
-      <c r="D361" s="0" t="s">
+      <c r="E361" s="0" t="s">
         <v>1126</v>
-      </c>
-      <c r="E361" s="0" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C362" s="0" t="s">
         <v>1128</v>
       </c>
-      <c r="B362" s="0" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C362" s="0" t="s">
+      <c r="D362" s="0" t="s">
         <v>1129</v>
       </c>
-      <c r="D362" s="0" t="s">
+      <c r="E362" s="0" t="s">
         <v>1130</v>
-      </c>
-      <c r="E362" s="0" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C363" s="0" t="s">
         <v>1132</v>
       </c>
-      <c r="B363" s="0" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C363" s="0" t="s">
+      <c r="D363" s="0" t="s">
         <v>1133</v>
       </c>
-      <c r="D363" s="0" t="s">
+      <c r="E363" s="0" t="s">
         <v>1134</v>
-      </c>
-      <c r="E363" s="0" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C366" s="0" t="s">
         <v>1137</v>
       </c>
-      <c r="B366" s="0" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C366" s="0" t="s">
+      <c r="D366" s="0" t="s">
         <v>1138</v>
       </c>
-      <c r="D366" s="0" t="s">
+      <c r="E366" s="0" t="s">
         <v>1139</v>
-      </c>
-      <c r="E366" s="0" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C367" s="0" t="s">
         <v>1141</v>
       </c>
-      <c r="B367" s="0" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C367" s="0" t="s">
+      <c r="D367" s="0" t="s">
         <v>1142</v>
       </c>
-      <c r="D367" s="0" t="s">
+      <c r="E367" s="0" t="s">
         <v>1143</v>
-      </c>
-      <c r="E367" s="0" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C368" s="0" t="s">
         <v>1145</v>
       </c>
-      <c r="B368" s="0" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C368" s="0" t="s">
+      <c r="D368" s="0" t="s">
         <v>1146</v>
       </c>
-      <c r="D368" s="0" t="s">
+      <c r="E368" s="0" t="s">
         <v>1147</v>
-      </c>
-      <c r="E368" s="0" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C369" s="0" t="s">
         <v>1149</v>
       </c>
-      <c r="B369" s="0" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C369" s="0" t="s">
+      <c r="D369" s="0" t="s">
         <v>1150</v>
       </c>
-      <c r="D369" s="0" t="s">
+      <c r="E369" s="0" t="s">
         <v>1151</v>
-      </c>
-      <c r="E369" s="0" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C370" s="0" t="s">
         <v>1153</v>
       </c>
-      <c r="B370" s="0" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C370" s="0" t="s">
+      <c r="D370" s="0" t="s">
         <v>1154</v>
       </c>
-      <c r="D370" s="0" t="s">
+      <c r="E370" s="0" t="s">
         <v>1155</v>
-      </c>
-      <c r="E370" s="0" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C371" s="0" t="s">
         <v>1157</v>
       </c>
-      <c r="B371" s="0" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C371" s="0" t="s">
+      <c r="D371" s="0" t="s">
         <v>1158</v>
       </c>
-      <c r="D371" s="0" t="s">
+      <c r="E371" s="0" t="s">
         <v>1159</v>
-      </c>
-      <c r="E371" s="0" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C372" s="0" t="s">
         <v>1161</v>
       </c>
-      <c r="B372" s="0" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C372" s="0" t="s">
+      <c r="D372" s="0" t="s">
         <v>1162</v>
       </c>
-      <c r="D372" s="0" t="s">
-        <v>1163</v>
-      </c>
       <c r="E372" s="0" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C373" s="0" t="s">
         <v>1164</v>
       </c>
-      <c r="B373" s="0" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C373" s="0" t="s">
+      <c r="D373" s="0" t="s">
         <v>1165</v>
       </c>
-      <c r="D373" s="0" t="s">
+      <c r="E373" s="0" t="s">
         <v>1166</v>
-      </c>
-      <c r="E373" s="0" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C374" s="0" t="s">
         <v>1168</v>
       </c>
-      <c r="B374" s="0" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C374" s="0" t="s">
+      <c r="D374" s="0" t="s">
         <v>1169</v>
       </c>
-      <c r="D374" s="0" t="s">
+      <c r="E374" s="0" t="s">
         <v>1170</v>
-      </c>
-      <c r="E374" s="0" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C375" s="0" t="s">
         <v>1172</v>
       </c>
-      <c r="B375" s="0" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C375" s="0" t="s">
+      <c r="D375" s="0" t="s">
         <v>1173</v>
       </c>
-      <c r="D375" s="0" t="s">
+      <c r="E375" s="0" t="s">
         <v>1174</v>
-      </c>
-      <c r="E375" s="0" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C376" s="0" t="s">
         <v>1176</v>
       </c>
-      <c r="B376" s="0" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C376" s="0" t="s">
+      <c r="D376" s="0" t="s">
         <v>1177</v>
       </c>
-      <c r="D376" s="0" t="s">
+      <c r="E376" s="0" t="s">
         <v>1178</v>
-      </c>
-      <c r="E376" s="0" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C377" s="0" t="s">
         <v>1180</v>
       </c>
-      <c r="B377" s="0" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C377" s="0" t="s">
+      <c r="D377" s="0" t="s">
         <v>1181</v>
       </c>
-      <c r="D377" s="0" t="s">
+      <c r="E377" s="0" t="s">
         <v>1182</v>
-      </c>
-      <c r="E377" s="0" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C378" s="0" t="s">
         <v>1184</v>
       </c>
-      <c r="B378" s="0" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C378" s="0" t="s">
+      <c r="D378" s="0" t="s">
         <v>1185</v>
       </c>
-      <c r="D378" s="0" t="s">
+      <c r="E378" s="0" t="s">
         <v>1186</v>
-      </c>
-      <c r="E378" s="0" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D380" s="0" t="s">
         <v>1189</v>
       </c>
-      <c r="B380" s="0" t="s">
+      <c r="E380" s="0" t="s">
         <v>1189</v>
-      </c>
-      <c r="C380" s="0" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D380" s="0" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E380" s="0" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C381" s="0" t="s">
         <v>1191</v>
       </c>
-      <c r="B381" s="0" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C381" s="0" t="s">
+      <c r="D381" s="0" t="s">
         <v>1192</v>
       </c>
-      <c r="D381" s="0" t="s">
+      <c r="E381" s="0" t="s">
         <v>1193</v>
-      </c>
-      <c r="E381" s="0" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C382" s="0" t="s">
         <v>1195</v>
       </c>
-      <c r="B382" s="0" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C382" s="0" t="s">
+      <c r="D382" s="0" t="s">
         <v>1196</v>
       </c>
-      <c r="D382" s="0" t="s">
+      <c r="E382" s="0" t="s">
         <v>1197</v>
-      </c>
-      <c r="E382" s="0" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C383" s="0" t="s">
         <v>1199</v>
       </c>
-      <c r="B383" s="0" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C383" s="0" t="s">
+      <c r="D383" s="0" t="s">
         <v>1200</v>
       </c>
-      <c r="D383" s="0" t="s">
+      <c r="E383" s="0" t="s">
         <v>1201</v>
-      </c>
-      <c r="E383" s="0" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C384" s="0" t="s">
         <v>1203</v>
       </c>
-      <c r="B384" s="0" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C384" s="0" t="s">
+      <c r="D384" s="0" t="s">
         <v>1204</v>
       </c>
-      <c r="D384" s="0" t="s">
+      <c r="E384" s="0" t="s">
         <v>1205</v>
-      </c>
-      <c r="E384" s="0" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C385" s="0" t="s">
         <v>1207</v>
       </c>
-      <c r="B385" s="0" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C385" s="0" t="s">
+      <c r="D385" s="0" t="s">
         <v>1208</v>
       </c>
-      <c r="D385" s="0" t="s">
+      <c r="E385" s="0" t="s">
         <v>1209</v>
-      </c>
-      <c r="E385" s="0" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C386" s="0" t="s">
         <v>1211</v>
       </c>
-      <c r="B386" s="0" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C386" s="0" t="s">
+      <c r="D386" s="0" t="s">
         <v>1212</v>
       </c>
-      <c r="D386" s="0" t="s">
+      <c r="E386" s="0" t="s">
         <v>1213</v>
-      </c>
-      <c r="E386" s="0" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C387" s="0" t="s">
         <v>1215</v>
       </c>
-      <c r="B387" s="0" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C387" s="0" t="s">
+      <c r="D387" s="0" t="s">
         <v>1216</v>
       </c>
-      <c r="D387" s="0" t="s">
+      <c r="E387" s="0" t="s">
         <v>1217</v>
-      </c>
-      <c r="E387" s="0" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C388" s="0" t="s">
         <v>1219</v>
       </c>
-      <c r="B388" s="0" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C388" s="0" t="s">
+      <c r="D388" s="0" t="s">
         <v>1220</v>
       </c>
-      <c r="D388" s="0" t="s">
+      <c r="E388" s="0" t="s">
         <v>1221</v>
-      </c>
-      <c r="E388" s="0" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C389" s="0" t="s">
         <v>1223</v>
       </c>
-      <c r="B389" s="0" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C389" s="0" t="s">
+      <c r="D389" s="0" t="s">
         <v>1224</v>
       </c>
-      <c r="D389" s="0" t="s">
+      <c r="E389" s="0" t="s">
         <v>1225</v>
-      </c>
-      <c r="E389" s="0" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C390" s="0" t="s">
         <v>1227</v>
       </c>
-      <c r="B390" s="0" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C390" s="0" t="s">
+      <c r="D390" s="0" t="s">
         <v>1228</v>
       </c>
-      <c r="D390" s="0" t="s">
+      <c r="E390" s="0" t="s">
         <v>1229</v>
-      </c>
-      <c r="E390" s="0" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C391" s="0" t="s">
         <v>1231</v>
       </c>
-      <c r="B391" s="0" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C391" s="0" t="s">
+      <c r="D391" s="0" t="s">
         <v>1232</v>
       </c>
-      <c r="D391" s="0" t="s">
+      <c r="E391" s="0" t="s">
         <v>1233</v>
-      </c>
-      <c r="E391" s="0" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C392" s="0" t="s">
         <v>1235</v>
       </c>
-      <c r="B392" s="0" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C392" s="0" t="s">
+      <c r="D392" s="0" t="s">
         <v>1236</v>
       </c>
-      <c r="D392" s="0" t="s">
+      <c r="E392" s="0" t="s">
         <v>1237</v>
-      </c>
-      <c r="E392" s="0" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C393" s="0" t="s">
         <v>1239</v>
       </c>
-      <c r="B393" s="0" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C393" s="0" t="s">
+      <c r="D393" s="0" t="s">
         <v>1240</v>
       </c>
-      <c r="D393" s="0" t="s">
+      <c r="E393" s="0" t="s">
         <v>1241</v>
-      </c>
-      <c r="E393" s="0" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C395" s="0" t="s">
         <v>1244</v>
       </c>
-      <c r="B395" s="0" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C395" s="0" t="s">
+      <c r="D395" s="0" t="s">
         <v>1245</v>
       </c>
-      <c r="D395" s="0" t="s">
+      <c r="E395" s="0" t="s">
         <v>1246</v>
-      </c>
-      <c r="E395" s="0" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C396" s="0" t="s">
         <v>1248</v>
       </c>
-      <c r="B396" s="0" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C396" s="0" t="s">
+      <c r="D396" s="0" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E396" s="0" t="s">
         <v>1249</v>
-      </c>
-      <c r="D396" s="0" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E396" s="0" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B397" s="0" t="s">
         <v>1251</v>
-      </c>
-      <c r="B397" s="0" t="s">
-        <v>1252</v>
       </c>
       <c r="C397" s="0" t="s">
         <v>426</v>
@@ -13019,318 +12974,318 @@
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B398" s="0" t="s">
         <v>1253</v>
       </c>
-      <c r="B398" s="0" t="s">
+      <c r="C398" s="0" t="s">
         <v>1254</v>
       </c>
-      <c r="C398" s="0" t="s">
+      <c r="D398" s="0" t="s">
         <v>1255</v>
       </c>
-      <c r="D398" s="0" t="s">
+      <c r="E398" s="0" t="s">
         <v>1256</v>
-      </c>
-      <c r="E398" s="0" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B399" s="0" t="s">
         <v>1258</v>
       </c>
-      <c r="B399" s="0" t="s">
+      <c r="C399" s="0" t="s">
         <v>1259</v>
       </c>
-      <c r="C399" s="0" t="s">
-        <v>1260</v>
-      </c>
       <c r="D399" s="0" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E399" s="0" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="B400" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="C400" s="0" t="s">
         <v>898</v>
       </c>
-      <c r="C400" s="0" t="s">
-        <v>899</v>
-      </c>
       <c r="D400" s="0" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E400" s="0" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C403" s="0" t="s">
         <v>1263</v>
       </c>
-      <c r="B403" s="0" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C403" s="0" t="s">
+      <c r="D403" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="D403" s="1" t="s">
+      <c r="E403" s="0" t="s">
         <v>1265</v>
-      </c>
-      <c r="E403" s="0" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C404" s="0" t="s">
         <v>1267</v>
       </c>
-      <c r="B404" s="0" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C404" s="0" t="s">
+      <c r="D404" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="D404" s="1" t="s">
+      <c r="E404" s="0" t="s">
         <v>1269</v>
-      </c>
-      <c r="E404" s="0" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C405" s="0" t="s">
         <v>1271</v>
       </c>
-      <c r="B405" s="0" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C405" s="0" t="s">
+      <c r="D405" s="0" t="s">
         <v>1272</v>
       </c>
-      <c r="D405" s="0" t="s">
-        <v>1273</v>
-      </c>
       <c r="E405" s="0" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E406" s="0" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C407" s="0" t="s">
         <v>1275</v>
       </c>
-      <c r="B407" s="0" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C407" s="0" t="s">
+      <c r="D407" s="0" t="s">
         <v>1276</v>
       </c>
-      <c r="D407" s="0" t="s">
+      <c r="E407" s="0" t="s">
         <v>1277</v>
-      </c>
-      <c r="E407" s="0" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D408" s="0" t="s">
         <v>1279</v>
       </c>
-      <c r="B408" s="0" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C408" s="0" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D408" s="0" t="s">
-        <v>1281</v>
-      </c>
       <c r="E408" s="0" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D409" s="0" t="s">
         <v>1282</v>
       </c>
-      <c r="B409" s="0" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C409" s="0" t="s">
+      <c r="E409" s="0" t="s">
         <v>1283</v>
-      </c>
-      <c r="D409" s="0" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E409" s="0" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E410" s="0" t="s">
         <v>1286</v>
-      </c>
-      <c r="B410" s="0" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C410" s="0" t="s">
-        <v>1287</v>
-      </c>
-      <c r="D410" s="0" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E410" s="0" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D411" s="0" t="s">
         <v>1289</v>
       </c>
-      <c r="B411" s="0" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C411" s="0" t="s">
+      <c r="E411" s="0" t="s">
         <v>1290</v>
-      </c>
-      <c r="D411" s="0" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E411" s="0" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D412" s="0" t="s">
         <v>1293</v>
       </c>
-      <c r="B412" s="0" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C412" s="0" t="s">
+      <c r="E412" s="0" t="s">
         <v>1294</v>
-      </c>
-      <c r="D412" s="0" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E412" s="0" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D413" s="0" t="s">
         <v>1297</v>
       </c>
-      <c r="B413" s="0" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C413" s="0" t="s">
+      <c r="E413" s="0" t="s">
         <v>1298</v>
-      </c>
-      <c r="D413" s="0" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E413" s="0" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D414" s="0" t="s">
         <v>1301</v>
       </c>
-      <c r="B414" s="0" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C414" s="0" t="s">
+      <c r="E414" s="0" t="s">
         <v>1302</v>
-      </c>
-      <c r="D414" s="0" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E414" s="0" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D415" s="0" t="s">
         <v>1305</v>
       </c>
-      <c r="B415" s="0" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C415" s="0" t="s">
+      <c r="E415" s="0" t="s">
         <v>1306</v>
-      </c>
-      <c r="D415" s="0" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E415" s="0" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B416" s="0" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D416" s="0" t="s">
         <v>1309</v>
       </c>
-      <c r="B416" s="0" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C416" s="0" t="s">
+      <c r="E416" s="0" t="s">
         <v>1310</v>
-      </c>
-      <c r="D416" s="0" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E416" s="0" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B417" s="0" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D417" s="0" t="s">
         <v>1313</v>
       </c>
-      <c r="B417" s="0" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C417" s="0" t="s">
+      <c r="E417" s="0" t="s">
         <v>1314</v>
-      </c>
-      <c r="D417" s="0" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E417" s="0" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B418" s="0" t="s">
         <v>425</v>
@@ -13347,10 +13302,10 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C419" s="0" t="s">
         <v>426</v>
@@ -13359,49 +13314,49 @@
         <v>426</v>
       </c>
       <c r="E419" s="0" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B420" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C420" s="0" t="s">
         <v>1259</v>
       </c>
-      <c r="C420" s="0" t="s">
-        <v>1260</v>
-      </c>
       <c r="D420" s="0" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E420" s="0" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B421" s="0" t="s">
+        <v>893</v>
+      </c>
+      <c r="C421" s="0" t="s">
         <v>894</v>
       </c>
-      <c r="C421" s="0" t="s">
+      <c r="D421" s="0" t="s">
         <v>895</v>
       </c>
-      <c r="D421" s="0" t="s">
-        <v>896</v>
-      </c>
       <c r="E421" s="0" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C422" s="0" t="s">
         <v>304</v>
@@ -13415,563 +13370,563 @@
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D423" s="0" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E423" s="0" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B424" s="0" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D424" s="0" t="s">
         <v>1327</v>
       </c>
-      <c r="B424" s="0" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C424" s="0" t="s">
+      <c r="E424" s="0" t="s">
         <v>1328</v>
-      </c>
-      <c r="D424" s="0" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E424" s="0" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B425" s="0" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D425" s="0" t="s">
         <v>1331</v>
       </c>
-      <c r="B425" s="0" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C425" s="0" t="s">
+      <c r="E425" s="0" t="s">
         <v>1332</v>
-      </c>
-      <c r="D425" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E425" s="0" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C426" s="0" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E426" s="0" t="s">
         <v>1332</v>
-      </c>
-      <c r="D426" s="0" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E426" s="0" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B427" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D427" s="0" t="s">
         <v>1335</v>
       </c>
-      <c r="B427" s="0" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C427" s="0" t="s">
+      <c r="E427" s="0" t="s">
         <v>1336</v>
-      </c>
-      <c r="D427" s="0" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E427" s="0" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B428" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D428" s="0" t="s">
         <v>1339</v>
       </c>
-      <c r="B428" s="0" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C428" s="0" t="s">
+      <c r="E428" s="0" t="s">
         <v>1340</v>
-      </c>
-      <c r="D428" s="0" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E428" s="0" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B429" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D429" s="0" t="s">
         <v>1343</v>
       </c>
-      <c r="B429" s="0" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C429" s="0" t="s">
+      <c r="E429" s="0" t="s">
         <v>1344</v>
-      </c>
-      <c r="D429" s="0" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E429" s="0" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B430" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D430" s="0" t="s">
         <v>1347</v>
       </c>
-      <c r="B430" s="0" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C430" s="0" t="s">
+      <c r="E430" s="0" t="s">
         <v>1348</v>
-      </c>
-      <c r="D430" s="0" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E430" s="0" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D431" s="0" t="s">
         <v>1351</v>
       </c>
-      <c r="B431" s="0" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C431" s="0" t="s">
+      <c r="E431" s="0" t="s">
         <v>1352</v>
-      </c>
-      <c r="D431" s="0" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E431" s="0" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D432" s="0" t="s">
         <v>1355</v>
       </c>
-      <c r="B432" s="0" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C432" s="0" t="s">
+      <c r="E432" s="0" t="s">
         <v>1356</v>
-      </c>
-      <c r="D432" s="0" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E432" s="0" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B433" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D433" s="0" t="s">
         <v>1359</v>
       </c>
-      <c r="B433" s="0" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C433" s="0" t="s">
+      <c r="E433" s="0" t="s">
         <v>1360</v>
-      </c>
-      <c r="D433" s="0" t="s">
-        <v>1361</v>
-      </c>
-      <c r="E433" s="0" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B434" s="0" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D434" s="0" t="s">
         <v>1363</v>
       </c>
-      <c r="B434" s="0" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C434" s="0" t="s">
+      <c r="E434" s="0" t="s">
         <v>1364</v>
-      </c>
-      <c r="D434" s="0" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E434" s="0" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D435" s="0" t="s">
         <v>1367</v>
       </c>
-      <c r="B435" s="0" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C435" s="0" t="s">
+      <c r="E435" s="0" t="s">
         <v>1368</v>
-      </c>
-      <c r="D435" s="0" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E435" s="0" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B436" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D436" s="0" t="s">
         <v>1371</v>
       </c>
-      <c r="B436" s="0" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C436" s="0" t="s">
+      <c r="E436" s="0" t="s">
         <v>1372</v>
-      </c>
-      <c r="D436" s="0" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E436" s="0" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B437" s="0" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D437" s="0" t="s">
         <v>1375</v>
       </c>
-      <c r="B437" s="0" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C437" s="0" t="s">
+      <c r="E437" s="0" t="s">
         <v>1376</v>
-      </c>
-      <c r="D437" s="0" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E437" s="0" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B438" s="0" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D438" s="0" t="s">
         <v>1379</v>
       </c>
-      <c r="B438" s="0" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C438" s="0" t="s">
+      <c r="E438" s="0" t="s">
         <v>1380</v>
-      </c>
-      <c r="D438" s="0" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E438" s="0" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B439" s="0" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D439" s="0" t="s">
         <v>1383</v>
       </c>
-      <c r="B439" s="0" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C439" s="0" t="s">
+      <c r="E439" s="0" t="s">
         <v>1384</v>
-      </c>
-      <c r="D439" s="0" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E439" s="0" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B440" s="0" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D440" s="0" t="s">
         <v>1387</v>
       </c>
-      <c r="B440" s="0" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C440" s="0" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D440" s="0" t="s">
-        <v>1389</v>
-      </c>
       <c r="E440" s="0" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D441" s="0" t="s">
         <v>1390</v>
       </c>
-      <c r="B441" s="0" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C441" s="0" t="s">
+      <c r="E441" s="0" t="s">
         <v>1391</v>
-      </c>
-      <c r="D441" s="0" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E441" s="0" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D442" s="0" t="s">
         <v>1394</v>
       </c>
-      <c r="B442" s="0" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C442" s="0" t="s">
+      <c r="E442" s="0" t="s">
         <v>1395</v>
-      </c>
-      <c r="D442" s="0" t="s">
-        <v>1396</v>
-      </c>
-      <c r="E442" s="0" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B445" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D445" s="0" t="s">
         <v>1399</v>
       </c>
-      <c r="B445" s="0" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C445" s="0" t="s">
+      <c r="E445" s="0" t="s">
         <v>1400</v>
-      </c>
-      <c r="D445" s="0" t="s">
-        <v>1401</v>
-      </c>
-      <c r="E445" s="0" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B446" s="0" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D446" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="B446" s="0" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C446" s="0" t="s">
+      <c r="E446" s="0" t="s">
         <v>1404</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="E446" s="0" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B447" s="0" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D447" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="B447" s="0" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C447" s="0" t="s">
+      <c r="E447" s="0" t="s">
         <v>1408</v>
-      </c>
-      <c r="D447" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E447" s="0" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B448" s="0" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D448" s="0" t="s">
         <v>1411</v>
       </c>
-      <c r="B448" s="0" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C448" s="0" t="s">
+      <c r="E448" s="0" t="s">
         <v>1412</v>
-      </c>
-      <c r="D448" s="0" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E448" s="0" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B449" s="0" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D449" s="0" t="s">
         <v>1415</v>
       </c>
-      <c r="B449" s="0" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C449" s="0" t="s">
+      <c r="E449" s="0" t="s">
         <v>1416</v>
-      </c>
-      <c r="D449" s="0" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E449" s="0" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B450" s="0" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C450" s="0" t="s">
         <v>1419</v>
       </c>
-      <c r="B450" s="0" t="s">
+      <c r="D450" s="0" t="s">
         <v>1420</v>
       </c>
-      <c r="C450" s="0" t="s">
+      <c r="E450" s="0" t="s">
         <v>1421</v>
-      </c>
-      <c r="D450" s="0" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E450" s="0" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B451" s="0" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C451" s="0" t="s">
         <v>1424</v>
       </c>
-      <c r="B451" s="0" t="s">
+      <c r="D451" s="0" t="s">
         <v>1425</v>
       </c>
-      <c r="C451" s="0" t="s">
+      <c r="E451" s="0" t="s">
         <v>1426</v>
-      </c>
-      <c r="D451" s="0" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E451" s="0" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B453" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C453" s="0" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D453" s="0" t="s">
         <v>1430</v>
       </c>
-      <c r="B453" s="0" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C453" s="0" t="s">
+      <c r="E453" s="0" t="s">
         <v>1431</v>
-      </c>
-      <c r="D453" s="0" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E453" s="0" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B454" s="0" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C454" s="0" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D454" s="0" t="s">
         <v>1434</v>
       </c>
-      <c r="B454" s="0" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C454" s="0" t="s">
+      <c r="E454" s="0" t="s">
         <v>1435</v>
-      </c>
-      <c r="D454" s="0" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E454" s="0" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B456" s="0" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C456" s="0" t="s">
         <v>1439</v>
       </c>
-      <c r="B456" s="0" t="s">
+      <c r="D456" s="0" t="s">
         <v>1440</v>
       </c>
-      <c r="C456" s="0" t="s">
+      <c r="E456" s="0" t="s">
         <v>1441</v>
-      </c>
-      <c r="D456" s="0" t="s">
-        <v>1442</v>
-      </c>
-      <c r="E456" s="0" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B457" s="0" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C457" s="0" t="s">
         <v>1444</v>
       </c>
-      <c r="B457" s="0" t="s">
+      <c r="D457" s="0" t="s">
         <v>1445</v>
       </c>
-      <c r="C457" s="0" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D457" s="0" t="s">
-        <v>1447</v>
-      </c>
       <c r="E457" s="0" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B459" s="0" t="s">
         <v>458</v>
       </c>
       <c r="C459" s="0" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D459" s="0" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E459" s="0" t="s">
         <v>461</v>
@@ -13979,3924 +13934,3924 @@
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B460" s="0" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C460" s="0" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D460" s="0" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E460" s="0" t="s">
         <v>1452</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C460" s="0" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D460" s="0" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E460" s="0" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B463" s="0" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C463" s="0" t="s">
         <v>1456</v>
       </c>
-      <c r="B463" s="0" t="s">
+      <c r="D463" s="0" t="s">
         <v>1457</v>
       </c>
-      <c r="C463" s="0" t="s">
+      <c r="E463" s="0" t="s">
         <v>1458</v>
-      </c>
-      <c r="D463" s="0" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E463" s="0" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B464" s="0" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C464" s="0" t="s">
         <v>1461</v>
       </c>
-      <c r="B464" s="0" t="s">
+      <c r="D464" s="0" t="s">
         <v>1462</v>
       </c>
-      <c r="C464" s="0" t="s">
+      <c r="E464" s="0" t="s">
         <v>1463</v>
-      </c>
-      <c r="D464" s="0" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E464" s="0" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B465" s="0" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C465" s="0" t="s">
         <v>1466</v>
       </c>
-      <c r="B465" s="0" t="s">
+      <c r="D465" s="0" t="s">
         <v>1467</v>
       </c>
-      <c r="C465" s="0" t="s">
+      <c r="E465" s="1" t="s">
         <v>1468</v>
-      </c>
-      <c r="D465" s="0" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E465" s="1" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C466" s="0" t="s">
         <v>1471</v>
       </c>
-      <c r="B466" s="0" t="s">
+      <c r="D466" s="0" t="s">
         <v>1472</v>
       </c>
-      <c r="C466" s="0" t="s">
+      <c r="E466" s="1" t="s">
         <v>1473</v>
-      </c>
-      <c r="D466" s="0" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E466" s="1" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D467" s="0" t="s">
         <v>1476</v>
       </c>
-      <c r="B467" s="0" t="s">
-        <v>1476</v>
-      </c>
-      <c r="C467" s="0" t="s">
+      <c r="E467" s="0" t="s">
         <v>1477</v>
-      </c>
-      <c r="D467" s="0" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E467" s="0" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D468" s="0" t="s">
         <v>1480</v>
       </c>
-      <c r="B468" s="0" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C468" s="0" t="s">
+      <c r="E468" s="0" t="s">
         <v>1481</v>
-      </c>
-      <c r="D468" s="0" t="s">
-        <v>1482</v>
-      </c>
-      <c r="E468" s="0" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D469" s="0" t="s">
         <v>1484</v>
       </c>
-      <c r="B469" s="0" t="s">
-        <v>1484</v>
-      </c>
-      <c r="C469" s="0" t="s">
+      <c r="E469" s="0" t="s">
         <v>1485</v>
-      </c>
-      <c r="D469" s="0" t="s">
-        <v>1486</v>
-      </c>
-      <c r="E469" s="0" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D470" s="0" t="s">
         <v>1488</v>
       </c>
-      <c r="B470" s="0" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C470" s="0" t="s">
+      <c r="E470" s="0" t="s">
         <v>1489</v>
-      </c>
-      <c r="D470" s="0" t="s">
-        <v>1490</v>
-      </c>
-      <c r="E470" s="0" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D471" s="0" t="s">
         <v>1492</v>
       </c>
-      <c r="B471" s="0" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C471" s="0" t="s">
+      <c r="E471" s="0" t="s">
         <v>1493</v>
-      </c>
-      <c r="D471" s="0" t="s">
-        <v>1494</v>
-      </c>
-      <c r="E471" s="0" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D472" s="0" t="s">
         <v>1496</v>
       </c>
-      <c r="B472" s="0" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C472" s="0" t="s">
+      <c r="E472" s="0" t="s">
         <v>1497</v>
-      </c>
-      <c r="D472" s="0" t="s">
-        <v>1498</v>
-      </c>
-      <c r="E472" s="0" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D473" s="0" t="s">
         <v>1500</v>
       </c>
-      <c r="B473" s="0" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C473" s="0" t="s">
+      <c r="E473" s="0" t="s">
         <v>1501</v>
-      </c>
-      <c r="D473" s="0" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E473" s="0" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D474" s="0" t="s">
         <v>1504</v>
       </c>
-      <c r="B474" s="0" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C474" s="0" t="s">
+      <c r="E474" s="0" t="s">
         <v>1505</v>
-      </c>
-      <c r="D474" s="0" t="s">
-        <v>1506</v>
-      </c>
-      <c r="E474" s="0" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D475" s="0" t="s">
         <v>1508</v>
       </c>
-      <c r="B475" s="0" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C475" s="0" t="s">
+      <c r="E475" s="0" t="s">
         <v>1509</v>
-      </c>
-      <c r="D475" s="0" t="s">
-        <v>1510</v>
-      </c>
-      <c r="E475" s="0" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D476" s="0" t="s">
         <v>1512</v>
       </c>
-      <c r="B476" s="0" t="s">
-        <v>1512</v>
-      </c>
-      <c r="C476" s="0" t="s">
+      <c r="E476" s="0" t="s">
         <v>1513</v>
-      </c>
-      <c r="D476" s="0" t="s">
-        <v>1514</v>
-      </c>
-      <c r="E476" s="0" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D477" s="0" t="s">
         <v>1516</v>
       </c>
-      <c r="B477" s="0" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C477" s="0" t="s">
+      <c r="E477" s="0" t="s">
         <v>1517</v>
-      </c>
-      <c r="D477" s="0" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E477" s="0" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D478" s="0" t="s">
         <v>1520</v>
       </c>
-      <c r="B478" s="0" t="s">
-        <v>1520</v>
-      </c>
-      <c r="C478" s="0" t="s">
+      <c r="E478" s="0" t="s">
         <v>1521</v>
-      </c>
-      <c r="D478" s="0" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E478" s="0" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D479" s="0" t="s">
         <v>1524</v>
       </c>
-      <c r="B479" s="0" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C479" s="0" t="s">
+      <c r="E479" s="0" t="s">
         <v>1525</v>
-      </c>
-      <c r="D479" s="0" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E479" s="0" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D480" s="0" t="s">
         <v>1528</v>
       </c>
-      <c r="B480" s="0" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C480" s="0" t="s">
+      <c r="E480" s="0" t="s">
         <v>1529</v>
-      </c>
-      <c r="D480" s="0" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E480" s="0" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C481" s="0" t="s">
         <v>1532</v>
       </c>
-      <c r="B481" s="0" t="s">
+      <c r="D481" s="0" t="s">
         <v>1533</v>
       </c>
-      <c r="C481" s="0" t="s">
+      <c r="E481" s="0" t="s">
         <v>1534</v>
-      </c>
-      <c r="D481" s="0" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E481" s="0" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C482" s="0" t="s">
         <v>1537</v>
       </c>
-      <c r="B482" s="0" t="s">
+      <c r="D482" s="0" t="s">
         <v>1538</v>
       </c>
-      <c r="C482" s="0" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D482" s="0" t="s">
-        <v>1540</v>
-      </c>
       <c r="E482" s="0" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C483" s="0" t="s">
         <v>1541</v>
       </c>
-      <c r="B483" s="0" t="s">
+      <c r="D483" s="0" t="s">
         <v>1542</v>
       </c>
-      <c r="C483" s="0" t="s">
+      <c r="E483" s="0" t="s">
         <v>1543</v>
-      </c>
-      <c r="D483" s="0" t="s">
-        <v>1544</v>
-      </c>
-      <c r="E483" s="0" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D484" s="0" t="s">
         <v>1546</v>
       </c>
-      <c r="B484" s="0" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C484" s="0" t="s">
+      <c r="E484" s="0" t="s">
         <v>1547</v>
-      </c>
-      <c r="D484" s="0" t="s">
-        <v>1548</v>
-      </c>
-      <c r="E484" s="0" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B485" s="0" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C485" s="0" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D485" s="0" t="s">
         <v>1550</v>
       </c>
-      <c r="B485" s="0" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C485" s="0" t="s">
+      <c r="E485" s="0" t="s">
         <v>1551</v>
-      </c>
-      <c r="D485" s="0" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E485" s="0" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D486" s="0" t="s">
         <v>1554</v>
       </c>
-      <c r="B486" s="0" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C486" s="0" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D486" s="0" t="s">
-        <v>1556</v>
-      </c>
       <c r="E486" s="0" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D487" s="0" t="s">
         <v>1557</v>
       </c>
-      <c r="B487" s="0" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C487" s="0" t="s">
+      <c r="E487" s="0" t="s">
         <v>1558</v>
-      </c>
-      <c r="D487" s="0" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E487" s="0" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C488" s="0" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D488" s="0" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="E488" s="0" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C489" s="0" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D489" s="0" t="s">
         <v>1563</v>
       </c>
-      <c r="B489" s="0" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C489" s="0" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D489" s="0" t="s">
-        <v>1565</v>
-      </c>
       <c r="E489" s="0" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D490" s="0" t="s">
         <v>1566</v>
       </c>
-      <c r="B490" s="0" t="s">
-        <v>1566</v>
-      </c>
-      <c r="C490" s="0" t="s">
+      <c r="E490" s="0" t="s">
         <v>1567</v>
-      </c>
-      <c r="D490" s="0" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E490" s="0" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B491" s="0" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C491" s="0" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D491" s="0" t="s">
         <v>1570</v>
       </c>
-      <c r="B491" s="0" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C491" s="0" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D491" s="0" t="s">
-        <v>1572</v>
-      </c>
       <c r="E491" s="0" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C492" s="0" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D492" s="0" t="s">
         <v>1573</v>
       </c>
-      <c r="B492" s="0" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C492" s="0" t="s">
+      <c r="E492" s="0" t="s">
         <v>1574</v>
-      </c>
-      <c r="D492" s="0" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E492" s="0" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D493" s="0" t="s">
         <v>1577</v>
       </c>
-      <c r="B493" s="0" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C493" s="0" t="s">
+      <c r="E493" s="0" t="s">
         <v>1578</v>
-      </c>
-      <c r="D493" s="0" t="s">
-        <v>1579</v>
-      </c>
-      <c r="E493" s="0" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B494" s="0" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C494" s="0" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D494" s="0" t="s">
         <v>1581</v>
       </c>
-      <c r="B494" s="0" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C494" s="0" t="s">
+      <c r="E494" s="0" t="s">
         <v>1582</v>
-      </c>
-      <c r="D494" s="0" t="s">
-        <v>1583</v>
-      </c>
-      <c r="E494" s="0" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D496" s="0" t="s">
         <v>1586</v>
       </c>
-      <c r="B496" s="0" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C496" s="0" t="s">
+      <c r="E496" s="0" t="s">
         <v>1587</v>
-      </c>
-      <c r="D496" s="0" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E496" s="0" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B498" s="0" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C498" s="0" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D498" s="0" t="s">
         <v>1591</v>
       </c>
-      <c r="B498" s="0" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C498" s="0" t="s">
+      <c r="E498" s="0" t="s">
         <v>1592</v>
-      </c>
-      <c r="D498" s="0" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E498" s="0" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D499" s="0" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E499" s="0" t="s">
         <v>1595</v>
-      </c>
-      <c r="B499" s="0" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C499" s="0" t="s">
-        <v>1596</v>
-      </c>
-      <c r="D499" s="0" t="s">
-        <v>1597</v>
-      </c>
-      <c r="E499" s="0" t="s">
-        <v>1598</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C500" s="0" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D500" s="0" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="E500" s="0" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E501" s="1" t="s">
         <v>1599</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E501" s="1" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E502" s="1" t="s">
         <v>1603</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D502" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="E502" s="1" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E503" s="1" t="s">
         <v>1607</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D503" s="3" t="s">
-        <v>1609</v>
-      </c>
-      <c r="E503" s="1" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E504" s="1" t="s">
         <v>1611</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E504" s="1" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E505" s="1" t="s">
         <v>1615</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E505" s="1" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E506" s="1" t="s">
         <v>1619</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D506" s="3" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E506" s="1" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E507" s="1" t="s">
         <v>1623</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>1625</v>
-      </c>
-      <c r="E507" s="1" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E508" s="1" t="s">
         <v>1627</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>1629</v>
-      </c>
-      <c r="E508" s="1" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E509" s="1" t="s">
         <v>1631</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D509" s="3" t="s">
-        <v>1633</v>
-      </c>
-      <c r="E509" s="1" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E510" s="1" t="s">
         <v>1635</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C510" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="D510" s="3" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E510" s="1" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E511" s="1" t="s">
         <v>1639</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C511" s="1" t="s">
-        <v>1640</v>
-      </c>
-      <c r="D511" s="3" t="s">
-        <v>1641</v>
-      </c>
-      <c r="E511" s="1" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E512" s="1" t="s">
         <v>1643</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D512" s="3" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E512" s="1" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C515" s="0" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D515" s="0" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E515" s="0" t="s">
         <v>1648</v>
-      </c>
-      <c r="B515" s="0" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C515" s="0" t="s">
-        <v>1649</v>
-      </c>
-      <c r="D515" s="0" t="s">
-        <v>1650</v>
-      </c>
-      <c r="E515" s="0" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D516" s="0" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E516" s="0" t="s">
         <v>1652</v>
-      </c>
-      <c r="B516" s="0" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C516" s="0" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D516" s="0" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E516" s="0" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D517" s="0" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E517" s="0" t="s">
         <v>1656</v>
-      </c>
-      <c r="B517" s="0" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C517" s="0" t="s">
-        <v>1657</v>
-      </c>
-      <c r="D517" s="0" t="s">
-        <v>1658</v>
-      </c>
-      <c r="E517" s="0" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C518" s="0" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="D518" s="0" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="E518" s="0" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D519" s="0" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E519" s="0" t="s">
         <v>1661</v>
-      </c>
-      <c r="B519" s="0" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C519" s="0" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D519" s="0" t="s">
-        <v>1663</v>
-      </c>
-      <c r="E519" s="0" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="C520" s="0" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="D520" s="0" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="E520" s="0" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B521" s="0" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C521" s="0" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D521" s="0" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E521" s="0" t="s">
         <v>1667</v>
-      </c>
-      <c r="B521" s="0" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C521" s="0" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D521" s="0" t="s">
-        <v>1669</v>
-      </c>
-      <c r="E521" s="0" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C522" s="0" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="D522" s="0" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="E522" s="0" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E523" s="0" t="s">
         <v>1674</v>
-      </c>
-      <c r="B523" s="0" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C523" s="0" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D523" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E523" s="0" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B524" s="0" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D524" s="0" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E524" s="0" t="s">
         <v>1678</v>
-      </c>
-      <c r="B524" s="0" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C524" s="0" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D524" s="0" t="s">
-        <v>1680</v>
-      </c>
-      <c r="E524" s="0" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B525" s="0" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C525" s="0" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D525" s="0" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E525" s="0" t="s">
         <v>1682</v>
-      </c>
-      <c r="B525" s="0" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C525" s="0" t="s">
-        <v>1683</v>
-      </c>
-      <c r="D525" s="0" t="s">
-        <v>1684</v>
-      </c>
-      <c r="E525" s="0" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B526" s="0" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C526" s="0" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D526" s="0" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E526" s="0" t="s">
         <v>1686</v>
-      </c>
-      <c r="B526" s="0" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C526" s="0" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D526" s="0" t="s">
-        <v>1688</v>
-      </c>
-      <c r="E526" s="0" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="D527" s="0" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E527" s="0" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="D528" s="0" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E528" s="0" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B529" s="0" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C529" s="0" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D529" s="0" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E529" s="0" t="s">
         <v>1696</v>
-      </c>
-      <c r="B529" s="0" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C529" s="0" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D529" s="0" t="s">
-        <v>1698</v>
-      </c>
-      <c r="E529" s="0" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="C530" s="0" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D530" s="0" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="E530" s="0" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B531" s="0" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C531" s="0" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D531" s="0" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E531" s="0" t="s">
         <v>1703</v>
-      </c>
-      <c r="B531" s="0" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C531" s="0" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D531" s="0" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E531" s="0" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B532" s="0" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D532" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E532" s="0" t="s">
         <v>1707</v>
-      </c>
-      <c r="B532" s="0" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C532" s="0" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D532" s="0" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E532" s="0" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="D533" s="0" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="E533" s="0" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B534" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D534" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E534" s="0" t="s">
         <v>1713</v>
-      </c>
-      <c r="B534" s="0" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C534" s="0" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D534" s="0" t="s">
-        <v>1715</v>
-      </c>
-      <c r="E534" s="0" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B535" s="0" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C535" s="0" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D535" s="0" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E535" s="0" t="s">
         <v>1717</v>
-      </c>
-      <c r="B535" s="0" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C535" s="0" t="s">
-        <v>1718</v>
-      </c>
-      <c r="D535" s="0" t="s">
-        <v>1719</v>
-      </c>
-      <c r="E535" s="0" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B536" s="0" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C536" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D536" s="0" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E536" s="0" t="s">
         <v>1721</v>
-      </c>
-      <c r="B536" s="0" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C536" s="0" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D536" s="0" t="s">
-        <v>1723</v>
-      </c>
-      <c r="E536" s="0" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B537" s="0" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C537" s="0" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D537" s="0" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E537" s="0" t="s">
         <v>1725</v>
-      </c>
-      <c r="B537" s="0" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C537" s="0" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D537" s="0" t="s">
-        <v>1727</v>
-      </c>
-      <c r="E537" s="0" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B538" s="0" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C538" s="0" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D538" s="0" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E538" s="0" t="s">
         <v>1729</v>
-      </c>
-      <c r="B538" s="0" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C538" s="0" t="s">
-        <v>1730</v>
-      </c>
-      <c r="D538" s="0" t="s">
-        <v>1731</v>
-      </c>
-      <c r="E538" s="0" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C539" s="0" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D539" s="0" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="E539" s="0" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B540" s="0" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D540" s="0" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E540" s="0" t="s">
         <v>1734</v>
-      </c>
-      <c r="B540" s="0" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C540" s="0" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D540" s="0" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E540" s="0" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="C541" s="0" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D541" s="0" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="E541" s="0" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B542" s="0" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C542" s="0" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D542" s="0" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E542" s="0" t="s">
         <v>1739</v>
-      </c>
-      <c r="B542" s="0" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C542" s="0" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D542" s="0" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E542" s="0" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="C543" s="0" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="D543" s="0" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="E543" s="0" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B544" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C544" s="0" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E544" s="0" t="s">
         <v>1746</v>
-      </c>
-      <c r="B544" s="0" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C544" s="0" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D544" s="1" t="s">
-        <v>1748</v>
-      </c>
-      <c r="E544" s="0" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="C546" s="0" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="D546" s="0" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="E546" s="0" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="C547" s="0" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="D547" s="0" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="E547" s="0" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="C548" s="0" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="D548" s="0" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="E548" s="0" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="E549" s="0" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="C550" s="0" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
       <c r="D550" s="0" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
       <c r="E550" s="0" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="C551" s="0" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="D551" s="0" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="E551" s="0" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
       <c r="D552" s="0" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
       <c r="E552" s="0" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
       <c r="C553" s="0" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="D553" s="0" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="E553" s="0" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="D554" s="0" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="E554" s="0" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="D555" s="0" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="E555" s="0" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="D556" s="0" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="E556" s="0" t="s">
-        <v>1789</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>1790</v>
+        <v>1782</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>1791</v>
+        <v>1782</v>
       </c>
       <c r="D557" s="0" t="s">
-        <v>1792</v>
+        <v>1783</v>
       </c>
       <c r="E557" s="0" t="s">
-        <v>1793</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="C558" s="0" t="s">
-        <v>1795</v>
+        <v>1786</v>
       </c>
       <c r="D558" s="0" t="s">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="E558" s="0" t="s">
-        <v>1797</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
       <c r="C559" s="0" t="s">
-        <v>1799</v>
+        <v>1790</v>
       </c>
       <c r="D559" s="0" t="s">
-        <v>1800</v>
+        <v>1791</v>
       </c>
       <c r="E559" s="0" t="s">
-        <v>1801</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="C560" s="0" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="D560" s="0" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="E560" s="0" t="s">
-        <v>1803</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
       <c r="C561" s="0" t="s">
-        <v>1805</v>
+        <v>1796</v>
       </c>
       <c r="D561" s="0" t="s">
-        <v>1806</v>
+        <v>1797</v>
       </c>
       <c r="E561" s="0" t="s">
-        <v>1807</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>1808</v>
+        <v>1799</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>1808</v>
+        <v>1799</v>
       </c>
       <c r="C562" s="0" t="s">
-        <v>1809</v>
+        <v>1800</v>
       </c>
       <c r="D562" s="0" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E562" s="0" t="s">
-        <v>1810</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="C563" s="0" t="s">
-        <v>1812</v>
+        <v>1803</v>
       </c>
       <c r="D563" s="0" t="s">
-        <v>1813</v>
+        <v>1803</v>
       </c>
       <c r="E563" s="0" t="s">
-        <v>1814</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>1815</v>
+        <v>1805</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>1815</v>
+        <v>1805</v>
       </c>
       <c r="C564" s="0" t="s">
-        <v>1816</v>
+        <v>1806</v>
       </c>
       <c r="D564" s="0" t="s">
-        <v>1817</v>
+        <v>1807</v>
       </c>
       <c r="E564" s="0" t="s">
-        <v>1818</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>1820</v>
+        <v>1809</v>
       </c>
       <c r="D565" s="0" t="s">
-        <v>1819</v>
+        <v>1809</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>1821</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>1822</v>
+        <v>1811</v>
       </c>
       <c r="C566" s="0" t="s">
-        <v>1823</v>
+        <v>1812</v>
       </c>
       <c r="D566" s="0" t="s">
-        <v>1824</v>
+        <v>1813</v>
       </c>
       <c r="E566" s="0" t="s">
-        <v>1825</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>1826</v>
+        <v>1815</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>1826</v>
+        <v>1815</v>
       </c>
       <c r="C567" s="0" t="s">
-        <v>1827</v>
+        <v>1816</v>
       </c>
       <c r="D567" s="0" t="s">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="E567" s="0" t="s">
-        <v>1829</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="C568" s="0" t="s">
-        <v>1831</v>
+        <v>1819</v>
       </c>
       <c r="D568" s="0" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="E568" s="0" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>1832</v>
+        <v>1820</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>1832</v>
+        <v>1820</v>
       </c>
       <c r="C569" s="0" t="s">
-        <v>1833</v>
+        <v>1820</v>
       </c>
       <c r="D569" s="0" t="s">
-        <v>1832</v>
+        <v>1820</v>
       </c>
       <c r="E569" s="0" t="s">
-        <v>1832</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>1834</v>
+        <v>1821</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>1834</v>
+        <v>1821</v>
       </c>
       <c r="C570" s="0" t="s">
-        <v>1835</v>
+        <v>1821</v>
       </c>
       <c r="D570" s="0" t="s">
-        <v>1834</v>
+        <v>1821</v>
       </c>
       <c r="E570" s="0" t="s">
-        <v>1834</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>1836</v>
+        <v>1822</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>1836</v>
+        <v>1822</v>
       </c>
       <c r="C571" s="0" t="s">
-        <v>1837</v>
+        <v>1822</v>
       </c>
       <c r="D571" s="0" t="s">
-        <v>1836</v>
+        <v>1822</v>
       </c>
       <c r="E571" s="0" t="s">
-        <v>1836</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>1838</v>
+        <v>1823</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>1838</v>
+        <v>1823</v>
       </c>
       <c r="C572" s="0" t="s">
-        <v>1839</v>
+        <v>1824</v>
       </c>
       <c r="D572" s="0" t="s">
-        <v>1840</v>
+        <v>1825</v>
       </c>
       <c r="E572" s="0" t="s">
-        <v>1841</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>1842</v>
+        <v>1827</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>1842</v>
+        <v>1827</v>
       </c>
       <c r="C573" s="0" t="s">
-        <v>1843</v>
+        <v>1828</v>
       </c>
       <c r="D573" s="0" t="s">
-        <v>1844</v>
+        <v>1829</v>
       </c>
       <c r="E573" s="0" t="s">
-        <v>1842</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>1845</v>
+        <v>1830</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>1845</v>
+        <v>1830</v>
       </c>
       <c r="C574" s="0" t="s">
-        <v>1846</v>
+        <v>1831</v>
       </c>
       <c r="D574" s="0" t="s">
-        <v>1847</v>
+        <v>1832</v>
       </c>
       <c r="E574" s="0" t="s">
-        <v>1848</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>1849</v>
+        <v>1834</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>1849</v>
+        <v>1834</v>
       </c>
       <c r="C575" s="0" t="s">
-        <v>1850</v>
+        <v>1835</v>
       </c>
       <c r="D575" s="0" t="s">
-        <v>1851</v>
+        <v>1836</v>
       </c>
       <c r="E575" s="0" t="s">
-        <v>1849</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>1852</v>
+        <v>1837</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>1852</v>
+        <v>1837</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>1853</v>
+        <v>1838</v>
       </c>
       <c r="D576" s="0" t="s">
-        <v>1854</v>
+        <v>1839</v>
       </c>
       <c r="E576" s="0" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>1855</v>
+        <v>1840</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>1855</v>
+        <v>1840</v>
       </c>
       <c r="C577" s="0" t="s">
-        <v>1856</v>
+        <v>1841</v>
       </c>
       <c r="D577" s="0" t="s">
-        <v>1857</v>
+        <v>1842</v>
       </c>
       <c r="E577" s="0" t="s">
-        <v>1858</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>1859</v>
+        <v>1844</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>1859</v>
+        <v>1844</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>1860</v>
+        <v>1845</v>
       </c>
       <c r="D578" s="0" t="s">
-        <v>1861</v>
+        <v>1846</v>
       </c>
       <c r="E578" s="0" t="s">
-        <v>1862</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>1863</v>
+        <v>1848</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>1863</v>
+        <v>1848</v>
       </c>
       <c r="C579" s="0" t="s">
-        <v>1864</v>
+        <v>1849</v>
       </c>
       <c r="D579" s="0" t="s">
-        <v>1865</v>
+        <v>1850</v>
       </c>
       <c r="E579" s="0" t="s">
-        <v>1866</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>1867</v>
+        <v>1852</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>1867</v>
+        <v>1852</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>1868</v>
+        <v>1853</v>
       </c>
       <c r="D580" s="0" t="s">
-        <v>1869</v>
+        <v>1854</v>
       </c>
       <c r="E580" s="0" t="s">
-        <v>1870</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>1871</v>
+        <v>1856</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>1871</v>
+        <v>1856</v>
       </c>
       <c r="C581" s="0" t="s">
-        <v>1872</v>
+        <v>1857</v>
       </c>
       <c r="D581" s="0" t="s">
-        <v>1873</v>
+        <v>1858</v>
       </c>
       <c r="E581" s="0" t="s">
-        <v>1874</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>1875</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>1876</v>
+        <v>1861</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>1876</v>
+        <v>1861</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1877</v>
+        <v>1862</v>
       </c>
       <c r="D584" s="0" t="s">
-        <v>1878</v>
+        <v>1863</v>
       </c>
       <c r="E584" s="0" t="s">
-        <v>1879</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>1880</v>
+        <v>1865</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>1880</v>
+        <v>1865</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1881</v>
+        <v>1866</v>
       </c>
       <c r="D585" s="0" t="s">
-        <v>1882</v>
+        <v>1867</v>
       </c>
       <c r="E585" s="0" t="s">
-        <v>1883</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>1884</v>
+        <v>1869</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>1884</v>
+        <v>1869</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1885</v>
+        <v>1870</v>
       </c>
       <c r="D586" s="0" t="s">
-        <v>1886</v>
+        <v>1871</v>
       </c>
       <c r="E586" s="0" t="s">
-        <v>1887</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>1888</v>
+        <v>1873</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>1888</v>
+        <v>1873</v>
       </c>
       <c r="C587" s="0" t="s">
-        <v>1889</v>
+        <v>1874</v>
       </c>
       <c r="D587" s="0" t="s">
-        <v>1890</v>
+        <v>1875</v>
       </c>
       <c r="E587" s="0" t="s">
-        <v>1891</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>1892</v>
+        <v>1877</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>1892</v>
+        <v>1877</v>
       </c>
       <c r="C588" s="0" t="s">
-        <v>1893</v>
+        <v>1878</v>
       </c>
       <c r="D588" s="0" t="s">
-        <v>1894</v>
+        <v>1879</v>
       </c>
       <c r="E588" s="0" t="s">
-        <v>1895</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>1896</v>
+        <v>1881</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>1896</v>
+        <v>1881</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>1897</v>
+        <v>1882</v>
       </c>
       <c r="D589" s="0" t="s">
-        <v>1898</v>
+        <v>1883</v>
       </c>
       <c r="E589" s="0" t="s">
-        <v>1895</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>1899</v>
+        <v>1884</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>1899</v>
+        <v>1884</v>
       </c>
       <c r="C590" s="0" t="s">
-        <v>1900</v>
+        <v>1885</v>
       </c>
       <c r="D590" s="0" t="s">
-        <v>1901</v>
+        <v>1886</v>
       </c>
       <c r="E590" s="0" t="s">
-        <v>1902</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>1903</v>
+        <v>1888</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>1903</v>
+        <v>1888</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1904</v>
+        <v>1889</v>
       </c>
       <c r="D591" s="0" t="s">
-        <v>1905</v>
+        <v>1890</v>
       </c>
       <c r="E591" s="0" t="s">
-        <v>1906</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>1907</v>
+        <v>1892</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>1907</v>
+        <v>1892</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1908</v>
+        <v>1893</v>
       </c>
       <c r="D592" s="0" t="s">
-        <v>1909</v>
+        <v>1894</v>
       </c>
       <c r="E592" s="0" t="s">
-        <v>1910</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>1911</v>
+        <v>1896</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>1911</v>
+        <v>1896</v>
       </c>
       <c r="C593" s="0" t="s">
-        <v>1912</v>
+        <v>1897</v>
       </c>
       <c r="D593" s="0" t="s">
-        <v>1913</v>
+        <v>1898</v>
       </c>
       <c r="E593" s="0" t="s">
-        <v>1914</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>1915</v>
+        <v>1900</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>1915</v>
+        <v>1900</v>
       </c>
       <c r="C594" s="0" t="s">
-        <v>1916</v>
+        <v>1901</v>
       </c>
       <c r="D594" s="0" t="s">
-        <v>1917</v>
+        <v>1902</v>
       </c>
       <c r="E594" s="0" t="s">
-        <v>1918</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>1919</v>
+        <v>1904</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>1919</v>
+        <v>1904</v>
       </c>
       <c r="C595" s="0" t="s">
-        <v>1920</v>
+        <v>1905</v>
       </c>
       <c r="D595" s="0" t="s">
-        <v>1921</v>
+        <v>1906</v>
       </c>
       <c r="E595" s="0" t="s">
-        <v>1922</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>1923</v>
+        <v>1908</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>1923</v>
+        <v>1908</v>
       </c>
       <c r="C596" s="0" t="s">
-        <v>1924</v>
+        <v>1909</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>1925</v>
+        <v>1910</v>
       </c>
       <c r="E596" s="0" t="s">
-        <v>1926</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>1927</v>
+        <v>1912</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>1927</v>
+        <v>1912</v>
       </c>
       <c r="C597" s="0" t="s">
-        <v>1928</v>
+        <v>1913</v>
       </c>
       <c r="D597" s="0" t="s">
-        <v>1928</v>
+        <v>1913</v>
       </c>
       <c r="E597" s="0" t="s">
-        <v>1929</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>1930</v>
+        <v>1915</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>1930</v>
+        <v>1915</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>1931</v>
+        <v>1916</v>
       </c>
       <c r="D598" s="0" t="s">
-        <v>1932</v>
+        <v>1917</v>
       </c>
       <c r="E598" s="0" t="s">
-        <v>1933</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>1934</v>
+        <v>1919</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>1934</v>
+        <v>1919</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>1935</v>
+        <v>1920</v>
       </c>
       <c r="D599" s="0" t="s">
-        <v>1936</v>
+        <v>1921</v>
       </c>
       <c r="E599" s="0" t="s">
-        <v>1937</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>1938</v>
+        <v>1923</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>1938</v>
+        <v>1923</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>1939</v>
+        <v>1924</v>
       </c>
       <c r="D600" s="0" t="s">
-        <v>1940</v>
+        <v>1925</v>
       </c>
       <c r="E600" s="0" t="s">
-        <v>1941</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>1942</v>
+        <v>1927</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>1942</v>
+        <v>1927</v>
       </c>
       <c r="C601" s="0" t="s">
-        <v>1943</v>
+        <v>1928</v>
       </c>
       <c r="D601" s="0" t="s">
-        <v>1944</v>
+        <v>1929</v>
       </c>
       <c r="E601" s="0" t="s">
-        <v>1945</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1946</v>
+        <v>1931</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>1946</v>
+        <v>1931</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>1947</v>
+        <v>1932</v>
       </c>
       <c r="D602" s="0" t="s">
-        <v>1948</v>
+        <v>1933</v>
       </c>
       <c r="E602" s="0" t="s">
-        <v>1949</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>1950</v>
+        <v>1935</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>1950</v>
+        <v>1935</v>
       </c>
       <c r="C603" s="0" t="s">
-        <v>1951</v>
+        <v>1936</v>
       </c>
       <c r="D603" s="0" t="s">
-        <v>1952</v>
+        <v>1937</v>
       </c>
       <c r="E603" s="0" t="s">
-        <v>1953</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>1954</v>
+        <v>1939</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>1954</v>
+        <v>1939</v>
       </c>
       <c r="C604" s="0" t="s">
-        <v>1955</v>
+        <v>1940</v>
       </c>
       <c r="D604" s="0" t="s">
-        <v>1956</v>
+        <v>1941</v>
       </c>
       <c r="E604" s="0" t="s">
-        <v>1957</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>1958</v>
+        <v>1943</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>1958</v>
+        <v>1943</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>1959</v>
+        <v>1944</v>
       </c>
       <c r="D605" s="0" t="s">
-        <v>1960</v>
+        <v>1945</v>
       </c>
       <c r="E605" s="0" t="s">
-        <v>1961</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>1962</v>
+        <v>1947</v>
       </c>
       <c r="C606" s="0" t="s">
-        <v>1963</v>
+        <v>1948</v>
       </c>
       <c r="D606" s="0" t="s">
-        <v>1964</v>
+        <v>1949</v>
       </c>
       <c r="E606" s="0" t="s">
-        <v>1965</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>1966</v>
+        <v>1951</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>1966</v>
+        <v>1951</v>
       </c>
       <c r="C607" s="0" t="s">
-        <v>1967</v>
+        <v>1952</v>
       </c>
       <c r="D607" s="0" t="s">
-        <v>1968</v>
+        <v>1953</v>
       </c>
       <c r="E607" s="0" t="s">
-        <v>1969</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>1970</v>
+        <v>1955</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>1970</v>
+        <v>1955</v>
       </c>
       <c r="C608" s="0" t="s">
-        <v>1971</v>
+        <v>1956</v>
       </c>
       <c r="D608" s="0" t="s">
-        <v>1972</v>
+        <v>1957</v>
       </c>
       <c r="E608" s="0" t="s">
-        <v>1973</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>1974</v>
+        <v>1959</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>1974</v>
+        <v>1959</v>
       </c>
       <c r="C609" s="0" t="s">
-        <v>1975</v>
+        <v>1960</v>
       </c>
       <c r="D609" s="0" t="s">
-        <v>1976</v>
+        <v>1961</v>
       </c>
       <c r="E609" s="0" t="s">
-        <v>1977</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>1978</v>
+        <v>1963</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>1978</v>
+        <v>1963</v>
       </c>
       <c r="C610" s="0" t="s">
-        <v>1979</v>
+        <v>1964</v>
       </c>
       <c r="D610" s="0" t="s">
-        <v>1980</v>
+        <v>1965</v>
       </c>
       <c r="E610" s="0" t="s">
-        <v>1981</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>1982</v>
+        <v>1967</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>1982</v>
+        <v>1967</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>1983</v>
+        <v>1968</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>1984</v>
+        <v>1969</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>1985</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>1986</v>
+        <v>1971</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>1986</v>
+        <v>1971</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>1987</v>
+        <v>1972</v>
       </c>
       <c r="D612" s="0" t="s">
-        <v>1988</v>
+        <v>1973</v>
       </c>
       <c r="E612" s="0" t="s">
-        <v>1989</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>1990</v>
+        <v>1975</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>1990</v>
+        <v>1975</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>1991</v>
+        <v>1976</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>1992</v>
+        <v>1977</v>
       </c>
       <c r="E613" s="0" t="s">
-        <v>1993</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>1994</v>
+        <v>1979</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>1994</v>
+        <v>1979</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>1995</v>
+        <v>1980</v>
       </c>
       <c r="D614" s="0" t="s">
-        <v>1996</v>
+        <v>1981</v>
       </c>
       <c r="E614" s="0" t="s">
-        <v>1997</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>1998</v>
+        <v>1983</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>1998</v>
+        <v>1983</v>
       </c>
       <c r="C615" s="0" t="s">
-        <v>1999</v>
+        <v>1984</v>
       </c>
       <c r="D615" s="0" t="s">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="E615" s="0" t="s">
-        <v>2001</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>2002</v>
+        <v>1987</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>2002</v>
+        <v>1987</v>
       </c>
       <c r="C616" s="0" t="s">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="D616" s="0" t="s">
-        <v>2004</v>
+        <v>1989</v>
       </c>
       <c r="E616" s="0" t="s">
-        <v>2005</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>2006</v>
+        <v>1991</v>
       </c>
       <c r="C617" s="0" t="s">
-        <v>2007</v>
+        <v>1992</v>
       </c>
       <c r="D617" s="0" t="s">
-        <v>2008</v>
+        <v>1993</v>
       </c>
       <c r="E617" s="0" t="s">
-        <v>2009</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="D618" s="0" t="s">
-        <v>2012</v>
+        <v>1997</v>
       </c>
       <c r="E618" s="0" t="s">
-        <v>2013</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>2014</v>
+        <v>1999</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="D619" s="0" t="s">
-        <v>2016</v>
+        <v>2001</v>
       </c>
       <c r="E619" s="0" t="s">
-        <v>2017</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="D620" s="0" t="s">
-        <v>2020</v>
+        <v>2005</v>
       </c>
       <c r="E620" s="0" t="s">
-        <v>2021</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="C621" s="0" t="s">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="D621" s="0" t="s">
-        <v>2024</v>
+        <v>2009</v>
       </c>
       <c r="E621" s="0" t="s">
-        <v>2022</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>2025</v>
+        <v>2010</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>2026</v>
+        <v>2011</v>
       </c>
       <c r="D622" s="0" t="s">
-        <v>2027</v>
+        <v>2012</v>
       </c>
       <c r="E622" s="0" t="s">
-        <v>2028</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>2029</v>
+        <v>2014</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>2029</v>
+        <v>2014</v>
       </c>
       <c r="C623" s="0" t="s">
-        <v>2030</v>
+        <v>2015</v>
       </c>
       <c r="D623" s="0" t="s">
-        <v>2031</v>
+        <v>2016</v>
       </c>
       <c r="E623" s="0" t="s">
-        <v>2032</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>2033</v>
+        <v>2018</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>2033</v>
+        <v>2018</v>
       </c>
       <c r="C624" s="0" t="s">
-        <v>2034</v>
+        <v>2019</v>
       </c>
       <c r="D624" s="0" t="s">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="E624" s="0" t="s">
-        <v>2036</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>2037</v>
+        <v>2022</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>2037</v>
+        <v>2022</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>2038</v>
+        <v>2023</v>
       </c>
       <c r="D625" s="0" t="s">
-        <v>2039</v>
+        <v>2024</v>
       </c>
       <c r="E625" s="0" t="s">
-        <v>2040</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>2041</v>
+        <v>2026</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>2041</v>
+        <v>2026</v>
       </c>
       <c r="C626" s="0" t="s">
-        <v>2042</v>
+        <v>2027</v>
       </c>
       <c r="D626" s="0" t="s">
-        <v>2043</v>
+        <v>2028</v>
       </c>
       <c r="E626" s="0" t="s">
-        <v>2044</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>2045</v>
+        <v>2030</v>
       </c>
       <c r="C627" s="0" t="s">
-        <v>2046</v>
+        <v>2031</v>
       </c>
       <c r="D627" s="0" t="s">
-        <v>2047</v>
+        <v>2032</v>
       </c>
       <c r="E627" s="0" t="s">
-        <v>2048</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>2049</v>
+        <v>2034</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>2049</v>
+        <v>2034</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="D628" s="0" t="s">
-        <v>2051</v>
+        <v>2036</v>
       </c>
       <c r="E628" s="0" t="s">
-        <v>2052</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>2053</v>
+        <v>2038</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>2053</v>
+        <v>2038</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>2054</v>
+        <v>2039</v>
       </c>
       <c r="D629" s="0" t="s">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="E629" s="0" t="s">
-        <v>2056</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>2057</v>
+        <v>2042</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>2057</v>
+        <v>2042</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>2058</v>
+        <v>2043</v>
       </c>
       <c r="D630" s="0" t="s">
-        <v>2059</v>
+        <v>2044</v>
       </c>
       <c r="E630" s="0" t="s">
-        <v>2060</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>2061</v>
+        <v>2046</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>2061</v>
+        <v>2046</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>2062</v>
+        <v>2047</v>
       </c>
       <c r="D631" s="0" t="s">
-        <v>2063</v>
+        <v>2048</v>
       </c>
       <c r="E631" s="0" t="s">
-        <v>2064</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>2065</v>
+        <v>2050</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>2065</v>
+        <v>2050</v>
       </c>
       <c r="C632" s="0" t="s">
-        <v>2066</v>
+        <v>2051</v>
       </c>
       <c r="D632" s="0" t="s">
-        <v>2067</v>
+        <v>2052</v>
       </c>
       <c r="E632" s="0" t="s">
-        <v>2068</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>2069</v>
+        <v>2054</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>2069</v>
+        <v>2054</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>2070</v>
+        <v>2055</v>
       </c>
       <c r="D633" s="0" t="s">
-        <v>2071</v>
+        <v>2056</v>
       </c>
       <c r="E633" s="0" t="s">
-        <v>2072</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>2073</v>
+        <v>2058</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>2073</v>
+        <v>2058</v>
       </c>
       <c r="C634" s="0" t="s">
-        <v>2074</v>
+        <v>2059</v>
       </c>
       <c r="D634" s="0" t="s">
-        <v>2075</v>
+        <v>2060</v>
       </c>
       <c r="E634" s="0" t="s">
-        <v>2076</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>2077</v>
+        <v>2062</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>2077</v>
+        <v>2062</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>2078</v>
+        <v>2063</v>
       </c>
       <c r="D635" s="0" t="s">
-        <v>2079</v>
+        <v>2064</v>
       </c>
       <c r="E635" s="0" t="s">
-        <v>2080</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>2081</v>
+        <v>2066</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>2081</v>
+        <v>2066</v>
       </c>
       <c r="C636" s="0" t="s">
-        <v>2082</v>
+        <v>2067</v>
       </c>
       <c r="D636" s="0" t="s">
-        <v>2083</v>
+        <v>2068</v>
       </c>
       <c r="E636" s="0" t="s">
-        <v>2084</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>2085</v>
+        <v>2070</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>2085</v>
+        <v>2070</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>2086</v>
+        <v>2071</v>
       </c>
       <c r="D637" s="0" t="s">
-        <v>2087</v>
+        <v>2072</v>
       </c>
       <c r="E637" s="0" t="s">
-        <v>2088</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>2089</v>
+        <v>2074</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>2089</v>
+        <v>2074</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>2090</v>
+        <v>2075</v>
       </c>
       <c r="D638" s="0" t="s">
-        <v>2091</v>
+        <v>2076</v>
       </c>
       <c r="E638" s="0" t="s">
-        <v>2092</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>2093</v>
+        <v>2078</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>2093</v>
+        <v>2078</v>
       </c>
       <c r="C639" s="0" t="s">
-        <v>2094</v>
+        <v>2079</v>
       </c>
       <c r="D639" s="0" t="s">
-        <v>2095</v>
+        <v>2080</v>
       </c>
       <c r="E639" s="0" t="s">
-        <v>2096</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>2097</v>
+        <v>2082</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>2097</v>
+        <v>2082</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>2098</v>
+        <v>2083</v>
       </c>
       <c r="D640" s="0" t="s">
-        <v>2099</v>
+        <v>2084</v>
       </c>
       <c r="E640" s="0" t="s">
-        <v>2100</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>2101</v>
+        <v>2086</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>2101</v>
+        <v>2086</v>
       </c>
       <c r="C641" s="0" t="s">
-        <v>2102</v>
+        <v>2087</v>
       </c>
       <c r="D641" s="0" t="s">
-        <v>2103</v>
+        <v>2088</v>
       </c>
       <c r="E641" s="0" t="s">
-        <v>2104</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>2105</v>
+        <v>2090</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>2105</v>
+        <v>2090</v>
       </c>
       <c r="C642" s="0" t="s">
-        <v>2106</v>
+        <v>2091</v>
       </c>
       <c r="D642" s="0" t="s">
-        <v>2107</v>
+        <v>2092</v>
       </c>
       <c r="E642" s="0" t="s">
-        <v>2108</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>2109</v>
+        <v>2094</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>2109</v>
+        <v>2094</v>
       </c>
       <c r="C643" s="0" t="s">
-        <v>2110</v>
+        <v>2095</v>
       </c>
       <c r="D643" s="0" t="s">
-        <v>2111</v>
+        <v>2096</v>
       </c>
       <c r="E643" s="0" t="s">
-        <v>2112</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>2113</v>
+        <v>2098</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>2113</v>
+        <v>2098</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>2114</v>
+        <v>2099</v>
       </c>
       <c r="D644" s="0" t="s">
-        <v>2115</v>
+        <v>2100</v>
       </c>
       <c r="E644" s="0" t="s">
-        <v>2116</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>2117</v>
+        <v>2102</v>
       </c>
       <c r="B645" s="0" t="s">
-        <v>2117</v>
+        <v>2102</v>
       </c>
       <c r="C645" s="0" t="s">
-        <v>2118</v>
+        <v>2103</v>
       </c>
       <c r="D645" s="0" t="s">
-        <v>2119</v>
+        <v>2104</v>
       </c>
       <c r="E645" s="0" t="s">
-        <v>2120</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>2121</v>
+        <v>2106</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>2121</v>
+        <v>2106</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>2122</v>
+        <v>2107</v>
       </c>
       <c r="D646" s="0" t="s">
-        <v>2123</v>
+        <v>2108</v>
       </c>
       <c r="E646" s="0" t="s">
-        <v>2124</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>2125</v>
+        <v>2110</v>
       </c>
       <c r="B647" s="0" t="s">
-        <v>2125</v>
+        <v>2110</v>
       </c>
       <c r="C647" s="0" t="s">
-        <v>2126</v>
+        <v>2111</v>
       </c>
       <c r="D647" s="0" t="s">
-        <v>2127</v>
+        <v>2112</v>
       </c>
       <c r="E647" s="0" t="s">
-        <v>2128</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>2129</v>
+        <v>2114</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>2129</v>
+        <v>2114</v>
       </c>
       <c r="C648" s="0" t="s">
-        <v>2130</v>
+        <v>2115</v>
       </c>
       <c r="D648" s="0" t="s">
-        <v>2131</v>
+        <v>2116</v>
       </c>
       <c r="E648" s="0" t="s">
-        <v>2132</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>2133</v>
+        <v>2118</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>2133</v>
+        <v>2118</v>
       </c>
       <c r="C649" s="0" t="s">
-        <v>2134</v>
+        <v>2119</v>
       </c>
       <c r="D649" s="0" t="s">
-        <v>2135</v>
+        <v>2120</v>
       </c>
       <c r="E649" s="0" t="s">
-        <v>2136</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>2137</v>
+        <v>2122</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>2137</v>
+        <v>2122</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>2138</v>
+        <v>2123</v>
       </c>
       <c r="D650" s="0" t="s">
-        <v>2139</v>
+        <v>2124</v>
       </c>
       <c r="E650" s="0" t="s">
-        <v>2140</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>2141</v>
+        <v>2126</v>
       </c>
       <c r="B651" s="0" t="s">
-        <v>2141</v>
+        <v>2126</v>
       </c>
       <c r="C651" s="0" t="s">
-        <v>2142</v>
+        <v>2127</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>2143</v>
+        <v>2128</v>
       </c>
       <c r="E651" s="0" t="s">
-        <v>2144</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>2145</v>
+        <v>2130</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>2145</v>
+        <v>2130</v>
       </c>
       <c r="C652" s="0" t="s">
-        <v>2146</v>
+        <v>2131</v>
       </c>
       <c r="D652" s="0" t="s">
-        <v>2147</v>
+        <v>2132</v>
       </c>
       <c r="E652" s="0" t="s">
-        <v>2148</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>2149</v>
+        <v>2134</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>2149</v>
+        <v>2134</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>2150</v>
+        <v>2135</v>
       </c>
       <c r="D653" s="0" t="s">
-        <v>2151</v>
+        <v>2136</v>
       </c>
       <c r="E653" s="0" t="s">
-        <v>2152</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>2153</v>
+        <v>2138</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>2153</v>
+        <v>2138</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>2154</v>
+        <v>2139</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>2155</v>
+        <v>2140</v>
       </c>
       <c r="E654" s="0" t="s">
-        <v>2156</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>2157</v>
+        <v>2142</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>2157</v>
+        <v>2142</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>2158</v>
+        <v>2143</v>
       </c>
       <c r="D655" s="0" t="s">
-        <v>2159</v>
+        <v>2144</v>
       </c>
       <c r="E655" s="0" t="s">
-        <v>2160</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>2161</v>
+        <v>2146</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>2161</v>
+        <v>2146</v>
       </c>
       <c r="C656" s="0" t="s">
-        <v>2162</v>
+        <v>2147</v>
       </c>
       <c r="D656" s="0" t="s">
-        <v>2163</v>
+        <v>2148</v>
       </c>
       <c r="E656" s="0" t="s">
-        <v>2164</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>2165</v>
+        <v>2150</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>2165</v>
+        <v>2150</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>2166</v>
+        <v>2151</v>
       </c>
       <c r="D657" s="0" t="s">
-        <v>2167</v>
+        <v>2152</v>
       </c>
       <c r="E657" s="0" t="s">
-        <v>2168</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>2169</v>
+        <v>2154</v>
       </c>
       <c r="C658" s="0" t="s">
-        <v>2170</v>
+        <v>2155</v>
       </c>
       <c r="D658" s="0" t="s">
-        <v>2171</v>
+        <v>2156</v>
       </c>
       <c r="E658" s="0" t="s">
-        <v>2172</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>2173</v>
+        <v>2158</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>2173</v>
+        <v>2158</v>
       </c>
       <c r="C659" s="0" t="s">
-        <v>2174</v>
+        <v>2159</v>
       </c>
       <c r="D659" s="0" t="s">
-        <v>2175</v>
+        <v>2160</v>
       </c>
       <c r="E659" s="0" t="s">
-        <v>2176</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>2177</v>
+        <v>2162</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>2177</v>
+        <v>2162</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>2178</v>
+        <v>2163</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>2179</v>
+        <v>2164</v>
       </c>
       <c r="E660" s="0" t="s">
-        <v>2180</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>2181</v>
+        <v>2166</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>2181</v>
+        <v>2166</v>
       </c>
       <c r="C661" s="0" t="s">
-        <v>2182</v>
+        <v>2167</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>2183</v>
+        <v>2168</v>
       </c>
       <c r="E661" s="0" t="s">
-        <v>2184</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>2185</v>
+        <v>2170</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>2185</v>
+        <v>2170</v>
       </c>
       <c r="C662" s="0" t="s">
-        <v>2186</v>
+        <v>2171</v>
       </c>
       <c r="D662" s="0" t="s">
-        <v>2187</v>
+        <v>2172</v>
       </c>
       <c r="E662" s="0" t="s">
-        <v>2188</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>2189</v>
+        <v>2174</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>2189</v>
+        <v>2174</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>2190</v>
+        <v>2175</v>
       </c>
       <c r="D663" s="0" t="s">
-        <v>2191</v>
+        <v>2176</v>
       </c>
       <c r="E663" s="0" t="s">
-        <v>2192</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>2193</v>
+        <v>2178</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>2193</v>
+        <v>2178</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>2194</v>
+        <v>2179</v>
       </c>
       <c r="D664" s="0" t="s">
-        <v>2195</v>
+        <v>2180</v>
       </c>
       <c r="E664" s="0" t="s">
-        <v>2196</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>2197</v>
+        <v>2182</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>2197</v>
+        <v>2182</v>
       </c>
       <c r="C665" s="0" t="s">
-        <v>2198</v>
+        <v>2183</v>
       </c>
       <c r="D665" s="0" t="s">
-        <v>2199</v>
+        <v>2184</v>
       </c>
       <c r="E665" s="0" t="s">
-        <v>2200</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>2201</v>
+        <v>2186</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>2201</v>
+        <v>2186</v>
       </c>
       <c r="C666" s="0" t="s">
-        <v>2202</v>
+        <v>2187</v>
       </c>
       <c r="D666" s="0" t="s">
-        <v>2203</v>
+        <v>2188</v>
       </c>
       <c r="E666" s="0" t="s">
-        <v>2204</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>2205</v>
+        <v>2190</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>2205</v>
+        <v>2190</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>2206</v>
+        <v>2191</v>
       </c>
       <c r="D667" s="0" t="s">
-        <v>2207</v>
+        <v>2192</v>
       </c>
       <c r="E667" s="0" t="s">
-        <v>2208</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>2209</v>
+        <v>2194</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>2209</v>
+        <v>2194</v>
       </c>
       <c r="C668" s="0" t="s">
-        <v>2210</v>
+        <v>2195</v>
       </c>
       <c r="D668" s="0" t="s">
-        <v>2211</v>
+        <v>2196</v>
       </c>
       <c r="E668" s="0" t="s">
-        <v>2212</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>2213</v>
+        <v>2198</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>2213</v>
+        <v>2198</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>2214</v>
+        <v>2199</v>
       </c>
       <c r="D669" s="0" t="s">
-        <v>2215</v>
+        <v>2200</v>
       </c>
       <c r="E669" s="0" t="s">
-        <v>2213</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>2216</v>
+        <v>2201</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>2216</v>
+        <v>2201</v>
       </c>
       <c r="C670" s="0" t="s">
-        <v>2217</v>
+        <v>2202</v>
       </c>
       <c r="D670" s="0" t="s">
-        <v>2218</v>
+        <v>2203</v>
       </c>
       <c r="E670" s="0" t="s">
-        <v>2219</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>2220</v>
+        <v>2205</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>2220</v>
+        <v>2205</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>2221</v>
+        <v>2206</v>
       </c>
       <c r="D671" s="0" t="s">
-        <v>2222</v>
+        <v>2207</v>
       </c>
       <c r="E671" s="0" t="s">
-        <v>2223</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>2224</v>
+        <v>2209</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>2224</v>
+        <v>2209</v>
       </c>
       <c r="C672" s="0" t="s">
-        <v>2225</v>
+        <v>2210</v>
       </c>
       <c r="D672" s="0" t="s">
-        <v>2226</v>
+        <v>2211</v>
       </c>
       <c r="E672" s="0" t="s">
-        <v>2227</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>2228</v>
+        <v>2213</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>2228</v>
+        <v>2213</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>2229</v>
+        <v>2214</v>
       </c>
       <c r="D673" s="0" t="s">
-        <v>2230</v>
+        <v>2215</v>
       </c>
       <c r="E673" s="0" t="s">
-        <v>2231</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>2232</v>
+        <v>2217</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>2232</v>
+        <v>2217</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>2233</v>
+        <v>2218</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>2234</v>
+        <v>2219</v>
       </c>
       <c r="E674" s="0" t="s">
-        <v>2235</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="2" t="s">
-        <v>2236</v>
+        <v>2221</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>2236</v>
+        <v>2221</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>2237</v>
+        <v>2222</v>
       </c>
       <c r="D675" s="0" t="s">
-        <v>2238</v>
+        <v>2223</v>
       </c>
       <c r="E675" s="0" t="s">
-        <v>2239</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>2240</v>
+        <v>2225</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>2240</v>
+        <v>2225</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>2241</v>
+        <v>2226</v>
       </c>
       <c r="D676" s="0" t="s">
-        <v>2242</v>
+        <v>2227</v>
       </c>
       <c r="E676" s="0" t="s">
-        <v>2243</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>2244</v>
+        <v>2229</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>2244</v>
+        <v>2229</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>2245</v>
+        <v>2230</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>2246</v>
+        <v>2231</v>
       </c>
       <c r="E677" s="0" t="s">
-        <v>2247</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="2" t="s">
-        <v>2248</v>
+        <v>2233</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>2248</v>
+        <v>2233</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>2249</v>
+        <v>2234</v>
       </c>
       <c r="D678" s="0" t="s">
-        <v>2249</v>
+        <v>2234</v>
       </c>
       <c r="E678" s="0" t="s">
-        <v>2250</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>2251</v>
+        <v>2236</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>2251</v>
+        <v>2236</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>2252</v>
+        <v>2237</v>
       </c>
       <c r="D679" s="0" t="s">
-        <v>2253</v>
+        <v>2238</v>
       </c>
       <c r="E679" s="0" t="s">
-        <v>2251</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>2254</v>
+        <v>2239</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>2255</v>
+        <v>2240</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>2256</v>
+        <v>2241</v>
       </c>
       <c r="D680" s="0" t="s">
-        <v>2257</v>
+        <v>2242</v>
       </c>
       <c r="E680" s="0" t="s">
-        <v>2258</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>2259</v>
+        <v>2244</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>2260</v>
+        <v>2245</v>
       </c>
       <c r="C681" s="0" t="s">
-        <v>2261</v>
+        <v>2246</v>
       </c>
       <c r="D681" s="0" t="s">
-        <v>2262</v>
+        <v>2247</v>
       </c>
       <c r="E681" s="0" t="s">
-        <v>2263</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>2264</v>
+        <v>2249</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>2265</v>
+        <v>2250</v>
       </c>
       <c r="E682" s="0" t="s">
-        <v>2266</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>2267</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>2268</v>
+        <v>2253</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>2268</v>
+        <v>2253</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>2269</v>
+        <v>2254</v>
       </c>
       <c r="D687" s="0" t="s">
-        <v>2270</v>
+        <v>2255</v>
       </c>
       <c r="E687" s="0" t="s">
-        <v>2271</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>2272</v>
+        <v>2257</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>2272</v>
+        <v>2257</v>
       </c>
       <c r="C688" s="0" t="s">
-        <v>2273</v>
+        <v>2258</v>
       </c>
       <c r="D688" s="0" t="s">
-        <v>2274</v>
+        <v>2259</v>
       </c>
       <c r="E688" s="0" t="s">
-        <v>2275</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>2276</v>
+        <v>2261</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>2276</v>
+        <v>2261</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>2277</v>
+        <v>2262</v>
       </c>
       <c r="D689" s="0" t="s">
-        <v>2278</v>
+        <v>2263</v>
       </c>
       <c r="E689" s="0" t="s">
-        <v>2279</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>2280</v>
+        <v>2265</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>2280</v>
+        <v>2265</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>2281</v>
+        <v>2266</v>
       </c>
       <c r="D690" s="0" t="s">
-        <v>2282</v>
+        <v>2267</v>
       </c>
       <c r="E690" s="0" t="s">
-        <v>2283</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>2284</v>
+        <v>2269</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>2284</v>
+        <v>2269</v>
       </c>
       <c r="C691" s="0" t="s">
-        <v>2285</v>
+        <v>2270</v>
       </c>
       <c r="D691" s="0" t="s">
-        <v>2286</v>
+        <v>2271</v>
       </c>
       <c r="E691" s="0" t="s">
-        <v>2287</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>2288</v>
+        <v>2273</v>
       </c>
       <c r="B692" s="0" t="s">
-        <v>2288</v>
+        <v>2273</v>
       </c>
       <c r="C692" s="0" t="s">
-        <v>2289</v>
+        <v>2274</v>
       </c>
       <c r="D692" s="0" t="s">
-        <v>2290</v>
+        <v>2275</v>
       </c>
       <c r="E692" s="0" t="s">
-        <v>2291</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>2292</v>
+        <v>2277</v>
       </c>
       <c r="B693" s="0" t="s">
-        <v>2292</v>
+        <v>2277</v>
       </c>
       <c r="C693" s="0" t="s">
-        <v>2293</v>
+        <v>2278</v>
       </c>
       <c r="D693" s="0" t="s">
-        <v>2294</v>
+        <v>2279</v>
       </c>
       <c r="E693" s="0" t="s">
-        <v>2295</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>2296</v>
+        <v>2281</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>2296</v>
+        <v>2281</v>
       </c>
       <c r="C694" s="0" t="s">
-        <v>2297</v>
+        <v>2282</v>
       </c>
       <c r="D694" s="0" t="s">
-        <v>2298</v>
+        <v>2283</v>
       </c>
       <c r="E694" s="0" t="s">
-        <v>2299</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>2300</v>
+        <v>2285</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>2300</v>
+        <v>2285</v>
       </c>
       <c r="C695" s="0" t="s">
-        <v>2301</v>
+        <v>2286</v>
       </c>
       <c r="D695" s="0" t="s">
-        <v>2302</v>
+        <v>2287</v>
       </c>
       <c r="E695" s="0" t="s">
-        <v>2303</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
-        <v>2304</v>
+        <v>2289</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>2304</v>
+        <v>2289</v>
       </c>
       <c r="C696" s="0" t="s">
-        <v>2305</v>
+        <v>2290</v>
       </c>
       <c r="D696" s="0" t="s">
-        <v>2306</v>
+        <v>2291</v>
       </c>
       <c r="E696" s="0" t="s">
-        <v>2307</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>2308</v>
+        <v>2293</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>2308</v>
+        <v>2293</v>
       </c>
       <c r="C697" s="0" t="s">
-        <v>2309</v>
+        <v>2294</v>
       </c>
       <c r="D697" s="0" t="s">
-        <v>2310</v>
+        <v>2295</v>
       </c>
       <c r="E697" s="0" t="s">
-        <v>2311</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
-        <v>2312</v>
+        <v>2297</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>2313</v>
+        <v>2298</v>
       </c>
       <c r="C698" s="0" t="s">
-        <v>2314</v>
+        <v>2299</v>
       </c>
       <c r="D698" s="0" t="s">
-        <v>2315</v>
+        <v>2300</v>
       </c>
       <c r="E698" s="0" t="s">
-        <v>2316</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>2317</v>
+        <v>2302</v>
       </c>
       <c r="B699" s="0" t="s">
-        <v>2317</v>
+        <v>2302</v>
       </c>
       <c r="C699" s="0" t="s">
-        <v>2318</v>
+        <v>2303</v>
       </c>
       <c r="D699" s="0" t="s">
-        <v>2319</v>
+        <v>2304</v>
       </c>
       <c r="E699" s="0" t="s">
-        <v>2320</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>2321</v>
+        <v>2306</v>
       </c>
       <c r="B700" s="0" t="s">
-        <v>2321</v>
+        <v>2306</v>
       </c>
       <c r="C700" s="0" t="s">
-        <v>2322</v>
+        <v>2307</v>
       </c>
       <c r="D700" s="0" t="s">
-        <v>2323</v>
+        <v>2308</v>
       </c>
       <c r="E700" s="0" t="s">
-        <v>2324</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
-        <v>2325</v>
+        <v>2310</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>2325</v>
+        <v>2310</v>
       </c>
       <c r="C701" s="0" t="s">
-        <v>2326</v>
+        <v>2311</v>
       </c>
       <c r="D701" s="0" t="s">
-        <v>2327</v>
+        <v>2312</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>2328</v>
+        <v>2313</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/su_translations.xlsx
+++ b/data-raw/su_translations.xlsx
@@ -11,7 +11,7 @@
     <sheet name="translations" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$E$715</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$E$717</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="2871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="2886">
   <si>
     <t xml:space="preserve">@ note: comments are marked with @ and sections are marked with @@</t>
   </si>
@@ -3724,6 +3724,36 @@
     <t xml:space="preserve">analisi individuale dei palleggiatori</t>
   </si>
   <si>
+    <t xml:space="preserve">treat all first-tempo attacks as if they were from zone 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interpretar todos os primeiros-tempos como se fossem da zona 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trata todos los primeros tiempos como si fuesen en zona 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">traiter toutes les attaques en tempo 1 comme etant de la zone 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">considera tutti i primi tempi come eseguiti da zona 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treat 'N' attacks (slide/fast) as first-tempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpretar ataques 'N' (china/rápido) como primeiro-tempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trata 'N' ataques (slide/fast) como primer tiempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traiter les attaques codees 'N' (basket/rapide) comme etant tempo 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considera attacchi di tipologia 'N' (fast o slide) come primi tempi</t>
+  </si>
+  <si>
     <t xml:space="preserve">minimum number of attacks required for a player to have charts shown</t>
   </si>
   <si>
@@ -8636,6 +8666,21 @@
   </si>
   <si>
     <t xml:space="preserve">elaborando i dati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adding keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gerando legenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generando leyendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">génération du lexique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generando legenda</t>
   </si>
 </sst>
 </file>
@@ -8723,7 +8768,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8744,6 +8789,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -8761,10 +8810,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ716"/>
+  <dimension ref="A1:AMJ719"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C665" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E669" activeCellId="0" sqref="E669"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D317" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F334" activeCellId="0" sqref="F334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14471,7 +14520,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
         <v>1233</v>
       </c>
@@ -14491,7 +14540,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
         <v>1238</v>
       </c>
@@ -14507,7 +14556,7 @@
       <c r="E334" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="F334" s="2" t="s">
+      <c r="F334" s="1" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -14547,7 +14596,7 @@
       <c r="E336" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="F336" s="1" t="s">
+      <c r="F336" s="2" t="s">
         <v>1252</v>
       </c>
     </row>
@@ -14742,44 +14791,44 @@
         <v>1299</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>1309</v>
@@ -14811,73 +14860,73 @@
         <v>1316</v>
       </c>
     </row>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E352" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="F352" s="1" t="s">
         <v>1322</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>1325</v>
+        <v>1328</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>1329</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F355" s="1" t="s">
         <v>1333</v>
       </c>
     </row>
@@ -14995,47 +15044,47 @@
         <v>1361</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C362" s="2" t="s">
         <v>1364</v>
       </c>
+      <c r="C362" s="1" t="s">
+        <v>1365</v>
+      </c>
       <c r="D362" s="1" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C363" s="2" t="s">
         <v>1369</v>
       </c>
+      <c r="C363" s="1" t="s">
+        <v>1370</v>
+      </c>
       <c r="D363" s="1" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>1372</v>
@@ -15088,57 +15137,57 @@
       <c r="B366" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="C366" s="1" t="s">
-        <v>760</v>
+      <c r="C366" s="2" t="s">
+        <v>1384</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>760</v>
+        <v>1385</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>760</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>1386</v>
+        <v>1388</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>1389</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1391</v>
+        <v>760</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1392</v>
+        <v>760</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>1394</v>
+        <v>760</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15185,48 +15234,48 @@
       <c r="A371" s="1" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D373" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E373" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F373" s="1" t="s">
         <v>1415</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
         <v>1416</v>
       </c>
@@ -15246,80 +15295,80 @@
         <v>1420</v>
       </c>
     </row>
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F377" s="1" t="s">
         <v>1426</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>1430</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E378" s="1" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F378" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C379" s="1" t="s">
         <v>1432</v>
       </c>
+      <c r="C379" s="2" t="s">
+        <v>1433</v>
+      </c>
       <c r="D379" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C380" s="2" t="s">
         <v>1437</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>1438</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>1438</v>
@@ -15342,90 +15391,90 @@
         <v>1442</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C382" s="1" t="s">
         <v>1446</v>
       </c>
+      <c r="C382" s="2" t="s">
+        <v>1447</v>
+      </c>
       <c r="D382" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>1452</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C385" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E385" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="D385" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E385" s="1" t="s">
-        <v>1462</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>1463</v>
@@ -15515,65 +15564,65 @@
       <c r="A390" s="1" t="s">
         <v>1484</v>
       </c>
+      <c r="B390" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>1488</v>
+      </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1486</v>
+        <v>1492</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>1485</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>1487</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>1489</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>1490</v>
-      </c>
-      <c r="F392" s="1" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="E393" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F393" s="1" t="s">
         <v>1495</v>
-      </c>
-      <c r="F393" s="1" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15707,44 +15756,44 @@
         <v>1528</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>1538</v>
@@ -15767,202 +15816,202 @@
         <v>1542</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>1550</v>
+        <v>1551</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>1554</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C407" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="D407" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E407" s="1" t="s">
-        <v>1557</v>
-      </c>
-      <c r="F407" s="1" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C408" s="2" t="s">
         <v>1561</v>
       </c>
+      <c r="C408" s="1" t="s">
+        <v>1562</v>
+      </c>
       <c r="D408" s="1" t="s">
-        <v>514</v>
+        <v>1563</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>515</v>
+        <v>1562</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>514</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>1570</v>
+        <v>514</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>1568</v>
+        <v>515</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>1570</v>
+        <v>514</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>1132</v>
+        <v>1573</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>1133</v>
+        <v>1574</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>1134</v>
+        <v>1574</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1132</v>
+        <v>1575</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>1134</v>
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>1574</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>1575</v>
-      </c>
-      <c r="E414" s="1" t="s">
-        <v>1576</v>
-      </c>
-      <c r="F414" s="1" t="s">
-        <v>1577</v>
+        <v>1581</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E415" s="1" t="s">
-        <v>1581</v>
-      </c>
-      <c r="F415" s="1" t="s">
         <v>1582</v>
       </c>
     </row>
@@ -15973,157 +16022,157 @@
       <c r="B416" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="C416" s="1" t="s">
+      <c r="C416" s="2" t="s">
         <v>1584</v>
       </c>
-      <c r="D416" s="1" t="s">
+      <c r="D416" s="2" t="s">
         <v>1585</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D417" s="1" t="s">
-        <v>1587</v>
+        <v>1589</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>1590</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>1587</v>
+        <v>1591</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>1591</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>1593</v>
+        <v>1597</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1594</v>
+        <v>1598</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1595</v>
+        <v>1599</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1596</v>
+        <v>1600</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>1602</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="E423" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="F423" s="1" t="s">
         <v>1611</v>
-      </c>
-      <c r="F423" s="1" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16231,226 +16280,226 @@
         <v>1638</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C429" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>1639</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>514</v>
+        <v>1640</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>515</v>
+        <v>1641</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>514</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>514</v>
+        <v>1643</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>1644</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>514</v>
+        <v>1645</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>514</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>1642</v>
+        <v>1648</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>1570</v>
+        <v>512</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>1649</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>1570</v>
+        <v>514</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>1568</v>
+        <v>515</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>1570</v>
+        <v>514</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>1643</v>
+        <v>1650</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>1644</v>
+        <v>1570</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>1129</v>
+        <v>514</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>1645</v>
+        <v>1651</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>1646</v>
+        <v>1652</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>1647</v>
+        <v>1653</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>1648</v>
+        <v>1127</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>367</v>
+        <v>1129</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>367</v>
+        <v>1655</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>367</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>1650</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>1651</v>
+        <v>1657</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1652</v>
+        <v>1658</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1652</v>
+        <v>1659</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>1652</v>
+        <v>367</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>1652</v>
+        <v>367</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>1652</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="E437" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F437" s="1" t="s">
-        <v>1656</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
-        <v>1657</v>
+        <v>1661</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>1658</v>
+        <v>1662</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1658</v>
+        <v>1442</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>1659</v>
+        <v>1664</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>1658</v>
+        <v>1665</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>1660</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1661</v>
+        <v>1667</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1662</v>
+        <v>1668</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1663</v>
+        <v>1669</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>1664</v>
+        <v>1668</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>1665</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="D441" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E441" s="1" t="s">
         <v>1668</v>
-      </c>
-      <c r="E441" s="1" t="s">
-        <v>1669</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>1670</v>
@@ -16483,7 +16532,7 @@
       <c r="B443" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="C443" s="2" t="s">
+      <c r="C443" s="1" t="s">
         <v>1677</v>
       </c>
       <c r="D443" s="1" t="s">
@@ -16523,7 +16572,7 @@
       <c r="B445" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="C445" s="1" t="s">
+      <c r="C445" s="2" t="s">
         <v>1687</v>
       </c>
       <c r="D445" s="1" t="s">
@@ -16623,7 +16672,7 @@
       <c r="B450" s="1" t="s">
         <v>1711</v>
       </c>
-      <c r="C450" s="2" t="s">
+      <c r="C450" s="1" t="s">
         <v>1712</v>
       </c>
       <c r="D450" s="1" t="s">
@@ -16663,7 +16712,7 @@
       <c r="B452" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="C452" s="1" t="s">
+      <c r="C452" s="2" t="s">
         <v>1722</v>
       </c>
       <c r="D452" s="1" t="s">
@@ -16690,94 +16739,94 @@
         <v>1728</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="F453" s="1" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="F454" s="1" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C455" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E455" s="1" t="s">
         <v>1736</v>
-      </c>
-      <c r="D455" s="1" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E455" s="1" t="s">
-        <v>1738</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>1739</v>
       </c>
     </row>
+    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E458" s="1" t="s">
-        <v>1744</v>
-      </c>
-      <c r="F458" s="1" t="s">
         <v>1745</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>1747</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="E459" s="1" t="s">
-        <v>1749</v>
-      </c>
-      <c r="F459" s="1" t="s">
         <v>1750</v>
       </c>
     </row>
@@ -16791,7 +16840,7 @@
       <c r="C460" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="D460" s="2" t="s">
+      <c r="D460" s="1" t="s">
         <v>1753</v>
       </c>
       <c r="E460" s="1" t="s">
@@ -16811,7 +16860,7 @@
       <c r="C461" s="1" t="s">
         <v>1757</v>
       </c>
-      <c r="D461" s="1" t="s">
+      <c r="D461" s="2" t="s">
         <v>1758</v>
       </c>
       <c r="E461" s="1" t="s">
@@ -16831,7 +16880,7 @@
       <c r="C462" s="1" t="s">
         <v>1762</v>
       </c>
-      <c r="D462" s="1" t="s">
+      <c r="D462" s="2" t="s">
         <v>1763</v>
       </c>
       <c r="E462" s="1" t="s">
@@ -16846,83 +16895,83 @@
         <v>1766</v>
       </c>
       <c r="B463" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>1767</v>
       </c>
-      <c r="C463" s="1" t="s">
+      <c r="D463" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="D463" s="1" t="s">
+      <c r="E463" s="1" t="s">
         <v>1769</v>
       </c>
-      <c r="E463" s="1" t="s">
+      <c r="F463" s="1" t="s">
         <v>1770</v>
-      </c>
-      <c r="F463" s="1" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C464" s="1" t="s">
         <v>1772</v>
       </c>
-      <c r="B464" s="1" t="s">
+      <c r="D464" s="1" t="s">
         <v>1773</v>
       </c>
-      <c r="C464" s="1" t="s">
+      <c r="E464" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="D464" s="1" t="s">
+      <c r="F464" s="1" t="s">
         <v>1775</v>
-      </c>
-      <c r="E464" s="1" t="s">
-        <v>1776</v>
-      </c>
-      <c r="F464" s="1" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C465" s="1" t="s">
         <v>1778</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>1781</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1779</v>
+        <v>1783</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1780</v>
+        <v>1784</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>1781</v>
+        <v>1785</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>1782</v>
+        <v>1786</v>
       </c>
       <c r="F466" s="1" t="s">
-        <v>1783</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D467" s="1" t="s">
-        <v>1786</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F467" s="1" t="s">
         <v>1788</v>
       </c>
     </row>
@@ -16930,201 +16979,201 @@
       <c r="A468" s="1" t="s">
         <v>1789</v>
       </c>
+      <c r="B468" s="1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>1793</v>
+      </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="F469" s="1" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>1797</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>1798</v>
-      </c>
-      <c r="D470" s="1" t="s">
         <v>1799</v>
-      </c>
-      <c r="E470" s="1" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F470" s="1" t="s">
-        <v>1800</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B471" s="1" t="s">
         <v>1801</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>1805</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="B472" s="1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B474" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C472" s="1" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D472" s="1" t="s">
+      <c r="C474" s="1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D474" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E472" s="1" t="s">
+      <c r="E474" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F472" s="1" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="473" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A473" s="2" t="s">
-        <v>1805</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>1779</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>1806</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>1781</v>
-      </c>
-      <c r="E473" s="2" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F473" s="2" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="474" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F474" s="1" t="s">
+        <v>1814</v>
+      </c>
+    </row>
     <row r="475" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="1" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D476" s="1" t="s">
-        <v>1813</v>
-      </c>
-      <c r="E476" s="1" t="s">
-        <v>1814</v>
-      </c>
-      <c r="F476" s="1" t="s">
         <v>1815</v>
       </c>
-    </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A477" s="1" t="s">
+      <c r="B475" s="2" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C475" s="2" t="s">
         <v>1816</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="D475" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E475" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="C477" s="1" t="s">
+      <c r="F475" s="2" t="s">
         <v>1818</v>
       </c>
-      <c r="D477" s="1" t="s">
+    </row>
+    <row r="476" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="477" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="2" t="s">
         <v>1819</v>
-      </c>
-      <c r="E477" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F477" s="1" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C478" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="D478" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="C478" s="2" t="s">
+      <c r="E478" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="D478" s="1" t="s">
+      <c r="F478" s="1" t="s">
         <v>1825</v>
-      </c>
-      <c r="E478" s="2" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F478" s="1" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C479" s="1" t="s">
         <v>1828</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="D479" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="C479" s="1" t="s">
+      <c r="E479" s="1" t="s">
         <v>1830</v>
       </c>
-      <c r="D479" s="1" t="s">
+      <c r="F479" s="1" t="s">
         <v>1831</v>
-      </c>
-      <c r="E479" s="2" t="s">
-        <v>1832</v>
-      </c>
-      <c r="F479" s="1" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C480" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>1834</v>
-      </c>
-      <c r="C480" s="1" t="s">
+      <c r="D480" s="1" t="s">
         <v>1835</v>
       </c>
-      <c r="D480" s="1" t="s">
+      <c r="E480" s="2" t="s">
         <v>1836</v>
       </c>
-      <c r="E480" s="1" t="s">
+      <c r="F480" s="1" t="s">
         <v>1837</v>
-      </c>
-      <c r="F480" s="1" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>1839</v>
@@ -17135,7 +17184,7 @@
       <c r="D481" s="1" t="s">
         <v>1841</v>
       </c>
-      <c r="E481" s="1" t="s">
+      <c r="E481" s="2" t="s">
         <v>1842</v>
       </c>
       <c r="F481" s="1" t="s">
@@ -17293,44 +17342,44 @@
         <v>1880</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F489" s="1" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="F490" s="1" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>1890</v>
@@ -17373,18 +17422,18 @@
         <v>1899</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>1903</v>
@@ -17407,30 +17456,30 @@
         <v>1908</v>
       </c>
       <c r="B495" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C495" s="1" t="s">
         <v>1909</v>
       </c>
-      <c r="C495" s="1" t="s">
+      <c r="D495" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E495" s="1" t="s">
         <v>1910</v>
       </c>
-      <c r="D495" s="1" t="s">
+      <c r="F495" s="1" t="s">
         <v>1911</v>
-      </c>
-      <c r="E495" s="1" t="s">
-        <v>1909</v>
-      </c>
-      <c r="F495" s="1" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B496" s="1" t="s">
         <v>1913</v>
       </c>
-      <c r="B496" s="1" t="s">
+      <c r="C496" s="1" t="s">
         <v>1914</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>1915</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>1915</v>
@@ -17447,196 +17496,196 @@
         <v>1918</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="C497" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E497" s="1" t="s">
         <v>1919</v>
       </c>
-      <c r="D497" s="1" t="s">
-        <v>1919</v>
-      </c>
-      <c r="E497" s="1" t="s">
-        <v>1920</v>
-      </c>
       <c r="F497" s="1" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1927</v>
-      </c>
-      <c r="C499" s="2" t="s">
         <v>1928</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1929</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>1929</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C501" s="1" t="s">
         <v>1937</v>
       </c>
+      <c r="C501" s="2" t="s">
+        <v>1938</v>
+      </c>
       <c r="D501" s="1" t="s">
-        <v>1933</v>
+        <v>1939</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1939</v>
+        <v>1944</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="D503" s="1" t="s">
         <v>1943</v>
       </c>
-      <c r="B503" s="1" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C503" s="1" t="s">
+      <c r="E503" s="1" t="s">
         <v>1944</v>
       </c>
-      <c r="D503" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="E503" s="1" t="s">
-        <v>1946</v>
-      </c>
       <c r="F503" s="1" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C504" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E504" s="1" t="s">
         <v>1949</v>
       </c>
-      <c r="D504" s="1" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E504" s="1" t="s">
-        <v>1948</v>
-      </c>
       <c r="F504" s="1" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C506" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E506" s="1" t="s">
         <v>1958</v>
-      </c>
-      <c r="D506" s="1" t="s">
-        <v>1959</v>
-      </c>
-      <c r="E506" s="1" t="s">
-        <v>1960</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>1961</v>
@@ -17666,130 +17715,130 @@
       <c r="A508" s="1" t="s">
         <v>1967</v>
       </c>
+      <c r="B508" s="1" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F508" s="1" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>1979</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>1980</v>
-      </c>
-      <c r="D512" s="1" t="s">
-        <v>1981</v>
-      </c>
-      <c r="E512" s="1" t="s">
-        <v>1980</v>
-      </c>
-      <c r="F512" s="1" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>1981</v>
+        <v>1986</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>1980</v>
+        <v>1987</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1979</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="2" t="s">
-        <v>1982</v>
-      </c>
-      <c r="B514" s="2" t="s">
-        <v>1982</v>
-      </c>
-      <c r="C514" s="2" t="s">
-        <v>1983</v>
-      </c>
-      <c r="D514" s="4" t="s">
-        <v>1984</v>
-      </c>
-      <c r="E514" s="2" t="s">
-        <v>1985</v>
-      </c>
-      <c r="F514" s="2" t="s">
-        <v>1986</v>
+      <c r="A514" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F514" s="1" t="s">
+        <v>1989</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="2" t="s">
-        <v>1987</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>1987</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>1988</v>
-      </c>
-      <c r="D515" s="4" t="s">
+      <c r="A515" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F515" s="1" t="s">
         <v>1989</v>
-      </c>
-      <c r="E515" s="2" t="s">
-        <v>1990</v>
-      </c>
-      <c r="F515" s="2" t="s">
-        <v>1991</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17992,48 +18041,48 @@
         <v>2041</v>
       </c>
     </row>
+    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D526" s="4" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>2046</v>
+      </c>
+    </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="1" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="1" t="s">
-        <v>2043</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>2043</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>2044</v>
-      </c>
-      <c r="D528" s="1" t="s">
-        <v>2045</v>
-      </c>
-      <c r="E528" s="1" t="s">
-        <v>2046</v>
-      </c>
-      <c r="F528" s="1" t="s">
+      <c r="A527" s="2" t="s">
         <v>2047</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D527" s="4" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>2051</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>2048</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>2048</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>2049</v>
-      </c>
-      <c r="D529" s="1" t="s">
-        <v>2050</v>
-      </c>
-      <c r="E529" s="1" t="s">
-        <v>2051</v>
-      </c>
-      <c r="F529" s="1" t="s">
         <v>2052</v>
       </c>
     </row>
@@ -18065,93 +18114,93 @@
         <v>2058</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="F531" s="1" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="F532" s="1" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="F533" s="1" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="F534" s="1" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="F535" s="1" t="s">
         <v>2074</v>
@@ -18159,39 +18208,39 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D536" s="2" t="s">
         <v>2077</v>
       </c>
+      <c r="D536" s="1" t="s">
+        <v>2078</v>
+      </c>
       <c r="E536" s="1" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="F536" s="1" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="C537" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E537" s="1" t="s">
         <v>2081</v>
-      </c>
-      <c r="D537" s="1" t="s">
-        <v>2082</v>
-      </c>
-      <c r="E537" s="1" t="s">
-        <v>2083</v>
       </c>
       <c r="F537" s="1" t="s">
         <v>2084</v>
@@ -18207,7 +18256,7 @@
       <c r="C538" s="1" t="s">
         <v>2086</v>
       </c>
-      <c r="D538" s="1" t="s">
+      <c r="D538" s="2" t="s">
         <v>2087</v>
       </c>
       <c r="E538" s="1" t="s">
@@ -18245,113 +18294,113 @@
         <v>2095</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="F540" s="1" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="F541" s="1" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="F542" s="1" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>2108</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="F543" s="1" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="F544" s="1" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="C545" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E545" s="1" t="s">
         <v>2116</v>
-      </c>
-      <c r="D545" s="1" t="s">
-        <v>2117</v>
-      </c>
-      <c r="E545" s="1" t="s">
-        <v>2118</v>
       </c>
       <c r="F545" s="1" t="s">
         <v>2119</v>
@@ -18365,107 +18414,107 @@
         <v>2120</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="F546" s="1" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>2122</v>
-      </c>
-      <c r="C547" s="2" t="s">
-        <v>2123</v>
+        <v>2125</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>2126</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="F547" s="1" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="F548" s="1" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>2131</v>
-      </c>
-      <c r="C549" s="1" t="s">
         <v>2132</v>
       </c>
+      <c r="C549" s="2" t="s">
+        <v>2133</v>
+      </c>
       <c r="D549" s="1" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>2135</v>
-      </c>
-      <c r="C550" s="2" t="s">
-        <v>2136</v>
+        <v>2137</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>2138</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>2142</v>
@@ -18484,179 +18533,179 @@
       <c r="B552" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="C552" s="1" t="s">
-        <v>2145</v>
+      <c r="C552" s="2" t="s">
+        <v>2146</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D557" s="2" t="s">
-        <v>2162</v>
+        <v>2163</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>2164</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
-        <v>2165</v>
+        <v>2167</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>2168</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>2167</v>
-      </c>
-      <c r="D559" s="1" t="s">
-        <v>2167</v>
+        <v>2171</v>
+      </c>
+      <c r="D559" s="2" t="s">
+        <v>2172</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>2166</v>
+        <v>2173</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>2166</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
-        <v>2168</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>2168</v>
-      </c>
-      <c r="C560" s="1" t="s">
-        <v>2169</v>
-      </c>
-      <c r="D560" s="1" t="s">
-        <v>2169</v>
-      </c>
-      <c r="E560" s="1" t="s">
-        <v>2170</v>
-      </c>
-      <c r="F560" s="1" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>2172</v>
-      </c>
-      <c r="C561" s="2" t="s">
-        <v>2173</v>
+        <v>2176</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>2177</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="F561" s="1" t="s">
         <v>2176</v>
@@ -18664,21 +18713,21 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>2178</v>
-      </c>
-      <c r="D562" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D562" s="1" t="s">
         <v>2179</v>
       </c>
       <c r="E562" s="1" t="s">
         <v>2180</v>
       </c>
-      <c r="F562" s="2" t="s">
+      <c r="F562" s="1" t="s">
         <v>2181</v>
       </c>
     </row>
@@ -18689,136 +18738,136 @@
       <c r="B563" s="1" t="s">
         <v>2182</v>
       </c>
-      <c r="C563" s="1" t="s">
+      <c r="C563" s="2" t="s">
         <v>2183</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>2184</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>2182</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>2186</v>
-      </c>
-      <c r="D564" s="1" t="s">
-        <v>2187</v>
+        <v>2188</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>2189</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>2185</v>
-      </c>
-      <c r="F564" s="1" t="s">
-        <v>2185</v>
+        <v>2190</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>2191</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="567" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="2" t="s">
-        <v>2194</v>
-      </c>
-      <c r="B567" s="2" t="s">
-        <v>2194</v>
-      </c>
-      <c r="C567" s="2" t="s">
         <v>2195</v>
       </c>
-      <c r="D567" s="2" t="s">
-        <v>2196</v>
-      </c>
-      <c r="E567" s="2" t="s">
-        <v>2197</v>
-      </c>
-      <c r="F567" s="2" t="s">
+    </row>
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F567" s="1" t="s">
         <v>2198</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="D568" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E568" s="1" t="s">
         <v>2201</v>
       </c>
-      <c r="E568" s="1" t="s">
-        <v>2202</v>
-      </c>
       <c r="F568" s="1" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="1" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="569" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="2" t="s">
         <v>2204</v>
       </c>
-      <c r="B569" s="1" t="s">
+      <c r="B569" s="2" t="s">
         <v>2204</v>
       </c>
-      <c r="C569" s="1" t="s">
+      <c r="C569" s="2" t="s">
         <v>2205</v>
       </c>
-      <c r="D569" s="1" t="s">
+      <c r="D569" s="2" t="s">
         <v>2206</v>
       </c>
-      <c r="E569" s="1" t="s">
+      <c r="E569" s="2" t="s">
         <v>2207</v>
       </c>
-      <c r="F569" s="1" t="s">
+      <c r="F569" s="2" t="s">
         <v>2208</v>
       </c>
     </row>
@@ -18830,56 +18879,56 @@
         <v>2209</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>2212</v>
-      </c>
-      <c r="C571" s="2" t="s">
-        <v>2213</v>
+        <v>2214</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>2215</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="D572" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F572" s="1" t="s">
         <v>2219</v>
-      </c>
-      <c r="E572" s="1" t="s">
-        <v>2220</v>
-      </c>
-      <c r="F572" s="1" t="s">
-        <v>2221</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18889,54 +18938,54 @@
       <c r="B573" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="C573" s="1" t="s">
-        <v>2222</v>
+      <c r="C573" s="2" t="s">
+        <v>2223</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>2224</v>
-      </c>
-      <c r="C574" s="2" t="s">
-        <v>2225</v>
+        <v>2227</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>2228</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>2068</v>
+        <v>2232</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="F575" s="1" t="s">
         <v>2232</v>
@@ -18944,102 +18993,102 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C576" s="1" t="s">
         <v>2234</v>
       </c>
+      <c r="C576" s="2" t="s">
+        <v>2235</v>
+      </c>
       <c r="D576" s="1" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>2239</v>
+        <v>2078</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="F579" s="1" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="E580" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F580" s="1" t="s">
         <v>2252</v>
-      </c>
-      <c r="F580" s="1" t="s">
-        <v>2253</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19050,213 +19099,213 @@
         <v>2254</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>2234</v>
+        <v>2255</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>2254</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>2238</v>
+        <v>2260</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>2255</v>
+        <v>2261</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>2255</v>
+        <v>2262</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>2255</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
-        <v>2256</v>
+        <v>2264</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>2256</v>
+        <v>2264</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>2256</v>
+        <v>2264</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>2256</v>
+        <v>2264</v>
       </c>
       <c r="F583" s="1" t="s">
-        <v>2256</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
-        <v>2257</v>
+        <v>2265</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>2257</v>
+        <v>2265</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>2257</v>
+        <v>2248</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>2257</v>
+        <v>2265</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>2257</v>
+        <v>2265</v>
       </c>
       <c r="F584" s="1" t="s">
-        <v>2257</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
-        <v>2258</v>
+        <v>2266</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>2258</v>
+        <v>2266</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>2259</v>
+        <v>2252</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>2260</v>
+        <v>2266</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>2261</v>
+        <v>2266</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="C588" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E588" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="D588" s="1" t="s">
-        <v>2274</v>
-      </c>
-      <c r="E588" s="1" t="s">
-        <v>2272</v>
-      </c>
       <c r="F588" s="1" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>2069</v>
+        <v>2280</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="D590" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E590" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="E590" s="1" t="s">
-        <v>2283</v>
-      </c>
       <c r="F590" s="1" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>2288</v>
+        <v>2079</v>
       </c>
       <c r="F591" s="1" t="s">
         <v>2289</v>
@@ -19322,48 +19371,48 @@
         <v>2304</v>
       </c>
     </row>
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>2307</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="1" t="s">
-        <v>2306</v>
-      </c>
-      <c r="B597" s="1" t="s">
-        <v>2306</v>
-      </c>
-      <c r="C597" s="1" t="s">
-        <v>2307</v>
-      </c>
-      <c r="D597" s="1" t="s">
-        <v>2308</v>
-      </c>
-      <c r="E597" s="1" t="s">
-        <v>2309</v>
-      </c>
-      <c r="F597" s="2" t="s">
         <v>2310</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>2311</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>2314</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>2311</v>
-      </c>
-      <c r="B598" s="1" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C598" s="1" t="s">
-        <v>2312</v>
-      </c>
-      <c r="D598" s="1" t="s">
-        <v>2313</v>
-      </c>
-      <c r="E598" s="1" t="s">
-        <v>2314</v>
-      </c>
-      <c r="F598" s="2" t="s">
         <v>2315</v>
       </c>
     </row>
@@ -19403,7 +19452,7 @@
       <c r="E600" s="1" t="s">
         <v>2324</v>
       </c>
-      <c r="F600" s="1" t="s">
+      <c r="F600" s="2" t="s">
         <v>2325</v>
       </c>
     </row>
@@ -19418,72 +19467,72 @@
         <v>2327</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>2328</v>
-      </c>
-      <c r="F601" s="1" t="s">
         <v>2329</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>2330</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>2328</v>
+        <v>2334</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="E604" s="1" t="s">
         <v>2338</v>
       </c>
-      <c r="B604" s="1" t="s">
-        <v>2338</v>
-      </c>
-      <c r="C604" s="1" t="s">
-        <v>2339</v>
-      </c>
-      <c r="D604" s="1" t="s">
-        <v>2340</v>
-      </c>
-      <c r="E604" s="1" t="s">
-        <v>2341</v>
-      </c>
-      <c r="F604" s="2" t="s">
+      <c r="F604" s="1" t="s">
         <v>2342</v>
       </c>
     </row>
@@ -19503,7 +19552,7 @@
       <c r="E605" s="1" t="s">
         <v>2346</v>
       </c>
-      <c r="F605" s="2" t="s">
+      <c r="F605" s="1" t="s">
         <v>2347</v>
       </c>
     </row>
@@ -19523,7 +19572,7 @@
       <c r="E606" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="F606" s="1" t="s">
+      <c r="F606" s="2" t="s">
         <v>2352</v>
       </c>
     </row>
@@ -19543,7 +19592,7 @@
       <c r="E607" s="1" t="s">
         <v>2356</v>
       </c>
-      <c r="F607" s="1" t="s">
+      <c r="F607" s="2" t="s">
         <v>2357</v>
       </c>
     </row>
@@ -19577,7 +19626,7 @@
       <c r="C609" s="1" t="s">
         <v>2364</v>
       </c>
-      <c r="D609" s="2" t="s">
+      <c r="D609" s="1" t="s">
         <v>2365</v>
       </c>
       <c r="E609" s="1" t="s">
@@ -19601,44 +19650,44 @@
         <v>2370</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>2372</v>
-      </c>
-      <c r="D611" s="1" t="s">
-        <v>2373</v>
+        <v>2374</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>2375</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="E612" s="1" t="s">
         <v>2379</v>
@@ -19718,44 +19767,44 @@
         <v>2397</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="F616" s="1" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="E617" s="1" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="F617" s="1" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="D618" s="1" t="s">
         <v>2407</v>
@@ -19877,7 +19926,7 @@
       <c r="C624" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="D624" s="2" t="s">
+      <c r="D624" s="1" t="s">
         <v>2437</v>
       </c>
       <c r="E624" s="1" t="s">
@@ -19957,45 +20006,45 @@
       <c r="C628" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="D628" s="1" t="s">
-        <v>2456</v>
+      <c r="D628" s="2" t="s">
+        <v>2457</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="D630" s="1" t="s">
         <v>2466</v>
@@ -20081,47 +20130,47 @@
         <v>2486</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="C636" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="E636" s="1" t="s">
         <v>2494</v>
-      </c>
-      <c r="D636" s="1" t="s">
-        <v>2495</v>
-      </c>
-      <c r="E636" s="1" t="s">
-        <v>2496</v>
       </c>
       <c r="F636" s="1" t="s">
         <v>2497</v>
@@ -20218,64 +20267,64 @@
         <v>2519</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>2520</v>
-      </c>
-      <c r="F641" s="2" t="s">
         <v>2521</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>2522</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="D643" s="1" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="F643" s="2" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="D644" s="1" t="s">
         <v>2533</v>
@@ -20303,7 +20352,7 @@
       <c r="E645" s="1" t="s">
         <v>2539</v>
       </c>
-      <c r="F645" s="1" t="s">
+      <c r="F645" s="2" t="s">
         <v>2540</v>
       </c>
     </row>
@@ -20323,7 +20372,7 @@
       <c r="E646" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="F646" s="2" t="s">
+      <c r="F646" s="1" t="s">
         <v>2545</v>
       </c>
     </row>
@@ -20338,44 +20387,44 @@
         <v>2547</v>
       </c>
       <c r="D647" s="1" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>2553</v>
-      </c>
-      <c r="F648" s="1" t="s">
         <v>2554</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>2555</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="D649" s="1" t="s">
         <v>2557</v>
@@ -20403,7 +20452,7 @@
       <c r="E650" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="F650" s="2" t="s">
+      <c r="F650" s="1" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -20423,7 +20472,7 @@
       <c r="E651" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="F651" s="2" t="s">
+      <c r="F651" s="1" t="s">
         <v>2569</v>
       </c>
     </row>
@@ -20443,7 +20492,7 @@
       <c r="E652" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="F652" s="1" t="s">
+      <c r="F652" s="2" t="s">
         <v>2574</v>
       </c>
     </row>
@@ -20463,7 +20512,7 @@
       <c r="E653" s="1" t="s">
         <v>2578</v>
       </c>
-      <c r="F653" s="1" t="s">
+      <c r="F653" s="2" t="s">
         <v>2579</v>
       </c>
     </row>
@@ -20518,44 +20567,44 @@
         <v>2591</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>2597</v>
-      </c>
-      <c r="F657" s="2" t="s">
         <v>2598</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>2599</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="D658" s="1" t="s">
         <v>2601</v>
@@ -20578,44 +20627,44 @@
         <v>2605</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="F659" s="2" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="F660" s="1" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="D661" s="1" t="s">
         <v>2615</v>
@@ -20623,7 +20672,7 @@
       <c r="E661" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="F661" s="1" t="s">
+      <c r="F661" s="2" t="s">
         <v>2617</v>
       </c>
     </row>
@@ -20663,7 +20712,7 @@
       <c r="E663" s="1" t="s">
         <v>2626</v>
       </c>
-      <c r="F663" s="2" t="s">
+      <c r="F663" s="1" t="s">
         <v>2627</v>
       </c>
     </row>
@@ -20677,7 +20726,7 @@
       <c r="C664" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="D664" s="2" t="s">
+      <c r="D664" s="1" t="s">
         <v>2630</v>
       </c>
       <c r="E664" s="1" t="s">
@@ -20703,7 +20752,7 @@
       <c r="E665" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="F665" s="1" t="s">
+      <c r="F665" s="2" t="s">
         <v>2637</v>
       </c>
     </row>
@@ -20717,7 +20766,7 @@
       <c r="C666" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="D666" s="1" t="s">
+      <c r="D666" s="2" t="s">
         <v>2640</v>
       </c>
       <c r="E666" s="1" t="s">
@@ -20737,13 +20786,13 @@
       <c r="C667" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="D667" s="2" t="s">
+      <c r="D667" s="1" t="s">
         <v>2645</v>
       </c>
       <c r="E667" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="F667" s="2" t="s">
+      <c r="F667" s="1" t="s">
         <v>2647</v>
       </c>
     </row>
@@ -20777,13 +20826,13 @@
       <c r="C669" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="D669" s="1" t="s">
+      <c r="D669" s="2" t="s">
         <v>2655</v>
       </c>
       <c r="E669" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="F669" s="1" t="s">
+      <c r="F669" s="2" t="s">
         <v>2657</v>
       </c>
     </row>
@@ -20803,7 +20852,7 @@
       <c r="E670" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="F670" s="2" t="s">
+      <c r="F670" s="1" t="s">
         <v>2662</v>
       </c>
     </row>
@@ -20843,7 +20892,7 @@
       <c r="E672" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="F672" s="1" t="s">
+      <c r="F672" s="2" t="s">
         <v>2672</v>
       </c>
     </row>
@@ -20857,7 +20906,7 @@
       <c r="C673" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="D673" s="2" t="s">
+      <c r="D673" s="1" t="s">
         <v>2675</v>
       </c>
       <c r="E673" s="1" t="s">
@@ -20877,7 +20926,7 @@
       <c r="C674" s="1" t="s">
         <v>2679</v>
       </c>
-      <c r="D674" s="2" t="s">
+      <c r="D674" s="1" t="s">
         <v>2680</v>
       </c>
       <c r="E674" s="1" t="s">
@@ -20897,7 +20946,7 @@
       <c r="C675" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="D675" s="1" t="s">
+      <c r="D675" s="2" t="s">
         <v>2685</v>
       </c>
       <c r="E675" s="1" t="s">
@@ -20917,7 +20966,7 @@
       <c r="C676" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="D676" s="1" t="s">
+      <c r="D676" s="2" t="s">
         <v>2690</v>
       </c>
       <c r="E676" s="1" t="s">
@@ -21041,47 +21090,47 @@
         <v>2720</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="C684" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E684" s="1" t="s">
         <v>2728</v>
-      </c>
-      <c r="D684" s="1" t="s">
-        <v>2729</v>
-      </c>
-      <c r="E684" s="1" t="s">
-        <v>2730</v>
       </c>
       <c r="F684" s="1" t="s">
         <v>2731</v>
@@ -21131,24 +21180,24 @@
       <c r="A687" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="B687" s="2" t="s">
+      <c r="B687" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="C687" s="2" t="s">
+      <c r="C687" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="D687" s="3" t="s">
+      <c r="D687" s="1" t="s">
         <v>2744</v>
       </c>
       <c r="E687" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="F687" s="2" t="s">
+      <c r="F687" s="1" t="s">
         <v>2746</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="3" t="s">
+      <c r="A688" s="1" t="s">
         <v>2747</v>
       </c>
       <c r="B688" s="1" t="s">
@@ -21163,21 +21212,21 @@
       <c r="E688" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="F688" s="2" t="s">
+      <c r="F688" s="1" t="s">
         <v>2751</v>
       </c>
     </row>
-    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="3" t="s">
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="1" t="s">
         <v>2752</v>
       </c>
-      <c r="B689" s="1" t="s">
+      <c r="B689" s="2" t="s">
         <v>2752</v>
       </c>
-      <c r="C689" s="1" t="s">
+      <c r="C689" s="2" t="s">
         <v>2753</v>
       </c>
-      <c r="D689" s="1" t="s">
+      <c r="D689" s="3" t="s">
         <v>2754</v>
       </c>
       <c r="E689" s="1" t="s">
@@ -21188,7 +21237,7 @@
       </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="1" t="s">
+      <c r="A690" s="3" t="s">
         <v>2757</v>
       </c>
       <c r="B690" s="1" t="s">
@@ -21207,17 +21256,17 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="1" t="s">
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="3" t="s">
         <v>2762</v>
       </c>
-      <c r="B691" s="2" t="s">
+      <c r="B691" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="C691" s="2" t="s">
+      <c r="C691" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="D691" s="3" t="s">
+      <c r="D691" s="1" t="s">
         <v>2764</v>
       </c>
       <c r="E691" s="1" t="s">
@@ -21228,7 +21277,7 @@
       </c>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="3" t="s">
+      <c r="A692" s="1" t="s">
         <v>2767</v>
       </c>
       <c r="B692" s="1" t="s">
@@ -21238,58 +21287,58 @@
         <v>2768</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="F692" s="2" t="s">
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="3" t="s">
-        <v>2770</v>
-      </c>
-      <c r="B693" s="1" t="s">
-        <v>2770</v>
-      </c>
-      <c r="C693" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="D693" s="1" t="s">
+    </row>
+    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="1" t="s">
         <v>2772</v>
       </c>
+      <c r="B693" s="2" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>2774</v>
+      </c>
       <c r="E693" s="1" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="F693" s="2" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="1" t="s">
-        <v>2775</v>
+      <c r="A694" s="3" t="s">
+        <v>2777</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="D694" s="1" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>2775</v>
+        <v>2779</v>
       </c>
       <c r="F694" s="2" t="s">
         <v>2778</v>
       </c>
     </row>
-    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="1" t="s">
-        <v>2779</v>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="3" t="s">
+        <v>2780</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>2780</v>
@@ -21312,77 +21361,77 @@
         <v>2785</v>
       </c>
       <c r="B696" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C696" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="C696" s="1" t="s">
+      <c r="D696" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="D696" s="1" t="s">
+      <c r="E696" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F696" s="2" t="s">
         <v>2788</v>
-      </c>
-      <c r="E696" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="F696" s="1" t="s">
-        <v>2790</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C697" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="B697" s="1" t="s">
+      <c r="D697" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="C697" s="1" t="s">
+      <c r="E697" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="E697" s="1" t="s">
+      <c r="F697" s="2" t="s">
         <v>2794</v>
       </c>
     </row>
-    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="1" t="s">
+    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="1" t="s">
         <v>2795</v>
       </c>
-    </row>
-    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="1" t="s">
+      <c r="B698" s="1" t="s">
         <v>2796</v>
       </c>
-      <c r="B702" s="1" t="s">
-        <v>2796</v>
-      </c>
-      <c r="C702" s="1" t="s">
+      <c r="C698" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="D702" s="1" t="s">
+      <c r="D698" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="E702" s="1" t="s">
+      <c r="E698" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="F702" s="1" t="s">
+      <c r="F698" s="1" t="s">
         <v>2800</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>2803</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>2804</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="s">
-        <v>2801</v>
-      </c>
-      <c r="B703" s="1" t="s">
-        <v>2801</v>
-      </c>
-      <c r="C703" s="1" t="s">
-        <v>2802</v>
-      </c>
-      <c r="D703" s="1" t="s">
-        <v>2803</v>
-      </c>
-      <c r="E703" s="1" t="s">
-        <v>2804</v>
-      </c>
-      <c r="F703" s="1" t="s">
         <v>2805</v>
       </c>
     </row>
@@ -21639,11 +21688,71 @@
       <c r="D716" s="1" t="s">
         <v>2868</v>
       </c>
-      <c r="E716" s="2" t="s">
+      <c r="E716" s="1" t="s">
         <v>2869</v>
       </c>
       <c r="F716" s="1" t="s">
         <v>2870</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E718" s="2" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C719" s="5" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>2885</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/su_translations.xlsx
+++ b/data-raw/su_translations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="2886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3852" uniqueCount="2891">
   <si>
     <t xml:space="preserve">@ note: comments are marked with @ and sections are marked with @@</t>
   </si>
@@ -8395,7 +8395,7 @@
     <t xml:space="preserve">disclaimer_text_ui</t>
   </si>
   <si>
-    <t xml:space="preserve">Use at your own risk. While every effort has been made to make the reports accurate, no warranty is given and no responsibility is accepted for errors or omissions. Be aware that the outputs from these apps can be affected by errors or inconsistencies in your data, which in general are impossible for the apps to detect or correct. Note also that different scouts use different scouting conventions, and it is not possible to anticipate or cater for all possible variations in these conventions.</t>
+    <t xml:space="preserve">Use at your own risk. While we strive to make the reports accurate, no warranty is given and no responsibility is accepted for errors or omissions. Be aware that the outputs from these apps can be affected by errors or inconsistencies in your data, which in general are impossible for the apps to detect or correct. Note also that different scouts use different scouting conventions, and it is not possible to anticipate or cater for all possible variations in these conventions.</t>
   </si>
   <si>
     <t xml:space="preserve">Use sob sua responsabilidade. Uma vez que todo esforço para criar os relatórios com análises precisas tem sido feito, nenhuma garantia é dada e não aceitamos responsabiliadade por erros ou omissões. Esteja ciente que a visualização desses aplicativos pode ser afetada por erros ou inconsistências nos seus dados, o que é impossível para o aplicativo detectar e corrigir. Note também que diferentes scouts usam diferentes meios de conversão e interpretação, e não é possível antecipar ou prever todas as variações possíveis nesse processo.</t>
@@ -8438,6 +8438,21 @@
   </si>
   <si>
     <t xml:space="preserve">Vous n’avez pas acces a cette application – contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disclaimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nota legal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descargo de responsabilidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avertissement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disconoscimento</t>
   </si>
   <si>
     <t xml:space="preserve">@@ progress messages in app</t>
@@ -8812,8 +8827,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ719"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D317" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F334" activeCellId="0" sqref="F334"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B697" activeCellId="0" sqref="B697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21430,329 +21445,349 @@
         <v>2804</v>
       </c>
     </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D700" s="0" t="s">
+        <v>2807</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>2809</v>
+      </c>
+    </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="s">
-        <v>2805</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="1" t="s">
-        <v>2806</v>
+        <v>2811</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>2806</v>
+        <v>2811</v>
       </c>
       <c r="C704" s="1" t="s">
-        <v>2807</v>
+        <v>2812</v>
       </c>
       <c r="D704" s="1" t="s">
-        <v>2808</v>
+        <v>2813</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>2809</v>
+        <v>2814</v>
       </c>
       <c r="F704" s="1" t="s">
-        <v>2810</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="s">
-        <v>2811</v>
+        <v>2816</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>2811</v>
+        <v>2816</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>2812</v>
+        <v>2817</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>2813</v>
+        <v>2818</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>2814</v>
+        <v>2819</v>
       </c>
       <c r="F705" s="1" t="s">
-        <v>2815</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="s">
-        <v>2816</v>
+        <v>2821</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>2816</v>
+        <v>2821</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>2818</v>
+        <v>2823</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>2819</v>
+        <v>2824</v>
       </c>
       <c r="F706" s="1" t="s">
-        <v>2820</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="s">
-        <v>2821</v>
+        <v>2826</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>2821</v>
+        <v>2826</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>2822</v>
+        <v>2827</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>2823</v>
+        <v>2828</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>2824</v>
+        <v>2829</v>
       </c>
       <c r="F707" s="1" t="s">
-        <v>2825</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="s">
-        <v>2826</v>
+        <v>2831</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>2826</v>
+        <v>2831</v>
       </c>
       <c r="C708" s="1" t="s">
-        <v>2827</v>
+        <v>2832</v>
       </c>
       <c r="D708" s="1" t="s">
-        <v>2828</v>
+        <v>2833</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>2829</v>
+        <v>2834</v>
       </c>
       <c r="F708" s="1" t="s">
-        <v>2830</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="s">
-        <v>2831</v>
+        <v>2836</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>2831</v>
+        <v>2836</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>2832</v>
+        <v>2837</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>2833</v>
+        <v>2838</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>2834</v>
+        <v>2839</v>
       </c>
       <c r="F709" s="1" t="s">
-        <v>2835</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="s">
-        <v>2836</v>
+        <v>2841</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>2836</v>
+        <v>2841</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>2837</v>
+        <v>2842</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>2838</v>
+        <v>2843</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>2839</v>
+        <v>2844</v>
       </c>
       <c r="F710" s="1" t="s">
-        <v>2840</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="s">
-        <v>2841</v>
+        <v>2846</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>2841</v>
+        <v>2846</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>2842</v>
+        <v>2847</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>2843</v>
+        <v>2848</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>2844</v>
+        <v>2849</v>
       </c>
       <c r="F711" s="1" t="s">
-        <v>2845</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="s">
-        <v>2846</v>
+        <v>2851</v>
       </c>
       <c r="B712" s="1" t="s">
-        <v>2846</v>
+        <v>2851</v>
       </c>
       <c r="C712" s="1" t="s">
-        <v>2847</v>
+        <v>2852</v>
       </c>
       <c r="D712" s="1" t="s">
-        <v>2848</v>
+        <v>2853</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>2849</v>
+        <v>2854</v>
       </c>
       <c r="F712" s="1" t="s">
-        <v>2850</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="s">
-        <v>2851</v>
+        <v>2856</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>2851</v>
+        <v>2856</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>2852</v>
+        <v>2857</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>2853</v>
+        <v>2858</v>
       </c>
       <c r="E713" s="1" t="s">
-        <v>2854</v>
+        <v>2859</v>
       </c>
       <c r="F713" s="1" t="s">
-        <v>2855</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="s">
-        <v>2856</v>
+        <v>2861</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>2856</v>
+        <v>2861</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>2857</v>
+        <v>2862</v>
       </c>
       <c r="D714" s="1" t="s">
-        <v>2858</v>
+        <v>2863</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>2859</v>
+        <v>2864</v>
       </c>
       <c r="F714" s="1" t="s">
-        <v>2860</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="s">
-        <v>2861</v>
+        <v>2866</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>2861</v>
+        <v>2866</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>2862</v>
+        <v>2867</v>
       </c>
       <c r="D715" s="1" t="s">
-        <v>2863</v>
+        <v>2868</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>2864</v>
+        <v>2869</v>
       </c>
       <c r="F715" s="1" t="s">
-        <v>2865</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="s">
-        <v>2866</v>
+        <v>2871</v>
       </c>
       <c r="B716" s="1" t="s">
-        <v>2866</v>
+        <v>2871</v>
       </c>
       <c r="C716" s="1" t="s">
-        <v>2867</v>
+        <v>2872</v>
       </c>
       <c r="D716" s="1" t="s">
-        <v>2868</v>
+        <v>2873</v>
       </c>
       <c r="E716" s="1" t="s">
-        <v>2869</v>
+        <v>2874</v>
       </c>
       <c r="F716" s="1" t="s">
-        <v>2870</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="s">
-        <v>2871</v>
+        <v>2876</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>2871</v>
+        <v>2876</v>
       </c>
       <c r="C717" s="1" t="s">
-        <v>2872</v>
+        <v>2877</v>
       </c>
       <c r="D717" s="1" t="s">
-        <v>2873</v>
+        <v>2878</v>
       </c>
       <c r="E717" s="1" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
       <c r="F717" s="1" t="s">
-        <v>2875</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="s">
-        <v>2876</v>
+        <v>2881</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>2876</v>
+        <v>2881</v>
       </c>
       <c r="C718" s="1" t="s">
-        <v>2877</v>
+        <v>2882</v>
       </c>
       <c r="D718" s="1" t="s">
-        <v>2878</v>
+        <v>2883</v>
       </c>
       <c r="E718" s="2" t="s">
-        <v>2879</v>
+        <v>2884</v>
       </c>
       <c r="F718" s="1" t="s">
-        <v>2880</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="s">
-        <v>2881</v>
+        <v>2886</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>2881</v>
+        <v>2886</v>
       </c>
       <c r="C719" s="5" t="s">
-        <v>2882</v>
+        <v>2887</v>
       </c>
       <c r="D719" s="1" t="s">
-        <v>2883</v>
+        <v>2888</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>2884</v>
+        <v>2889</v>
       </c>
       <c r="F719" s="1" t="s">
-        <v>2885</v>
+        <v>2890</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/su_translations.xlsx
+++ b/data-raw/su_translations.xlsx
@@ -1906,34 +1906,34 @@
     <t xml:space="preserve">TOT errori in battuta esclusi</t>
   </si>
   <si>
-    <t xml:space="preserve">in sets won</t>
-  </si>
-  <si>
-    <t xml:space="preserve">em sets vencidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en sets ganados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dans les sets gagnés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in set vinti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in sets lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">em sets perdidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en sets perdidos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dans les sets perdus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in set persi</t>
+    <t xml:space="preserve">in sets won (excluding serve errors)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em sets vencidos (excluindo erros de saque)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en sets ganados (excluyendo errores de saque)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dans les sets gagnés (excluant les erreurs de service)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in set vinti (errori in battuta esclusi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in sets lost (excluding serve errors)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">em sets perdidos (excluindo erros de saque)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en sets perdidos (excluyendo errores de saque)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dans les sets perdus (excluant les erreurs de service)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in set persi (errori in battuta esclusi)</t>
   </si>
   <si>
     <t xml:space="preserve">@@ Reception first ball sideout</t>
@@ -8827,8 +8827,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ719"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A117" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B697" activeCellId="0" sqref="B697"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A168" activeCellId="0" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11630,7 +11630,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>627</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>632</v>
       </c>
@@ -21455,7 +21455,7 @@
       <c r="C700" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="D700" s="0" t="s">
+      <c r="D700" s="5" t="s">
         <v>2807</v>
       </c>
       <c r="E700" s="1" t="s">

--- a/data-raw/su_translations.xlsx
+++ b/data-raw/su_translations.xlsx
@@ -11,7 +11,7 @@
     <sheet name="translations" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$E$732</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="su_translations" vbProcedure="false">translations!$A$1:$E$736</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3942" uniqueCount="2956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="2980">
   <si>
     <t xml:space="preserve">@ note: comments are marked with @ and sections are marked with @@</t>
   </si>
@@ -5563,10 +5563,10 @@
     <t xml:space="preserve">nos sets 1-4: placares de 18-18 em diante, com uma margem de dois pontos ou menos (ex: placares de 18-20 ou 23-22 são considerados momentos decisivos, mas 16-18 e 18-21 não são)</t>
   </si>
   <si>
-    <t xml:space="preserve">en los sets 1-4: marcadores de 18-18 hacia arriba, con un margen de dos puntos o menos (p.ej. Marcadores de 18-20 o 23-22 son momentos decisivos, pero 16-18 y 18-21 no lo son)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au 4ème set: a 18-18 ou plus, avec une marge de 2 points ou moins (ex: a 18-20 ou 23-22 sont des moments décisifs, mais 16-18 ne l’est pas)</t>
+    <t xml:space="preserve">en los sets 1-4: marcadores de 18-18 hacia arriba, con un margen de dos puntos o menos (p.ej. marcadores de 18-20 o 23-22 son momentos decisivos, pero 16-18 y 18-21 no lo son)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au 4ème set: a 18-18 ou plus, avec une marge de 2 points ou moins (ex: a 18-20 ou 23-22 sont des moments décisifs, mais 16-18 ou 18-21 ne l’est pas)</t>
   </si>
   <si>
     <t xml:space="preserve">nei set 1-4: punteggi di 18-18 in sù, con una differenza di due punti o meno (cioè punteggi di 18-20 o 23-22 sono momenti decisivi, ma 16-18 o 18-21 no)</t>
@@ -5581,13 +5581,85 @@
     <t xml:space="preserve">no set 5: placares de 8-8 em diante, com uma margem de dois pontos ou menos (ex: placares de 11-10 ou 9-11 são momentos decisivos, mas 13-9 não é)</t>
   </si>
   <si>
-    <t xml:space="preserve">en el set 5: marcadores de 8-8 hacia arriba, con un margen de dos puntos o menos (p. ej, marcadores de 11-10 o 9-11 son momentos decisivos, pero 13-9 no lo es)</t>
+    <t xml:space="preserve">en el set 5: marcadores de 8-8 hacia arriba, con un margen de dos puntos o menos (p.ej. marcadores de 11-10 o 9-11 son momentos decisivos, pero 13-9 no lo es)</t>
   </si>
   <si>
     <t xml:space="preserve">au 5ème set: a 8-8 ou plus, et avec une marge de 2 points ou moins (ex: a 11-10 ou 9-11 sont des moments décisifs, mais 13-9 ne l’est pas)</t>
   </si>
   <si>
     <t xml:space="preserve">nel set 5: punteggi di 8-8 in sù, con una differenza di due punti o meno (cioè punteggi di 11-10 o 9-11 sono momenti decisivi, ma 13-9 no)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crunchtime_def_beach_sets12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in sets 1-2: scores of 15-15 or higher, and a margin of two points or less (e.g. scores of 15-17 or 20-19 are crunch time, but 13-15 and 17-20 are not)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nos sets 1-2: placares de 15-15 em diante, com uma margem de dois pontos ou menos (ex: placares de 15-17 ou 20-19 são considerados momentos decisivos, mas 13-15 e 17-20 não são)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en los sets 1-2: marcadores de 15-15 hacia arriba, con un margen de dos puntos o menos (p.ej. marcadores de 15-17 o 20-19 son momentos decisivos, pero 13-15 y 17-20 no lo son)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au 2ème set: a 15-15 ou plus, avec une marge de 2 points ou moins (ex: a 15-17 ou 20-19 sont des moments décisifs, mais 13-15 ou 17-20 ne l’est pas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nei set 1-2: punteggi di 15-15 in sù, con una differenza di due punti o meno (cioè punteggi di 15-17 o 20-19 sono momenti decisivi, ma 13-15 o 17-20 no)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crunchtime_def_beach_set3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in set 3: scores of 10-10 or higher, and a margin of two points or less (e.g. scores of 11-10 or 12-14 are crunch time, but 14-11 is not)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no set 3: placares de 10-10 em diante, com uma margem de dois pontos ou menos (ex: placares de 11-10 ou 12-14 são momentos decisivos, mas 14-11 não é)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en el set 3: marcadores de 10-10 hacia arriba, con un margen de dos puntos o menos (p.ej. marcadores de 11-10 o 12-14 son momentos decisivos, pero 14-11 no lo es)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au 3ème set: a 10-10 ou plus, et avec une marge de 2 points ou moins (ex: a 11-10 ou 12-14 sont des moments décisifs, mais 14-11 ne l’est pas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nel set 3: punteggi di 10-10 in sù, con una differenza di due punti o meno (cioè punteggi di 11-10 o 12-14 sono momenti decisivi, ma 14-11 no)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crunchtime_def_avsl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scores of 12-12 or higher, and a margin of two points or less (e.g. scores of 12-14 or 17-16 are crunch time, but 10-12 and 14-17 are not)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placares de 12-12 em diante, com uma margem de dois pontos ou menos (ex: placares de 12-14 ou 17-16 são considerados momentos decisivos, mas 10-12 e 14-17 não são)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marcadores de 12-12 hacia arriba, con un margen de dos puntos o menos (p.ej. marcadores de 12-14 o 17-16 son momentos decisivos, pero 10-12 y 14-17 no lo son)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a 12-12 ou plus, avec une marge de 2 points ou moins (ex: a 12-14 ou 17-16 sont des moments décisifs, mais 10-12 ou 14-17 ne l’est pas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punteggi di 12-12 in sù, con una differenza di due punti o meno (cioè punteggi di 12-14 o 17-16 sono momenti decisivi, ma 10-12 o 14-17 no)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crunchtime_def_prime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scores of 10-10 or higher, and a margin of two points or less (e.g. scores of 10-12 or 14-13 are crunch time, but 8-10 and 11-14 are not)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placares de 10-10 em diante, com uma margem de dois pontos ou menos (ex: placares de 10-12 ou 14-13 são considerados momentos decisivos, mas 8-10 e 11-14 não são)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marcadores de 10-10 hacia arriba, con un margen de dos puntos o menos (p.ej. marcadores de 10-12 o 14-13 son momentos decisivos, pero 8-10 y 11-14 no lo son)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a 10-10 ou plus, avec une marge de 2 points ou moins (ex: a 10-12 ou 14-13 sont des moments décisifs, mais 8-10 ou 11-14 ne l’est pas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punteggi di 10-10 in sù, con una differenza di due punti o meno (cioè punteggi di 10-12 o 14-13 sono momenti decisivi, ma 8-10 o 11-14 no)</t>
   </si>
   <si>
     <t xml:space="preserve">@ in the sense of point win %</t>
@@ -9005,30 +9077,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ734"/>
+  <dimension ref="A1:AMJ738"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B546" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D556" activeCellId="0" sqref="D556"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="63.36328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="63.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="63.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17480,224 +17552,224 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F482" s="1" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>1856</v>
+        <v>1861</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1856</v>
+        <v>1862</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>984</v>
+        <v>1863</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>1857</v>
+        <v>1864</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>1858</v>
+        <v>1865</v>
       </c>
       <c r="F483" s="1" t="s">
-        <v>1859</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>1860</v>
+        <v>1867</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1860</v>
+        <v>1868</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1861</v>
+        <v>1869</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>1862</v>
+        <v>1870</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>1863</v>
+        <v>1871</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>1865</v>
+        <v>1873</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>1878</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
-        <v>1866</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D486" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E486" s="1" t="s">
-        <v>1870</v>
-      </c>
-      <c r="F486" s="1" t="s">
-        <v>1871</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
-        <v>1872</v>
+        <v>1880</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1873</v>
+        <v>1880</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1874</v>
+        <v>984</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>1875</v>
+        <v>1881</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1875</v>
+        <v>1882</v>
       </c>
       <c r="F487" s="1" t="s">
-        <v>1876</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>1877</v>
+        <v>1884</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F488" s="1" t="s">
+        <v>1888</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>1878</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D489" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="E489" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F489" s="1" t="s">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="490" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A490" s="2" t="s">
-        <v>1881</v>
-      </c>
-      <c r="B490" s="2" t="s">
-        <v>1856</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>1882</v>
-      </c>
-      <c r="D490" s="2" t="s">
-        <v>1857</v>
-      </c>
-      <c r="E490" s="2" t="s">
-        <v>1883</v>
-      </c>
-      <c r="F490" s="2" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="491" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="492" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A492" s="2" t="s">
-        <v>1884</v>
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="1" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="1" t="s">
+        <v>1901</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
-        <v>1885</v>
+        <v>1902</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C493" s="2" t="s">
-        <v>1887</v>
+        <v>557</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1903</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>1888</v>
+        <v>559</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1889</v>
+        <v>560</v>
       </c>
       <c r="F493" s="1" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="1" t="s">
-        <v>1891</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>1892</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D494" s="1" t="s">
-        <v>1894</v>
-      </c>
-      <c r="E494" s="1" t="s">
-        <v>1895</v>
-      </c>
-      <c r="F494" s="1" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A495" s="1" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D495" s="1" t="s">
-        <v>1900</v>
-      </c>
-      <c r="E495" s="2" t="s">
-        <v>1901</v>
-      </c>
-      <c r="F495" s="1" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A496" s="1" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B496" s="1" t="s">
         <v>1904</v>
       </c>
-      <c r="C496" s="1" t="s">
+    </row>
+    <row r="494" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="D496" s="1" t="s">
+      <c r="B494" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C494" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="E496" s="2" t="s">
+      <c r="D494" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E494" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="F496" s="1" t="s">
+      <c r="F494" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="495" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="496" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="2" t="s">
         <v>1908</v>
       </c>
     </row>
@@ -17706,4589 +17778,4669 @@
         <v>1909</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1909</v>
-      </c>
-      <c r="C497" s="1" t="s">
         <v>1910</v>
       </c>
+      <c r="C497" s="2" t="s">
+        <v>1911</v>
+      </c>
       <c r="D497" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="F497" s="1" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="F498" s="1" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1919</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>1920</v>
+        <v>1922</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>1923</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>1921</v>
-      </c>
-      <c r="E499" s="1" t="s">
-        <v>1922</v>
+        <v>1924</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>1925</v>
       </c>
       <c r="F499" s="1" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E500" s="1" t="s">
-        <v>1927</v>
+        <v>1930</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>1931</v>
       </c>
       <c r="F500" s="1" t="s">
-        <v>1928</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>1929</v>
+        <v>1933</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>1931</v>
+        <v>1935</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="F501" s="1" t="s">
-        <v>1933</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1934</v>
+        <v>1938</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>1936</v>
+        <v>1940</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>1937</v>
+        <v>1941</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>1938</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>1942</v>
+        <v>1946</v>
       </c>
       <c r="F503" s="1" t="s">
-        <v>1943</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1944</v>
+        <v>1948</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="F504" s="1" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="F505" s="1" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>1955</v>
+        <v>1960</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>1956</v>
+        <v>1961</v>
       </c>
       <c r="F506" s="1" t="s">
-        <v>1957</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>1958</v>
+        <v>1963</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1958</v>
+        <v>1963</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1959</v>
+        <v>1964</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>1961</v>
+        <v>1966</v>
       </c>
       <c r="F507" s="1" t="s">
-        <v>1962</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
-        <v>1963</v>
+        <v>1968</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1963</v>
+        <v>1968</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1964</v>
+        <v>1969</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>1965</v>
+        <v>1970</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="F508" s="1" t="s">
-        <v>1967</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1968</v>
+        <v>1973</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="F509" s="1" t="s">
-        <v>1972</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
-        <v>1973</v>
+        <v>1978</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1973</v>
+        <v>1978</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>1975</v>
+        <v>1980</v>
       </c>
       <c r="F510" s="1" t="s">
-        <v>1976</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
-        <v>1977</v>
+        <v>1982</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="F511" s="1" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>1984</v>
+        <v>1990</v>
       </c>
       <c r="F512" s="1" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="F513" s="1" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="F514" s="1" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="F515" s="1" t="s">
-        <v>2001</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>2002</v>
-      </c>
-      <c r="C516" s="2" t="s">
-        <v>2003</v>
+        <v>2008</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>2009</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>2005</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>2006</v>
+        <v>2013</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="F517" s="1" t="s">
-        <v>2010</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="F518" s="1" t="s">
-        <v>2013</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="F519" s="1" t="s">
-        <v>2017</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
-        <v>2018</v>
+        <v>2026</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>2018</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>2019</v>
+        <v>2026</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>2027</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="F520" s="1" t="s">
-        <v>2022</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>2023</v>
+        <v>2030</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>2024</v>
+        <v>2031</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>2025</v>
+        <v>2032</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>2023</v>
+        <v>2033</v>
       </c>
       <c r="F521" s="1" t="s">
-        <v>2026</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>2028</v>
+        <v>2036</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="F522" s="1" t="s">
-        <v>2031</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>2032</v>
+        <v>2038</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>2032</v>
+        <v>2038</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>2033</v>
+        <v>2039</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>2034</v>
+        <v>2040</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="F523" s="1" t="s">
-        <v>2036</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>2037</v>
+        <v>2042</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>2037</v>
+        <v>2042</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>2038</v>
+        <v>2043</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>2039</v>
+        <v>2044</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="F524" s="1" t="s">
-        <v>2041</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>2042</v>
+        <v>2047</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F525" s="1" t="s">
+        <v>2050</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
-        <v>2043</v>
+        <v>2051</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>2043</v>
+        <v>2051</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>2044</v>
+        <v>2052</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>2045</v>
+        <v>2053</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>2046</v>
+        <v>2054</v>
       </c>
       <c r="F526" s="1" t="s">
-        <v>2047</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
-        <v>2048</v>
+        <v>2056</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F527" s="1" t="s">
+        <v>2060</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
-        <v>2049</v>
+        <v>2061</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>2049</v>
+        <v>2061</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>2050</v>
+        <v>2062</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>2051</v>
+        <v>2063</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>2052</v>
+        <v>2064</v>
       </c>
       <c r="F528" s="1" t="s">
-        <v>2053</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
-        <v>2054</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>2054</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D529" s="1" t="s">
-        <v>2056</v>
-      </c>
-      <c r="E529" s="1" t="s">
-        <v>2055</v>
-      </c>
-      <c r="F529" s="1" t="s">
-        <v>2054</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>2055</v>
+        <v>2067</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>2055</v>
+        <v>2067</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>2055</v>
+        <v>2068</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>2056</v>
+        <v>2069</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>2055</v>
+        <v>2070</v>
       </c>
       <c r="F530" s="1" t="s">
-        <v>2054</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="2" t="s">
-        <v>2057</v>
-      </c>
-      <c r="B531" s="2" t="s">
-        <v>2057</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>2058</v>
-      </c>
-      <c r="D531" s="4" t="s">
-        <v>2059</v>
-      </c>
-      <c r="E531" s="2" t="s">
-        <v>2060</v>
-      </c>
-      <c r="F531" s="2" t="s">
-        <v>2061</v>
+      <c r="A531" s="1" t="s">
+        <v>2072</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="2" t="s">
-        <v>2062</v>
-      </c>
-      <c r="B532" s="2" t="s">
-        <v>2062</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D532" s="4" t="s">
-        <v>2064</v>
-      </c>
-      <c r="E532" s="2" t="s">
-        <v>2065</v>
-      </c>
-      <c r="F532" s="2" t="s">
-        <v>2066</v>
+      <c r="A532" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>2077</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="2" t="s">
-        <v>2067</v>
-      </c>
-      <c r="B533" s="2" t="s">
-        <v>2067</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D533" s="4" t="s">
-        <v>2069</v>
-      </c>
-      <c r="E533" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="F533" s="2" t="s">
-        <v>2071</v>
+      <c r="A533" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>2078</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="2" t="s">
-        <v>2072</v>
-      </c>
-      <c r="B534" s="2" t="s">
-        <v>2072</v>
-      </c>
-      <c r="C534" s="2" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D534" s="4" t="s">
-        <v>2074</v>
-      </c>
-      <c r="E534" s="2" t="s">
-        <v>2075</v>
-      </c>
-      <c r="F534" s="2" t="s">
-        <v>2076</v>
+      <c r="A534" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>2078</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="2" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="2" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="F540" s="2" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="2" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="F541" s="2" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="F542" s="2" t="s">
-        <v>2116</v>
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D543" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>2125</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="1" t="s">
-        <v>2117</v>
+      <c r="A544" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D544" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>2130</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="1" t="s">
-        <v>2118</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>2118</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>2119</v>
-      </c>
-      <c r="D545" s="1" t="s">
-        <v>2120</v>
-      </c>
-      <c r="E545" s="1" t="s">
-        <v>2121</v>
-      </c>
-      <c r="F545" s="1" t="s">
-        <v>2122</v>
+      <c r="A545" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D545" s="4" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>2135</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="1" t="s">
-        <v>2123</v>
-      </c>
-      <c r="B546" s="1" t="s">
-        <v>2123</v>
-      </c>
-      <c r="C546" s="1" t="s">
-        <v>2124</v>
-      </c>
-      <c r="D546" s="1" t="s">
-        <v>2125</v>
-      </c>
-      <c r="E546" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="F546" s="1" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="1" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>2128</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D547" s="1" t="s">
-        <v>2130</v>
-      </c>
-      <c r="E547" s="1" t="s">
-        <v>2131</v>
-      </c>
-      <c r="F547" s="1" t="s">
-        <v>2132</v>
+      <c r="A546" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D546" s="4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>2140</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>2133</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>2133</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>2133</v>
-      </c>
-      <c r="D548" s="1" t="s">
-        <v>2133</v>
-      </c>
-      <c r="E548" s="1" t="s">
-        <v>2133</v>
-      </c>
-      <c r="F548" s="1" t="s">
-        <v>2133</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
-        <v>2134</v>
+        <v>2142</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>2134</v>
+        <v>2142</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>2135</v>
+        <v>2143</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>2136</v>
+        <v>2144</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>2137</v>
+        <v>2145</v>
       </c>
       <c r="F549" s="1" t="s">
-        <v>2138</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
-        <v>2139</v>
+        <v>2147</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>2139</v>
+        <v>2147</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>2139</v>
+        <v>2148</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>2140</v>
+        <v>2149</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>2139</v>
+        <v>2150</v>
       </c>
       <c r="F550" s="1" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
-        <v>2141</v>
+        <v>2152</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>2141</v>
+        <v>2152</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>2142</v>
+        <v>2153</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>2143</v>
+        <v>2154</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>2144</v>
+        <v>2155</v>
       </c>
       <c r="F551" s="1" t="s">
-        <v>2145</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>2147</v>
+        <v>2157</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>2148</v>
+        <v>2157</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
       <c r="F552" s="1" t="s">
-        <v>2149</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>2150</v>
+        <v>2158</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>2150</v>
+        <v>2158</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D553" s="2" t="s">
-        <v>2152</v>
+        <v>2159</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>2160</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>2153</v>
+        <v>2161</v>
       </c>
       <c r="F553" s="1" t="s">
-        <v>2154</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>2155</v>
+        <v>2163</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>2156</v>
+        <v>2163</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>2157</v>
+        <v>2164</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>2158</v>
+        <v>2163</v>
       </c>
       <c r="F554" s="1" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
-        <v>2160</v>
+        <v>2165</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>2160</v>
+        <v>2165</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>2161</v>
+        <v>2166</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>2162</v>
+        <v>2167</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>2163</v>
+        <v>2168</v>
       </c>
       <c r="F555" s="1" t="s">
-        <v>2164</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>2165</v>
+        <v>2170</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>2165</v>
+        <v>2170</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>2166</v>
+        <v>2171</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>2167</v>
+        <v>2172</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="F556" s="1" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>2170</v>
-      </c>
-      <c r="D557" s="1" t="s">
-        <v>2170</v>
+        <v>2175</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>2176</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>2171</v>
+        <v>2177</v>
       </c>
       <c r="F557" s="1" t="s">
-        <v>2172</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
-        <v>2173</v>
+        <v>2179</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>2173</v>
+        <v>2179</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>2173</v>
+        <v>2180</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>2173</v>
+        <v>2181</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>2174</v>
+        <v>2182</v>
       </c>
       <c r="F558" s="1" t="s">
-        <v>2175</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
-        <v>2176</v>
+        <v>2184</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>2176</v>
+        <v>2184</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>2177</v>
+        <v>2185</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>2178</v>
+        <v>2186</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>2179</v>
+        <v>2187</v>
       </c>
       <c r="F559" s="1" t="s">
-        <v>2180</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>2181</v>
+        <v>2189</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>2182</v>
+        <v>2190</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>2183</v>
+        <v>2191</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>2181</v>
+        <v>2192</v>
       </c>
       <c r="F560" s="1" t="s">
-        <v>2184</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
-        <v>2185</v>
+        <v>2194</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>2185</v>
+        <v>2194</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>2186</v>
+        <v>2194</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>2187</v>
+        <v>2194</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>2188</v>
+        <v>2195</v>
       </c>
       <c r="F561" s="1" t="s">
-        <v>2189</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
-        <v>2190</v>
+        <v>2197</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>2190</v>
+        <v>2197</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>2191</v>
+        <v>2197</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>2192</v>
+        <v>2197</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>2193</v>
+        <v>2198</v>
       </c>
       <c r="F562" s="1" t="s">
-        <v>2194</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
-        <v>2195</v>
+        <v>2200</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>2195</v>
+        <v>2200</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>2195</v>
+        <v>2201</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>2195</v>
+        <v>2202</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>2195</v>
+        <v>2203</v>
       </c>
       <c r="F563" s="1" t="s">
-        <v>2196</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
-        <v>2197</v>
+        <v>2205</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>2197</v>
-      </c>
-      <c r="C564" s="2" t="s">
-        <v>2198</v>
+        <v>2205</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>2206</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>2199</v>
+        <v>2207</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>2200</v>
+        <v>2205</v>
       </c>
       <c r="F564" s="1" t="s">
-        <v>2201</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>2202</v>
+        <v>2209</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>2202</v>
+        <v>2209</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>2203</v>
+        <v>2210</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>2203</v>
+        <v>2211</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>2204</v>
+        <v>2212</v>
       </c>
       <c r="F565" s="1" t="s">
-        <v>2205</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
-        <v>2206</v>
+        <v>2214</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>2206</v>
+        <v>2214</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>2207</v>
+        <v>2215</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>2207</v>
+        <v>2216</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>2208</v>
+        <v>2217</v>
       </c>
       <c r="F566" s="1" t="s">
-        <v>2209</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
-        <v>2210</v>
+        <v>2219</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>2210</v>
-      </c>
-      <c r="C567" s="2" t="s">
-        <v>2211</v>
+        <v>2219</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>2219</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>2212</v>
+        <v>2219</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>2213</v>
+        <v>2219</v>
       </c>
       <c r="F567" s="1" t="s">
-        <v>2214</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
-        <v>2215</v>
+        <v>2221</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>2215</v>
-      </c>
-      <c r="C568" s="1" t="s">
-        <v>2216</v>
+        <v>2221</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>2222</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>2217</v>
+        <v>2223</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>2218</v>
+        <v>2224</v>
       </c>
       <c r="F568" s="1" t="s">
-        <v>2219</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="s">
-        <v>2220</v>
+        <v>2226</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>2220</v>
+        <v>2226</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>2220</v>
+        <v>2227</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>2220</v>
+        <v>2228</v>
       </c>
       <c r="F569" s="1" t="s">
-        <v>2220</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="s">
-        <v>2221</v>
+        <v>2230</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>2221</v>
+        <v>2230</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>2222</v>
+        <v>2231</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>2223</v>
+        <v>2231</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>2224</v>
+        <v>2232</v>
       </c>
       <c r="F570" s="1" t="s">
-        <v>2225</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
-        <v>2226</v>
+        <v>2234</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>2226</v>
-      </c>
-      <c r="C571" s="1" t="s">
-        <v>2226</v>
+        <v>2234</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>2235</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>2226</v>
+        <v>2236</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>2226</v>
+        <v>2237</v>
       </c>
       <c r="F571" s="1" t="s">
-        <v>2226</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="s">
-        <v>2227</v>
+        <v>2239</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>2227</v>
+        <v>2239</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>2228</v>
+        <v>2240</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>2229</v>
+        <v>2241</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>2230</v>
+        <v>2242</v>
       </c>
       <c r="F572" s="1" t="s">
-        <v>2231</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="s">
-        <v>2232</v>
+        <v>2244</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>2232</v>
+        <v>2244</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>2233</v>
+        <v>2244</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>2234</v>
+        <v>2244</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>2232</v>
+        <v>2244</v>
       </c>
       <c r="F573" s="1" t="s">
-        <v>2233</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
-        <v>2235</v>
+        <v>2245</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>2235</v>
+        <v>2245</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>2236</v>
-      </c>
-      <c r="D574" s="2" t="s">
-        <v>2237</v>
+        <v>2246</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>2247</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>2238</v>
+        <v>2248</v>
       </c>
       <c r="F574" s="1" t="s">
-        <v>2239</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
-        <v>2240</v>
+        <v>2250</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>2250</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
-        <v>2241</v>
+        <v>2251</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>2241</v>
+        <v>2251</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>2242</v>
+        <v>2252</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>2242</v>
+        <v>2253</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>2241</v>
+        <v>2254</v>
       </c>
       <c r="F576" s="1" t="s">
-        <v>2241</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
-        <v>2243</v>
+        <v>2256</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>2243</v>
+        <v>2256</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>2244</v>
+        <v>2257</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>2244</v>
+        <v>2258</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>2245</v>
+        <v>2256</v>
       </c>
       <c r="F577" s="1" t="s">
-        <v>2246</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
-        <v>2247</v>
+        <v>2259</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>2247</v>
-      </c>
-      <c r="C578" s="2" t="s">
-        <v>2248</v>
-      </c>
-      <c r="D578" s="1" t="s">
-        <v>2249</v>
+        <v>2259</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>2261</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>2250</v>
+        <v>2262</v>
       </c>
       <c r="F578" s="1" t="s">
-        <v>2251</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>2252</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>2252</v>
-      </c>
-      <c r="C579" s="1" t="s">
-        <v>2253</v>
-      </c>
-      <c r="D579" s="2" t="s">
-        <v>2254</v>
-      </c>
-      <c r="E579" s="1" t="s">
-        <v>2255</v>
-      </c>
-      <c r="F579" s="2" t="s">
-        <v>2256</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
-        <v>2257</v>
+        <v>2265</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>2257</v>
+        <v>2265</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>2258</v>
+        <v>2266</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>2259</v>
+        <v>2266</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>2257</v>
+        <v>2265</v>
       </c>
       <c r="F580" s="1" t="s">
-        <v>2257</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="s">
-        <v>2260</v>
+        <v>2267</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>2260</v>
+        <v>2267</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>2261</v>
+        <v>2268</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>2262</v>
+        <v>2268</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>2260</v>
+        <v>2269</v>
       </c>
       <c r="F581" s="1" t="s">
-        <v>2260</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
-        <v>2263</v>
+        <v>2271</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>2263</v>
-      </c>
-      <c r="C582" s="1" t="s">
-        <v>2264</v>
+        <v>2271</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>2272</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>2265</v>
+        <v>2273</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>2263</v>
+        <v>2274</v>
       </c>
       <c r="F582" s="1" t="s">
-        <v>2263</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
-        <v>2266</v>
+        <v>2276</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>2266</v>
+        <v>2276</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D583" s="1" t="s">
-        <v>2268</v>
+        <v>2277</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>2278</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>2266</v>
-      </c>
-      <c r="F583" s="1" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="584" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="2" t="s">
-        <v>2269</v>
-      </c>
-      <c r="B584" s="2" t="s">
-        <v>2269</v>
-      </c>
-      <c r="C584" s="2" t="s">
-        <v>2270</v>
-      </c>
-      <c r="D584" s="2" t="s">
-        <v>2271</v>
-      </c>
-      <c r="E584" s="2" t="s">
-        <v>2272</v>
-      </c>
-      <c r="F584" s="2" t="s">
-        <v>2273</v>
+        <v>2279</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>2281</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
-        <v>2274</v>
+        <v>2284</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>2274</v>
+        <v>2284</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>2275</v>
+        <v>2285</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>2276</v>
+        <v>2286</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>2277</v>
+        <v>2284</v>
       </c>
       <c r="F585" s="1" t="s">
-        <v>2278</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
-        <v>2279</v>
+        <v>2287</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>2279</v>
+        <v>2287</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>2280</v>
+        <v>2288</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>2281</v>
+        <v>2289</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>2282</v>
+        <v>2287</v>
       </c>
       <c r="F586" s="1" t="s">
-        <v>2283</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
-        <v>2284</v>
+        <v>2290</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>2284</v>
+        <v>2290</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>2284</v>
+        <v>2291</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>2285</v>
+        <v>2292</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="F587" s="1" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="1" t="s">
-        <v>2287</v>
-      </c>
-      <c r="B588" s="1" t="s">
-        <v>2287</v>
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="588" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="2" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>2293</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>2288</v>
-      </c>
-      <c r="D588" s="1" t="s">
-        <v>2289</v>
-      </c>
-      <c r="E588" s="1" t="s">
-        <v>2290</v>
-      </c>
-      <c r="F588" s="1" t="s">
-        <v>2291</v>
+        <v>2294</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>2295</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>2296</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>2297</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
-        <v>2292</v>
+        <v>2298</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>2292</v>
+        <v>2298</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>2293</v>
+        <v>2299</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>2294</v>
+        <v>2300</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>2295</v>
+        <v>2301</v>
       </c>
       <c r="F589" s="1" t="s">
-        <v>2296</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
-        <v>2297</v>
+        <v>2303</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>2297</v>
+        <v>2303</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>2297</v>
+        <v>2304</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>2297</v>
+        <v>2305</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>2298</v>
+        <v>2306</v>
       </c>
       <c r="F590" s="1" t="s">
-        <v>2297</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="1" t="s">
-        <v>2299</v>
+        <v>2308</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C591" s="2" t="s">
-        <v>2300</v>
+        <v>2308</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>2308</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>2301</v>
+        <v>2309</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>2302</v>
+        <v>2310</v>
       </c>
       <c r="F591" s="1" t="s">
-        <v>2303</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="s">
-        <v>2304</v>
+        <v>2311</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>2304</v>
-      </c>
-      <c r="C592" s="1" t="s">
-        <v>2305</v>
+        <v>2311</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>2312</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>2143</v>
+        <v>2313</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>2306</v>
+        <v>2314</v>
       </c>
       <c r="F592" s="1" t="s">
-        <v>2307</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
-        <v>2308</v>
+        <v>2316</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>2308</v>
+        <v>2316</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>2309</v>
+        <v>2317</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>2310</v>
+        <v>2318</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>2311</v>
+        <v>2319</v>
       </c>
       <c r="F593" s="1" t="s">
-        <v>2310</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
-        <v>2312</v>
+        <v>2321</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>2312</v>
+        <v>2321</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>2313</v>
+        <v>2321</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>2314</v>
+        <v>2321</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>2315</v>
+        <v>2322</v>
       </c>
       <c r="F594" s="1" t="s">
-        <v>2316</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
-        <v>2317</v>
+        <v>2323</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>2317</v>
-      </c>
-      <c r="C595" s="1" t="s">
-        <v>2317</v>
+        <v>2323</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>2324</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>2317</v>
+        <v>2325</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>2318</v>
+        <v>2326</v>
       </c>
       <c r="F595" s="1" t="s">
-        <v>2317</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>2319</v>
+        <v>2328</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>2319</v>
+        <v>2328</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>2320</v>
+        <v>2329</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>2321</v>
+        <v>2167</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>2322</v>
+        <v>2330</v>
       </c>
       <c r="F596" s="1" t="s">
-        <v>2323</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="s">
-        <v>2324</v>
+        <v>2332</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>2324</v>
+        <v>2332</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>2325</v>
+        <v>2333</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>2326</v>
+        <v>2334</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>2327</v>
+        <v>2335</v>
       </c>
       <c r="F597" s="1" t="s">
-        <v>2328</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>2329</v>
+        <v>2336</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>2329</v>
+        <v>2336</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>2309</v>
+        <v>2337</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>2329</v>
+        <v>2338</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>2329</v>
+        <v>2339</v>
       </c>
       <c r="F598" s="1" t="s">
-        <v>2329</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>2330</v>
+        <v>2341</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>2330</v>
+        <v>2341</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>2313</v>
+        <v>2341</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>2330</v>
+        <v>2341</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>2330</v>
+        <v>2342</v>
       </c>
       <c r="F599" s="1" t="s">
-        <v>2330</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>2331</v>
+        <v>2343</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>2331</v>
+        <v>2343</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>2317</v>
+        <v>2344</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>2331</v>
+        <v>2345</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>2331</v>
+        <v>2346</v>
       </c>
       <c r="F600" s="1" t="s">
-        <v>2331</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>2332</v>
+        <v>2348</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>2332</v>
+        <v>2348</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>2332</v>
+        <v>2349</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>2332</v>
+        <v>2350</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>2332</v>
+        <v>2351</v>
       </c>
       <c r="F601" s="1" t="s">
-        <v>2332</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C602" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="B602" s="1" t="s">
-        <v>2333</v>
-      </c>
-      <c r="C602" s="1" t="s">
-        <v>2334</v>
-      </c>
       <c r="D602" s="1" t="s">
-        <v>2335</v>
+        <v>2353</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>2336</v>
+        <v>2353</v>
       </c>
       <c r="F602" s="1" t="s">
-        <v>2337</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>2338</v>
+        <v>2354</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>2338</v>
+        <v>2354</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>2340</v>
+        <v>2354</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>2338</v>
+        <v>2354</v>
       </c>
       <c r="F603" s="1" t="s">
-        <v>2341</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
-        <v>2342</v>
+        <v>2355</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>2342</v>
+        <v>2355</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>2344</v>
+        <v>2355</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>2345</v>
+        <v>2355</v>
       </c>
       <c r="F604" s="1" t="s">
-        <v>2346</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
-        <v>2347</v>
+        <v>2356</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>2347</v>
+        <v>2356</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>2348</v>
+        <v>2356</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>2349</v>
+        <v>2356</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>2347</v>
+        <v>2356</v>
       </c>
       <c r="F605" s="1" t="s">
-        <v>2350</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
-        <v>2351</v>
+        <v>2357</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>2351</v>
+        <v>2357</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>2352</v>
+        <v>2358</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>2353</v>
+        <v>2359</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>2144</v>
+        <v>2360</v>
       </c>
       <c r="F606" s="1" t="s">
-        <v>2354</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="s">
-        <v>2355</v>
+        <v>2362</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>2355</v>
+        <v>2362</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>2356</v>
+        <v>2363</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>2357</v>
+        <v>2364</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>2358</v>
+        <v>2362</v>
       </c>
       <c r="F607" s="1" t="s">
-        <v>2359</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
-        <v>2360</v>
+        <v>2366</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>2360</v>
+        <v>2366</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>2361</v>
+        <v>2367</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>2362</v>
+        <v>2368</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>2363</v>
+        <v>2369</v>
       </c>
       <c r="F608" s="1" t="s">
-        <v>2364</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
-        <v>2365</v>
+        <v>2371</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>2365</v>
+        <v>2371</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>2366</v>
+        <v>2372</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>2367</v>
+        <v>2373</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="F609" s="1" t="s">
-        <v>2369</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
-        <v>2370</v>
+        <v>2375</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>2370</v>
+        <v>2375</v>
       </c>
       <c r="C610" s="1" t="s">
-        <v>2371</v>
+        <v>2376</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>2372</v>
+        <v>2377</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>2373</v>
+        <v>2168</v>
       </c>
       <c r="F610" s="1" t="s">
-        <v>2374</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="F611" s="1" t="s">
-        <v>2379</v>
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>2388</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>2380</v>
+        <v>2389</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>2393</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
-        <v>2381</v>
+        <v>2394</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>2381</v>
+        <v>2394</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>2382</v>
+        <v>2395</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>2383</v>
+        <v>2396</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>2384</v>
-      </c>
-      <c r="F614" s="2" t="s">
-        <v>2385</v>
+        <v>2397</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>2398</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
-        <v>2386</v>
+        <v>2399</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>2386</v>
+        <v>2399</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>2387</v>
+        <v>2400</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>2388</v>
+        <v>2401</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>2389</v>
-      </c>
-      <c r="F615" s="2" t="s">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="1" t="s">
-        <v>2391</v>
-      </c>
-      <c r="B616" s="1" t="s">
-        <v>2391</v>
-      </c>
-      <c r="C616" s="1" t="s">
-        <v>2392</v>
-      </c>
-      <c r="D616" s="1" t="s">
-        <v>2393</v>
-      </c>
-      <c r="E616" s="1" t="s">
-        <v>2394</v>
-      </c>
-      <c r="F616" s="2" t="s">
-        <v>2395</v>
+        <v>2402</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>2403</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
-        <v>2396</v>
-      </c>
-      <c r="B617" s="1" t="s">
-        <v>2396</v>
-      </c>
-      <c r="C617" s="1" t="s">
-        <v>2397</v>
-      </c>
-      <c r="D617" s="1" t="s">
-        <v>2398</v>
-      </c>
-      <c r="E617" s="1" t="s">
-        <v>2399</v>
-      </c>
-      <c r="F617" s="1" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>2402</v>
+        <v>2407</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>2403</v>
-      </c>
-      <c r="F618" s="1" t="s">
-        <v>2404</v>
+        <v>2408</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>2409</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
-        <v>2405</v>
+        <v>2410</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>2405</v>
+        <v>2410</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>2406</v>
+        <v>2411</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>2406</v>
+        <v>2412</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>2403</v>
-      </c>
-      <c r="F619" s="1" t="s">
-        <v>2407</v>
+        <v>2413</v>
+      </c>
+      <c r="F619" s="2" t="s">
+        <v>2414</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>2408</v>
+        <v>2415</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>2408</v>
+        <v>2415</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>2409</v>
+        <v>2416</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>2410</v>
+        <v>2417</v>
       </c>
       <c r="E620" s="1" t="s">
-        <v>2411</v>
-      </c>
-      <c r="F620" s="1" t="s">
-        <v>2412</v>
+        <v>2418</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>2419</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>2413</v>
+        <v>2420</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>2413</v>
+        <v>2420</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>2414</v>
+        <v>2421</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>2415</v>
+        <v>2422</v>
       </c>
       <c r="E621" s="1" t="s">
-        <v>2416</v>
-      </c>
-      <c r="F621" s="2" t="s">
-        <v>2417</v>
+        <v>2423</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>2424</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
-        <v>2418</v>
+        <v>2425</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>2418</v>
+        <v>2425</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>2419</v>
+        <v>2426</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>2420</v>
+        <v>2426</v>
       </c>
       <c r="E622" s="1" t="s">
-        <v>2421</v>
-      </c>
-      <c r="F622" s="2" t="s">
-        <v>2422</v>
+        <v>2427</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>2428</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
-        <v>2423</v>
+        <v>2429</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>2423</v>
+        <v>2429</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>2424</v>
+        <v>2430</v>
       </c>
       <c r="D623" s="1" t="s">
-        <v>2425</v>
+        <v>2430</v>
       </c>
       <c r="E623" s="1" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="F623" s="1" t="s">
-        <v>2427</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>2429</v>
+        <v>2433</v>
       </c>
       <c r="D624" s="1" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="E624" s="1" t="s">
-        <v>2431</v>
+        <v>2435</v>
       </c>
       <c r="F624" s="1" t="s">
-        <v>2432</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>2434</v>
+        <v>2438</v>
       </c>
       <c r="D625" s="1" t="s">
-        <v>2435</v>
+        <v>2439</v>
       </c>
       <c r="E625" s="1" t="s">
-        <v>2436</v>
-      </c>
-      <c r="F625" s="1" t="s">
-        <v>2437</v>
+        <v>2440</v>
+      </c>
+      <c r="F625" s="2" t="s">
+        <v>2441</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>2439</v>
-      </c>
-      <c r="D626" s="2" t="s">
-        <v>2440</v>
+        <v>2443</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>2444</v>
       </c>
       <c r="E626" s="1" t="s">
-        <v>2441</v>
-      </c>
-      <c r="F626" s="1" t="s">
-        <v>2442</v>
+        <v>2445</v>
+      </c>
+      <c r="F626" s="2" t="s">
+        <v>2446</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>2443</v>
+        <v>2447</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>2443</v>
+        <v>2447</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>2444</v>
+        <v>2448</v>
       </c>
       <c r="D627" s="1" t="s">
-        <v>2445</v>
+        <v>2449</v>
       </c>
       <c r="E627" s="1" t="s">
-        <v>2444</v>
+        <v>2450</v>
       </c>
       <c r="F627" s="1" t="s">
-        <v>2445</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>2446</v>
+        <v>2452</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>2446</v>
+        <v>2452</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>2447</v>
+        <v>2453</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>2448</v>
+        <v>2454</v>
       </c>
       <c r="E628" s="1" t="s">
-        <v>2449</v>
+        <v>2455</v>
       </c>
       <c r="F628" s="1" t="s">
-        <v>2450</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>2451</v>
+        <v>2457</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>2451</v>
+        <v>2457</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>2452</v>
+        <v>2458</v>
       </c>
       <c r="D629" s="1" t="s">
-        <v>2453</v>
+        <v>2459</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>2454</v>
+        <v>2460</v>
       </c>
       <c r="F629" s="1" t="s">
-        <v>2455</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>2456</v>
+        <v>2462</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>2456</v>
+        <v>2462</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>2457</v>
-      </c>
-      <c r="D630" s="1" t="s">
-        <v>2458</v>
+        <v>2463</v>
+      </c>
+      <c r="D630" s="2" t="s">
+        <v>2464</v>
       </c>
       <c r="E630" s="1" t="s">
-        <v>2459</v>
+        <v>2465</v>
       </c>
       <c r="F630" s="1" t="s">
-        <v>2460</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
-        <v>2461</v>
+        <v>2467</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>2461</v>
+        <v>2467</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>2462</v>
+        <v>2468</v>
       </c>
       <c r="D631" s="1" t="s">
-        <v>2463</v>
+        <v>2469</v>
       </c>
       <c r="E631" s="1" t="s">
-        <v>2464</v>
+        <v>2468</v>
       </c>
       <c r="F631" s="1" t="s">
-        <v>2465</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>2468</v>
+        <v>2472</v>
       </c>
       <c r="E632" s="1" t="s">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="F632" s="1" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>2472</v>
+        <v>2476</v>
       </c>
       <c r="D633" s="1" t="s">
-        <v>2472</v>
+        <v>2477</v>
       </c>
       <c r="E633" s="1" t="s">
-        <v>2473</v>
+        <v>2478</v>
       </c>
       <c r="F633" s="1" t="s">
-        <v>2474</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
-        <v>2475</v>
+        <v>2480</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>2475</v>
+        <v>2480</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>2476</v>
+        <v>2481</v>
       </c>
       <c r="D634" s="1" t="s">
-        <v>2477</v>
+        <v>2482</v>
       </c>
       <c r="E634" s="1" t="s">
-        <v>2478</v>
+        <v>2483</v>
       </c>
       <c r="F634" s="1" t="s">
-        <v>2479</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>2480</v>
+        <v>2485</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>2480</v>
+        <v>2485</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>2481</v>
+        <v>2486</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>2482</v>
+        <v>2487</v>
       </c>
       <c r="E635" s="1" t="s">
-        <v>2483</v>
+        <v>2488</v>
       </c>
       <c r="F635" s="1" t="s">
-        <v>2484</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>2485</v>
+        <v>2490</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>2485</v>
+        <v>2490</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>2486</v>
+        <v>2491</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>2487</v>
+        <v>2492</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>2488</v>
+        <v>2493</v>
       </c>
       <c r="F636" s="1" t="s">
-        <v>2489</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
-        <v>2490</v>
+        <v>2495</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>2490</v>
+        <v>2495</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>2491</v>
+        <v>2496</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="E637" s="1" t="s">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="F637" s="1" t="s">
-        <v>2494</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>2495</v>
+        <v>2499</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>2495</v>
+        <v>2499</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>2497</v>
+        <v>2501</v>
       </c>
       <c r="E638" s="1" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="F638" s="1" t="s">
-        <v>2499</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>2501</v>
+        <v>2505</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>2502</v>
+        <v>2506</v>
       </c>
       <c r="E639" s="1" t="s">
-        <v>2503</v>
+        <v>2507</v>
       </c>
       <c r="F639" s="1" t="s">
-        <v>2504</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>2505</v>
+        <v>2509</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>2505</v>
+        <v>2509</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>2507</v>
+        <v>2511</v>
       </c>
       <c r="E640" s="1" t="s">
-        <v>2508</v>
+        <v>2512</v>
       </c>
       <c r="F640" s="1" t="s">
-        <v>2509</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
-        <v>2510</v>
+        <v>2514</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>2510</v>
+        <v>2514</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>2511</v>
-      </c>
-      <c r="D641" s="2" t="s">
-        <v>2512</v>
+        <v>2515</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>2516</v>
       </c>
       <c r="E641" s="1" t="s">
-        <v>2513</v>
+        <v>2517</v>
       </c>
       <c r="F641" s="1" t="s">
-        <v>2514</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>2515</v>
+        <v>2519</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>2515</v>
+        <v>2519</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>2517</v>
+        <v>2521</v>
       </c>
       <c r="E642" s="1" t="s">
-        <v>2518</v>
+        <v>2522</v>
       </c>
       <c r="F642" s="1" t="s">
-        <v>2519</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>2520</v>
+        <v>2524</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>2520</v>
+        <v>2524</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>2521</v>
-      </c>
-      <c r="D643" s="2" t="s">
-        <v>2522</v>
+        <v>2525</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>2526</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>2523</v>
+        <v>2527</v>
       </c>
       <c r="F643" s="1" t="s">
-        <v>2524</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
-        <v>2525</v>
+        <v>2529</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>2525</v>
+        <v>2529</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>2526</v>
+        <v>2530</v>
       </c>
       <c r="D644" s="1" t="s">
-        <v>2527</v>
+        <v>2531</v>
       </c>
       <c r="E644" s="1" t="s">
-        <v>2528</v>
+        <v>2532</v>
       </c>
       <c r="F644" s="1" t="s">
-        <v>2529</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>2530</v>
+        <v>2534</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>2530</v>
+        <v>2534</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="D645" s="1" t="s">
-        <v>2531</v>
+        <v>2535</v>
+      </c>
+      <c r="D645" s="2" t="s">
+        <v>2536</v>
       </c>
       <c r="E645" s="1" t="s">
-        <v>2532</v>
+        <v>2537</v>
       </c>
       <c r="F645" s="1" t="s">
-        <v>2533</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
-        <v>2534</v>
+        <v>2539</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>2534</v>
+        <v>2539</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>2535</v>
+        <v>2540</v>
       </c>
       <c r="D646" s="1" t="s">
-        <v>2536</v>
+        <v>2541</v>
       </c>
       <c r="E646" s="1" t="s">
-        <v>2537</v>
+        <v>2542</v>
       </c>
       <c r="F646" s="1" t="s">
-        <v>2538</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="s">
-        <v>2539</v>
+        <v>2544</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>2539</v>
+        <v>2544</v>
       </c>
       <c r="C647" s="1" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D647" s="1" t="s">
-        <v>2541</v>
+        <v>2545</v>
+      </c>
+      <c r="D647" s="2" t="s">
+        <v>2546</v>
       </c>
       <c r="E647" s="1" t="s">
-        <v>2542</v>
+        <v>2547</v>
       </c>
       <c r="F647" s="1" t="s">
-        <v>2543</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="s">
-        <v>2544</v>
+        <v>2549</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>2544</v>
+        <v>2549</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>2545</v>
+        <v>2550</v>
       </c>
       <c r="D648" s="1" t="s">
-        <v>2546</v>
+        <v>2551</v>
       </c>
       <c r="E648" s="1" t="s">
-        <v>2547</v>
+        <v>2552</v>
       </c>
       <c r="F648" s="1" t="s">
-        <v>2548</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>2549</v>
+        <v>2554</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>2549</v>
+        <v>2554</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>2550</v>
+        <v>2555</v>
       </c>
       <c r="D649" s="1" t="s">
-        <v>2551</v>
+        <v>2555</v>
       </c>
       <c r="E649" s="1" t="s">
-        <v>2552</v>
+        <v>2556</v>
       </c>
       <c r="F649" s="1" t="s">
-        <v>2553</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="s">
-        <v>2554</v>
+        <v>2558</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>2554</v>
+        <v>2558</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>2555</v>
+        <v>2559</v>
       </c>
       <c r="D650" s="1" t="s">
-        <v>2556</v>
+        <v>2560</v>
       </c>
       <c r="E650" s="1" t="s">
-        <v>2557</v>
+        <v>2561</v>
       </c>
       <c r="F650" s="1" t="s">
-        <v>2558</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="s">
-        <v>2559</v>
+        <v>2563</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>2559</v>
+        <v>2563</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>2560</v>
+        <v>2564</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>2561</v>
+        <v>2565</v>
       </c>
       <c r="E651" s="1" t="s">
-        <v>2559</v>
+        <v>2566</v>
       </c>
       <c r="F651" s="1" t="s">
-        <v>2562</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="s">
-        <v>2563</v>
+        <v>2568</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>2563</v>
+        <v>2568</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>2564</v>
+        <v>2569</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>2565</v>
+        <v>2570</v>
       </c>
       <c r="E652" s="1" t="s">
-        <v>2566</v>
+        <v>2571</v>
       </c>
       <c r="F652" s="1" t="s">
-        <v>2567</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
-        <v>2568</v>
+        <v>2573</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>2568</v>
+        <v>2573</v>
       </c>
       <c r="C653" s="1" t="s">
-        <v>2569</v>
+        <v>2574</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>2570</v>
+        <v>2575</v>
       </c>
       <c r="E653" s="1" t="s">
-        <v>2571</v>
+        <v>2576</v>
       </c>
       <c r="F653" s="1" t="s">
-        <v>2572</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="s">
-        <v>2573</v>
+        <v>2578</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>2573</v>
+        <v>2578</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>2574</v>
+        <v>2579</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>2575</v>
+        <v>2580</v>
       </c>
       <c r="E654" s="1" t="s">
-        <v>2576</v>
+        <v>2581</v>
       </c>
       <c r="F654" s="1" t="s">
-        <v>2577</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
-        <v>2578</v>
+        <v>2583</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>2578</v>
+        <v>2583</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>2579</v>
+        <v>2584</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>2580</v>
+        <v>2585</v>
       </c>
       <c r="E655" s="1" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="F655" s="1" t="s">
-        <v>2582</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="s">
-        <v>2583</v>
+        <v>2587</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>2583</v>
+        <v>2587</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>2585</v>
+        <v>2589</v>
       </c>
       <c r="E656" s="1" t="s">
-        <v>2586</v>
+        <v>2590</v>
       </c>
       <c r="F656" s="1" t="s">
-        <v>2587</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>2589</v>
+        <v>2593</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>2590</v>
+        <v>2594</v>
       </c>
       <c r="E657" s="1" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="F657" s="1" t="s">
-        <v>2592</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="s">
-        <v>2593</v>
+        <v>2597</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>2593</v>
+        <v>2597</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>2594</v>
+        <v>2598</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>2594</v>
+        <v>2599</v>
       </c>
       <c r="E658" s="1" t="s">
-        <v>2595</v>
-      </c>
-      <c r="F658" s="2" t="s">
-        <v>2596</v>
+        <v>2600</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>2601</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="s">
-        <v>2597</v>
+        <v>2602</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>2597</v>
+        <v>2602</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>2598</v>
+        <v>2603</v>
       </c>
       <c r="D659" s="1" t="s">
-        <v>2598</v>
+        <v>2604</v>
       </c>
       <c r="E659" s="1" t="s">
-        <v>2599</v>
+        <v>2605</v>
       </c>
       <c r="F659" s="1" t="s">
-        <v>2600</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
-        <v>2601</v>
+        <v>2607</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>2601</v>
+        <v>2607</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>2602</v>
+        <v>2608</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>2603</v>
+        <v>2609</v>
       </c>
       <c r="E660" s="1" t="s">
-        <v>2604</v>
-      </c>
-      <c r="F660" s="2" t="s">
-        <v>2605</v>
+        <v>2610</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>2611</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
-        <v>2606</v>
+        <v>2612</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>2606</v>
+        <v>2612</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>2607</v>
+        <v>2613</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>2608</v>
+        <v>2614</v>
       </c>
       <c r="E661" s="1" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>2610</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="s">
-        <v>2611</v>
+        <v>2617</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>2611</v>
+        <v>2617</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>2612</v>
+        <v>2618</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>2613</v>
+        <v>2618</v>
       </c>
       <c r="E662" s="1" t="s">
-        <v>2614</v>
-      </c>
-      <c r="F662" s="1" t="s">
-        <v>2615</v>
+        <v>2619</v>
+      </c>
+      <c r="F662" s="2" t="s">
+        <v>2620</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
-        <v>2616</v>
+        <v>2621</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>2616</v>
+        <v>2621</v>
       </c>
       <c r="C663" s="1" t="s">
-        <v>2617</v>
+        <v>2622</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="E663" s="1" t="s">
-        <v>2619</v>
-      </c>
-      <c r="F663" s="2" t="s">
-        <v>2620</v>
+        <v>2623</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>2624</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
       <c r="C664" s="1" t="s">
-        <v>2622</v>
+        <v>2626</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>2622</v>
+        <v>2627</v>
       </c>
       <c r="E664" s="1" t="s">
-        <v>2623</v>
-      </c>
-      <c r="F664" s="1" t="s">
-        <v>2624</v>
+        <v>2628</v>
+      </c>
+      <c r="F664" s="2" t="s">
+        <v>2629</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
-        <v>2625</v>
+        <v>2630</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>2625</v>
+        <v>2630</v>
       </c>
       <c r="C665" s="1" t="s">
-        <v>2626</v>
+        <v>2631</v>
       </c>
       <c r="D665" s="1" t="s">
-        <v>2627</v>
+        <v>2632</v>
       </c>
       <c r="E665" s="1" t="s">
-        <v>2628</v>
+        <v>2633</v>
       </c>
       <c r="F665" s="1" t="s">
-        <v>2629</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
-        <v>2630</v>
+        <v>2635</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>2630</v>
+        <v>2635</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>2631</v>
+        <v>2636</v>
       </c>
       <c r="D666" s="1" t="s">
-        <v>2632</v>
+        <v>2637</v>
       </c>
       <c r="E666" s="1" t="s">
-        <v>2633</v>
+        <v>2638</v>
       </c>
       <c r="F666" s="1" t="s">
-        <v>2634</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="s">
-        <v>2635</v>
+        <v>2640</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>2635</v>
+        <v>2640</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>2636</v>
+        <v>2641</v>
       </c>
       <c r="D667" s="1" t="s">
-        <v>2637</v>
+        <v>2642</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>2638</v>
+        <v>2643</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>2639</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="s">
-        <v>2640</v>
+        <v>2645</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>2640</v>
+        <v>2645</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>2641</v>
+        <v>2646</v>
       </c>
       <c r="D668" s="1" t="s">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>2643</v>
-      </c>
-      <c r="F668" s="2" t="s">
-        <v>2644</v>
+        <v>2647</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>2648</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
-        <v>2645</v>
+        <v>2649</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>2645</v>
+        <v>2649</v>
       </c>
       <c r="C669" s="1" t="s">
-        <v>2646</v>
+        <v>2650</v>
       </c>
       <c r="D669" s="1" t="s">
-        <v>2647</v>
+        <v>2651</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>2649</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="s">
-        <v>2650</v>
+        <v>2654</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>2650</v>
+        <v>2654</v>
       </c>
       <c r="C670" s="1" t="s">
-        <v>2651</v>
+        <v>2655</v>
       </c>
       <c r="D670" s="1" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="E670" s="1" t="s">
-        <v>2653</v>
+        <v>2657</v>
       </c>
       <c r="F670" s="1" t="s">
-        <v>2654</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="C671" s="1" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="E671" s="1" t="s">
-        <v>2658</v>
-      </c>
-      <c r="F671" s="1" t="s">
-        <v>2659</v>
+        <v>2662</v>
+      </c>
+      <c r="F671" s="2" t="s">
+        <v>2663</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="D672" s="1" t="s">
-        <v>2662</v>
+        <v>2666</v>
       </c>
       <c r="E672" s="1" t="s">
-        <v>2663</v>
-      </c>
-      <c r="F672" s="1" t="s">
-        <v>2664</v>
+        <v>2667</v>
+      </c>
+      <c r="F672" s="2" t="s">
+        <v>2668</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="D673" s="1" t="s">
-        <v>2666</v>
+        <v>2671</v>
       </c>
       <c r="E673" s="1" t="s">
-        <v>2667</v>
+        <v>2672</v>
       </c>
       <c r="F673" s="1" t="s">
-        <v>2668</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="s">
-        <v>2669</v>
+        <v>2674</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>2669</v>
+        <v>2674</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>2670</v>
+        <v>2675</v>
       </c>
       <c r="D674" s="1" t="s">
-        <v>2671</v>
+        <v>2676</v>
       </c>
       <c r="E674" s="1" t="s">
-        <v>2672</v>
-      </c>
-      <c r="F674" s="2" t="s">
-        <v>2673</v>
+        <v>2677</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>2678</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="s">
-        <v>2674</v>
+        <v>2679</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>2674</v>
+        <v>2679</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>2675</v>
+        <v>2680</v>
       </c>
       <c r="D675" s="1" t="s">
-        <v>2676</v>
+        <v>2681</v>
       </c>
       <c r="E675" s="1" t="s">
-        <v>2677</v>
+        <v>2682</v>
       </c>
       <c r="F675" s="1" t="s">
-        <v>2678</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="s">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>2679</v>
+        <v>2684</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>2680</v>
+        <v>2685</v>
       </c>
       <c r="D676" s="1" t="s">
-        <v>2680</v>
+        <v>2686</v>
       </c>
       <c r="E676" s="1" t="s">
-        <v>2681</v>
-      </c>
-      <c r="F676" s="2" t="s">
-        <v>2682</v>
+        <v>2687</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>2688</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="s">
-        <v>2683</v>
+        <v>2689</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>2683</v>
+        <v>2689</v>
       </c>
       <c r="C677" s="1" t="s">
-        <v>2684</v>
+        <v>2690</v>
       </c>
       <c r="D677" s="1" t="s">
-        <v>2685</v>
+        <v>2690</v>
       </c>
       <c r="E677" s="1" t="s">
-        <v>2686</v>
+        <v>2691</v>
       </c>
       <c r="F677" s="1" t="s">
-        <v>2687</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="s">
-        <v>2688</v>
+        <v>2693</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>2688</v>
+        <v>2693</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>2689</v>
+        <v>2694</v>
       </c>
       <c r="D678" s="1" t="s">
-        <v>2690</v>
+        <v>2695</v>
       </c>
       <c r="E678" s="1" t="s">
-        <v>2691</v>
-      </c>
-      <c r="F678" s="1" t="s">
-        <v>2692</v>
+        <v>2696</v>
+      </c>
+      <c r="F678" s="2" t="s">
+        <v>2697</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="s">
-        <v>2693</v>
+        <v>2698</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>2693</v>
+        <v>2698</v>
       </c>
       <c r="C679" s="1" t="s">
-        <v>2694</v>
+        <v>2699</v>
       </c>
       <c r="D679" s="1" t="s">
-        <v>2695</v>
+        <v>2700</v>
       </c>
       <c r="E679" s="1" t="s">
-        <v>2696</v>
+        <v>2701</v>
       </c>
       <c r="F679" s="1" t="s">
-        <v>2697</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="s">
-        <v>2698</v>
+        <v>2703</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>2698</v>
+        <v>2703</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>2699</v>
+        <v>2704</v>
       </c>
       <c r="D680" s="1" t="s">
-        <v>2700</v>
+        <v>2704</v>
       </c>
       <c r="E680" s="1" t="s">
-        <v>2701</v>
+        <v>2705</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>2702</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="s">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="C681" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="D681" s="2" t="s">
-        <v>2705</v>
+        <v>2708</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>2709</v>
       </c>
       <c r="E681" s="1" t="s">
-        <v>2706</v>
+        <v>2710</v>
       </c>
       <c r="F681" s="1" t="s">
-        <v>2707</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="s">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
       <c r="D682" s="1" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="E682" s="1" t="s">
-        <v>2711</v>
+        <v>2715</v>
       </c>
       <c r="F682" s="1" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="D683" s="1" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="E683" s="1" t="s">
-        <v>2716</v>
+        <v>2720</v>
       </c>
       <c r="F683" s="1" t="s">
-        <v>2717</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="s">
-        <v>2718</v>
+        <v>2722</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>2718</v>
+        <v>2722</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>2719</v>
-      </c>
-      <c r="D684" s="2" t="s">
-        <v>2720</v>
+        <v>2723</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>2724</v>
       </c>
       <c r="E684" s="1" t="s">
-        <v>2721</v>
+        <v>2725</v>
       </c>
       <c r="F684" s="2" t="s">
-        <v>2722</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="C685" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="D685" s="1" t="s">
-        <v>2725</v>
+        <v>2728</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>2729</v>
       </c>
       <c r="E685" s="1" t="s">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="F685" s="1" t="s">
-        <v>2727</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>2729</v>
+        <v>2733</v>
       </c>
       <c r="D686" s="1" t="s">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="E686" s="1" t="s">
-        <v>2731</v>
+        <v>2735</v>
       </c>
       <c r="F686" s="1" t="s">
-        <v>2732</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
       <c r="C687" s="1" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="D687" s="1" t="s">
-        <v>2735</v>
+        <v>2739</v>
       </c>
       <c r="E687" s="1" t="s">
-        <v>2736</v>
-      </c>
-      <c r="F687" s="2" t="s">
-        <v>2737</v>
+        <v>2740</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>2741</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="s">
-        <v>2738</v>
+        <v>2742</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>2738</v>
+        <v>2742</v>
       </c>
       <c r="C688" s="1" t="s">
-        <v>2739</v>
-      </c>
-      <c r="D688" s="1" t="s">
-        <v>2740</v>
+        <v>2743</v>
+      </c>
+      <c r="D688" s="2" t="s">
+        <v>2744</v>
       </c>
       <c r="E688" s="1" t="s">
-        <v>2741</v>
-      </c>
-      <c r="F688" s="1" t="s">
-        <v>2742</v>
+        <v>2745</v>
+      </c>
+      <c r="F688" s="2" t="s">
+        <v>2746</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
-        <v>2743</v>
+        <v>2747</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>2743</v>
+        <v>2747</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>2744</v>
+        <v>2748</v>
       </c>
       <c r="D689" s="1" t="s">
-        <v>2745</v>
+        <v>2749</v>
       </c>
       <c r="E689" s="1" t="s">
-        <v>2746</v>
+        <v>2750</v>
       </c>
       <c r="F689" s="1" t="s">
-        <v>2747</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="s">
-        <v>2748</v>
+        <v>2752</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>2748</v>
+        <v>2752</v>
       </c>
       <c r="C690" s="1" t="s">
-        <v>2749</v>
-      </c>
-      <c r="D690" s="2" t="s">
-        <v>2750</v>
+        <v>2753</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>2754</v>
       </c>
       <c r="E690" s="1" t="s">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="F690" s="1" t="s">
-        <v>2752</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="s">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>2754</v>
-      </c>
-      <c r="D691" s="2" t="s">
-        <v>2755</v>
+        <v>2758</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>2759</v>
       </c>
       <c r="E691" s="1" t="s">
-        <v>2756</v>
-      </c>
-      <c r="F691" s="1" t="s">
-        <v>2757</v>
+        <v>2760</v>
+      </c>
+      <c r="F691" s="2" t="s">
+        <v>2761</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="s">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="D692" s="1" t="s">
-        <v>2760</v>
+        <v>2764</v>
       </c>
       <c r="E692" s="1" t="s">
-        <v>2761</v>
+        <v>2765</v>
       </c>
       <c r="F692" s="1" t="s">
-        <v>2762</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="s">
-        <v>2763</v>
+        <v>2767</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>2763</v>
+        <v>2767</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>2764</v>
+        <v>2768</v>
       </c>
       <c r="D693" s="1" t="s">
-        <v>2765</v>
+        <v>2769</v>
       </c>
       <c r="E693" s="1" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="F693" s="1" t="s">
-        <v>2767</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="s">
-        <v>2768</v>
+        <v>2772</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>2768</v>
+        <v>2772</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>2769</v>
-      </c>
-      <c r="D694" s="1" t="s">
-        <v>2770</v>
+        <v>2773</v>
+      </c>
+      <c r="D694" s="2" t="s">
+        <v>2774</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>2771</v>
+        <v>2775</v>
       </c>
       <c r="F694" s="1" t="s">
-        <v>2772</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
-        <v>2773</v>
+        <v>2777</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>2773</v>
+        <v>2777</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>2774</v>
-      </c>
-      <c r="D695" s="1" t="s">
-        <v>2775</v>
+        <v>2778</v>
+      </c>
+      <c r="D695" s="2" t="s">
+        <v>2779</v>
       </c>
       <c r="E695" s="1" t="s">
-        <v>2776</v>
+        <v>2780</v>
       </c>
       <c r="F695" s="1" t="s">
-        <v>2777</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="s">
-        <v>2778</v>
+        <v>2782</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>2778</v>
+        <v>2782</v>
       </c>
       <c r="C696" s="1" t="s">
-        <v>2779</v>
+        <v>2783</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>2780</v>
+        <v>2784</v>
       </c>
       <c r="E696" s="1" t="s">
-        <v>2781</v>
+        <v>2785</v>
       </c>
       <c r="F696" s="1" t="s">
-        <v>2782</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="s">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>2784</v>
+        <v>2788</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>2785</v>
+        <v>2789</v>
       </c>
       <c r="E697" s="1" t="s">
-        <v>2786</v>
+        <v>2790</v>
       </c>
       <c r="F697" s="1" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="s">
-        <v>2788</v>
+        <v>2792</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>2788</v>
+        <v>2792</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
       <c r="F698" s="1" t="s">
-        <v>2792</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>2794</v>
+        <v>2798</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="E699" s="1" t="s">
-        <v>2793</v>
+        <v>2800</v>
       </c>
       <c r="F699" s="1" t="s">
-        <v>2796</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="s">
-        <v>2797</v>
+        <v>2802</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>2797</v>
+        <v>2802</v>
       </c>
       <c r="C700" s="1" t="s">
-        <v>2798</v>
+        <v>2803</v>
       </c>
       <c r="D700" s="1" t="s">
-        <v>2799</v>
+        <v>2804</v>
       </c>
       <c r="E700" s="1" t="s">
-        <v>2800</v>
+        <v>2805</v>
       </c>
       <c r="F700" s="1" t="s">
-        <v>2801</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="s">
-        <v>2802</v>
+        <v>2807</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>2802</v>
+        <v>2807</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>2803</v>
+        <v>2808</v>
       </c>
       <c r="D701" s="1" t="s">
-        <v>2804</v>
+        <v>2809</v>
       </c>
       <c r="E701" s="1" t="s">
-        <v>2805</v>
+        <v>2810</v>
       </c>
       <c r="F701" s="1" t="s">
-        <v>2806</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="s">
-        <v>2807</v>
+        <v>2812</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>2807</v>
+        <v>2812</v>
       </c>
       <c r="C702" s="1" t="s">
-        <v>2808</v>
+        <v>2813</v>
       </c>
       <c r="D702" s="1" t="s">
-        <v>2809</v>
+        <v>2814</v>
       </c>
       <c r="E702" s="1" t="s">
-        <v>2810</v>
+        <v>2815</v>
       </c>
       <c r="F702" s="1" t="s">
-        <v>2811</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="s">
-        <v>2812</v>
+        <v>2817</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>2812</v>
+        <v>2817</v>
       </c>
       <c r="C703" s="1" t="s">
-        <v>2813</v>
+        <v>2818</v>
       </c>
       <c r="D703" s="1" t="s">
-        <v>2814</v>
+        <v>2819</v>
       </c>
       <c r="E703" s="1" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="F703" s="1" t="s">
-        <v>2816</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="1" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B704" s="2" t="s">
-        <v>2817</v>
-      </c>
-      <c r="C704" s="2" t="s">
-        <v>2818</v>
-      </c>
-      <c r="D704" s="3" t="s">
-        <v>2819</v>
+        <v>2821</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>2823</v>
       </c>
       <c r="E704" s="1" t="s">
-        <v>2820</v>
-      </c>
-      <c r="F704" s="2" t="s">
-        <v>2821</v>
+        <v>2824</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>2825</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="3" t="s">
-        <v>2822</v>
+      <c r="A705" s="1" t="s">
+        <v>2826</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>2822</v>
+        <v>2826</v>
       </c>
       <c r="C705" s="1" t="s">
-        <v>2823</v>
+        <v>2827</v>
       </c>
       <c r="D705" s="1" t="s">
-        <v>2824</v>
+        <v>2828</v>
       </c>
       <c r="E705" s="1" t="s">
-        <v>2825</v>
-      </c>
-      <c r="F705" s="2" t="s">
-        <v>2826</v>
-      </c>
-    </row>
-    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="3" t="s">
-        <v>2827</v>
+        <v>2829</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="1" t="s">
+        <v>2831</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="C706" s="1" t="s">
-        <v>2828</v>
+        <v>2832</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>2829</v>
+        <v>2833</v>
       </c>
       <c r="E706" s="1" t="s">
-        <v>2830</v>
-      </c>
-      <c r="F706" s="2" t="s">
-        <v>2831</v>
+        <v>2834</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>2835</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="C707" s="1" t="s">
-        <v>2833</v>
+        <v>2837</v>
       </c>
       <c r="D707" s="1" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="E707" s="1" t="s">
-        <v>2835</v>
-      </c>
-      <c r="F707" s="2" t="s">
-        <v>2836</v>
+        <v>2839</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>2840</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="D708" s="3" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="E708" s="1" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="F708" s="2" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="3" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="C709" s="1" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="D709" s="1" t="s">
-        <v>2843</v>
+        <v>2848</v>
       </c>
       <c r="E709" s="1" t="s">
-        <v>2844</v>
+        <v>2849</v>
       </c>
       <c r="F709" s="2" t="s">
-        <v>2843</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="3" t="s">
-        <v>2845</v>
+        <v>2851</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>2845</v>
+        <v>2851</v>
       </c>
       <c r="C710" s="1" t="s">
-        <v>2846</v>
+        <v>2852</v>
       </c>
       <c r="D710" s="1" t="s">
-        <v>2847</v>
+        <v>2853</v>
       </c>
       <c r="E710" s="1" t="s">
-        <v>2848</v>
+        <v>2854</v>
       </c>
       <c r="F710" s="2" t="s">
-        <v>2849</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="s">
-        <v>2850</v>
+        <v>2856</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>2850</v>
+        <v>2856</v>
       </c>
       <c r="C711" s="1" t="s">
-        <v>2851</v>
+        <v>2857</v>
       </c>
       <c r="D711" s="1" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="E711" s="1" t="s">
-        <v>2850</v>
+        <v>2859</v>
       </c>
       <c r="F711" s="2" t="s">
-        <v>2853</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="s">
-        <v>2854</v>
-      </c>
-      <c r="B712" s="1" t="s">
-        <v>2855</v>
-      </c>
-      <c r="C712" s="1" t="s">
-        <v>2856</v>
-      </c>
-      <c r="D712" s="1" t="s">
-        <v>2857</v>
+        <v>2861</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D712" s="3" t="s">
+        <v>2863</v>
       </c>
       <c r="E712" s="1" t="s">
-        <v>2858</v>
+        <v>2864</v>
       </c>
       <c r="F712" s="2" t="s">
-        <v>2859</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="1" t="s">
-        <v>2860</v>
+      <c r="A713" s="3" t="s">
+        <v>2866</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>2861</v>
+        <v>2866</v>
       </c>
       <c r="C713" s="1" t="s">
-        <v>2862</v>
+        <v>2867</v>
       </c>
       <c r="D713" s="1" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="E713" s="1" t="s">
-        <v>2864</v>
-      </c>
-      <c r="F713" s="1" t="s">
-        <v>2865</v>
-      </c>
-    </row>
-    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="1" t="s">
-        <v>2866</v>
+        <v>2868</v>
+      </c>
+      <c r="F713" s="2" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="3" t="s">
+        <v>2869</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="C714" s="1" t="s">
-        <v>2868</v>
+        <v>2870</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>2871</v>
       </c>
       <c r="E714" s="1" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2872</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
       <c r="C715" s="1" t="s">
-        <v>2871</v>
-      </c>
-      <c r="D715" s="5" t="s">
-        <v>2872</v>
+        <v>2875</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>2876</v>
       </c>
       <c r="E715" s="1" t="s">
-        <v>2873</v>
-      </c>
-      <c r="F715" s="1" t="s">
         <v>2874</v>
+      </c>
+      <c r="F715" s="2" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F716" s="2" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>2889</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="s">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2890</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="s">
-        <v>2876</v>
+        <v>2894</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>2876</v>
+        <v>2894</v>
       </c>
       <c r="C719" s="1" t="s">
-        <v>2877</v>
-      </c>
-      <c r="D719" s="1" t="s">
-        <v>2878</v>
+        <v>2895</v>
+      </c>
+      <c r="D719" s="5" t="s">
+        <v>2896</v>
       </c>
       <c r="E719" s="1" t="s">
-        <v>2879</v>
+        <v>2897</v>
       </c>
       <c r="F719" s="1" t="s">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="1" t="s">
-        <v>2881</v>
-      </c>
-      <c r="B720" s="1" t="s">
-        <v>2881</v>
-      </c>
-      <c r="C720" s="1" t="s">
-        <v>2882</v>
-      </c>
-      <c r="D720" s="1" t="s">
-        <v>2883</v>
-      </c>
-      <c r="E720" s="1" t="s">
-        <v>2884</v>
-      </c>
-      <c r="F720" s="1" t="s">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="1" t="s">
-        <v>2886</v>
-      </c>
-      <c r="B721" s="1" t="s">
-        <v>2886</v>
-      </c>
-      <c r="C721" s="1" t="s">
-        <v>2887</v>
-      </c>
-      <c r="D721" s="1" t="s">
-        <v>2888</v>
-      </c>
-      <c r="E721" s="1" t="s">
-        <v>2889</v>
-      </c>
-      <c r="F721" s="1" t="s">
-        <v>2890</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B722" s="1" t="s">
-        <v>2891</v>
-      </c>
-      <c r="C722" s="1" t="s">
-        <v>2892</v>
-      </c>
-      <c r="D722" s="1" t="s">
-        <v>2893</v>
-      </c>
-      <c r="E722" s="1" t="s">
-        <v>2894</v>
-      </c>
-      <c r="F722" s="1" t="s">
-        <v>2895</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="s">
-        <v>2896</v>
+        <v>2900</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>2896</v>
+        <v>2900</v>
       </c>
       <c r="C723" s="1" t="s">
-        <v>2897</v>
+        <v>2901</v>
       </c>
       <c r="D723" s="1" t="s">
-        <v>2898</v>
+        <v>2902</v>
       </c>
       <c r="E723" s="1" t="s">
-        <v>2899</v>
+        <v>2903</v>
       </c>
       <c r="F723" s="1" t="s">
-        <v>2900</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="s">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="C724" s="1" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
       <c r="D724" s="1" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="E724" s="1" t="s">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="F724" s="1" t="s">
-        <v>2905</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="C725" s="1" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="D725" s="1" t="s">
-        <v>2908</v>
+        <v>2912</v>
       </c>
       <c r="E725" s="1" t="s">
-        <v>2909</v>
+        <v>2913</v>
       </c>
       <c r="F725" s="1" t="s">
-        <v>2910</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
-        <v>2911</v>
+        <v>2915</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>2911</v>
+        <v>2915</v>
       </c>
       <c r="C726" s="1" t="s">
-        <v>2912</v>
+        <v>2916</v>
       </c>
       <c r="D726" s="1" t="s">
-        <v>2913</v>
+        <v>2917</v>
       </c>
       <c r="E726" s="1" t="s">
-        <v>2914</v>
+        <v>2918</v>
       </c>
       <c r="F726" s="1" t="s">
-        <v>2915</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="1" t="s">
-        <v>2916</v>
+        <v>2920</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>2916</v>
+        <v>2920</v>
       </c>
       <c r="C727" s="1" t="s">
-        <v>2917</v>
+        <v>2921</v>
       </c>
       <c r="D727" s="1" t="s">
-        <v>2918</v>
+        <v>2922</v>
       </c>
       <c r="E727" s="1" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="F727" s="1" t="s">
-        <v>2920</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="s">
-        <v>2921</v>
+        <v>2925</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>2921</v>
+        <v>2925</v>
       </c>
       <c r="C728" s="1" t="s">
-        <v>2922</v>
+        <v>2926</v>
       </c>
       <c r="D728" s="1" t="s">
-        <v>2923</v>
+        <v>2927</v>
       </c>
       <c r="E728" s="1" t="s">
-        <v>2924</v>
+        <v>2928</v>
       </c>
       <c r="F728" s="1" t="s">
-        <v>2925</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="1" t="s">
-        <v>2926</v>
+        <v>2930</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>2926</v>
+        <v>2930</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>2927</v>
+        <v>2931</v>
       </c>
       <c r="D729" s="1" t="s">
-        <v>2928</v>
+        <v>2932</v>
       </c>
       <c r="E729" s="1" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
       <c r="F729" s="1" t="s">
-        <v>2930</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="1" t="s">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="C730" s="1" t="s">
-        <v>2932</v>
+        <v>2936</v>
       </c>
       <c r="D730" s="1" t="s">
-        <v>2933</v>
+        <v>2937</v>
       </c>
       <c r="E730" s="1" t="s">
-        <v>2934</v>
+        <v>2938</v>
       </c>
       <c r="F730" s="1" t="s">
-        <v>2935</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="1" t="s">
-        <v>2936</v>
+        <v>2940</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>2936</v>
+        <v>2940</v>
       </c>
       <c r="C731" s="1" t="s">
-        <v>2937</v>
+        <v>2941</v>
       </c>
       <c r="D731" s="1" t="s">
-        <v>2938</v>
+        <v>2942</v>
       </c>
       <c r="E731" s="1" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="F731" s="1" t="s">
-        <v>2940</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="1" t="s">
-        <v>2941</v>
+        <v>2945</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>2941</v>
+        <v>2945</v>
       </c>
       <c r="C732" s="1" t="s">
-        <v>2942</v>
+        <v>2946</v>
       </c>
       <c r="D732" s="1" t="s">
-        <v>2943</v>
+        <v>2947</v>
       </c>
       <c r="E732" s="1" t="s">
-        <v>2944</v>
+        <v>2948</v>
       </c>
       <c r="F732" s="1" t="s">
-        <v>2945</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="1" t="s">
-        <v>2946</v>
+        <v>2950</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>2946</v>
+        <v>2950</v>
       </c>
       <c r="C733" s="1" t="s">
-        <v>2947</v>
+        <v>2951</v>
       </c>
       <c r="D733" s="1" t="s">
-        <v>2948</v>
-      </c>
-      <c r="E733" s="2" t="s">
-        <v>2949</v>
+        <v>2952</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>2953</v>
       </c>
       <c r="F733" s="1" t="s">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="s">
-        <v>2951</v>
+        <v>2955</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="C734" s="5" t="s">
-        <v>2952</v>
+        <v>2955</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>2956</v>
       </c>
       <c r="D734" s="1" t="s">
-        <v>2953</v>
+        <v>2957</v>
       </c>
       <c r="E734" s="1" t="s">
-        <v>2954</v>
+        <v>2958</v>
       </c>
       <c r="F734" s="1" t="s">
-        <v>2955</v>
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A735" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E735" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="F735" s="1" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A736" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E736" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="F736" s="1" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A737" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="E737" s="2" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F737" s="1" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A738" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C738" s="5" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E738" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F738" s="1" t="s">
+        <v>2979</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/data-raw/su_translations.xlsx
+++ b/data-raw/su_translations.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5497" uniqueCount="4028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5599" uniqueCount="4123">
   <si>
     <t xml:space="preserve">@ note: comments are marked with @ and sections are marked with @@</t>
   </si>
@@ -7090,22 +7090,22 @@
     <t xml:space="preserve">teamrep_attack_intro</t>
   </si>
   <si>
-    <t xml:space="preserve">This section gives an indication of the contribution that middles make to their team in attack. The values given here are for *team* attack outcomes when the middle player in question is front row. They are based on attacks by all players on the team, not the just the attacks of the middle player in question. See the key at the end of this report for a full explanation of the columns, but briefly `rec att` is reception attack, `att%` is attack kill percentage, `R#+` is perfect or good reception, `trans att` is transition attack, and `BP` is breakpoint phase (the team is serving)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phần này cho biết chỉ số về đóng góp của các PC cho đội khi tấn công. Các con số ở đây là kết quả tấn công của *đội* khi PC ở hàng trên. Các số này dựa trên tấn công của cả đội, chứ không chỉ riêng tấn công của PC đấy. Xem chú thích ở cuối báo cáo này để biết giải thích đầy đủ về các cột, nhưng tóm tắt lại, `rec att` là tấn công khi nhận bóng, `att%` là tỷ lệ tấn công ghi điểm, `R#+` là b1 hoàn hảo hoặc tốt, `trans att` là tấn công khi chuyển tiếp, và `BP` là giai đoạn breakpoint (đội đang giao bóng)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essa seção dá uma indicação da contribuição que os centrais dão à sua equipe no ataque. Os valores mostrados aqui são o resultado do desempenho de ataque da *equipe* quando o central em questão está em primeira linha. Eles são baseados em ataques de todos os jogadores da equipe, não somente do central indicado. Verifique a legenda no fim desse relatório para a explicação detalhada das colunas, mas resumidamente `atq rec` é o ataque da recepção, `att%` é a porcentagem de ataques pontuados, `R#+` são as recepções perfeitas e positivas, `ctatq` é o contra-ataque, e `BP` é a fase do breakpoint (quando a equipe está sacando)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esta sección da una indicación de la contribución que hacen los centrales a su equipo en ataque. Los valores dados aquí son para el resultado del ataque del *equipo* cuando el central en  cuestión es primera línea. Se basan en los ataques de todos los jugadores del equipo, no solo los ataques de dicho central. Mirar la leyenda al final de este informe para una explicación más detallada de las columnas, pero brevemente `at rec` es ataque tras recepción, `% at` es porcentaje de ataque punto, `R#+` es recepción perfecta o positiva, `contraat` es contraataque, y `BP` es fase breakpoint (el equipo está sacando)</t>
+    <t xml:space="preserve">This section gives an indication of the contribution that middles make to their team in attack. The values given here are for *team* attack outcomes when the middle player in question is front row. They are based on attacks by all players on the team, not the just the attacks of the middle player in question. See the key at the end of this report for a full explanation of the columns, but briefly `rec att` is reception attack, `att%` is attack kill percentage, `R#+` is perfect or good reception, `trans att` is transition attack, and `BP` is breakpoint phase (the team is serving).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phần này cho biết chỉ số về đóng góp của các PC cho đội khi tấn công. Các con số ở đây là kết quả tấn công của *đội* khi PC ở hàng trên. Các số này dựa trên tấn công của cả đội, chứ không chỉ riêng tấn công của PC đấy. Xem chú thích ở cuối báo cáo này để biết giải thích đầy đủ về các cột, nhưng tóm tắt lại, `rec att` là tấn công khi nhận bóng, `att%` là tỷ lệ tấn công ghi điểm, `R#+` là b1 hoàn hảo hoặc tốt, `trans att` là tấn công khi chuyển tiếp, và `BP` là giai đoạn breakpoint (đội đang giao bóng).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essa seção dá uma indicação da contribuição que os centrais dão à sua equipe no ataque. Os valores mostrados aqui são o resultado do desempenho de ataque da *equipe* quando o central em questão está em primeira linha. Eles são baseados em ataques de todos os jogadores da equipe, não somente do central indicado. Verifique a legenda no fim desse relatório para a explicação detalhada das colunas, mas resumidamente `atq rec` é o ataque da recepção, `att%` é a porcentagem de ataques pontuados, `R#+` são as recepções perfeitas e positivas, `ctatq` é o contra-ataque, e `BP` é a fase do breakpoint (quando a equipe está sacando).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta sección da una indicación de la contribución que hacen los centrales a su equipo en ataque. Los valores dados aquí son para el resultado del ataque del *equipo* cuando el central en  cuestión es primera línea. Se basan en los ataques de todos los jugadores del equipo, no solo los ataques de dicho central. Mirar la leyenda al final de este informe para una explicación más detallada de las columnas, pero brevemente `at rec` es ataque tras recepción, `% at` es porcentaje de ataque punto, `R#+` es recepción perfecta o positiva, `contraat` es contraataque, y `BP` es fase breakpoint (el equipo está sacando).</t>
   </si>
   <si>
     <t xml:space="preserve">Cette catégorie donne une indication sur la contribution des centraux quand ils attaquent. Les valeurs données ici sont pour le résultat d’attaque de *l’équipe* quand le central en question est avant. C’est basé sur les attaques de tous les joueurs de l’équipe, pas que sur les attaques du central en question. Voir le lexique à la fin de ce compte-rendu pour une explication des colones, mais en bref 'rec att' est la réception attaquée, 'att%' est le % de point marqués a l’attaque, 'R#+' est une réception parfaite ou bonne, 'trans att' est la transition d’attaque, et 'BP' est la phase de breakpoint (quand l’équipe sert).</t>
   </si>
   <si>
-    <t xml:space="preserve">Questa sezione fornisce un'idea del contributo che i centrali danno alla propria squadra in attacco. I valori indicati sono i risultati in attacco della squadra quando il centrale in questione è in prima linea. Si basano sugli attacchi di tutti i giocatori della squadra, non solo gli attacchi del centrale in questione. Vedere la legenda alla fine di questo rapporto per ulteriori spiegazioni delle colonne, ma brevemente, `att ric` è l'attacco sulla ricezione, `att%` è il percentuale di attacchi vincenti, `R#+` è la ricezione perfetta o positiva, `aontratt` è il contrattacco, e `BP` e la fase breakpoint (la squadra è al servizio)</t>
+    <t xml:space="preserve">Questa sezione fornisce un'idea del contributo che i centrali danno alla propria squadra in attacco. I valori indicati sono i risultati in attacco della squadra quando il centrale in questione è in prima linea. Si basano sugli attacchi di tutti i giocatori della squadra, non solo gli attacchi del centrale in questione. Vedere la legenda alla fine di questo rapporto per ulteriori spiegazioni delle colonne, ma brevemente, `att ric` è l'attacco sulla ricezione, `att%` è il percentuale di attacchi vincenti, `R#+` è la ricezione perfetta o positiva, `aontratt` è il contrattacco, e `BP` e la fase breakpoint (la squadra è al servizio).</t>
   </si>
   <si>
     <t xml:space="preserve">Only attackers with at least ([[:digit:]]+) attacks in total are shown in this section</t>
@@ -11110,6 +11110,9 @@
     <t xml:space="preserve">Sorry, something went wrong. If this error persists, please let us know so that we can fix it!</t>
   </si>
   <si>
+    <t xml:space="preserve">Désolé, une erreur s'est produite. Si l'erreur persiste, merci de nous le signaler afin que nous puissions la corriger!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Choose report type:</t>
   </si>
   <si>
@@ -11185,12 +11188,21 @@
     <t xml:space="preserve">Plot into which court half?</t>
   </si>
   <si>
+    <t xml:space="preserve">Quelle partie du court doit etre utilisee?</t>
+  </si>
+  <si>
     <t xml:space="preserve">lower</t>
   </si>
   <si>
+    <t xml:space="preserve">partie basse</t>
+  </si>
+  <si>
     <t xml:space="preserve">upper</t>
   </si>
   <si>
+    <t xml:space="preserve">partie haute</t>
+  </si>
+  <si>
     <t xml:space="preserve">include which serves in plots</t>
   </si>
   <si>
@@ -11230,42 +11242,72 @@
     <t xml:space="preserve">Exclude negative reception from repetition analysis?</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclure les réceptions négative de l’analyse de répétition?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exclude highball attacks from repetition analysis?</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclure les balles hautes de l’analyse de répétition?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attack charts will be separated by attack codes (X5, V6, etc)</t>
   </si>
   <si>
+    <t xml:space="preserve">Les graphiques d'attaque seront séparés par codes d'attaque (X5, V6, etc)</t>
+  </si>
+  <si>
     <t xml:space="preserve">@ e.g. ‘plots shown hard hits but not tips’</t>
   </si>
   <si>
     <t xml:space="preserve">plots show</t>
   </si>
   <si>
+    <t xml:space="preserve">les graphiques affichent</t>
+  </si>
+  <si>
     <t xml:space="preserve">but not</t>
   </si>
   <si>
+    <t xml:space="preserve">mais pas</t>
+  </si>
+  <si>
     <t xml:space="preserve">@ e.g. ‘hard hits are shown but not tips’</t>
   </si>
   <si>
     <t xml:space="preserve">are shown</t>
   </si>
   <si>
+    <t xml:space="preserve">sont affiches</t>
+  </si>
+  <si>
     <t xml:space="preserve">the summary statistics above each plot relate to all attacks (of that attack code) by that player, which could be more than the ones shown in the plot</t>
   </si>
   <si>
+    <t xml:space="preserve">les statistiques récapitulatives au-dessus de chaque graphique concernent toutes les attaques (de ce code d'attaque) de ce joueur, qui pourraient être plus nombreuses que celles indiquées dans le tracé</t>
+  </si>
+  <si>
     <t xml:space="preserve">Block control (recycled)</t>
   </si>
   <si>
+    <t xml:space="preserve">Balle rejouee</t>
+  </si>
+  <si>
     <t xml:space="preserve">@ show at least this many attack codes in the attacking/blocking sections</t>
   </si>
   <si>
     <t xml:space="preserve">Attack code minimum number:</t>
   </si>
   <si>
+    <t xml:space="preserve">Nomber d’attaques minimum:</t>
+  </si>
+  <si>
     <t xml:space="preserve">This minimum threshold will be used to identify the attack codes to focus on in the detailed attack charts. An individual player's attack charts will include the attack codes that the player made at least this minimum number of times. Other attack codes might be shown in some sections. To increase the number of attack codes shown in the reports, make this minimum threshold lower.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ce seuil minimum servira à identifier les codes d'attaque à privilégier dans les tableaux d'attaque détaillés. Les tableaux d'attaque d'un joueur incluront les codes d'attaque qu'il a exécutés au moins ce nombre minimum de fois. D'autres codes d'attaque peuvent être affichés dans certaines sections. Pour augmenter le nombre de codes d'attaque affichés dans les rapports, abaissez ce seuil minimum.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Player positions</t>
   </si>
   <si>
@@ -11287,15 +11329,27 @@
     <t xml:space="preserve">How should we determine the position (opposite, setter, etc) of each player?</t>
   </si>
   <si>
+    <t xml:space="preserve">Comment déterminer la position (pointu, passeur, etc.) de chaque joueur?</t>
+  </si>
+  <si>
     <t xml:space="preserve">This information is used for the 'Attack distribution' report, as well as parts of the 'Standard report' (the blocking analyses and some other sections that are position-specific such as the middle attacker table).</t>
   </si>
   <si>
+    <t xml:space="preserve">Ces informations sont utilisées pour le rapport « Distribution des attaques », ainsi que pour certaines parties du « Rapport standard » (les analyses de blocage et certaines autres sections spécifiques à la position, comme le tableau des attaquants intermédiaires).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fixed rotation: assume that the team uses a fixed rotation, and so we can infer player positions relative to the setter. 'S-H-M' means that an outside hitter follows the setter in the rotation (e.g. when the setter is in position 1, the hitter is in 2 and the middle in 3). 'S-M-H' means that a middle hitter follows the setter in the rotation (e.g. when the setter is in position 1, the middle is in 2 and the outside hitter in 3). Opposites are always opposite the setter.</t>
   </si>
   <si>
+    <t xml:space="preserve">Rotation fixe : supposons que l'équipe utilise une rotation fixe, ce qui permet de déduire la position des joueurs par rapport au passeur. « S-H-M » signifie qu'un attaquant extérieur suit le passeur dans la rotation (par exemple, lorsque le passeur est en position 1, l'attaquant est en position 2 et le milieu en position 3). « S-M-H » signifie qu'un attaquant central suit le passeur dans la rotation (par exemple, lorsque le passeur est en position 1, le milieu est en position 2 et l'attaquant extérieur en position 3). Les opposés sont toujours en face du passeur.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Player roles: take the player roles (outside, middle, setter, etc) from the player metadata. This option will cope with a team that changes their rotation structure (or if you don't know what their fixed rotation is), but it relies on the player roles being correctly and consistently entered in all of the match files. It will not work properly when players change roles in a match (e.g. play one set as opposite and another set as outside hitter). Don't use this option with VBStats files, because the player role information may not be reliable.</t>
   </si>
   <si>
+    <t xml:space="preserve">Rôles des joueurs : assigner les rôles des joueurs (ailier, central, passeur, etc.) à partir des métadonnées des joueurs. Cette option est adaptée aux équipes qui modifient leur rotation (ou dont vous ignorez la rotation fixe), mais elle nécessite que les rôles des joueurs soient correctement et systématiquement saisis dans tous les fichiers de match. Elle ne fonctionnera pas correctement si les joueurs changent de rôle au cours d'un match (par exemple, jouer un set au poste de pointu et un autre au poste d'ailier). N'utilisez pas cette option avec les fichiers VBStats, car les informations sur les rôles des joueurs pourraient ne pas être fiables.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Special regulations</t>
   </si>
   <si>
@@ -11305,6 +11359,9 @@
     <t xml:space="preserve">Some leagues are now using special regulations - for example, the Prime Volley league plays 5 sets to 15 points, rather than the standard best-of-5 sets format. These changes affect our report (e.g. our definition of 'crunch time' is adjusted for these non-standard regulations)</t>
   </si>
   <si>
+    <t xml:space="preserve">Certaines ligues appliquent désormais des règles spéciales. Par exemple, la Prime Volley se joue en 5 sets à 15 points, au lieu du format standard au meilleur des 5 sets. Ces changements affectent notre rapport (par exemple, notre définition du « crucial time » est ajustée pour tenir compte de ces règles non standard)</t>
+  </si>
+  <si>
     <t xml:space="preserve">no special regulations</t>
   </si>
   <si>
@@ -11341,18 +11398,30 @@
     <t xml:space="preserve">How should we determine which blocking players participated in the block against a given attack?</t>
   </si>
   <si>
+    <t xml:space="preserve">Comment devrions-nous déterminer quels joueurs ont participé au contre pour une attaque donnée ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scouted number of blockers: use the scouted number of blockers against each attack</t>
   </si>
   <si>
+    <t xml:space="preserve">Nombre de bloqueurs enregistre : utilisez le nombre de bloqueurs enregistrés contre chaque attaque</t>
+  </si>
+  <si>
     <t xml:space="preserve">Probability table: use a predetermined table of probabilities that give the probability of each player participating in a block against a given attack. This option currently only works for the standard, unmodified DataVolley attack codes (X5, V5, etc). For example, on a high attack from position 4 (attack combination code V5) the middle and position-2 blockers would always be expected to block, and the position-4 blocker would be expected to join (to make a triple block) about half the time. On a faster-tempo outside attack (attack combination code X5) only the middle and position-2 blockers would be expected to block</t>
   </si>
   <si>
+    <t xml:space="preserve">Tableau de probabilités : utiliser un tableau de probabilités prédéterminé indiquant la probabilité que chaque joueur participe à un contre pour une attaque donnée. Cette option ne fonctionne actuellement que pour les codes d'attaque DataVolley standard non modifiés (X5, V5, etc.). Par exemple, sur une attaque haute depuis la position 4 (code de combinaison d'attaque V5), les bloqueurs du centre et de la position 2 devraient toujours bloquer, et le bloqueur de la position 4 devrait se joindre à l'attaque (pour réaliser un triple blocage) environ la moitié du temps. Sur une attaque extérieure plus rapide (code de combinaison d'attaque X5), seuls les bloqueurs du milieu et de la position 2 devraient bloquer</t>
+  </si>
+  <si>
     <t xml:space="preserve">@ expected block outcome</t>
   </si>
   <si>
     <t xml:space="preserve">The number of opposition attacks against this blocker, excluding attack errors and excluding attacks that were touched by one of the other blockers. This is the number of attacks used in the 'expBO% ind' calculations</t>
   </si>
   <si>
+    <t xml:space="preserve">Nombre d'attaques adverses contre ce bloqueur, hors erreurs d'attaque et hors attaques touchées par l'un des autres bloqueurs. Ce nombre est pris en compte dans le calcul du « expBO% ind »</t>
+  </si>
+  <si>
     <t xml:space="preserve">expected block outcome</t>
   </si>
   <si>
@@ -11398,45 +11467,84 @@
     <t xml:space="preserve">Experimental: expected block outcome, following a similar idea to 'expected sideout rate' for measuring pass quality. The expected block outcome is based on the blocker's block touches and the dataset-wide point win rates according to touch, including attacks on which no block touch was made. For example, a 'positive touch' by the block might correspond to a dataset-wide point win percentage of 60% (for the blocking team), a 'negative touch' to 30%, and 'no touch' to 20%. If a given blocker made one block kill, one negative touch, and one no-touch, their expected block outcome would be 50%. In order to try and separate an individual's block touch effects from touches made by the other blockers in 2-person or 3-person blocks, 'expBO% ind' excludes attacks that were touched by one of the other blockers (i.e. touches by a blocker other than the individual being reported on)</t>
   </si>
   <si>
+    <t xml:space="preserve">Expérimental: résultat attendu du contre, suivant un principe similaire au « taux de sideout attendu » pour mesurer la qualité des receptions. Le résultat attendu du contre est basé sur les contact au contre du bloqueur et les taux de points gagnés à l'échelle de l'ensemble de données selon le contact, y compris les attaques sans contact de contre. Par exemple, un « contact positif » du bloqueur pourrait correspondre à un pourcentage de points gagnés à l'échelle de l'ensemble de données de 60 % (pour l'équipe bloquante), un «contact négatif » à 30 % et un « pas de contact » à 20 %. Si un bloqueur donné a effectué un contre gagnant, un contact négatif et un pas de contact, son résultat attendu du contre serait de 50 %. Afin de séparer les effets du contact de contre d'un individu des touches effectuées par les autres bloqueurs lors de contre à 2 ou 3 joueurs, « expBO% ind » exclut les attaques touchées par l'un des autres bloqueurs (c'est-à-dire les contacts effectués par un bloqueur autre que celui concerné)</t>
+  </si>
+  <si>
     <t xml:space="preserve">As for ‘expBO% ind’ but regardless of whether the block touch was made by this individual player or the other blocking players</t>
   </si>
   <si>
+    <t xml:space="preserve">Comme pour « expBO% ind », mais indépendamment du fait que le contact de contre ait été effectué par ce joueur individuel ou par les autres joueurs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attack distribution by individual player, with a separate plot for each attack code. For PDF, there will be one page per player role by default (i.e. outside hitters on one page, opposites on another, etc). Change this via the 'Page breaks between sections' checkbox.</t>
   </si>
   <si>
+    <t xml:space="preserve">Répartition des attaques par joueur, avec un graphique distinct pour chaque code d'attaque. Pour le document PDF, il y aura par défaut une page par rôle du joueur (c.-à-d. les attaquants extérieurs sur une page, les pointus sur une autre, etc.). Modifiez ce paramètre en cochant la case « Sauts de page entre les sections ».</t>
+  </si>
+  <si>
     <t xml:space="preserve">Note: options in the ‘Attacking’ section below are also applied</t>
   </si>
   <si>
+    <t xml:space="preserve">Remarque : les options de la section « Attaque » ci-dessous sont également appliquées</t>
+  </si>
+  <si>
     <t xml:space="preserve">Player roles (outside/opposite/middle) are determined according to the 'Infer player positions from' selection, above</t>
   </si>
   <si>
+    <t xml:space="preserve">Les rôles des joueurs (ailier/pointu/central) sont déterminés en fonction de la sélection « Déduire les positions des joueurs à partir de », ci-dessus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Note: options in the skill-specific section below are also applied</t>
   </si>
   <si>
+    <t xml:space="preserve">Remarque : les options de la section spécifique aux compétences ci-dessous sont également appliquées</t>
+  </si>
+  <si>
     <t xml:space="preserve">Page breaks between sections?</t>
   </si>
   <si>
+    <t xml:space="preserve">Sauts de page entre les sections?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Serve distribution by individual player, optionally with a separate plot for each opposition rotation (setter position).</t>
   </si>
   <si>
+    <t xml:space="preserve">Distribution des services par joueur individuel, avec éventuellement un graphique séparé pour chaque rotation de l’equipe adverse (position de passeur).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Serve distribution by player and opposition rotation</t>
   </si>
   <si>
+    <t xml:space="preserve">Distribution des services par joueur et rotation de l'equipe adverse</t>
+  </si>
+  <si>
     <t xml:space="preserve">Note: options in the ‘Serving’ section below are also applied</t>
   </si>
   <si>
     <t xml:space="preserve">Note: options in the 'Serving' section below are also applied</t>
   </si>
   <si>
+    <t xml:space="preserve">Remarque: les options de la section « Service » ci-dessous s'appliquent également</t>
+  </si>
+  <si>
     <t xml:space="preserve">the summary statistics above each plot relate to all serves by that player, which could be more than the ones shown in the plot</t>
   </si>
   <si>
+    <t xml:space="preserve">les statistiques récapitulatives au-dessus de chaque graphique concernent tous les services de ce joueur, qui pourraient être plus nombreux que ceux indiqués dans le graphique</t>
+  </si>
+  <si>
     <t xml:space="preserve">match report</t>
   </si>
   <si>
+    <t xml:space="preserve">rapport de match</t>
+  </si>
+  <si>
     <t xml:space="preserve">a summary report for a single match</t>
   </si>
   <si>
+    <t xml:space="preserve">un rapport récapitulatif pour un seul match</t>
+  </si>
+  <si>
     <t xml:space="preserve">select match file</t>
   </si>
   <si>
@@ -11458,6 +11566,9 @@
     <t xml:space="preserve">Background colour (must be dark):</t>
   </si>
   <si>
+    <t xml:space="preserve">Couleur d'arrière-plan (doit être sombre):</t>
+  </si>
+  <si>
     <t xml:space="preserve">Generate individual attack charts?</t>
   </si>
   <si>
@@ -11479,6 +11590,9 @@
     <t xml:space="preserve">attack distribution overview</t>
   </si>
   <si>
+    <t xml:space="preserve">présentation de la distribution des attaques</t>
+  </si>
+  <si>
     <t xml:space="preserve">outside</t>
   </si>
   <si>
@@ -11506,6 +11620,9 @@
     <t xml:space="preserve">opuestos</t>
   </si>
   <si>
+    <t xml:space="preserve">pointus</t>
+  </si>
+  <si>
     <t xml:space="preserve">opposti</t>
   </si>
   <si>
@@ -11524,27 +11641,51 @@
     <t xml:space="preserve">sets started</t>
   </si>
   <si>
+    <t xml:space="preserve">sets commencées</t>
+  </si>
+  <si>
     <t xml:space="preserve">matches started</t>
   </si>
   <si>
+    <t xml:space="preserve">matchs commencés</t>
+  </si>
+  <si>
     <t xml:space="preserve">starting rotations</t>
   </si>
   <si>
+    <t xml:space="preserve">rotation de depart</t>
+  </si>
+  <si>
     <t xml:space="preserve">Each court diagram always shows the player lineup with the setter in position 1. The associated table gives a breakdown of that player lineup according to setter starting position, opposition setter starting position, and serving/receiving</t>
   </si>
   <si>
+    <t xml:space="preserve">Chaque graphique montre toujours la composition des joueurs avec le passeur en position 1. Le tableau associé donne une répartition de cette composition de joueurs en fonction de la position de départ du passeur, de la position de départ du passeur adverse et du service/réception</t>
+  </si>
+  <si>
     <t xml:space="preserve">most common starting lineup</t>
   </si>
   <si>
+    <t xml:space="preserve">composition de départ la plus courante</t>
+  </si>
+  <si>
     <t xml:space="preserve">second-most common starting lineup</t>
   </si>
   <si>
+    <t xml:space="preserve">deuxième composition de départ la plus courante</t>
+  </si>
+  <si>
     <t xml:space="preserve">third-most common starting lineup</t>
   </si>
   <si>
+    <t xml:space="preserve">troisième composition de départ la plus courante</t>
+  </si>
+  <si>
     <t xml:space="preserve">4th-most common starting lineup</t>
   </si>
   <si>
+    <t xml:space="preserve">4e composition de départ la plus courante</t>
+  </si>
+  <si>
     <t xml:space="preserve">Set</t>
   </si>
   <si>
@@ -11581,7 +11722,7 @@
     <t xml:space="preserve">Adv. coloc. en</t>
   </si>
   <si>
-    <t xml:space="preserve">Adv. passeur en</t>
+    <t xml:space="preserve">Passeur adv. en</t>
   </si>
   <si>
     <t xml:space="preserve">Avv. pall. in</t>
@@ -11590,6 +11731,9 @@
     <t xml:space="preserve">N sets started</t>
   </si>
   <si>
+    <t xml:space="preserve">N set commences</t>
+  </si>
+  <si>
     <t xml:space="preserve">rallies</t>
   </si>
   <si>
@@ -11602,6 +11746,9 @@
     <t xml:space="preserve">Set repetition</t>
   </si>
   <si>
+    <t xml:space="preserve">Redoublement de passe</t>
+  </si>
+  <si>
     <t xml:space="preserve">category</t>
   </si>
   <si>
@@ -11650,39 +11797,75 @@
     <t xml:space="preserve">Repeats</t>
   </si>
   <si>
+    <t xml:space="preserve">Répétitions / Redoublement</t>
+  </si>
+  <si>
     <t xml:space="preserve">Repeat %</t>
   </si>
   <si>
+    <t xml:space="preserve">% de Redoublement</t>
+  </si>
+  <si>
     <t xml:space="preserve">After kill</t>
   </si>
   <si>
+    <t xml:space="preserve">Après une attaque gagnante</t>
+  </si>
+  <si>
     <t xml:space="preserve">How often does the setter go back to the same attacker after they made a kill? (Repeats must be within the same set and match, but not necessarily the same rally)</t>
   </si>
   <si>
+    <t xml:space="preserve">À quelle fréquence le passeur revient-il sur le même attaquant après avoir réussi une attaque gagnante? (Les redoublement doivent se dérouler dans le même set et le même match, mais pas nécessairement dans le même échange)</t>
+  </si>
+  <si>
     <t xml:space="preserve">After error</t>
   </si>
   <si>
+    <t xml:space="preserve">Après une erreur</t>
+  </si>
+  <si>
     <t xml:space="preserve">How often does the setter go back to the same attacker after they made an error? (Repeats must be within the same set and match, but not necessarily the same rally)</t>
   </si>
   <si>
+    <t xml:space="preserve">À quelle fréquence le passeur revient-il sur le même attaquant après une erreur ? (Les redoublement doivent se dérouler dans le même set et le même match, mais pas nécessairement dans le même échange)</t>
+  </si>
+  <si>
     <t xml:space="preserve">After blocked</t>
   </si>
   <si>
+    <t xml:space="preserve">Après avoir été bloqué</t>
+  </si>
+  <si>
     <t xml:space="preserve">How often does the setter go back to the same attacker after they were blocked? (Repeats must be within the same set and match, but not necessarily the same rally)</t>
   </si>
   <si>
+    <t xml:space="preserve">À quelle fréquence le passeur revient-il sur le même attaquant après avoir été bloqué ? (Les redoublement doivent avoir lieu au cours du même set et du même match, mais pas nécessairement au cours du même échange)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Within rally</t>
   </si>
   <si>
+    <t xml:space="preserve">Durant l’echange</t>
+  </si>
+  <si>
     <t xml:space="preserve">How often does the setter go back to the same attacker within the same rally? (Repeats must be within the same rally)</t>
   </si>
   <si>
+    <t xml:space="preserve">À quelle fréquence le passeur revient-il sur le même attaquant au cours d'un même échange ? (Les redoublement doivent avoir lieu au cours du même échange)</t>
+  </si>
+  <si>
     <t xml:space="preserve">First transition in sideout</t>
   </si>
   <si>
+    <t xml:space="preserve">Première transition en sideout</t>
+  </si>
+  <si>
     <t xml:space="preserve">How often does the setter go back to the same attacker on their first transition attack if the first (reception-phase) attack was unsuccessful? (Repeats must be within the same rally)</t>
   </si>
   <si>
+    <t xml:space="preserve">À quelle fréquence le passeur recourt-il au même attaquant lors de sa première attaque de transition si la première attaque (phase de réception) a échoué ? (Les redoublement doivent avoir lieu au cours du même échange)</t>
+  </si>
+  <si>
     <t xml:space="preserve">@ short-ish descriptions of reception quality</t>
   </si>
   <si>
@@ -11734,6 +11917,9 @@
     <t xml:space="preserve">of calls</t>
   </si>
   <si>
+    <t xml:space="preserve">des annonces</t>
+  </si>
+  <si>
     <t xml:space="preserve">@ from ‘called on 80% of perfect/good receptions’</t>
   </si>
   <si>
@@ -11860,75 +12046,144 @@
     <t xml:space="preserve">Setter beyond the 3m line, reception only</t>
   </si>
   <si>
+    <t xml:space="preserve">Passeur au-delà de la ligne des 3 m, réception uniquement</t>
+  </si>
+  <si>
     <t xml:space="preserve">’1T’ are first-tempo (quick) attacks.</t>
   </si>
   <si>
+    <t xml:space="preserve">Les « 1T » sont des attaques rapides au premier tempo.</t>
+  </si>
+  <si>
     <t xml:space="preserve">All first-tempo (quick) attacks are shown in the charts as starting from zone 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Toutes les attaques de premier tempo (rapides) sont présentées dans les graphiques comme commençant à partir de la zone 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">'N' attacks (slide/fast) are counted in 1T (first-tempo)</t>
   </si>
   <si>
+    <t xml:space="preserve">Les attaques « N » (basket/rapide) sont comptées en 1T (premier tempo)</t>
+  </si>
+  <si>
     <t xml:space="preserve">'N' attacks (slide/fast) are counted according to their side (left/middle/right)</t>
   </si>
   <si>
+    <t xml:space="preserve">Les attaques « N » (basket/rapide) sont comptées en fonction de leur côté (gauche/milieu/droite)</t>
+  </si>
+  <si>
     <t xml:space="preserve">'N' attacks (slide/fast) are counted separately</t>
   </si>
   <si>
+    <t xml:space="preserve">Les attaques « N » (basket/rapide) sont comptées séparément</t>
+  </si>
+  <si>
     <t xml:space="preserve">First-tempo (quick) attacks are shown in the charts as starting from their scouted start zone</t>
   </si>
   <si>
+    <t xml:space="preserve">Les attaques rapides (premier tempo) sont présentées dans les graphiques comme commençant à partir de leur zone de départ enregistrée</t>
+  </si>
+  <si>
     <t xml:space="preserve">By setter call</t>
   </si>
   <si>
+    <t xml:space="preserve">Par annonce du passeur</t>
+  </si>
+  <si>
     <t xml:space="preserve">% of calls is the percentage of good/perfect receptions on which that setter call was made.</t>
   </si>
   <si>
+    <t xml:space="preserve">Le % d'annonce est le pourcentage de réceptions bonnes/parfaites sur lesquelles cette annonce du passeur a été effectué.</t>
+  </si>
+  <si>
     <t xml:space="preserve">For each attacker, a breakdown by attack codes \\(X5, V5, etc\\) is given for those attack codes for which the player made at least ([[:digit:]]+) attacks</t>
   </si>
   <si>
     <t xml:space="preserve">For each attacker, a breakdown by attack codes (X5, V5, etc) is given for those attack codes for which the player made at least \\1 attacks</t>
   </si>
   <si>
+    <t xml:space="preserve">Pour chaque attaquant, une répartition par codes d'attaque (X5, V5, etc) est donnée pour les codes d'attaque pour lesquels le joueur a effectué au moins \\1 attaques</t>
+  </si>
+  <si>
     <t xml:space="preserve">Note that each table below is based on all attacks with the given attack code. However, the charts do not necessarily show all attacks</t>
   </si>
   <si>
+    <t xml:space="preserve">Notez que chaque tableau ci-dessous est basé sur toutes les attaques associées au code d'attaque donné. Cependant, les graphiques ne représentent pas nécessairement toutes les attaques</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attacks without position information will not be plotted</t>
   </si>
   <si>
+    <t xml:space="preserve">Les attaques sans informations de position ne seront pas représentées</t>
+  </si>
+  <si>
     <t xml:space="preserve">Points scored by first-ball attack kills (attacks on serve reception) as a percentage of the number of receptions</t>
   </si>
   <si>
+    <t xml:space="preserve">Points marqués par les attaques sur la première balle (attaques sur réception de service) en pourcentage du nombre de réceptions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Positive block touches as a percentage of the number of attacks (excluding attack errors)</t>
   </si>
   <si>
+    <t xml:space="preserve">Contact positifs au contre, en pourcentage du nombre d'attaques (hors erreurs d'attaque)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rally win rate on positive block touches (i.e. of those rallies in which the blocking team made a positive block touch, the percentage of those rallies that they won</t>
   </si>
   <si>
+    <t xml:space="preserve">Taux de victoire des rallyes apres contacts positifs au contre (c'est-à-dire parmi les rallyes dans lesquels l'équipe bloquante a effectué une touche de bloc positive, le pourcentage de ces rallyes qu'elle a gagnés)</t>
+  </si>
+  <si>
     <t xml:space="preserve">PT WIN POS%</t>
   </si>
   <si>
+    <t xml:space="preserve">PT GAG POS%</t>
+  </si>
+  <si>
     <t xml:space="preserve">All blocks</t>
   </si>
   <si>
+    <t xml:space="preserve">Tous les contres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Blocks in transition in breakpoint phase (i.e. by the serving team)</t>
   </si>
   <si>
+    <t xml:space="preserve">Blocs en transition en phase de breakpoint (c'est-à-dire par l'équipe qui a servit)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of breakpoint (serving team) attacks as a percentage of the number of serves on which the receiving team made an attack that was not blocked and not an attack error</t>
   </si>
   <si>
+    <t xml:space="preserve">Nombre d'attaques sur breakpoint ( par l’équipe qui a servit service) en pourcentage du nombre de services sur lesquels l'équipe recevante a effectué une attaque qui n'a pas été bloquée et qui n'était pas une erreur d'attaque</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of breakpoint (serving team) attack kills as a percentage of the number of serves on which the receiving team made an attack that was not blocked and not an attack error</t>
   </si>
   <si>
+    <t xml:space="preserve">Nombre d'attaques gagnantes sur breakpoint (par l’équipe qui a servit) en pourcentage du nombre de services sur lesquels l'équipe receveuse a effectué une attaque qui n'a pas été bloquée et qui n'était pas une erreur d'attaque</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of rallies won in which a freeball was received</t>
   </si>
   <si>
+    <t xml:space="preserve">Nombre de rallyes gagnés au cours desquels une balle non attaquee a été reçue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Percentage of rallies won in which a freeball was received</t>
   </si>
   <si>
+    <t xml:space="preserve">Pourcentage de rallyes gagnés dans lesquels une balle non attaquee a été reçue</t>
+  </si>
+  <si>
     <t xml:space="preserve">Earned BP%</t>
   </si>
   <si>
+    <t xml:space="preserve">BP% gagnes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Points won on serve (as a percentage of the number of serves) by serve aces or block or attack kills</t>
   </si>
   <si>
@@ -11950,6 +12205,9 @@
     <t xml:space="preserve">Earned SO%</t>
   </si>
   <si>
+    <t xml:space="preserve">SO% gagnes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Points won on reception (as a percentage of the number of receptions) by block or attack kills</t>
   </si>
   <si>
@@ -11983,21 +12241,36 @@
     <t xml:space="preserve">Value of XYZ in transition phase (i.e. only including ball touches after the first attack/block on reception)</t>
   </si>
   <si>
+    <t xml:space="preserve">Valeur de XYZ en phase de transition (c'est-à-dire en incluant uniquement les touches de balle après la première attaque/contre en réception)</t>
+  </si>
+  <si>
     <t xml:space="preserve">XYZ BP</t>
   </si>
   <si>
     <t xml:space="preserve">Value of XYZ in breakpoint phase (i.e. rallies in which the team served)</t>
   </si>
   <si>
+    <t xml:space="preserve">Valeur de XYZ en phase de breakpoint (c'est-à-dire les échanges au cours desquels l'équipe a servi)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reception attack kill percentage on receptions that were rated as perfect or positive</t>
   </si>
   <si>
+    <t xml:space="preserve">Pourcentage des attaques gagnantes apres réception, sur les réceptions qui ont été évaluées comme parfaites ou positives</t>
+  </si>
+  <si>
     <t xml:space="preserve">Block kills as a percentage of the number of opponent attacks, excluding attack errors</t>
   </si>
   <si>
+    <t xml:space="preserve">Contres gagnants en pourcentage du nombre d'attaques adverses, hors erreurs d'attaque</t>
+  </si>
+  <si>
     <t xml:space="preserve">Block kills against attacks in reception phase (i.e. against the first attack by receiving team) as a percentage of the number of opponent attacks, excluding attack errors</t>
   </si>
   <si>
+    <t xml:space="preserve">Contres gagnants contre les attaques en phase de réception (c'est-à-dire contre la première attaque de l'équipe qui receptionne) en pourcentage du nombre d'attaques adverses, hors erreurs d'attaque</t>
+  </si>
+  <si>
     <t xml:space="preserve">As for 'B#% ind' but including opposition attack errors</t>
   </si>
   <si>
@@ -12037,19 +12310,28 @@
     <t xml:space="preserve">As for B#% but positive block touches instead of kills</t>
   </si>
   <si>
+    <t xml:space="preserve">Comme pour B#% mais pour des contact positifs au contre au lieu de contre gagnants</t>
+  </si>
+  <si>
     <t xml:space="preserve">As for B#% but negative block touches instead of kills</t>
   </si>
   <si>
+    <t xml:space="preserve">Comme pour B#% mais pour des contact negatifs au contre au lieu de contre gagnants</t>
+  </si>
+  <si>
     <t xml:space="preserve">number of positive block touches</t>
   </si>
   <si>
+    <t xml:space="preserve">nombre de contacts positifs au contre</t>
+  </si>
+  <si>
     <t xml:space="preserve">@@ other apps</t>
   </si>
   <si>
     <t xml:space="preserve">Beach-specific team reports</t>
   </si>
   <si>
-    <t xml:space="preserve">beach-specific team reports</t>
+    <t xml:space="preserve">Rapports d'équipe pour le beach-volley</t>
   </si>
   <si>
     <t xml:space="preserve">video analysis</t>
@@ -12073,40 +12355,43 @@
     <t xml:space="preserve">Setter choice analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">setter choice analysis</t>
+    <t xml:space="preserve">Analyse des choix du passeur</t>
   </si>
   <si>
     <t xml:space="preserve">Athletes Unlimited-style scoring</t>
   </si>
   <si>
+    <t xml:space="preserve">Compatage de points du style Athletes Unlimited</t>
+  </si>
+  <si>
     <t xml:space="preserve">Match simulation</t>
   </si>
   <si>
-    <t xml:space="preserve">match simulation</t>
+    <t xml:space="preserve">Simulation de match</t>
   </si>
   <si>
     <t xml:space="preserve">Team matchups</t>
   </si>
   <si>
-    <t xml:space="preserve">team matchups</t>
+    <t xml:space="preserve">Comparaison des équipes</t>
   </si>
   <si>
     <t xml:space="preserve">Live match predictions</t>
   </si>
   <si>
-    <t xml:space="preserve">live match predictions</t>
+    <t xml:space="preserve">Pronostics de match en direct</t>
   </si>
   <si>
     <t xml:space="preserve">League leaderboards</t>
   </si>
   <si>
-    <t xml:space="preserve">league leaderboards</t>
+    <t xml:space="preserve">Tables de statistics des competitions</t>
   </si>
   <si>
     <t xml:space="preserve">Game plans</t>
   </si>
   <si>
-    <t xml:space="preserve">game plans</t>
+    <t xml:space="preserve">Plans de jeu</t>
   </si>
 </sst>
 </file>
@@ -12200,7 +12485,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12223,6 +12508,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -12350,8 +12639,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ993"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F515" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F538" activeCellId="0" sqref="F538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.36328125" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28891,707 +29180,821 @@
       <c r="B804" s="1" t="s">
         <v>3694</v>
       </c>
+      <c r="F804" s="6" t="s">
+        <v>3695</v>
+      </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="1" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="F806" s="1" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="1" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
       <c r="F807" s="1" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="1" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="F808" s="1" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="1" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="F809" s="1" t="s">
-        <v>3701</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="1" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="F810" s="1" t="s">
-        <v>3703</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="1" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="C811" s="1" t="s">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="F811" s="1" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="1" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="C812" s="1" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="F812" s="1" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="1" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="C813" s="1" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="D813" s="1" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
       <c r="E813" s="1" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="F813" s="1" t="s">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="G813" s="1" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="1" t="s">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="F814" s="1" t="s">
-        <v>3717</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="1" t="s">
-        <v>3718</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="1" t="s">
-        <v>3719</v>
+        <v>3720</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>3719</v>
+        <v>3720</v>
+      </c>
+      <c r="F817" s="1" t="s">
+        <v>3721</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="1" t="s">
-        <v>3720</v>
+        <v>3722</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>3720</v>
+        <v>3722</v>
+      </c>
+      <c r="F818" s="1" t="s">
+        <v>3723</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="1" t="s">
-        <v>3721</v>
+        <v>3724</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>3721</v>
+        <v>3724</v>
+      </c>
+      <c r="F819" s="1" t="s">
+        <v>3725</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="1" t="s">
-        <v>3722</v>
+        <v>3726</v>
       </c>
       <c r="B820" s="1" t="s">
-        <v>3722</v>
+        <v>3726</v>
       </c>
       <c r="F820" s="1" t="s">
-        <v>3723</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="s">
-        <v>3724</v>
+        <v>3728</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>3724</v>
+        <v>3728</v>
       </c>
       <c r="F821" s="1" t="s">
-        <v>3725</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
-        <v>3726</v>
+        <v>3730</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>3726</v>
+        <v>3730</v>
       </c>
       <c r="F822" s="1" t="s">
-        <v>3727</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="s">
-        <v>3728</v>
+        <v>3732</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>3728</v>
+        <v>3732</v>
       </c>
       <c r="C823" s="1" t="s">
-        <v>3729</v>
+        <v>3733</v>
       </c>
       <c r="D823" s="1" t="s">
-        <v>3730</v>
+        <v>3734</v>
       </c>
       <c r="E823" s="1" t="s">
-        <v>3731</v>
+        <v>3735</v>
       </c>
       <c r="F823" s="1" t="s">
-        <v>3732</v>
+        <v>3736</v>
       </c>
       <c r="G823" s="2" t="s">
-        <v>3733</v>
-      </c>
-    </row>
-    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="1" t="s">
-        <v>3734</v>
+        <v>3738</v>
       </c>
       <c r="B824" s="1" t="s">
-        <v>3734</v>
-      </c>
-    </row>
-    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3738</v>
+      </c>
+      <c r="F824" s="6" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="1" t="s">
-        <v>3735</v>
+        <v>3740</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>3735</v>
-      </c>
-    </row>
-    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3740</v>
+      </c>
+      <c r="F825" s="6" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
-        <v>3736</v>
+        <v>3742</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>3736</v>
+        <v>3742</v>
+      </c>
+      <c r="F826" s="6" t="s">
+        <v>3743</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="1" t="s">
-        <v>3737</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="1" t="s">
-        <v>3738</v>
+        <v>3745</v>
       </c>
       <c r="B828" s="1" t="s">
-        <v>3738</v>
+        <v>3745</v>
+      </c>
+      <c r="F828" s="1" t="s">
+        <v>3746</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="1" t="s">
-        <v>3739</v>
+        <v>3747</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>3739</v>
+        <v>3747</v>
+      </c>
+      <c r="F829" s="1" t="s">
+        <v>3748</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="1" t="s">
-        <v>3740</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="1" t="s">
-        <v>3741</v>
+        <v>3750</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>3741</v>
-      </c>
-    </row>
-    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3750</v>
+      </c>
+      <c r="F831" s="1" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="1" t="s">
-        <v>3742</v>
+        <v>3752</v>
       </c>
       <c r="B832" s="1" t="s">
-        <v>3742</v>
+        <v>3752</v>
+      </c>
+      <c r="F832" s="6" t="s">
+        <v>3753</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="1" t="s">
-        <v>3743</v>
+        <v>3754</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>3743</v>
+        <v>3754</v>
+      </c>
+      <c r="F833" s="1" t="s">
+        <v>3755</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="1" t="s">
-        <v>3744</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="1" t="s">
-        <v>3745</v>
+        <v>3757</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>3745</v>
-      </c>
-    </row>
-    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3757</v>
+      </c>
+      <c r="F836" s="1" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="1" t="s">
-        <v>3746</v>
+        <v>3759</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>3746</v>
+        <v>3759</v>
+      </c>
+      <c r="F837" s="6" t="s">
+        <v>3760</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="1" t="s">
-        <v>3747</v>
+        <v>3761</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>3747</v>
+        <v>3761</v>
       </c>
       <c r="C839" s="1" t="s">
-        <v>3748</v>
+        <v>3762</v>
       </c>
       <c r="D839" s="1" t="s">
-        <v>3749</v>
+        <v>3763</v>
       </c>
       <c r="E839" s="1" t="s">
-        <v>3750</v>
+        <v>3764</v>
       </c>
       <c r="F839" s="1" t="s">
-        <v>3751</v>
+        <v>3765</v>
       </c>
       <c r="G839" s="1" t="s">
-        <v>3752</v>
-      </c>
-    </row>
-    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="1" t="s">
-        <v>3753</v>
+        <v>3767</v>
       </c>
       <c r="B840" s="1" t="s">
-        <v>3753</v>
-      </c>
-    </row>
-    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3767</v>
+      </c>
+      <c r="F840" s="6" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="1" t="s">
-        <v>3754</v>
+        <v>3769</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>3754</v>
-      </c>
-    </row>
-    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3769</v>
+      </c>
+      <c r="F841" s="6" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="1" t="s">
-        <v>3755</v>
+        <v>3771</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>3755</v>
-      </c>
-    </row>
-    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3771</v>
+      </c>
+      <c r="F842" s="6" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="122.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="1" t="s">
-        <v>3756</v>
+        <v>3773</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>3756</v>
+        <v>3773</v>
+      </c>
+      <c r="F843" s="6" t="s">
+        <v>3774</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="1" t="s">
-        <v>3757</v>
+        <v>3775</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>3757</v>
+        <v>3775</v>
       </c>
       <c r="F845" s="1" t="s">
-        <v>3758</v>
-      </c>
-    </row>
-    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="1" t="s">
-        <v>3759</v>
+        <v>3777</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>3759</v>
+        <v>3777</v>
+      </c>
+      <c r="F846" s="6" t="s">
+        <v>3778</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="1" t="s">
-        <v>3760</v>
+        <v>3779</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>3760</v>
+        <v>3779</v>
       </c>
       <c r="F847" s="1" t="s">
-        <v>3761</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="1" t="s">
-        <v>3762</v>
+        <v>3781</v>
       </c>
       <c r="B848" s="1" t="s">
-        <v>3762</v>
+        <v>3781</v>
       </c>
       <c r="F848" s="1" t="s">
-        <v>3763</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="1" t="s">
-        <v>3764</v>
+        <v>3783</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>3764</v>
+        <v>3783</v>
       </c>
       <c r="F849" s="1" t="s">
-        <v>3765</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="1" t="s">
-        <v>3766</v>
+        <v>3785</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>3766</v>
+        <v>3785</v>
       </c>
       <c r="C851" s="1" t="s">
-        <v>3767</v>
+        <v>3786</v>
       </c>
       <c r="D851" s="1" t="s">
-        <v>3768</v>
+        <v>3787</v>
       </c>
       <c r="E851" s="1" t="s">
-        <v>3768</v>
+        <v>3787</v>
       </c>
       <c r="F851" s="1" t="s">
-        <v>3769</v>
+        <v>3788</v>
       </c>
       <c r="G851" s="1" t="s">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="1" t="s">
-        <v>3771</v>
+        <v>3790</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>3771</v>
-      </c>
-    </row>
-    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3790</v>
+      </c>
+      <c r="F852" s="6" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="1" t="s">
-        <v>3772</v>
+        <v>3792</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>3772</v>
+        <v>3792</v>
+      </c>
+      <c r="F853" s="6" t="s">
+        <v>3793</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="1" t="s">
-        <v>3773</v>
+        <v>3794</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>3773</v>
+        <v>3794</v>
+      </c>
+      <c r="F854" s="6" t="s">
+        <v>3795</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="1" t="s">
-        <v>3774</v>
-      </c>
-    </row>
-    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="1" t="s">
-        <v>3775</v>
+        <v>3797</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>3775</v>
+        <v>3797</v>
+      </c>
+      <c r="F857" s="6" t="s">
+        <v>3798</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="1" t="s">
-        <v>3776</v>
+        <v>3799</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>3776</v>
+        <v>3799</v>
       </c>
       <c r="D858" s="1" t="s">
-        <v>3777</v>
+        <v>3800</v>
       </c>
       <c r="E858" s="1" t="s">
-        <v>3778</v>
+        <v>3801</v>
       </c>
       <c r="F858" s="1" t="s">
-        <v>3779</v>
+        <v>3802</v>
       </c>
       <c r="G858" s="1" t="s">
-        <v>3780</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="1" t="s">
-        <v>3781</v>
+        <v>3804</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>3781</v>
+        <v>3804</v>
       </c>
       <c r="D859" s="1" t="s">
-        <v>3782</v>
+        <v>3805</v>
       </c>
       <c r="E859" s="1" t="s">
-        <v>3782</v>
+        <v>3805</v>
       </c>
       <c r="F859" s="1" t="s">
-        <v>3783</v>
+        <v>3806</v>
       </c>
       <c r="G859" s="1" t="s">
-        <v>3784</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="1" t="s">
-        <v>3785</v>
+        <v>3808</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>3785</v>
+        <v>3808</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>3786</v>
+        <v>3809</v>
       </c>
       <c r="E860" s="1" t="s">
-        <v>3787</v>
+        <v>3810</v>
       </c>
       <c r="F860" s="1" t="s">
-        <v>3788</v>
+        <v>3811</v>
       </c>
       <c r="G860" s="1" t="s">
-        <v>3789</v>
-      </c>
-    </row>
-    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="1" t="s">
-        <v>3790</v>
+        <v>3813</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>3790</v>
-      </c>
-    </row>
-    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3813</v>
+      </c>
+      <c r="F861" s="6" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="1" t="s">
-        <v>3791</v>
+        <v>3815</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>3791</v>
+        <v>3815</v>
+      </c>
+      <c r="F862" s="6" t="s">
+        <v>3816</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="1" t="s">
-        <v>3792</v>
+        <v>3817</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>3792</v>
+        <v>3817</v>
+      </c>
+      <c r="F864" s="6" t="s">
+        <v>3818</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="1" t="s">
-        <v>3793</v>
+        <v>3819</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>3793</v>
+        <v>3819</v>
+      </c>
+      <c r="F865" s="6" t="s">
+        <v>3820</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="1" t="s">
-        <v>3794</v>
+        <v>3821</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>3794</v>
+        <v>3821</v>
+      </c>
+      <c r="F866" s="6" t="s">
+        <v>3822</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="1" t="s">
-        <v>3795</v>
+        <v>3823</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>3795</v>
+        <v>3823</v>
+      </c>
+      <c r="F867" s="6" t="s">
+        <v>3824</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="1" t="s">
-        <v>3796</v>
+        <v>3825</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>3796</v>
+        <v>3825</v>
+      </c>
+      <c r="F869" s="6" t="s">
+        <v>3826</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A870" s="1" t="s">
-        <v>3797</v>
+        <v>3827</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>3797</v>
+        <v>3827</v>
+      </c>
+      <c r="F870" s="6" t="s">
+        <v>3828</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A871" s="1" t="s">
-        <v>3798</v>
+        <v>3829</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>3798</v>
+        <v>3829</v>
+      </c>
+      <c r="F871" s="6" t="s">
+        <v>3830</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="1" t="s">
-        <v>3799</v>
+        <v>3831</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>3800</v>
+        <v>3832</v>
+      </c>
+      <c r="F872" s="6" t="s">
+        <v>3833</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A873" s="1" t="s">
-        <v>3801</v>
+        <v>3834</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>3801</v>
+        <v>3834</v>
+      </c>
+      <c r="F873" s="6" t="s">
+        <v>3835</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="1" t="s">
-        <v>3802</v>
+        <v>3836</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>3802</v>
+        <v>3836</v>
+      </c>
+      <c r="F875" s="6" t="s">
+        <v>3837</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="1" t="s">
-        <v>3803</v>
+        <v>3838</v>
       </c>
       <c r="B876" s="1" t="s">
-        <v>3803</v>
+        <v>3838</v>
+      </c>
+      <c r="F876" s="6" t="s">
+        <v>3839</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="1" t="s">
-        <v>3804</v>
+        <v>3840</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>3804</v>
+        <v>3840</v>
       </c>
       <c r="C877" s="1" t="s">
-        <v>3805</v>
+        <v>3841</v>
       </c>
       <c r="D877" s="1" t="s">
-        <v>3806</v>
+        <v>3842</v>
       </c>
       <c r="E877" s="1" t="s">
-        <v>3807</v>
+        <v>3843</v>
       </c>
       <c r="F877" s="1" t="s">
-        <v>3808</v>
+        <v>3844</v>
       </c>
       <c r="G877" s="1" t="s">
-        <v>3809</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="1" t="s">
-        <v>3810</v>
+        <v>3846</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>3810</v>
+        <v>3846</v>
+      </c>
+      <c r="F878" s="6" t="s">
+        <v>3847</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="1" t="s">
-        <v>3811</v>
+        <v>3848</v>
       </c>
       <c r="B880" s="1" t="s">
-        <v>3811</v>
+        <v>3848</v>
       </c>
       <c r="C880" s="1" t="s">
-        <v>3812</v>
+        <v>3849</v>
       </c>
       <c r="D880" s="1" t="s">
-        <v>3813</v>
+        <v>3850</v>
       </c>
       <c r="E880" s="1" t="s">
-        <v>3814</v>
+        <v>3851</v>
       </c>
       <c r="F880" s="1" t="s">
-        <v>3815</v>
+        <v>3852</v>
       </c>
       <c r="G880" s="1" t="s">
-        <v>3816</v>
-      </c>
-    </row>
-    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="1" t="s">
-        <v>3817</v>
+        <v>3854</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>3817</v>
+        <v>3854</v>
+      </c>
+      <c r="F881" s="6" t="s">
+        <v>3855</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="1" t="s">
-        <v>3818</v>
+        <v>3856</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>3818</v>
+        <v>3856</v>
       </c>
       <c r="C882" s="1" t="s">
         <v>527</v>
@@ -29611,56 +30014,58 @@
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="1" t="s">
-        <v>3819</v>
+        <v>3857</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>3819</v>
+        <v>3857</v>
       </c>
       <c r="D883" s="2" t="s">
-        <v>3820</v>
+        <v>3858</v>
       </c>
       <c r="E883" s="1" t="s">
-        <v>3821</v>
+        <v>3859</v>
       </c>
       <c r="F883" s="2" t="s">
-        <v>3822</v>
+        <v>3860</v>
       </c>
       <c r="G883" s="2" t="s">
-        <v>3823</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="1" t="s">
-        <v>3824</v>
+        <v>3862</v>
       </c>
       <c r="B884" s="1" t="s">
-        <v>3824</v>
+        <v>3862</v>
       </c>
       <c r="C884" s="2"/>
       <c r="D884" s="1" t="s">
-        <v>3825</v>
+        <v>3863</v>
       </c>
       <c r="E884" s="1" t="s">
-        <v>3826</v>
-      </c>
-      <c r="F884" s="2"/>
+        <v>3864</v>
+      </c>
+      <c r="F884" s="2" t="s">
+        <v>3865</v>
+      </c>
       <c r="G884" s="1" t="s">
-        <v>3827</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="1" t="s">
-        <v>3828</v>
+        <v>3867</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>3828</v>
+        <v>3867</v>
       </c>
       <c r="C885" s="2"/>
       <c r="D885" s="1" t="s">
-        <v>3829</v>
+        <v>3868</v>
       </c>
       <c r="E885" s="1" t="s">
-        <v>3830</v>
+        <v>3869</v>
       </c>
       <c r="F885" s="1" t="s">
         <v>344</v>
@@ -29673,443 +30078,509 @@
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="1" t="s">
-        <v>3831</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="1" t="s">
-        <v>3832</v>
+        <v>3871</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>3832</v>
+        <v>3871</v>
+      </c>
+      <c r="F890" s="6" t="s">
+        <v>3872</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="1" t="s">
-        <v>3833</v>
+        <v>3873</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>3833</v>
+        <v>3873</v>
+      </c>
+      <c r="F891" s="6" t="s">
+        <v>3874</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="1" t="s">
-        <v>3834</v>
+        <v>3875</v>
       </c>
       <c r="B892" s="1" t="s">
-        <v>3834</v>
+        <v>3875</v>
+      </c>
+      <c r="F892" s="1" t="s">
+        <v>3876</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="1" t="s">
-        <v>3835</v>
+        <v>3877</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>3835</v>
+        <v>3877</v>
+      </c>
+      <c r="F893" s="6" t="s">
+        <v>3878</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="1" t="s">
-        <v>3836</v>
+        <v>3879</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>3836</v>
+        <v>3879</v>
+      </c>
+      <c r="F894" s="6" t="s">
+        <v>3880</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="1" t="s">
-        <v>3837</v>
+        <v>3881</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>3837</v>
+        <v>3881</v>
+      </c>
+      <c r="F895" s="6" t="s">
+        <v>3882</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="1" t="s">
-        <v>3838</v>
+        <v>3883</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>3838</v>
+        <v>3883</v>
+      </c>
+      <c r="F896" s="6" t="s">
+        <v>3884</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="1" t="s">
-        <v>3839</v>
+        <v>3885</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>3839</v>
+        <v>3885</v>
+      </c>
+      <c r="F897" s="6" t="s">
+        <v>3886</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="1" t="s">
-        <v>3840</v>
+        <v>3887</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>3840</v>
+        <v>3887</v>
       </c>
       <c r="C899" s="1" t="s">
-        <v>3840</v>
+        <v>3887</v>
       </c>
       <c r="D899" s="1" t="s">
-        <v>3840</v>
+        <v>3887</v>
       </c>
       <c r="E899" s="1" t="s">
-        <v>3840</v>
+        <v>3887</v>
       </c>
       <c r="F899" s="1" t="s">
-        <v>3840</v>
+        <v>3887</v>
       </c>
       <c r="G899" s="1" t="s">
-        <v>3840</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="1" t="s">
-        <v>3841</v>
+        <v>3888</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>3841</v>
+        <v>3888</v>
       </c>
       <c r="D900" s="1" t="s">
-        <v>3841</v>
+        <v>3888</v>
       </c>
       <c r="E900" s="1" t="s">
-        <v>3841</v>
+        <v>3888</v>
       </c>
       <c r="F900" s="1" t="s">
-        <v>3841</v>
+        <v>3888</v>
       </c>
       <c r="G900" s="1" t="s">
-        <v>3841</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="1" t="s">
-        <v>3842</v>
+        <v>3889</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>3842</v>
+        <v>3889</v>
       </c>
       <c r="C901" s="1" t="s">
-        <v>3843</v>
+        <v>3890</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>3844</v>
+        <v>3891</v>
       </c>
       <c r="E901" s="1" t="s">
-        <v>3845</v>
+        <v>3892</v>
       </c>
       <c r="F901" s="1" t="s">
-        <v>3846</v>
+        <v>3893</v>
       </c>
       <c r="G901" s="1" t="s">
-        <v>3847</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="1" t="s">
-        <v>3848</v>
+        <v>3895</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>3848</v>
+        <v>3895</v>
       </c>
       <c r="C902" s="1" t="s">
-        <v>3849</v>
+        <v>3896</v>
       </c>
       <c r="D902" s="1" t="s">
-        <v>3850</v>
+        <v>3897</v>
       </c>
       <c r="E902" s="1" t="s">
-        <v>3851</v>
+        <v>3898</v>
       </c>
       <c r="F902" s="1" t="s">
-        <v>3852</v>
+        <v>3899</v>
       </c>
       <c r="G902" s="1" t="s">
-        <v>3853</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A903" s="1" t="s">
-        <v>3854</v>
+        <v>3901</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>3854</v>
+        <v>3901</v>
+      </c>
+      <c r="F903" s="1" t="s">
+        <v>3902</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A904" s="1" t="s">
-        <v>3855</v>
+        <v>3903</v>
       </c>
       <c r="B904" s="1" t="s">
-        <v>3855</v>
+        <v>3903</v>
       </c>
       <c r="C904" s="1" t="s">
         <v>1278</v>
       </c>
       <c r="D904" s="1" t="s">
-        <v>3855</v>
+        <v>3903</v>
       </c>
       <c r="E904" s="1" t="s">
-        <v>3855</v>
+        <v>3903</v>
       </c>
       <c r="F904" s="1" t="s">
-        <v>3856</v>
+        <v>3904</v>
       </c>
       <c r="G904" s="1" t="s">
-        <v>3855</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="1" t="s">
-        <v>3857</v>
+        <v>3905</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="1" t="s">
-        <v>3858</v>
+        <v>3906</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>3858</v>
+        <v>3906</v>
+      </c>
+      <c r="F907" s="1" t="s">
+        <v>3907</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="1" t="s">
-        <v>3859</v>
+        <v>3908</v>
       </c>
       <c r="B908" s="1" t="s">
-        <v>3859</v>
+        <v>3908</v>
       </c>
       <c r="C908" s="1" t="s">
-        <v>3860</v>
+        <v>3909</v>
       </c>
       <c r="D908" s="1" t="s">
-        <v>3861</v>
+        <v>3910</v>
       </c>
       <c r="E908" s="1" t="s">
-        <v>3862</v>
+        <v>3911</v>
       </c>
       <c r="F908" s="1" t="s">
-        <v>3863</v>
+        <v>3912</v>
       </c>
       <c r="G908" s="1" t="s">
-        <v>3861</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="1" t="s">
-        <v>3864</v>
+        <v>3913</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>3864</v>
+        <v>3913</v>
       </c>
       <c r="C909" s="1" t="s">
-        <v>3865</v>
+        <v>3914</v>
       </c>
       <c r="D909" s="1" t="s">
-        <v>3866</v>
+        <v>3915</v>
       </c>
       <c r="E909" s="1" t="s">
-        <v>3866</v>
+        <v>3915</v>
       </c>
       <c r="F909" s="1" t="s">
-        <v>3867</v>
+        <v>3916</v>
       </c>
       <c r="G909" s="1" t="s">
-        <v>3868</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="1" t="s">
-        <v>3869</v>
+        <v>3918</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>3869</v>
+        <v>3918</v>
       </c>
       <c r="C910" s="1" t="s">
-        <v>3870</v>
+        <v>3919</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>3871</v>
+        <v>3920</v>
       </c>
       <c r="E910" s="1" t="s">
-        <v>3871</v>
+        <v>3920</v>
       </c>
       <c r="F910" s="1" t="s">
-        <v>3872</v>
+        <v>3921</v>
       </c>
       <c r="G910" s="1" t="s">
-        <v>3873</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="1" t="s">
-        <v>3874</v>
+        <v>3923</v>
       </c>
       <c r="B912" s="1" t="s">
-        <v>3874</v>
+        <v>3923</v>
+      </c>
+      <c r="F912" s="6" t="s">
+        <v>3924</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="1" t="s">
-        <v>3875</v>
+        <v>3925</v>
       </c>
       <c r="B913" s="1" t="s">
-        <v>3875</v>
+        <v>3925</v>
+      </c>
+      <c r="F913" s="1" t="s">
+        <v>3926</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="1" t="s">
-        <v>3876</v>
+        <v>3927</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>3876</v>
+        <v>3927</v>
+      </c>
+      <c r="F914" s="6" t="s">
+        <v>3928</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A915" s="1" t="s">
-        <v>3877</v>
+        <v>3929</v>
       </c>
       <c r="B915" s="1" t="s">
-        <v>3877</v>
+        <v>3929</v>
+      </c>
+      <c r="F915" s="6" t="s">
+        <v>3930</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A916" s="1" t="s">
-        <v>3878</v>
+        <v>3931</v>
       </c>
       <c r="B916" s="1" t="s">
-        <v>3878</v>
+        <v>3931</v>
+      </c>
+      <c r="F916" s="6" t="s">
+        <v>3932</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A917" s="1" t="s">
-        <v>3879</v>
+        <v>3933</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>3879</v>
+        <v>3933</v>
+      </c>
+      <c r="F917" s="6" t="s">
+        <v>3934</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A918" s="1" t="s">
-        <v>3880</v>
+        <v>3935</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>3880</v>
+        <v>3935</v>
+      </c>
+      <c r="F918" s="6" t="s">
+        <v>3936</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A919" s="1" t="s">
-        <v>3881</v>
+        <v>3937</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>3881</v>
+        <v>3937</v>
+      </c>
+      <c r="F919" s="6" t="s">
+        <v>3938</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="1" t="s">
-        <v>3882</v>
+        <v>3939</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>3882</v>
+        <v>3939</v>
+      </c>
+      <c r="F920" s="1" t="s">
+        <v>3940</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="1" t="s">
-        <v>3883</v>
+        <v>3941</v>
       </c>
       <c r="B921" s="1" t="s">
-        <v>3883</v>
+        <v>3941</v>
+      </c>
+      <c r="F921" s="6" t="s">
+        <v>3942</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="1" t="s">
-        <v>3884</v>
+        <v>3943</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>3884</v>
+        <v>3943</v>
+      </c>
+      <c r="F922" s="6" t="s">
+        <v>3944</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="1" t="s">
-        <v>3885</v>
+        <v>3945</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>3885</v>
+        <v>3945</v>
+      </c>
+      <c r="F923" s="6" t="s">
+        <v>3946</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="1" t="s">
-        <v>3886</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="1" t="s">
-        <v>3887</v>
+        <v>3948</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>3887</v>
+        <v>3948</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>3888</v>
+        <v>3949</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>3887</v>
+        <v>3948</v>
       </c>
       <c r="E926" s="1" t="s">
-        <v>3887</v>
+        <v>3948</v>
       </c>
       <c r="F926" s="1" t="s">
-        <v>3889</v>
+        <v>3950</v>
       </c>
       <c r="G926" s="1" t="s">
-        <v>3890</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="1" t="s">
-        <v>3891</v>
+        <v>3952</v>
       </c>
       <c r="B927" s="1" t="s">
-        <v>3891</v>
+        <v>3952</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>3892</v>
+        <v>3953</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>3893</v>
+        <v>3954</v>
       </c>
       <c r="E927" s="1" t="s">
-        <v>3893</v>
+        <v>3954</v>
       </c>
       <c r="F927" s="1" t="s">
-        <v>3894</v>
+        <v>3955</v>
       </c>
       <c r="G927" s="1" t="s">
-        <v>3895</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="1" t="s">
-        <v>3896</v>
+        <v>3957</v>
       </c>
       <c r="B928" s="1" t="s">
-        <v>3896</v>
+        <v>3957</v>
       </c>
       <c r="C928" s="2" t="s">
-        <v>3897</v>
+        <v>3958</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>3898</v>
+        <v>3959</v>
       </c>
       <c r="E928" s="1" t="s">
-        <v>3898</v>
+        <v>3959</v>
       </c>
       <c r="F928" s="1" t="s">
-        <v>3899</v>
+        <v>3960</v>
       </c>
       <c r="G928" s="1" t="s">
-        <v>3900</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30117,575 +30588,664 @@
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="1" t="s">
-        <v>3901</v>
+        <v>3962</v>
       </c>
       <c r="C930" s="2"/>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="1" t="s">
-        <v>3902</v>
+        <v>3963</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>3902</v>
+        <v>3963</v>
       </c>
       <c r="C931" s="2"/>
+      <c r="F931" s="1" t="s">
+        <v>3964</v>
+      </c>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="1" t="s">
-        <v>3903</v>
+        <v>3965</v>
       </c>
       <c r="C932" s="2"/>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="1" t="s">
-        <v>3904</v>
+        <v>3966</v>
       </c>
       <c r="B933" s="1" t="s">
-        <v>3904</v>
+        <v>3966</v>
       </c>
       <c r="C933" s="2"/>
       <c r="D933" s="1" t="s">
-        <v>3905</v>
+        <v>3967</v>
       </c>
       <c r="E933" s="1" t="s">
-        <v>3906</v>
+        <v>3968</v>
       </c>
       <c r="F933" s="1" t="s">
-        <v>3907</v>
+        <v>3969</v>
       </c>
       <c r="G933" s="1" t="s">
-        <v>3908</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1" t="s">
-        <v>3909</v>
+        <v>3971</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>3909</v>
+        <v>3971</v>
       </c>
       <c r="C934" s="2"/>
       <c r="D934" s="1" t="s">
-        <v>3910</v>
+        <v>3972</v>
       </c>
       <c r="E934" s="1" t="s">
-        <v>3911</v>
+        <v>3973</v>
       </c>
       <c r="F934" s="1" t="s">
-        <v>3912</v>
+        <v>3974</v>
       </c>
       <c r="G934" s="1" t="s">
-        <v>3913</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1" t="s">
-        <v>3914</v>
+        <v>3976</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>3914</v>
+        <v>3976</v>
       </c>
       <c r="C935" s="2" t="s">
-        <v>3915</v>
+        <v>3977</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>3916</v>
+        <v>3978</v>
       </c>
       <c r="E935" s="1" t="s">
-        <v>3917</v>
+        <v>3979</v>
       </c>
       <c r="F935" s="1" t="s">
-        <v>3918</v>
+        <v>3980</v>
       </c>
       <c r="G935" s="1" t="s">
-        <v>3919</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="1" t="s">
-        <v>3920</v>
+        <v>3982</v>
       </c>
       <c r="B936" s="1" t="s">
-        <v>3920</v>
+        <v>3982</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>3921</v>
+        <v>3983</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>3922</v>
+        <v>3984</v>
       </c>
       <c r="E936" s="1" t="s">
-        <v>3923</v>
+        <v>3985</v>
       </c>
       <c r="F936" s="1" t="s">
-        <v>3924</v>
+        <v>3986</v>
       </c>
       <c r="G936" s="1" t="s">
-        <v>3925</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="1" t="s">
-        <v>3926</v>
+        <v>3988</v>
       </c>
       <c r="B937" s="1" t="s">
-        <v>3926</v>
+        <v>3988</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>3927</v>
+        <v>3989</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>3928</v>
+        <v>3990</v>
       </c>
       <c r="E937" s="1" t="s">
-        <v>3929</v>
+        <v>3991</v>
       </c>
       <c r="F937" s="1" t="s">
-        <v>3930</v>
+        <v>3992</v>
       </c>
       <c r="G937" s="1" t="s">
-        <v>3931</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="1" t="s">
-        <v>3932</v>
+        <v>3994</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>3932</v>
+        <v>3994</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>3933</v>
+        <v>3995</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>3934</v>
+        <v>3996</v>
       </c>
       <c r="E938" s="1" t="s">
-        <v>3935</v>
+        <v>3997</v>
       </c>
       <c r="F938" s="1" t="s">
-        <v>3936</v>
+        <v>3998</v>
       </c>
       <c r="G938" s="1" t="s">
-        <v>3937</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="1" t="s">
-        <v>3938</v>
+        <v>4000</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>3938</v>
+        <v>4000</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>3939</v>
+        <v>4001</v>
       </c>
       <c r="D939" s="1" t="s">
-        <v>3940</v>
+        <v>4002</v>
       </c>
       <c r="E939" s="1" t="s">
-        <v>3941</v>
+        <v>4003</v>
       </c>
       <c r="F939" s="1" t="s">
-        <v>3942</v>
+        <v>4004</v>
       </c>
       <c r="G939" s="1" t="s">
-        <v>3943</v>
-      </c>
-    </row>
-    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="1" t="s">
-        <v>3944</v>
+        <v>4006</v>
       </c>
       <c r="B940" s="1" t="s">
-        <v>3944</v>
+        <v>4006</v>
       </c>
       <c r="C940" s="2"/>
+      <c r="F940" s="6" t="s">
+        <v>4007</v>
+      </c>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C941" s="2"/>
     </row>
-    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="942" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1" t="s">
-        <v>3945</v>
+        <v>4008</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>3945</v>
+        <v>4008</v>
       </c>
       <c r="C942" s="2"/>
-    </row>
-    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F942" s="6" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="2" t="s">
-        <v>3946</v>
+        <v>4010</v>
       </c>
       <c r="B943" s="2" t="s">
-        <v>3946</v>
+        <v>4010</v>
       </c>
       <c r="C943" s="2"/>
-    </row>
-    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F943" s="6" t="s">
+        <v>4011</v>
+      </c>
+      <c r="I943" s="2"/>
+    </row>
+    <row r="944" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1" t="s">
-        <v>3947</v>
+        <v>4012</v>
       </c>
       <c r="B944" s="1" t="s">
-        <v>3947</v>
+        <v>4012</v>
       </c>
       <c r="C944" s="2"/>
-    </row>
-    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F944" s="6" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1" t="s">
-        <v>3948</v>
+        <v>4014</v>
       </c>
       <c r="B945" s="1" t="s">
-        <v>3948</v>
+        <v>4014</v>
       </c>
       <c r="C945" s="2"/>
-    </row>
-    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F945" s="6" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="1" t="s">
-        <v>3949</v>
+        <v>4016</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>3949</v>
+        <v>4016</v>
       </c>
       <c r="C946" s="2"/>
+      <c r="F946" s="6" t="s">
+        <v>4017</v>
+      </c>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C947" s="2"/>
     </row>
-    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="948" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="1" t="s">
-        <v>3950</v>
+        <v>4018</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>3950</v>
+        <v>4018</v>
       </c>
       <c r="C948" s="2"/>
+      <c r="F948" s="6" t="s">
+        <v>4019</v>
+      </c>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="1" t="s">
-        <v>3951</v>
+        <v>4020</v>
       </c>
       <c r="B949" s="1" t="s">
-        <v>3951</v>
+        <v>4020</v>
       </c>
       <c r="C949" s="2"/>
-    </row>
-    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F949" s="1" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="950" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="1" t="s">
-        <v>3952</v>
+        <v>4022</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>3952</v>
+        <v>4022</v>
       </c>
       <c r="C950" s="2"/>
+      <c r="F950" s="6" t="s">
+        <v>4023</v>
+      </c>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C951" s="2"/>
     </row>
-    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="952" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="1" t="s">
-        <v>3953</v>
+        <v>4024</v>
       </c>
       <c r="B952" s="1" t="s">
-        <v>3954</v>
+        <v>4025</v>
       </c>
       <c r="C952" s="2"/>
-    </row>
-    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F952" s="6" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="1" t="s">
-        <v>3955</v>
+        <v>4027</v>
       </c>
       <c r="B953" s="1" t="s">
-        <v>3955</v>
+        <v>4027</v>
       </c>
       <c r="C953" s="2"/>
-    </row>
-    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F953" s="6" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="1" t="s">
-        <v>3956</v>
+        <v>4029</v>
       </c>
       <c r="B954" s="1" t="s">
-        <v>3956</v>
+        <v>4029</v>
       </c>
       <c r="C954" s="2"/>
-    </row>
-    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F954" s="6" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="1" t="s">
-        <v>3957</v>
+        <v>4031</v>
       </c>
       <c r="B955" s="1" t="s">
-        <v>3957</v>
+        <v>4031</v>
       </c>
       <c r="C955" s="2"/>
-    </row>
-    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F955" s="6" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="956" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="1" t="s">
-        <v>3958</v>
+        <v>4033</v>
       </c>
       <c r="B956" s="1" t="s">
-        <v>3958</v>
+        <v>4033</v>
       </c>
       <c r="C956" s="2"/>
-    </row>
-    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F956" s="6" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="957" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="1" t="s">
-        <v>3959</v>
+        <v>4035</v>
       </c>
       <c r="B957" s="1" t="s">
-        <v>3959</v>
+        <v>4035</v>
       </c>
       <c r="C957" s="2"/>
-    </row>
-    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F957" s="6" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="958" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="1" t="s">
-        <v>3960</v>
+        <v>4037</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>3960</v>
+        <v>4037</v>
       </c>
       <c r="C958" s="2"/>
-    </row>
-    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F958" s="6" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="959" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="1" t="s">
-        <v>3961</v>
+        <v>4039</v>
       </c>
       <c r="B959" s="1" t="s">
-        <v>3961</v>
+        <v>4039</v>
       </c>
       <c r="C959" s="2"/>
-    </row>
-    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F959" s="6" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="960" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="1" t="s">
-        <v>3962</v>
+        <v>4041</v>
       </c>
       <c r="B960" s="1" t="s">
-        <v>3962</v>
+        <v>4041</v>
       </c>
       <c r="C960" s="2"/>
-    </row>
-    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F960" s="6" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="961" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="1" t="s">
-        <v>3963</v>
+        <v>4043</v>
       </c>
       <c r="B961" s="1" t="s">
-        <v>3963</v>
+        <v>4043</v>
       </c>
       <c r="C961" s="2"/>
-    </row>
-    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F961" s="6" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="962" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="1" t="s">
-        <v>3964</v>
+        <v>4045</v>
       </c>
       <c r="B962" s="1" t="s">
-        <v>3964</v>
+        <v>4045</v>
       </c>
       <c r="C962" s="2"/>
-    </row>
-    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F962" s="6" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="963" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="1" t="s">
-        <v>3965</v>
+        <v>4047</v>
       </c>
       <c r="B963" s="1" t="s">
-        <v>3965</v>
+        <v>4047</v>
       </c>
       <c r="C963" s="2"/>
-    </row>
-    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F963" s="6" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="964" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="1" t="s">
-        <v>3966</v>
+        <v>4049</v>
       </c>
       <c r="B964" s="1" t="s">
-        <v>3966</v>
+        <v>4049</v>
       </c>
       <c r="C964" s="2"/>
+      <c r="F964" s="6" t="s">
+        <v>4050</v>
+      </c>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="1" t="s">
-        <v>3967</v>
+        <v>4051</v>
       </c>
       <c r="B965" s="1" t="s">
-        <v>3967</v>
+        <v>4051</v>
       </c>
       <c r="C965" s="2"/>
+      <c r="F965" s="1" t="s">
+        <v>4052</v>
+      </c>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="1" t="s">
-        <v>3968</v>
+        <v>4053</v>
       </c>
       <c r="B966" s="1" t="s">
-        <v>3968</v>
+        <v>4053</v>
       </c>
       <c r="C966" s="2" t="s">
-        <v>3969</v>
+        <v>4054</v>
       </c>
       <c r="D966" s="1" t="s">
-        <v>3970</v>
+        <v>4055</v>
       </c>
       <c r="E966" s="1" t="s">
-        <v>3971</v>
+        <v>4056</v>
       </c>
       <c r="F966" s="1" t="s">
-        <v>3972</v>
+        <v>4057</v>
       </c>
       <c r="G966" s="1" t="s">
-        <v>3973</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="1" t="s">
-        <v>3974</v>
+        <v>4059</v>
       </c>
       <c r="B967" s="1" t="s">
-        <v>3974</v>
+        <v>4059</v>
       </c>
       <c r="C967" s="2"/>
+      <c r="F967" s="1" t="s">
+        <v>4060</v>
+      </c>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="1" t="s">
-        <v>3975</v>
+        <v>4061</v>
       </c>
       <c r="B968" s="1" t="s">
-        <v>3975</v>
+        <v>4061</v>
       </c>
       <c r="C968" s="2" t="s">
-        <v>3976</v>
+        <v>4062</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>3977</v>
+        <v>4063</v>
       </c>
       <c r="E968" s="1" t="s">
-        <v>3978</v>
+        <v>4064</v>
       </c>
       <c r="F968" s="1" t="s">
-        <v>3979</v>
+        <v>4065</v>
       </c>
       <c r="G968" s="1" t="s">
-        <v>3980</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="1" t="s">
-        <v>3981</v>
+        <v>4067</v>
       </c>
       <c r="B969" s="1" t="s">
-        <v>3981</v>
+        <v>4067</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>3981</v>
+        <v>4067</v>
       </c>
       <c r="D969" s="1" t="s">
-        <v>3982</v>
+        <v>4068</v>
       </c>
       <c r="E969" s="1" t="s">
-        <v>3983</v>
+        <v>4069</v>
       </c>
       <c r="F969" s="1" t="s">
-        <v>3981</v>
+        <v>4067</v>
       </c>
       <c r="G969" s="1" t="s">
-        <v>3984</v>
-      </c>
-    </row>
-    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="970" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="1" t="s">
-        <v>3985</v>
+        <v>4071</v>
       </c>
       <c r="B970" s="1" t="s">
-        <v>3985</v>
+        <v>4071</v>
       </c>
       <c r="C970" s="2"/>
+      <c r="F970" s="6" t="s">
+        <v>4072</v>
+      </c>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="1" t="s">
-        <v>3986</v>
+        <v>4073</v>
       </c>
       <c r="B971" s="1" t="s">
-        <v>3986</v>
+        <v>4073</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>3986</v>
+        <v>4073</v>
       </c>
       <c r="D971" s="1" t="s">
-        <v>3986</v>
+        <v>4073</v>
       </c>
       <c r="E971" s="1" t="s">
-        <v>3986</v>
+        <v>4073</v>
       </c>
       <c r="F971" s="1" t="s">
-        <v>3986</v>
+        <v>4073</v>
       </c>
       <c r="G971" s="1" t="s">
-        <v>3986</v>
-      </c>
-    </row>
-    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="972" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="1" t="s">
-        <v>3987</v>
+        <v>4074</v>
       </c>
       <c r="B972" s="1" t="s">
-        <v>3987</v>
+        <v>4074</v>
       </c>
       <c r="C972" s="2"/>
+      <c r="F972" s="6" t="s">
+        <v>4075</v>
+      </c>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C973" s="2"/>
     </row>
-    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="974" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="1" t="s">
-        <v>3988</v>
+        <v>4076</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>3988</v>
+        <v>4076</v>
       </c>
       <c r="C974" s="2"/>
-    </row>
-    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F974" s="6" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="975" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="1" t="s">
-        <v>3989</v>
+        <v>4078</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>3989</v>
+        <v>4078</v>
       </c>
       <c r="C975" s="2"/>
-    </row>
-    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F975" s="6" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="976" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="1" t="s">
-        <v>3990</v>
+        <v>4080</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>3990</v>
+        <v>4080</v>
       </c>
       <c r="C976" s="2"/>
+      <c r="F976" s="6" t="s">
+        <v>4081</v>
+      </c>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C977" s="2"/>
     </row>
     <row r="978" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="2" t="s">
-        <v>3991</v>
+        <v>4082</v>
       </c>
       <c r="B978" s="2" t="s">
-        <v>3991</v>
+        <v>4082</v>
       </c>
       <c r="C978" s="2" t="s">
-        <v>3992</v>
+        <v>4083</v>
       </c>
       <c r="D978" s="2" t="s">
-        <v>3993</v>
+        <v>4084</v>
       </c>
       <c r="E978" s="2" t="s">
-        <v>3994</v>
+        <v>4085</v>
       </c>
       <c r="F978" s="2" t="s">
-        <v>3995</v>
+        <v>4086</v>
       </c>
       <c r="G978" s="2" t="s">
-        <v>3996</v>
-      </c>
-      <c r="H978" s="2"/>
+        <v>4087</v>
+      </c>
       <c r="I978" s="2"/>
-      <c r="J978" s="2"/>
       <c r="K978" s="2"/>
       <c r="L978" s="2"/>
       <c r="M978" s="2"/>
@@ -31703,29 +32263,27 @@
     </row>
     <row r="979" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="2" t="s">
-        <v>3997</v>
+        <v>4088</v>
       </c>
       <c r="B979" s="2" t="s">
-        <v>3997</v>
+        <v>4088</v>
       </c>
       <c r="C979" s="2" t="s">
-        <v>3998</v>
+        <v>4089</v>
       </c>
       <c r="D979" s="2" t="s">
-        <v>3999</v>
+        <v>4090</v>
       </c>
       <c r="E979" s="2" t="s">
-        <v>4000</v>
+        <v>4091</v>
       </c>
       <c r="F979" s="2" t="s">
-        <v>4001</v>
+        <v>4092</v>
       </c>
       <c r="G979" s="2" t="s">
-        <v>4002</v>
-      </c>
-      <c r="H979" s="2"/>
+        <v>4093</v>
+      </c>
       <c r="I979" s="2"/>
-      <c r="J979" s="2"/>
       <c r="K979" s="2"/>
       <c r="L979" s="2"/>
       <c r="M979" s="2"/>
@@ -32741,126 +33299,159 @@
       <c r="AMI979" s="2"/>
       <c r="AMJ979" s="2"/>
     </row>
-    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="980" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1" t="s">
-        <v>4003</v>
+        <v>4094</v>
       </c>
       <c r="B980" s="1" t="s">
-        <v>4003</v>
+        <v>4094</v>
       </c>
       <c r="C980" s="2"/>
-    </row>
-    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F980" s="6" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="981" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1" t="s">
-        <v>4004</v>
+        <v>4096</v>
       </c>
       <c r="B981" s="1" t="s">
-        <v>4004</v>
+        <v>4096</v>
       </c>
       <c r="C981" s="2"/>
-    </row>
-    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F981" s="6" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="982" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="1" t="s">
-        <v>4005</v>
+        <v>4098</v>
       </c>
       <c r="B982" s="1" t="s">
-        <v>4005</v>
+        <v>4098</v>
       </c>
       <c r="C982" s="2"/>
+      <c r="F982" s="6" t="s">
+        <v>4099</v>
+      </c>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C983" s="2"/>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A984" s="1" t="s">
-        <v>4006</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A985" s="1" t="s">
-        <v>4007</v>
+        <v>4101</v>
       </c>
       <c r="B985" s="1" t="s">
-        <v>4008</v>
+        <v>4101</v>
+      </c>
+      <c r="F985" s="6" t="s">
+        <v>4102</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A986" s="1" t="s">
-        <v>4009</v>
+        <v>4103</v>
       </c>
       <c r="B986" s="1" t="s">
-        <v>4009</v>
+        <v>4103</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>4010</v>
+        <v>4104</v>
       </c>
       <c r="D986" s="1" t="s">
-        <v>4011</v>
+        <v>4105</v>
       </c>
       <c r="E986" s="1" t="s">
-        <v>4012</v>
+        <v>4106</v>
       </c>
       <c r="F986" s="1" t="s">
-        <v>4013</v>
+        <v>4107</v>
       </c>
       <c r="G986" s="1" t="s">
-        <v>4014</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A987" s="1" t="s">
-        <v>4015</v>
+        <v>4109</v>
       </c>
       <c r="B987" s="1" t="s">
-        <v>4016</v>
+        <v>4109</v>
+      </c>
+      <c r="F987" s="1" t="s">
+        <v>4110</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A988" s="1" t="s">
-        <v>4017</v>
+        <v>4111</v>
       </c>
       <c r="B988" s="1" t="s">
-        <v>4017</v>
+        <v>4111</v>
+      </c>
+      <c r="F988" s="6" t="s">
+        <v>4112</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A989" s="1" t="s">
-        <v>4018</v>
+        <v>4113</v>
       </c>
       <c r="B989" s="1" t="s">
-        <v>4019</v>
+        <v>4113</v>
+      </c>
+      <c r="F989" s="1" t="s">
+        <v>4114</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A990" s="1" t="s">
-        <v>4020</v>
+        <v>4115</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>4021</v>
+        <v>4115</v>
+      </c>
+      <c r="F990" s="2" t="s">
+        <v>4116</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A991" s="1" t="s">
-        <v>4022</v>
+        <v>4117</v>
       </c>
       <c r="B991" s="1" t="s">
-        <v>4023</v>
+        <v>4117</v>
+      </c>
+      <c r="F991" s="6" t="s">
+        <v>4118</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A992" s="1" t="s">
-        <v>4024</v>
+        <v>4119</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>4025</v>
+        <v>4119</v>
+      </c>
+      <c r="F992" s="1" t="s">
+        <v>4120</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A993" s="1" t="s">
-        <v>4026</v>
+        <v>4121</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>4027</v>
+        <v>4121</v>
+      </c>
+      <c r="F993" s="6" t="s">
+        <v>4122</v>
       </c>
     </row>
   </sheetData>
